--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -21,6 +21,8 @@
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="__TC1">[1]FOR!$B$9</definedName>
@@ -45,10 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="146">
-  <si>
-    <t>SUBTOTAL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="125">
   <si>
     <t>TOTAL</t>
   </si>
@@ -122,90 +121,15 @@
     <t>PRESTAMO</t>
   </si>
   <si>
-    <t xml:space="preserve">FACTURACIÓN </t>
-  </si>
-  <si>
     <t>CONCEPTOS</t>
   </si>
   <si>
-    <t>TMM DIVISION</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TMM SA</t>
-  </si>
-  <si>
-    <t>ISLA MONSERRAT</t>
-  </si>
-  <si>
     <t>IVA</t>
   </si>
   <si>
-    <t>ISLA ARBOLEDA</t>
-  </si>
-  <si>
-    <t>ISLA AZTECA</t>
-  </si>
-  <si>
-    <t>ISLA CEDROS</t>
-  </si>
-  <si>
-    <t>ISLA MIRAMAR</t>
-  </si>
-  <si>
-    <t>ISLA VERDE</t>
-  </si>
-  <si>
-    <t>ISLA SANTA CRUZ</t>
-  </si>
-  <si>
-    <t>ISLA BLANCA</t>
-  </si>
-  <si>
-    <t>ISLA CIARI</t>
-  </si>
-  <si>
-    <t>ISLA JANITZIO</t>
-  </si>
-  <si>
-    <t>ISLA SAN IGNACIO</t>
-  </si>
-  <si>
-    <t>ISLA SAN GABRIEL</t>
-  </si>
-  <si>
-    <t>ISLA SAN DIEGO</t>
-  </si>
-  <si>
     <t>AJUSTE INFONAVIT</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>ISLA CRECIENTE</t>
-  </si>
-  <si>
-    <t>ISLA GRANDE</t>
-  </si>
-  <si>
-    <t>ISLA SAN JOSE</t>
-  </si>
-  <si>
-    <t>ISLA LEON</t>
-  </si>
-  <si>
-    <t>ISLA SAN LUIS</t>
-  </si>
-  <si>
-    <t>ISLA COLORADA</t>
-  </si>
-  <si>
-    <t>ISLA PASSAVERA</t>
-  </si>
-  <si>
-    <t>ISLA MARGOT MARIANNE</t>
-  </si>
-  <si>
     <t>FONACOT</t>
   </si>
   <si>
@@ -224,36 +148,6 @@
     <t>MONTO DESCANSO</t>
   </si>
   <si>
-    <t>SUBSEA88</t>
-  </si>
-  <si>
-    <t>RETENCION 6%</t>
-  </si>
-  <si>
-    <t>PROYECTO MAERSK</t>
-  </si>
-  <si>
-    <t>RED FISH</t>
-  </si>
-  <si>
-    <t>PROYECTO BELUGA 2</t>
-  </si>
-  <si>
-    <t>PROYECTO GO CANOPUS</t>
-  </si>
-  <si>
-    <t>SOVER</t>
-  </si>
-  <si>
-    <t>SANDOMARTI SA DE CV</t>
-  </si>
-  <si>
-    <t>IKE</t>
-  </si>
-  <si>
-    <t>GANNET</t>
-  </si>
-  <si>
     <t>DEP</t>
   </si>
   <si>
@@ -482,7 +376,52 @@
     <t>**</t>
   </si>
   <si>
-    <t>AREA</t>
+    <t>CONCEPTO</t>
+  </si>
+  <si>
+    <t>TMM LOGISTIC SEM 3 ENERO 23</t>
+  </si>
+  <si>
+    <t>NOMINA SA:</t>
+  </si>
+  <si>
+    <t>TMM LOGISTIC</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>PPP:</t>
+  </si>
+  <si>
+    <t>AGENCIA GROESSINGER SAPI DE CV</t>
+  </si>
+  <si>
+    <t>BENEFICIO SINDICAL:</t>
+  </si>
+  <si>
+    <t>SUBTATOL</t>
+  </si>
+  <si>
+    <t>VALES DE DESPENSA(SINDICATO):</t>
+  </si>
+  <si>
+    <t>COMISION</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>TMM LOGISTIC SA DE CV</t>
+  </si>
+  <si>
+    <t>LOGISTIC</t>
+  </si>
+  <si>
+    <t>EXEDENTE</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
@@ -494,10 +433,17 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -591,45 +537,9 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -660,8 +570,30 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -683,18 +615,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3399FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -727,8 +647,38 @@
         <bgColor rgb="FF538DD5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7DEE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -755,28 +705,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -790,1737 +718,1696 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1491">
+  <cellStyleXfs count="1493">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1488" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1488" applyFill="1" applyProtection="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1490" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" xfId="1490" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" xfId="1488" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="1318" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" xfId="1490" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" xfId="1488" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="1318" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" xfId="1488" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" xfId="1488" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="10" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="13" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="11" fillId="2" borderId="0" xfId="1490" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="11" fillId="2" borderId="0" xfId="1490" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="17" fillId="2" borderId="0" xfId="1490" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="21" fillId="8" borderId="0" xfId="1490" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="7" borderId="0" xfId="1490" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1492" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="23" fillId="11" borderId="5" xfId="1491" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="11" borderId="5" xfId="1491" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="7" xfId="1492" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="7" xfId="1492" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="24" fillId="5" borderId="7" xfId="1492" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="23" fillId="11" borderId="3" xfId="1491" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="11" borderId="4" xfId="1491" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="2" borderId="0" xfId="1490" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="2" borderId="0" xfId="1490" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="43" fontId="19" fillId="2" borderId="0" xfId="1490" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="43" fontId="25" fillId="10" borderId="0" xfId="1490" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="25" fillId="9" borderId="0" xfId="1490" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1491">
+  <cellStyles count="1493">
+    <cellStyle name="Comma_2 SALARIOS" xfId="1491"/>
     <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Millares 2" xfId="3"/>
@@ -2575,6 +2462,7 @@
     <cellStyle name="Millares 2 5" xfId="52"/>
     <cellStyle name="Millares 2 5 2" xfId="53"/>
     <cellStyle name="Millares 2 6" xfId="1489"/>
+    <cellStyle name="Millares 20" xfId="1492"/>
     <cellStyle name="Millares 3" xfId="54"/>
     <cellStyle name="Millares 3 10" xfId="55"/>
     <cellStyle name="Millares 3 10 2" xfId="56"/>
@@ -4451,6 +4339,1169 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="NOMINA"/>
+      <sheetName val="DETALLE"/>
+      <sheetName val="SEM 1"/>
+      <sheetName val="SEM 2"/>
+      <sheetName val="FACT"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="BX5" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="BX6" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG6">
+            <v>1936.75</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="BX7" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="BX8" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="BX9" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="BX10" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG10">
+            <v>2246.63</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="BX11" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="BX12" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="BX13" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="BX14" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="BX15" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="BX16" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="BX17" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG17">
+            <v>1186.5</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="BX18" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="BX19" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="BX20" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="BX21" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG21">
+            <v>1743.075</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="BX22" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="BX23" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="BX24" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="BX25" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG25">
+            <v>1179.5</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="BX26" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG26">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="BX27" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG27">
+            <v>2817.5</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="BX28" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG28">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="BX29" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG29">
+            <v>5143.1774999999998</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="BX30" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG30">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="BX31" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG31">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="BX32" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG32">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="BX33" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG33">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="BX34" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG34">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="BX35" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG35">
+            <v>3317.5574999999994</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="BX36" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG36">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="BX37" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG37">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="BX38" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG38">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="BX39" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG39">
+            <v>4792.8874999999998</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="BX40" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG40">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="BX41" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG41">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="BX42" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG42">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="BX43" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG43">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="BX44" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG44">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="BX45" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="BX46" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG46">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="BX47" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG47">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="BX48" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG48">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="BX49" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="BX50" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG50">
+            <v>1105.3699999999999</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="BX51" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG51">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="BX52" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG52">
+            <v>4647.5</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="BX53" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG53">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="BX54" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG54">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="BX55" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG55">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="BX56" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG56">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="BX57" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG57">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="BX58" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG58">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="BX59" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG59">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="BX60" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG60">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="BX61" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG61">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="BX62" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG62">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="BX63" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG63">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="BX64" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG64">
+            <v>1741.3300000000002</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="BX65" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG65">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="BX66" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG66">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="BX67" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG67">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="BX68" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG68">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="BX69" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG69">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="BX70" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG70">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="BX71" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG71">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="BX72" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG72">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="BX73" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG73">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="BX74" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG74">
+            <v>1900</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="BX75" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG75">
+            <v>2039.45</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="BX76" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG76">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="BX77" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG77">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="BX78" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG78">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="BX79" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG79">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="BX80" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG80">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="BX81" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG81">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="BX82" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG82">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="BX83" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG83">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="BX84" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG84">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="BX85" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG85">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="BX86" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG86">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="BX87" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG87">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="BX88" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG88">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="BX89" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG89">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="BX90" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG90">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="BX91" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG91">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="BX92" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG92">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="BX93" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG93">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="BX94" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG94">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="BX95" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG95">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="BX96" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG96">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="BX97" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG97">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="BX98" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG98">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="BX99" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG99">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="BX100" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG100">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="BX101" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG101">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="BX102" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG102">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="BX103" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG103">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="BX104" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG104">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="BX105" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG105">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="BX106" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG106">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="BX107" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG107">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="BX108" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG108">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="BX109" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG109">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="BX110" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG110">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="BX111" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG111">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="BX112" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG112">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="BX113" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG113">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="BX114" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG114">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="BX115" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG115">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="BX116" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG116">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="BX117" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG117">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="BX118" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG118">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="BX119" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG119">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="BX120" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG120">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="BX121" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG121">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="BX122" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG122">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="BX123" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG123">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="BX124" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG124">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="BX125" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG125">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="BX126" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG126">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="BX127" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG127">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="BX128" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG128">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="BX129" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG129">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="BX130" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG130">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="BX131" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG131">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="BX132" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG132">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="BX133" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG133">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="BX134" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG134">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="BX135" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG135">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="BX136" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG136">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="BX137" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG137">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="BX138" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG138">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="BX139" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG139">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="BX140" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG140">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="BX141" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG141">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="BX142" t="str">
+            <v>SIND</v>
+          </cell>
+          <cell r="CG142">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="F148">
+            <v>348572.16000000015</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="F157">
+            <v>68276.89327</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="NOMINA"/>
+      <sheetName val="SEM 1"/>
+      <sheetName val="SEM 2"/>
+      <sheetName val="DETALLE"/>
+      <sheetName val="FACT"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="144">
+          <cell r="CP144">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -4741,385 +5792,399 @@
   <dimension ref="A3:CT6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="CE5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CM5" sqref="CM5"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="24.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="71" max="71" width="15.42578125" customWidth="1"/>
+    <col min="81" max="81" width="14.85546875" customWidth="1"/>
+    <col min="83" max="83" width="15.7109375" customWidth="1"/>
+    <col min="91" max="91" width="14" customWidth="1"/>
+    <col min="93" max="93" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:98" s="81" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="82" t="s">
+    <row r="3" spans="1:98" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="41"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="44"/>
+      <c r="AR3" s="44"/>
+      <c r="AS3" s="44"/>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="44"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
+      <c r="BB3" s="44"/>
+      <c r="BC3" s="44"/>
+      <c r="BD3" s="44"/>
+      <c r="BE3" s="44"/>
+      <c r="BF3" s="44"/>
+      <c r="BG3" s="44"/>
+      <c r="BH3" s="44"/>
+      <c r="BI3" s="44"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="43"/>
+      <c r="BL3" s="43"/>
+      <c r="BM3" s="43"/>
+      <c r="BN3" s="43"/>
+      <c r="BO3" s="43"/>
+      <c r="BP3" s="43"/>
+      <c r="BQ3" s="43"/>
+      <c r="BR3" s="43"/>
+      <c r="BS3" s="43"/>
+      <c r="BT3" s="43"/>
+      <c r="BU3" s="43"/>
+      <c r="BV3" s="43"/>
+      <c r="BW3" s="43"/>
+      <c r="BX3" s="43"/>
+      <c r="BY3" s="43"/>
+      <c r="BZ3" s="43"/>
+      <c r="CA3" s="43"/>
+      <c r="CB3" s="43"/>
+      <c r="CC3" s="43"/>
+      <c r="CD3" s="43"/>
+      <c r="CE3" s="43"/>
+      <c r="CF3" s="43"/>
+      <c r="CG3" s="43"/>
+      <c r="CH3" s="43"/>
+      <c r="CI3" s="43"/>
+      <c r="CJ3" s="43"/>
+      <c r="CK3" s="43"/>
+      <c r="CL3" s="43"/>
+      <c r="CM3" s="43"/>
+      <c r="CN3" s="43"/>
+      <c r="CO3" s="43"/>
+      <c r="CP3" s="43"/>
+      <c r="CQ3" s="43"/>
+      <c r="CR3" s="43"/>
+      <c r="CS3" s="43"/>
+      <c r="CT3" s="43"/>
+    </row>
+    <row r="4" spans="1:98" s="28" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="38"/>
+      <c r="B4" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="83"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="86"/>
-      <c r="AJ3" s="86"/>
-      <c r="AK3" s="86"/>
-      <c r="AL3" s="86"/>
-      <c r="AM3" s="86"/>
-      <c r="AN3" s="86"/>
-      <c r="AO3" s="86"/>
-      <c r="AP3" s="86"/>
-      <c r="AQ3" s="86"/>
-      <c r="AR3" s="86"/>
-      <c r="AS3" s="86"/>
-      <c r="AT3" s="86"/>
-      <c r="AU3" s="86"/>
-      <c r="AV3" s="86"/>
-      <c r="AW3" s="86"/>
-      <c r="AX3" s="86"/>
-      <c r="AY3" s="86"/>
-      <c r="AZ3" s="86"/>
-      <c r="BA3" s="86"/>
-      <c r="BB3" s="86"/>
-      <c r="BC3" s="86"/>
-      <c r="BD3" s="86"/>
-      <c r="BE3" s="86"/>
-      <c r="BF3" s="86"/>
-      <c r="BG3" s="86"/>
-      <c r="BH3" s="86"/>
-      <c r="BI3" s="86"/>
-      <c r="BJ3" s="85"/>
-      <c r="BK3" s="85"/>
-      <c r="BL3" s="85"/>
-      <c r="BM3" s="85"/>
-      <c r="BN3" s="85"/>
-      <c r="BO3" s="85"/>
-      <c r="BP3" s="85"/>
-      <c r="BQ3" s="85"/>
-      <c r="BR3" s="85"/>
-      <c r="BS3" s="85"/>
-      <c r="BT3" s="85"/>
-      <c r="BU3" s="85"/>
-      <c r="BV3" s="85"/>
-      <c r="BW3" s="85"/>
-      <c r="BX3" s="85"/>
-      <c r="BY3" s="85"/>
-      <c r="BZ3" s="85"/>
-      <c r="CA3" s="85"/>
-      <c r="CB3" s="85"/>
-      <c r="CC3" s="85"/>
-      <c r="CD3" s="85"/>
-      <c r="CE3" s="85"/>
-      <c r="CF3" s="85"/>
-      <c r="CG3" s="85"/>
-      <c r="CH3" s="85"/>
-      <c r="CI3" s="85"/>
-      <c r="CJ3" s="85"/>
-      <c r="CK3" s="85"/>
-      <c r="CL3" s="85"/>
-      <c r="CM3" s="85"/>
-      <c r="CN3" s="85"/>
-      <c r="CO3" s="85"/>
-      <c r="CP3" s="85"/>
-      <c r="CQ3" s="85"/>
-      <c r="CR3" s="85"/>
-      <c r="CS3" s="85"/>
-      <c r="CT3" s="85"/>
-    </row>
-    <row r="4" spans="1:98" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="78"/>
-      <c r="B4" s="77" t="s">
+      <c r="F4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="V4" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y4" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z4" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA4" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB4" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC4" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD4" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE4" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF4" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG4" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH4" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI4" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ4" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK4" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL4" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM4" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN4" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO4" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP4" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ4" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR4" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS4" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT4" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU4" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW4" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="AX4" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="AY4" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="77" t="s">
+      <c r="AZ4" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA4" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB4" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC4" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD4" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE4" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF4" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="BG4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q4" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="R4" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="S4" s="77" t="s">
+      <c r="BI4" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="T4" s="77" t="s">
+      <c r="BJ4" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="U4" s="77" t="s">
+      <c r="BK4" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="BL4" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="BM4" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="BN4" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="BO4" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="W4" s="77" t="s">
+      <c r="BP4" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="X4" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y4" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z4" s="77" t="s">
+      <c r="BQ4" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="AA4" s="77" t="s">
+      <c r="BR4" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="AB4" s="77" t="s">
+      <c r="BS4" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="AC4" s="77" t="s">
+      <c r="BT4" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="AD4" s="77" t="s">
+      <c r="BU4" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="AE4" s="77" t="s">
+      <c r="BV4" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="AF4" s="77" t="s">
+      <c r="BW4" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="AG4" s="77" t="s">
+      <c r="BX4" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="BY4" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="AH4" s="77" t="s">
+      <c r="BZ4" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="CA4" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="CB4" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="CC4" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="CD4" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="CE4" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="CF4" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="AI4" s="77" t="s">
+      <c r="CG4" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AJ4" s="77" t="s">
+      <c r="CH4" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="AK4" s="77" t="s">
+      <c r="CI4" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="AL4" s="77" t="s">
+      <c r="CJ4" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="AM4" s="77" t="s">
+      <c r="CK4" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="AN4" s="77" t="s">
+      <c r="CL4" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="AO4" s="77" t="s">
+      <c r="CM4" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="AP4" s="77" t="s">
+      <c r="CN4" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="AQ4" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR4" s="77" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS4" s="77" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT4" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU4" s="77" t="s">
-        <v>104</v>
-      </c>
-      <c r="AV4" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW4" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="AX4" s="77" t="s">
+      <c r="CO4" s="46" t="s">
         <v>107</v>
-      </c>
-      <c r="AY4" s="77" t="s">
-        <v>108</v>
-      </c>
-      <c r="AZ4" s="77" t="s">
-        <v>109</v>
-      </c>
-      <c r="BA4" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="BB4" s="77" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC4" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="BD4" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="BE4" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="BF4" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="BG4" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="BH4" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="BI4" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="BJ4" s="77" t="s">
-        <v>115</v>
-      </c>
-      <c r="BK4" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="BL4" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="BM4" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="BN4" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="BO4" s="77" t="s">
-        <v>117</v>
-      </c>
-      <c r="BP4" s="77" t="s">
-        <v>118</v>
-      </c>
-      <c r="BQ4" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="BR4" s="77" t="s">
-        <v>120</v>
-      </c>
-      <c r="BS4" s="87" t="s">
-        <v>121</v>
-      </c>
-      <c r="BT4" s="77" t="s">
-        <v>122</v>
-      </c>
-      <c r="BU4" s="77" t="s">
-        <v>123</v>
-      </c>
-      <c r="BV4" s="77" t="s">
-        <v>124</v>
-      </c>
-      <c r="BW4" s="77" t="s">
-        <v>125</v>
-      </c>
-      <c r="BX4" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="BY4" s="88" t="s">
-        <v>126</v>
-      </c>
-      <c r="BZ4" s="77" t="s">
-        <v>137</v>
-      </c>
-      <c r="CA4" s="77" t="s">
-        <v>138</v>
-      </c>
-      <c r="CB4" s="77" t="s">
-        <v>139</v>
-      </c>
-      <c r="CC4" s="77" t="s">
-        <v>140</v>
-      </c>
-      <c r="CD4" s="77" t="s">
-        <v>141</v>
-      </c>
-      <c r="CE4" s="89" t="s">
-        <v>142</v>
-      </c>
-      <c r="CF4" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="CG4" s="77" t="s">
-        <v>128</v>
-      </c>
-      <c r="CH4" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="CI4" s="77" t="s">
-        <v>130</v>
-      </c>
-      <c r="CJ4" s="77" t="s">
-        <v>131</v>
-      </c>
-      <c r="CK4" s="77" t="s">
-        <v>132</v>
-      </c>
-      <c r="CL4" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="CM4" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="CN4" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="CO4" s="88" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:98" x14ac:dyDescent="0.2">
@@ -5394,16 +6459,13 @@
         <f>+CI5+CJ5+CK5+CL5</f>
         <v>354</v>
       </c>
-      <c r="CN5">
-        <v>92</v>
-      </c>
       <c r="CO5">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:98" x14ac:dyDescent="0.2">
       <c r="BY6" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -5416,8 +6478,8 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="B4:M56"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="70" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="C26" sqref="B26:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5436,35 +6498,35 @@
   <sheetData>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="2:12" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>5</v>
-      </c>
       <c r="H5" s="13" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
@@ -6046,1315 +7108,156 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja6"/>
-  <dimension ref="A1:J72"/>
+  <dimension ref="A2:H10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="30" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="30" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="30" customWidth="1"/>
-    <col min="9" max="9" width="13" style="30" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="11.42578125" style="28"/>
+    <col min="2" max="2" width="34" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="28" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="28"/>
+    <col min="6" max="6" width="28.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="28"/>
+    <col min="8" max="8" width="25.28515625" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-    </row>
-    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="31" t="s">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="48" t="str">
+        <f>+G2</f>
+        <v>TMM LOGISTIC SEM 3 ENERO 23</v>
+      </c>
+      <c r="C2"/>
+      <c r="F2" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="68"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="63" t="str">
+        <f>+CONCATENATE("FACTURA ",G2)</f>
+        <v>FACTURA TMM LOGISTIC SEM 3 ENERO 23</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="F3" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="65"/>
+      <c r="H3" s="50">
+        <f>+[4]NOMINA!F148</f>
+        <v>348572.16000000015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="50" t="e">
+        <f>+SUMIF([4]NOMINA!BX5:BX142,"PPP",[4]NOMINA!CG5:CG142)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="54" t="e">
+        <f>+H4+H5+H6+H7</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="66"/>
+      <c r="H5" s="50" t="e">
+        <f>+SUMIF([4]NOMINA!BX5:BX142,"SIND",[4]NOMINA!CG5:CG142)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="56" t="e">
+        <f>+C5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F6" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="66"/>
+      <c r="H6" s="50">
+        <f>+[5]NOMINA!CP144</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="57"/>
+      <c r="B7" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="48"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="48"/>
-    </row>
-    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="38" t="str">
-        <f>+B5</f>
-        <v>SANDOMARTI SA DE CV</v>
-      </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="48"/>
-    </row>
-    <row r="6" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="42">
-        <f>0</f>
+      <c r="C7" s="56" t="e">
+        <f>+C6*16%</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="59">
+        <v>0.06</v>
+      </c>
+      <c r="H7" s="50" t="e">
+        <f>+(H3+H4+H5+H6)*G7</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="48"/>
-    </row>
-    <row r="7" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="42">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="48"/>
-    </row>
-    <row r="8" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="42">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="48"/>
-    </row>
-    <row r="9" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="42">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="48"/>
-    </row>
-    <row r="10" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="42">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="48"/>
-    </row>
-    <row r="11" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="42">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="48"/>
-    </row>
-    <row r="12" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="42">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="48"/>
-    </row>
-    <row r="13" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="42">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="48"/>
-    </row>
-    <row r="14" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="45">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="48"/>
-    </row>
-    <row r="15" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="42">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="48"/>
-    </row>
-    <row r="16" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="45">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="48"/>
-    </row>
-    <row r="17" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="42">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="43"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="48"/>
-    </row>
-    <row r="18" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="42">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="43"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="48"/>
-    </row>
-    <row r="19" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="42">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="48"/>
-    </row>
-    <row r="20" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="42">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="43"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="48"/>
-    </row>
-    <row r="21" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="42">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="43"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="48"/>
-    </row>
-    <row r="22" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="42">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="48"/>
-    </row>
-    <row r="23" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="50">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="48"/>
-    </row>
-    <row r="24" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="42">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="48"/>
-    </row>
-    <row r="25" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="48"/>
-    </row>
-    <row r="26" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="43"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="48"/>
-    </row>
-    <row r="27" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="42">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="48"/>
-      <c r="F27" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="43"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="48"/>
-    </row>
-    <row r="28" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="70"/>
-      <c r="D28" s="50">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="48"/>
-      <c r="F28" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="72"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="48"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="42">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="48"/>
-      <c r="F29" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" s="72"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="48"/>
-    </row>
-    <row r="30" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="50">
-        <v>0</v>
-      </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" s="72"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="48"/>
-    </row>
-    <row r="31" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="50">
-        <v>0</v>
-      </c>
-      <c r="E31" s="48"/>
-      <c r="F31" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="G31" s="70"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="48"/>
-    </row>
-    <row r="32" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-      <c r="B32" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="75"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" s="75"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="48"/>
-    </row>
-    <row r="33" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="53">
-        <f>SUM(C6:C23)</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="53">
-        <f>SUM(D24:D32)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" s="57"/>
-      <c r="H33" s="58">
-        <f>SUM(H6:H20)</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="58">
-        <f>SUM(I21:I31)</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="48"/>
-    </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="42">
-        <f>C33*16%</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="42">
-        <f>D33*16%</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="48"/>
-      <c r="F34" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="59"/>
-      <c r="H34" s="42">
-        <f>H33*16%</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="42">
-        <f>I33*16%</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="48"/>
-    </row>
-    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="42">
-        <v>0</v>
-      </c>
-      <c r="D35" s="42">
-        <v>0</v>
-      </c>
-      <c r="E35" s="48"/>
-      <c r="F35" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G35" s="60">
-        <f>SUM(G6:G34)</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="56">
-        <f>+H33+H34</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="56">
-        <f>+I33+I34</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="48"/>
-    </row>
-    <row r="36" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="56">
-        <f>C33+C34-C35</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="56">
-        <f>D33+D34-D35</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="G36" s="38"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="48"/>
-    </row>
-    <row r="37" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="38" t="str">
-        <f>+B37</f>
-        <v>SANDOMARTI SA DE CV</v>
-      </c>
-      <c r="G37" s="43"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="48"/>
-    </row>
-    <row r="38" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="40">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="40"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="43"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="48"/>
-    </row>
-    <row r="39" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="42">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" s="43"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="48"/>
-    </row>
-    <row r="40" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="42">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" s="43"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="48"/>
-    </row>
-    <row r="41" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
-      <c r="B41" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="42">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="G41" s="43"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="48"/>
-    </row>
-    <row r="42" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
-      <c r="B42" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="42">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="39"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" s="43"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="48"/>
-    </row>
-    <row r="43" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
-      <c r="B43" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="42">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="39"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="43"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="48"/>
-    </row>
-    <row r="44" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
-      <c r="B44" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="42">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G44" s="43"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="48"/>
-    </row>
-    <row r="45" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
-      <c r="B45" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="42">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="39"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="G45" s="43"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="48"/>
-    </row>
-    <row r="46" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
-      <c r="B46" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="42">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D46" s="42"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="G46" s="43"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="48"/>
-    </row>
-    <row r="47" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="48"/>
-      <c r="B47" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="42">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="39"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" s="43"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="48"/>
-    </row>
-    <row r="48" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
-      <c r="B48" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" s="42">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D48" s="39"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="G48" s="43"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="48"/>
-    </row>
-    <row r="49" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
-      <c r="B49" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="50">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="62"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="G49" s="43"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="48"/>
-    </row>
-    <row r="50" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
-      <c r="B50" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="42">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="42"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="G50" s="43"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="48"/>
-    </row>
-    <row r="51" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="48"/>
-      <c r="B51" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="50">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="62"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="G51" s="43"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="48"/>
-    </row>
-    <row r="52" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" s="50">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="62"/>
-      <c r="F52" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="G52" s="43"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="42"/>
-    </row>
-    <row r="53" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" s="50">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D53" s="62"/>
-      <c r="F53" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="G53" s="43"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="42"/>
-    </row>
-    <row r="54" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C54" s="50">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D54" s="62"/>
-      <c r="F54" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G54" s="43"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="42"/>
-    </row>
-    <row r="55" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55" s="50">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D55" s="50"/>
-      <c r="F55" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="G55" s="43"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="42"/>
-    </row>
-    <row r="56" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="49"/>
-      <c r="D56" s="50">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F56" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="G56" s="72"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="50"/>
-    </row>
-    <row r="57" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="50"/>
-      <c r="F57" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="G57" s="43"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="42"/>
-    </row>
-    <row r="58" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" s="51"/>
-      <c r="D58" s="50"/>
-      <c r="F58" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="G58" s="72"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="50"/>
-    </row>
-    <row r="59" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="51"/>
-      <c r="D59" s="50">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F59" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G59" s="72"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="50"/>
-    </row>
-    <row r="60" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="70" t="str">
-        <f>+B28</f>
-        <v>RED FISH</v>
-      </c>
-      <c r="C60" s="70"/>
-      <c r="D60" s="50">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F60" s="70" t="str">
-        <f>+F28</f>
-        <v>RED FISH</v>
-      </c>
-      <c r="G60" s="72"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="50"/>
-    </row>
-    <row r="61" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="70" t="str">
-        <f>+B29</f>
-        <v>PROYECTO MAERSK</v>
-      </c>
-      <c r="C61" s="70"/>
-      <c r="D61" s="50">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F61" s="70" t="str">
-        <f>+F29</f>
-        <v>PROYECTO MAERSK</v>
-      </c>
-      <c r="G61" s="72"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="50"/>
-    </row>
-    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" s="43"/>
-      <c r="D62" s="71">
-        <v>0</v>
-      </c>
-      <c r="F62" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="G62" s="72"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="50"/>
-    </row>
-    <row r="63" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63" s="70"/>
-      <c r="D63" s="50">
-        <v>0</v>
-      </c>
-      <c r="F63" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="G63" s="70"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
-    </row>
-    <row r="64" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="75" t="str">
-        <f>+B32</f>
-        <v>GANNET</v>
-      </c>
-      <c r="C64" s="75"/>
-      <c r="D64" s="76"/>
-      <c r="F64" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="G64" s="75"/>
-      <c r="H64" s="76"/>
-      <c r="I64" s="76"/>
-    </row>
-    <row r="65" spans="2:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B65" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" s="58">
-        <f>SUM(C38:C55)</f>
-        <v>0</v>
-      </c>
-      <c r="D65" s="58">
-        <f>SUM(D56:D64)</f>
-        <v>0</v>
-      </c>
-      <c r="F65" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="G65" s="57"/>
-      <c r="H65" s="58">
-        <f>SUM(H37:H52)</f>
-        <v>0</v>
-      </c>
-      <c r="I65" s="58">
-        <f>SUM(I52:I63)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B66" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="C66" s="42">
-        <f>C65*16%</f>
-        <v>0</v>
-      </c>
-      <c r="D66" s="42">
-        <f>D65*16%</f>
-        <v>0</v>
-      </c>
-      <c r="F66" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="G66" s="59"/>
-      <c r="H66" s="42">
-        <f>H65*16%</f>
-        <v>0</v>
-      </c>
-      <c r="I66" s="42">
-        <f>I65*16%</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B67" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" s="56">
-        <f>SUM(C65:C66)</f>
-        <v>0</v>
-      </c>
-      <c r="D67" s="56">
-        <f>SUM(D65:D66)</f>
-        <v>0</v>
-      </c>
-      <c r="F67" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="G67" s="60">
-        <f>SUM(G37:G66)</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="56">
-        <f>SUM(H65:H66)</f>
-        <v>0</v>
-      </c>
-      <c r="I67" s="56">
-        <f>SUM(I65:I66)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="F68" s="28"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="48"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="73">
-        <f>+C67+D67+C36+D36</f>
-        <v>0</v>
-      </c>
-      <c r="F69" s="48"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B70" s="48"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="73"/>
-      <c r="F70" s="48"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="73"/>
-      <c r="F71" s="48"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D72" s="74"/>
+      <c r="C8" s="61" t="e">
+        <f>+C6+C7</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F8" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="67"/>
+      <c r="H8" s="62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="36">
+        <f>+[4]NOMINA!F157</f>
+        <v>68276.89327</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="H3:I3"/>
+  <mergeCells count="7">
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7371,151 +7274,151 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="63"/>
-    <col min="2" max="2" width="37" style="63" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" style="63" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="63" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="34" style="63" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="63" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" style="63" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" style="63" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="63"/>
+    <col min="1" max="1" width="11.42578125" style="29"/>
+    <col min="2" max="2" width="37" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="34" style="29" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="29" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="29" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="69" t="s">
+      <c r="B1" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="67" t="s">
-        <v>1</v>
+      <c r="G1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I2" s="64"/>
-      <c r="K2" s="68">
+      <c r="I2" s="30"/>
+      <c r="K2" s="34">
         <f>I2+J2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I3" s="64"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I4" s="64"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I5" s="64"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I6" s="65"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I7" s="64"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I8" s="64"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I9" s="64"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I10" s="65"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I11" s="64"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I12" s="64"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I13" s="64"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I14" s="65"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I15" s="64"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I16" s="64"/>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I17" s="64"/>
+      <c r="I17" s="30"/>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I18" s="64"/>
+      <c r="I18" s="30"/>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I19" s="64"/>
+      <c r="I19" s="30"/>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I20" s="65"/>
+      <c r="I20" s="31"/>
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I21" s="64"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I22" s="64"/>
+      <c r="I22" s="30"/>
     </row>
     <row r="23" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I23" s="64"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I24" s="65"/>
+      <c r="I24" s="31"/>
     </row>
     <row r="25" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I25" s="64"/>
+      <c r="I25" s="30"/>
     </row>
     <row r="26" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I26" s="64"/>
+      <c r="I26" s="30"/>
     </row>
     <row r="27" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I27" s="64"/>
+      <c r="I27" s="30"/>
     </row>
     <row r="28" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I28" s="65"/>
+      <c r="I28" s="31"/>
     </row>
     <row r="29" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I29" s="64"/>
+      <c r="I29" s="30"/>
     </row>
     <row r="30" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I30" s="64"/>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I31" s="64"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I32" s="65"/>
+      <c r="I32" s="31"/>
     </row>
     <row r="33" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I33" s="64"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I34" s="66"/>
+      <c r="I34" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:K1">

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -2387,6 +2387,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="23" fillId="11" borderId="3" xfId="1491" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2398,12 +2404,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1493">
@@ -5792,10 +5792,10 @@
   <dimension ref="A3:CT6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5803,7 +5803,8 @@
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
@@ -7135,21 +7136,21 @@
       <c r="F2" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="68"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="63" t="str">
+      <c r="B3" s="65" t="str">
         <f>+CONCATENATE("FACTURA ",G2)</f>
         <v>FACTURA TMM LOGISTIC SEM 3 ENERO 23</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="F3" s="65" t="s">
+      <c r="C3" s="66"/>
+      <c r="F3" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="65"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="50">
         <f>+[4]NOMINA!F148</f>
         <v>348572.16000000015</v>
@@ -7162,10 +7163,10 @@
       <c r="C4" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="68" t="s">
         <v>114</v>
       </c>
       <c r="H4" s="50" t="e">
@@ -7181,10 +7182,10 @@
         <f>+H4+H5+H6+H7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="66"/>
+      <c r="G5" s="68"/>
       <c r="H5" s="50" t="e">
         <f>+SUMIF([4]NOMINA!BX5:BX142,"SIND",[4]NOMINA!CG5:CG142)</f>
         <v>#VALUE!</v>
@@ -7198,10 +7199,10 @@
         <f>+C5</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="G6" s="66"/>
+      <c r="G6" s="68"/>
       <c r="H6" s="50">
         <f>+[5]NOMINA!CP144</f>
         <v>0</v>
@@ -7235,10 +7236,10 @@
         <f>+C6+C7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="G8" s="67"/>
+      <c r="G8" s="63"/>
       <c r="H8" s="62" t="s">
         <v>121</v>
       </c>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -9,20 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="647"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="647" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA" sheetId="38" r:id="rId1"/>
     <sheet name="DETALLE" sheetId="28" r:id="rId2"/>
     <sheet name="FACT" sheetId="30" r:id="rId3"/>
     <sheet name="PENSION ALIMENTICIA" sheetId="32" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="39" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="__TC1">[1]FOR!$B$9</definedName>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="422">
   <si>
     <t>TOTAL</t>
   </si>
@@ -379,9 +378,6 @@
     <t>CONCEPTO</t>
   </si>
   <si>
-    <t>TMM LOGISTIC SEM 3 ENERO 23</t>
-  </si>
-  <si>
     <t>NOMINA SA:</t>
   </si>
   <si>
@@ -412,9 +408,6 @@
     <t>CLIENTE</t>
   </si>
   <si>
-    <t>TMM LOGISTIC SA DE CV</t>
-  </si>
-  <si>
     <t>LOGISTIC</t>
   </si>
   <si>
@@ -422,6 +415,903 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>empresa</t>
+  </si>
+  <si>
+    <t>dtgDatos.Columns(0).Width = 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(0).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(0).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(0).Frozen = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'consecutivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(1).Width = 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(1).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(1).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(1).Frozen = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'idempleado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(2).Width = 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(2).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(2).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(2).Frozen = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'codigo empleado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(3).Width = 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(3).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(3).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(3).Frozen = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(4).Width = 250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(4).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(4).Frozen = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Estatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(5).Width = 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(5).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'RFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(6).Width = 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(6).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(6).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'CURP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(7).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(7).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'IMSS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(8).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(8).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Fecha_Nac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(9).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(9).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(9).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Edad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(10).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(10).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Puesto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(11).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(11).Width = 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns.Remove("Puesto")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Dim combo As New DataGridViewComboBoxColumn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        sql = "select * from puestos where iTipo=1 order by cNombre"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Dim rwPuestos As DataRow() = nConsulta(sql)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'If rwPuestos Is Nothing = False Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        '    combo.Items.Add("uno")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        '    combo.Items.Add("dos")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        '    combo.Items.Add("tres")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'End If</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        nCargaCBO(combo, sql, "cNombre", "iIdPuesto")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        combo.HeaderText = "Puesto"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        combo.Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns.Insert(11, combo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'DirectCast(dtgDatos.Columns(11), DataGridViewComboBoxColumn).Sorted = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Dim combo2 As New DataGridViewComboBoxCell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'combo2 = CType(Me.dtgDatos.Rows(2).Cells(11), DataGridViewComboBoxCell)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'combo2.Value = combo.Items(11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(11).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Buque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(12).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(12).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(12).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns.Remove("Depto")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Dim combo2 As New DataGridViewComboBoxColumn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        sql = "select * from departamentos where iEstatus=1 order by cNombre"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        nCargaCBO(combo2, sql, "cNombre", "iIdDepartamento")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        combo2.HeaderText = "Depto"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        combo2.Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns.Insert(12, combo2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Tipo_Infonavit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(13).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(13).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(13).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Valor_Infonavit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(14).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(14).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(14).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Horas_extras_dobles_V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(15).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(15).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(15).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Horas_extras_triples_V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(16).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(16).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(16).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Descanso_Laborado_V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(17).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(17).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(17).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Dia_Festivo_laborado_V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(18).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(18).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Prima_Dominical_V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(19).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(19).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(19).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Falta_Injustificada_V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(20).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(20).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(20).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Permiso_Sin_GS_V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(21).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(21).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(21).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'T_No_laborado_V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(22).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(22).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(22).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Sueldo_Base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(23).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(23).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(23).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Salario_Diario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(24).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(24).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(24).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Salario_Cotización</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(25).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(25).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(25).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Dias_Trabajados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(26).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(26).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(26).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Tipo_Incapacidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(27).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(27).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(27).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Número_días</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(28).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(28).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(28).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Sueldo_Bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(29).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(29).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(29).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Septimo_Dia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(30).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(30).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(30).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Prima_Dominical_Gravada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(31).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(31).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(31).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Prima_Dominical_Exenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(32).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(32).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(32).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Tiempo_Extra_Doble_Gravado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(33).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(33).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(33).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Tiempo_Extra_Doble_Exento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(34).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(34).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(34).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Tiempo_Extra_Triple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(35).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(35).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(35).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Descanso_Labarado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(36).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(36).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(36).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Dia_Festivo_laborado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(37).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(37).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(37).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Bono_Asistencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(38).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(38).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(38).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Bono_Productividad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(39).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(39).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(39).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Bono_Polivalencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(40).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(40).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(40).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Bono_Especialidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(41).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(41).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(41).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Bono_Calidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(42).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(42).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(42).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Compensacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(43).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(43).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(43).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Semana_fondo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(44).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(44).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(44).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Falta_Injustificada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(45).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(45).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(45).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Permiso_Sin_GS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(46).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(46).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(46).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Incremento_Retenido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(47).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(48).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(47).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Vacaciones_proporcionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(48).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(49).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(48).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        '</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(49).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(50).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(49).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(50).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(50).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(50).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(51).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(51).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(51).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(52).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(52).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(52).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(53).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(53).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(53).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(54).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(54).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(54).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(55).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(55).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(55).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(56).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(56).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(56).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(57).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(57).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(57).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(58).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(58).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(58).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(59).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(59).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(59).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(60).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(60).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(60).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Infonavit_bim_anterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(61).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(61).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(61).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Ajuste_infonavit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(62).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(62).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(62).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Pension alimenticia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(63).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(63).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(63).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Prestamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(64).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(64).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(64).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Fonacot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(65).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(65).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(65).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'T_No_laborado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(66).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(66).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(66).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Cuota_Sindical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(67).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(67).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(67).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(68).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(68).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(68).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(69).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(69).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(69).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(70).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(70).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(70).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(71).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(71).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(71).Width = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(72).DefaultCellStyle.Alignment = DataGridViewContentAlignment.MiddleRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'dtgDatos.Columns(72).ReadOnly = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dtgDatos.Columns(72).Width = 150</t>
   </si>
 </sst>
 </file>
@@ -593,7 +1483,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -674,6 +1564,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB7DEE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2273,7 +3175,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2386,8 +3288,12 @@
     <xf numFmtId="43" fontId="24" fillId="5" borderId="7" xfId="1492" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2405,6 +3311,8 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1493">
     <cellStyle name="Comma_2 SALARIOS" xfId="1491"/>
@@ -4339,1169 +5247,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="NOMINA"/>
-      <sheetName val="DETALLE"/>
-      <sheetName val="SEM 1"/>
-      <sheetName val="SEM 2"/>
-      <sheetName val="FACT"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="5">
-          <cell r="BX5" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="BX6" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG6">
-            <v>1936.75</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="BX7" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="BX8" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="BX9" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="BX10" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG10">
-            <v>2246.63</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="BX11" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="BX12" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="BX13" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="BX14" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG14">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="BX15" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="BX16" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG16">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="BX17" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG17">
-            <v>1186.5</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="BX18" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="BX19" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="BX20" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG20">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="BX21" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG21">
-            <v>1743.075</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="BX22" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG22">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="BX23" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG23">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="BX24" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG24">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="BX25" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG25">
-            <v>1179.5</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="BX26" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG26">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="BX27" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG27">
-            <v>2817.5</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="BX28" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG28">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="BX29" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG29">
-            <v>5143.1774999999998</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="BX30" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG30">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="BX31" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG31">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="BX32" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG32">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="BX33" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG33">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="BX34" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG34">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="BX35" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG35">
-            <v>3317.5574999999994</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="BX36" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG36">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="BX37" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG37">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="BX38" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG38">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="BX39" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG39">
-            <v>4792.8874999999998</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="BX40" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG40">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="BX41" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG41">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="BX42" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG42">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="BX43" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG43">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="BX44" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG44">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="BX45" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG45">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="BX46" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG46">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="BX47" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG47">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="BX48" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG48">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="BX49" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG49">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="BX50" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG50">
-            <v>1105.3699999999999</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="BX51" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG51">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="BX52" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG52">
-            <v>4647.5</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="BX53" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG53">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="BX54" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG54">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="BX55" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG55">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="BX56" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG56">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="BX57" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG57">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="BX58" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG58">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="BX59" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG59">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="BX60" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG60">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="BX61" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG61">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="BX62" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG62">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="BX63" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG63">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="BX64" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG64">
-            <v>1741.3300000000002</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="BX65" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG65">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="BX66" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG66">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="BX67" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG67">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="BX68" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG68">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="BX69" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG69">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="BX70" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG70">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="BX71" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG71">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="BX72" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG72">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="BX73" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG73">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="BX74" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG74">
-            <v>1900</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="BX75" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG75">
-            <v>2039.45</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="BX76" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG76">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="BX77" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG77">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="BX78" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG78">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="BX79" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG79">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="BX80" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG80">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="BX81" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG81">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="BX82" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG82">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="BX83" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG83">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="BX84" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG84">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="BX85" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG85">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="BX86" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG86">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="BX87" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG87">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="BX88" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG88">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="BX89" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG89">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="BX90" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG90">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="BX91" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG91">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="BX92" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG92">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="BX93" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG93">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="BX94" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG94">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="BX95" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG95">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="BX96" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG96">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="BX97" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG97">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="BX98" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG98">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="BX99" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG99">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="BX100" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG100">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="BX101" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG101">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="BX102" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG102">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="BX103" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG103">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="BX104" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG104">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="BX105" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG105">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="BX106" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG106">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="BX107" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG107">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="BX108" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG108">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="BX109" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG109">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="BX110" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG110">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="BX111" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG111">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="BX112" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG112">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="BX113" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG113">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="BX114" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG114">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="BX115" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG115">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="BX116" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG116">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="BX117" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG117">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="BX118" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG118">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="BX119" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG119">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="BX120" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG120">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="BX121" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG121">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="BX122" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG122">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="BX123" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG123">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="BX124" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG124">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="BX125" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG125">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="BX126" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG126">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="BX127" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG127">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="BX128" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG128">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="BX129" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG129">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="BX130" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG130">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="BX131" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG131">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="BX132" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG132">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="BX133" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG133">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="BX134" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG134">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="BX135" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG135">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="BX136" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG136">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="BX137" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG137">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="BX138" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG138">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="BX139" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG139">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="BX140" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG140">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="BX141" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG141">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="BX142" t="str">
-            <v>SIND</v>
-          </cell>
-          <cell r="CG142">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="F148">
-            <v>348572.16000000015</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="F157">
-            <v>68276.89327</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="NOMINA"/>
-      <sheetName val="SEM 1"/>
-      <sheetName val="SEM 2"/>
-      <sheetName val="DETALLE"/>
-      <sheetName val="FACT"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="144">
-          <cell r="CP144">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -5791,7 +5536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:CT6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -6506,7 +6251,7 @@
     </row>
     <row r="5" spans="2:12" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>8</v>
@@ -6524,10 +6269,10 @@
         <v>4</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
@@ -7109,10 +6854,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja6"/>
-  <dimension ref="A2:H10"/>
+  <dimension ref="A2:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7128,32 +6873,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="str">
+      <c r="B2" s="48">
         <f>+G2</f>
-        <v>TMM LOGISTIC SEM 3 ENERO 23</v>
+        <v>0</v>
       </c>
       <c r="C2"/>
       <c r="F2" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="67" t="str">
+        <f>+CONCATENATE("FACTURA ",G2)</f>
+        <v xml:space="preserve">FACTURA </v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="F3" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="64"/>
-    </row>
-    <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="65" t="str">
-        <f>+CONCATENATE("FACTURA ",G2)</f>
-        <v>FACTURA TMM LOGISTIC SEM 3 ENERO 23</v>
-      </c>
-      <c r="C3" s="66"/>
-      <c r="F3" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="67"/>
+      <c r="G3" s="69"/>
       <c r="H3" s="50">
-        <f>+[4]NOMINA!F148</f>
-        <v>348572.16000000015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7161,50 +6903,47 @@
         <v>24</v>
       </c>
       <c r="C4" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="G4" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="68" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="50" t="e">
-        <f>+SUMIF([4]NOMINA!BX5:BX142,"PPP",[4]NOMINA!CG5:CG142)</f>
-        <v>#VALUE!</v>
+      <c r="H4" s="50">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="54">
+        <f>+H4+H5+H6+H7</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="54" t="e">
-        <f>+H4+H5+H6+H7</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="50" t="e">
-        <f>+SUMIF([4]NOMINA!BX5:BX142,"SIND",[4]NOMINA!CG5:CG142)</f>
-        <v>#VALUE!</v>
+      <c r="G5" s="70"/>
+      <c r="H5" s="50">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="56">
+        <f>+C5</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="56" t="e">
-        <f>+C5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F6" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="68"/>
+      <c r="G6" s="70"/>
       <c r="H6" s="50">
-        <f>+[5]NOMINA!CP144</f>
         <v>0</v>
       </c>
     </row>
@@ -7213,42 +6952,57 @@
       <c r="B7" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="56" t="e">
+      <c r="C7" s="56">
         <f>+C6*16%</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G7" s="59">
         <v>0.06</v>
       </c>
-      <c r="H7" s="50" t="e">
+      <c r="H7" s="50">
         <f>+(H3+H4+H5+H6)*G7</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="61" t="e">
+      <c r="C8" s="61">
         <f>+C6+C7</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F8" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" s="63"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="64"/>
       <c r="H8" s="62" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C10" s="36">
-        <f>+[4]NOMINA!F157</f>
-        <v>68276.89327</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7429,4 +7183,1622 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B385"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="87.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B122" s="72" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B123" s="71" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B155" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B159" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B160" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B161" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B162" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B163" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B164" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B165" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B166" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B167" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B168" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B169" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B170" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B171" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B172" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B173" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B174" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B175" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B176" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B178" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B180" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B181" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B182" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B183" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B184" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B185" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B186" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B187" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B189" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B190" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B191" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B192" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B195" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B196" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B197" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B198" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B199" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B200" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B201" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B202" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B204" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B205" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B206" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B207" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B209" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B210" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B211" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B212" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B215" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B216" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B217" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B218" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B220" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B221" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B222" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B223" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B224" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B225" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B226" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B227" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B228" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B229" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B230" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B231" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B232" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B233" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B234" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B235" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B236" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B237" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B238" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B239" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B240" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B241" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B242" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B243" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B244" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B245" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B246" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B247" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B248" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B249" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B250" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B251" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B252" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B253" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B254" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B255" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B257" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B258" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B259" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B260" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B262" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B263" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B264" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B265" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B267" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B268" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B269" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B270" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B272" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B273" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B274" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B275" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B277" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B278" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B279" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B280" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B282" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B283" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B284" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B285" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B287" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B288" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B289" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B290" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B292" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B293" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B294" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B295" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B297" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B298" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B299" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B300" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B302" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B303" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B304" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B305" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B307" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B308" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B309" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B310" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B312" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B313" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B314" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B315" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B317" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B318" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B319" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B320" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B322" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B323" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B324" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B325" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B327" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B328" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B329" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B330" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B332" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B333" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B334" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B335" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B337" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B338" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B339" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B340" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B342" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B343" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B344" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B345" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B347" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B348" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B349" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B350" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B352" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B353" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B354" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B355" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B357" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B358" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B359" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B360" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B362" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B363" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B364" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B365" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B367" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B368" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B369" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B370" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B372" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B373" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B374" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B375" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B377" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B378" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B379" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B380" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B382" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B383" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B384" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B385" t="s">
+        <v>421</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="647" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="647"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA" sheetId="38" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="423">
   <si>
     <t>TOTAL</t>
   </si>
@@ -1312,6 +1312,9 @@
   </si>
   <si>
     <t xml:space="preserve">        dtgDatos.Columns(72).Width = 150</t>
+  </si>
+  <si>
+    <t>FONDO PFB 3%</t>
   </si>
 </sst>
 </file>
@@ -1483,7 +1486,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1576,6 +1579,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3175,7 +3184,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3290,6 +3299,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3311,8 +3322,9 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1493">
     <cellStyle name="Comma_2 SALARIOS" xfId="1491"/>
@@ -5536,11 +5548,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:CT6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="CJ5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5932,6 +5944,9 @@
       <c r="CO4" s="46" t="s">
         <v>107</v>
       </c>
+      <c r="CP4" s="73" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="5" spans="1:98" x14ac:dyDescent="0.2">
       <c r="B5">
@@ -6881,19 +6896,19 @@
       <c r="F2" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="67" t="str">
+      <c r="B3" s="69" t="str">
         <f>+CONCATENATE("FACTURA ",G2)</f>
         <v xml:space="preserve">FACTURA </v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="F3" s="69" t="s">
+      <c r="C3" s="70"/>
+      <c r="F3" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="69"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="50">
         <v>0</v>
       </c>
@@ -6905,10 +6920,10 @@
       <c r="C4" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="72" t="s">
         <v>113</v>
       </c>
       <c r="H4" s="50">
@@ -6923,10 +6938,10 @@
         <f>+H4+H5+H6+H7</f>
         <v>0</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="70"/>
+      <c r="G5" s="72"/>
       <c r="H5" s="50">
         <v>0</v>
       </c>
@@ -6939,10 +6954,10 @@
         <f>+C5</f>
         <v>0</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="70"/>
+      <c r="G6" s="72"/>
       <c r="H6" s="50">
         <v>0</v>
       </c>
@@ -6975,10 +6990,10 @@
         <f>+C6+C7</f>
         <v>0</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="G8" s="64"/>
+      <c r="G8" s="66"/>
       <c r="H8" s="62" t="s">
         <v>123</v>
       </c>
@@ -7189,8 +7204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="F194" sqref="F194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7664,12 +7679,12 @@
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B122" s="72" t="s">
+      <c r="B122" s="65" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B123" s="71" t="s">
+      <c r="B123" s="64" t="s">
         <v>212</v>
       </c>
     </row>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="421">
   <si>
     <t>TOTAL</t>
   </si>
@@ -381,15 +381,6 @@
     <t>NOMINA SA:</t>
   </si>
   <si>
-    <t>TMM LOGISTIC</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
-    <t>PPP:</t>
-  </si>
-  <si>
     <t>AGENCIA GROESSINGER SAPI DE CV</t>
   </si>
   <si>
@@ -1315,6 +1306,9 @@
   </si>
   <si>
     <t>FONDO PFB 3%</t>
+  </si>
+  <si>
+    <t>PPP</t>
   </si>
 </sst>
 </file>
@@ -1589,7 +1583,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1688,6 +1682,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1493">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3184,7 +3204,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3301,6 +3321,9 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3322,8 +3345,11 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1493">
@@ -5552,7 +5578,7 @@
       <pane xSplit="5" ySplit="4" topLeftCell="CJ5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="CN9" sqref="CN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5944,8 +5970,8 @@
       <c r="CO4" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="CP4" s="73" t="s">
-        <v>422</v>
+      <c r="CP4" s="66" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:98" x14ac:dyDescent="0.2">
@@ -6266,7 +6292,7 @@
     </row>
     <row r="5" spans="2:12" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>8</v>
@@ -6284,10 +6310,10 @@
         <v>4</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
@@ -6872,7 +6898,7 @@
   <dimension ref="A2:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6896,19 +6922,19 @@
       <c r="F2" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="69" t="str">
+      <c r="B3" s="70" t="str">
         <f>+CONCATENATE("FACTURA ",G2)</f>
         <v xml:space="preserve">FACTURA </v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="F3" s="71" t="s">
+      <c r="C3" s="71"/>
+      <c r="F3" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="71"/>
+      <c r="G3" s="72"/>
       <c r="H3" s="50">
         <v>0</v>
       </c>
@@ -6917,47 +6943,46 @@
       <c r="B4" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" s="72" t="s">
+      <c r="C4" s="52" t="str">
+        <f>+H8</f>
+        <v>empresa</v>
+      </c>
+      <c r="F4" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="72" t="s">
-        <v>113</v>
-      </c>
+      <c r="G4" s="75"/>
       <c r="H4" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="53" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C5" s="54">
         <f>+H4+H5+H6+H7</f>
         <v>0</v>
       </c>
-      <c r="F5" s="72" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" s="72"/>
+      <c r="F5" s="74" t="s">
+        <v>420</v>
+      </c>
+      <c r="G5" s="75"/>
       <c r="H5" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="55" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C6" s="56">
         <f>+C5</f>
         <v>0</v>
       </c>
-      <c r="F6" s="72" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="72"/>
+      <c r="F6" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="73"/>
       <c r="H6" s="50">
         <v>0</v>
       </c>
@@ -6972,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G7" s="59">
         <v>0.06</v>
@@ -6990,12 +7015,12 @@
         <f>+C6+C7</f>
         <v>0</v>
       </c>
-      <c r="F8" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="66"/>
+      <c r="F8" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="67"/>
       <c r="H8" s="62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -7215,1602 +7240,1602 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B122" s="65" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B123" s="64" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B273" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B279" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B282" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B283" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B284" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B285" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B288" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B289" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B290" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B292" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B293" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B295" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B297" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B298" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B299" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B300" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B302" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B303" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B304" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B305" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B308" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B309" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B310" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B312" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B313" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B315" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B317" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B319" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B320" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B323" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B324" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B325" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B327" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B328" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B329" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="330" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B330" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B332" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="333" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B333" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="334" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B334" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B335" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B337" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B338" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B339" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B340" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B342" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B343" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B344" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B345" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B347" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B348" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B349" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B350" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="352" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B352" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="353" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B353" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="354" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B354" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="355" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B355" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B357" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="358" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B358" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B359" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="360" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B360" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="362" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B362" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="363" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B363" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="364" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B364" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="365" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B365" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="367" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B367" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="368" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B368" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="369" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B369" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="370" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B370" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="372" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B372" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="373" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B373" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="374" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B374" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="375" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B375" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="377" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B377" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="378" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B378" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="379" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B379" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="380" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B380" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="382" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B382" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="383" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B383" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="384" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B384" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="385" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B385" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="647"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="647" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA" sheetId="38" r:id="rId1"/>
@@ -3342,13 +3342,13 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -5574,11 +5574,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:CT6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="CJ5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CN9" sqref="CN9"/>
+      <selection pane="bottomRight" activeCell="CL11" sqref="CL11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6947,10 +6947,10 @@
         <f>+H8</f>
         <v>empresa</v>
       </c>
-      <c r="F4" s="74" t="s">
+      <c r="F4" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="75"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="50">
         <v>0</v>
       </c>
@@ -6963,10 +6963,10 @@
         <f>+H4+H5+H6+H7</f>
         <v>0</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="73" t="s">
         <v>420</v>
       </c>
-      <c r="G5" s="75"/>
+      <c r="G5" s="74"/>
       <c r="H5" s="50">
         <v>0</v>
       </c>
@@ -6979,10 +6979,10 @@
         <f>+C5</f>
         <v>0</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="73"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="50">
         <v>0</v>
       </c>
@@ -7227,10 +7227,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B385"/>
+  <dimension ref="B1:B392"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="F194" sqref="F194"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="B243" sqref="B243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7703,1138 +7703,1138 @@
         <v>207</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B122" s="65" t="s">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B123" s="65" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B123" s="64" t="s">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B124" s="64" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B150" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B154" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B155" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B179" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B180" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B188" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B189" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B193" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B195" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B200" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B203" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B205" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>286</v>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B208" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B210" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B213" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B214" t="s">
         <v>290</v>
-      </c>
-    </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B215" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B216" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
-        <v>294</v>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B219" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B221" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B238" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B243" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B248" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B253" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
-        <v>330</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B256" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B258" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
-        <v>334</v>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B261" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B263" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
-        <v>338</v>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B266" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B268" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
-        <v>342</v>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B271" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B273" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
-        <v>345</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B276" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B278" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B279" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
-        <v>348</v>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B281" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B282" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B283" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B284" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B285" t="s">
-        <v>351</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B286" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B288" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B289" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B290" t="s">
-        <v>354</v>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B291" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B292" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B293" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B295" t="s">
-        <v>357</v>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B296" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B297" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B298" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B299" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B300" t="s">
-        <v>360</v>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B301" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B302" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B303" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B304" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B305" t="s">
-        <v>363</v>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B306" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B308" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B309" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B310" t="s">
-        <v>366</v>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B311" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B312" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B313" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B315" t="s">
-        <v>369</v>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B316" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B317" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B318" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B319" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B320" t="s">
-        <v>372</v>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B321" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B323" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B324" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B325" t="s">
-        <v>375</v>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B326" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B327" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B328" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B329" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
     </row>
     <row r="330" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B330" t="s">
-        <v>379</v>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B331" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B332" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B333" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="334" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B334" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B335" t="s">
-        <v>383</v>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B336" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B337" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B338" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B339" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B340" t="s">
-        <v>387</v>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B341" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B342" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B343" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B344" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B345" t="s">
-        <v>391</v>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B346" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B347" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B348" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B349" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B350" t="s">
-        <v>395</v>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B351" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="352" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B352" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B353" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="354" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B354" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="355" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B355" t="s">
-        <v>399</v>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B356" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B357" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B358" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B359" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="360" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B360" t="s">
-        <v>403</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B361" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="362" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B362" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B363" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="364" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B364" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="365" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B365" t="s">
-        <v>406</v>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B366" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="367" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B367" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B368" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="369" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B369" t="s">
-        <v>408</v>
+        <v>339</v>
       </c>
     </row>
     <row r="370" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B370" t="s">
-        <v>409</v>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B371" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="372" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B372" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B373" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="374" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B374" t="s">
-        <v>411</v>
+        <v>339</v>
       </c>
     </row>
     <row r="375" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B375" t="s">
-        <v>412</v>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B376" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="377" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B377" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B378" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="379" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B379" t="s">
-        <v>414</v>
+        <v>339</v>
       </c>
     </row>
     <row r="380" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B380" t="s">
-        <v>415</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B381" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="382" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B382" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B383" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="384" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B384" t="s">
-        <v>417</v>
+        <v>339</v>
       </c>
     </row>
     <row r="385" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B385" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B386" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B387" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B389" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B390" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B391" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B392" t="s">
         <v>418</v>
       </c>
     </row>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="647" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="647" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA" sheetId="38" r:id="rId1"/>
     <sheet name="DETALLE" sheetId="28" r:id="rId2"/>
     <sheet name="FACT" sheetId="30" r:id="rId3"/>
     <sheet name="PENSION ALIMENTICIA" sheetId="32" r:id="rId4"/>
-    <sheet name="Hoja1" sheetId="39" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="39" state="hidden" r:id="rId5"/>
+    <sheet name="Hoja2" sheetId="40" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="__TC1">[1]FOR!$B$9</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="692">
   <si>
     <t>TOTAL</t>
   </si>
@@ -1309,6 +1310,819 @@
   </si>
   <si>
     <t>PPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select fkiIdPeriodo, EmpleadosC.cCodigoEmpleado, EmpleadosC.cNombreLargo, </t>
+  </si>
+  <si>
+    <t>SUM (fTExtra2V)</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>SUM (fTExtra3V)</t>
+  </si>
+  <si>
+    <t>SUM (fDescansoLV)</t>
+  </si>
+  <si>
+    <t>SUM (fDiaFestivoLV)</t>
+  </si>
+  <si>
+    <t>SUM (fHoras_extras_dobles_V)</t>
+  </si>
+  <si>
+    <t>SUM (fHoras_extras_triples_V)</t>
+  </si>
+  <si>
+    <t>SUM (fDescanso_Laborado_V)</t>
+  </si>
+  <si>
+    <t>SUM (fDia_Festivo_laborado_V)</t>
+  </si>
+  <si>
+    <t>SUM (fPrima_Dominical_V)</t>
+  </si>
+  <si>
+    <t>SUM (fFalta_Injustificada_V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SUM (fPermiso_Sin_GS_V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SUM (fT_No_laborado_V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SUM (fSalarioBase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SUM (fSalarioDiario)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fSalarioBC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (iDiasTrabajados)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fSueldoBruto)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fSeptimoDia)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fPrimaDomGravada)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fPrimaDomExenta)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fTExtra2Gravado)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fTExtra2Exento)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fTExtra3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fDescansoL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fDiaFestivoL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fBonoAsistencia)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fBonoProductividad)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fBonoPolivalencia)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fBonoEspecialidad)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fBonoCalidad)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fCompensacion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fSemanaFondo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fFaltaInjustificada)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fPermisoSinGS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fIncrementoRetenido)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fVacacionesProporcionales)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fAguinaldoGravado)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fAguinaldoExento)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fPrimaVacacionalGravado)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fPrimaVacacionalExento)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fTotalPercepciones)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fTotalPercepcionesISR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fIncapacidad)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fIsr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fImss)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fInfonavit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fInfonavitBanterior)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fAjusteInfonavit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fPensionAlimenticia)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fPrestamo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fFonacot)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fT_No_laborado)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fCuotaSindical)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fSubsidioGenerado)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fSubsidioAplicado)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fOperadora)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fPrestamoPerA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fAdeudoInfonavitA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fDiferenciaInfonavitA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fAsimilados)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fRetencionOperadora)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fPorComision)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fComisionOperadora)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fComisionAsimilados)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fImssCS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fRcvCS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fInfonavitCS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fInsCS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUM (fTotalCostoSocial)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fTotalCostoSocial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FROM</t>
+  </si>
+  <si>
+    <t>Nomina</t>
+  </si>
+  <si>
+    <t>inner</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>EmpleadosC</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fkiIdEmpleadoC=iIdEmpleadoC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  where</t>
+  </si>
+  <si>
+    <t>Nomina.fkiIdEmpresa</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>And</t>
+  </si>
+  <si>
+    <t>fkiIdPeriodo in(1,4)and</t>
+  </si>
+  <si>
+    <t>Nomina.iEstatus=1</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>iEstatusEmpleado=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iTipoNomina=0 </t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>EmpleadosC.cCodigoEmpleado,</t>
+  </si>
+  <si>
+    <t>EmpleadosC.cNombreLargo</t>
+  </si>
+  <si>
+    <t>hoja.Cell(filaExcel + x,</t>
+  </si>
+  <si>
+    <t>3 ).Value=</t>
+  </si>
+  <si>
+    <t>4 ).Value=</t>
+  </si>
+  <si>
+    <t>5 ).Value=</t>
+  </si>
+  <si>
+    <t>6 ).Value=</t>
+  </si>
+  <si>
+    <t>7 ).Value=</t>
+  </si>
+  <si>
+    <t>8 ).Value=</t>
+  </si>
+  <si>
+    <t>9 ).Value=</t>
+  </si>
+  <si>
+    <t>10 ).Value=</t>
+  </si>
+  <si>
+    <t>11 ).Value=</t>
+  </si>
+  <si>
+    <t>12 ).Value=</t>
+  </si>
+  <si>
+    <t>13 ).Value=</t>
+  </si>
+  <si>
+    <t>14 ).Value=</t>
+  </si>
+  <si>
+    <t>16 ).Value=</t>
+  </si>
+  <si>
+    <t>17 ).Value=</t>
+  </si>
+  <si>
+    <t>18 ).Value=</t>
+  </si>
+  <si>
+    <t>19 ).Value=</t>
+  </si>
+  <si>
+    <t>20 ).Value=</t>
+  </si>
+  <si>
+    <t>21 ).Value=</t>
+  </si>
+  <si>
+    <t>22 ).Value=</t>
+  </si>
+  <si>
+    <t>23 ).Value=</t>
+  </si>
+  <si>
+    <t>24 ).Value=</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>CLAVE</t>
+  </si>
+  <si>
+    <t>AREA</t>
+  </si>
+  <si>
+    <t>CATEGORIA</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>NOMINA</t>
+  </si>
+  <si>
+    <t>CONTRATO</t>
+  </si>
+  <si>
+    <t>ALTA</t>
+  </si>
+  <si>
+    <t>BCO DEPOSITO</t>
+  </si>
+  <si>
+    <t>CTA DEPOSITO</t>
+  </si>
+  <si>
+    <t>rwFilas(x).Item("</t>
+  </si>
+  <si>
+    <t>cCodigoEmpleado</t>
+  </si>
+  <si>
+    <t>")</t>
+  </si>
+  <si>
+    <t>cNombreLargo</t>
+  </si>
+  <si>
+    <t>Depto</t>
+  </si>
+  <si>
+    <t>Puesto</t>
+  </si>
+  <si>
+    <t>"LIMITADO"</t>
+  </si>
+  <si>
+    <t>empresaN</t>
+  </si>
+  <si>
+    <t>fkiIdPeriodo</t>
+  </si>
+  <si>
+    <t>"OTRO"</t>
+  </si>
+  <si>
+    <t>cRFC</t>
+  </si>
+  <si>
+    <t>cCURP</t>
+  </si>
+  <si>
+    <t>cIMSS</t>
+  </si>
+  <si>
+    <t>dFechaAntiguedad</t>
+  </si>
+  <si>
+    <t>clabe</t>
+  </si>
+  <si>
+    <t>15 ).formulaA1=</t>
+  </si>
+  <si>
+    <t>"=LEFT(Q" &amp; filaExcel + x &amp; ")"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fTExtra2V  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fTExtra3V  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fDescansoLV  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fDiaFestivoLV  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fHoras_extras_dobles_V  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fHoras_extras_triples_V  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fDescanso_Laborado_V  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fDia_Festivo_laborado_V  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fPrima_Dominical_V  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fFalta_Injustificada_V </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fPermiso_Sin_GS_V  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fT_No_laborado_V  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fSalarioBase  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fSalarioDiario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fSalarioBC  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iDiasTrabajados  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fSueldoBruto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fSeptimoDia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fPrimaDomGravada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fPrimaDomExenta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fTExtra2Gravado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fTExtra2Exento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fTExtra3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fDescansoL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fDiaFestivoL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fBonoAsistencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fBonoProductividad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fBonoPolivalencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fBonoEspecialidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fBonoCalidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fCompensacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fSemanaFondo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fFaltaInjustificada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fPermisoSinGS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fIncrementoRetenido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fVacacionesProporcionales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fAguinaldoGravado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fAguinaldoExento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fPrimaVacacionalGravado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fPrimaVacacionalExento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fTotalPercepciones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fTotalPercepcionesISR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fIncapacidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fIsr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fImss </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fInfonavit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fInfonavitBanterior </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fAjusteInfonavit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fPensionAlimenticia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fPrestamo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fFonacot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fT_No_laborado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fCuotaSindical </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fSubsidioGenerado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fSubsidioAplicado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fOperadora </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fPrestamoPerA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fAdeudoInfonavitA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fDiferenciaInfonavitA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fAsimilados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fRetencionOperadora </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fPorComision </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fComisionOperadora </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fComisionAsimilados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fImssCS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fRcvCS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fInfonavitCS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fInsCS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fkiIdPeriodo fkiIdEmpleadoC </t>
+  </si>
+  <si>
+    <t>25 ).Value=</t>
+  </si>
+  <si>
+    <t>26 ).Value=</t>
+  </si>
+  <si>
+    <t>27 ).Value=</t>
+  </si>
+  <si>
+    <t>28 ).Value=</t>
+  </si>
+  <si>
+    <t>29 ).Value=</t>
+  </si>
+  <si>
+    <t>30 ).Value=</t>
+  </si>
+  <si>
+    <t>31 ).Value=</t>
+  </si>
+  <si>
+    <t>32 ).Value=</t>
+  </si>
+  <si>
+    <t>33 ).Value=</t>
+  </si>
+  <si>
+    <t>34 ).Value=</t>
+  </si>
+  <si>
+    <t>35 ).Value=</t>
+  </si>
+  <si>
+    <t>36 ).Value=</t>
+  </si>
+  <si>
+    <t>37 ).Value=</t>
+  </si>
+  <si>
+    <t>38 ).Value=</t>
+  </si>
+  <si>
+    <t>39 ).Value=</t>
+  </si>
+  <si>
+    <t>40 ).Value=</t>
+  </si>
+  <si>
+    <t>41 ).Value=</t>
+  </si>
+  <si>
+    <t>42 ).Value=</t>
+  </si>
+  <si>
+    <t>43 ).Value=</t>
+  </si>
+  <si>
+    <t>44 ).Value=</t>
+  </si>
+  <si>
+    <t>45 ).Value=</t>
+  </si>
+  <si>
+    <t>46 ).Value=</t>
+  </si>
+  <si>
+    <t>47 ).Value=</t>
+  </si>
+  <si>
+    <t>48 ).Value=</t>
+  </si>
+  <si>
+    <t>49 ).Value=</t>
+  </si>
+  <si>
+    <t>50 ).Value=</t>
+  </si>
+  <si>
+    <t>51 ).Value=</t>
+  </si>
+  <si>
+    <t>52 ).Value=</t>
+  </si>
+  <si>
+    <t>53 ).Value=</t>
+  </si>
+  <si>
+    <t>54 ).Value=</t>
+  </si>
+  <si>
+    <t>55 ).Value=</t>
+  </si>
+  <si>
+    <t>56 ).Value=</t>
+  </si>
+  <si>
+    <t>57 ).Value=</t>
+  </si>
+  <si>
+    <t>58 ).Value=</t>
+  </si>
+  <si>
+    <t>59 ).Value=</t>
+  </si>
+  <si>
+    <t>60 ).Value=</t>
+  </si>
+  <si>
+    <t>61 ).Value=</t>
+  </si>
+  <si>
+    <t>62 ).Value=</t>
+  </si>
+  <si>
+    <t>63 ).Value=</t>
+  </si>
+  <si>
+    <t>64 ).Value=</t>
+  </si>
+  <si>
+    <t>65 ).Value=</t>
+  </si>
+  <si>
+    <t>66 ).Value=</t>
+  </si>
+  <si>
+    <t>67 ).Value=</t>
+  </si>
+  <si>
+    <t>68 ).Value=</t>
+  </si>
+  <si>
+    <t>69 ).Value=</t>
+  </si>
+  <si>
+    <t>70 ).Value=</t>
+  </si>
+  <si>
+    <t>71 ).Value=</t>
+  </si>
+  <si>
+    <t>72 ).Value=</t>
+  </si>
+  <si>
+    <t>73 ).Value=</t>
+  </si>
+  <si>
+    <t>74 ).Value=</t>
+  </si>
+  <si>
+    <t>75 ).Value=</t>
+  </si>
+  <si>
+    <t>76 ).Value=</t>
+  </si>
+  <si>
+    <t>77 ).Value=</t>
+  </si>
+  <si>
+    <t>78 ).Value=</t>
+  </si>
+  <si>
+    <t>79 ).Value=</t>
+  </si>
+  <si>
+    <t>80 ).Value=</t>
+  </si>
+  <si>
+    <t>81 ).Value=</t>
+  </si>
+  <si>
+    <t>82 ).Value=</t>
+  </si>
+  <si>
+    <t>83 ).Value=</t>
+  </si>
+  <si>
+    <t>84 ).Value=</t>
+  </si>
+  <si>
+    <t>85 ).Value=</t>
   </si>
 </sst>
 </file>
@@ -3204,7 +4018,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3351,6 +4165,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1493">
     <cellStyle name="Comma_2 SALARIOS" xfId="1491"/>
@@ -7229,8 +8044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="B243" sqref="B243"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8841,4 +9656,2235 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:S89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18:K86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G2" s="48" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G3" s="48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E4" t="s">
+        <v>546</v>
+      </c>
+      <c r="F4" t="s">
+        <v>547</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C5" t="s">
+        <v>515</v>
+      </c>
+      <c r="D5" t="s">
+        <v>545</v>
+      </c>
+      <c r="E5" t="s">
+        <v>548</v>
+      </c>
+      <c r="F5" t="s">
+        <v>547</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C6" t="s">
+        <v>516</v>
+      </c>
+      <c r="D6" t="s">
+        <v>552</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>513</v>
+      </c>
+      <c r="C7" t="s">
+        <v>517</v>
+      </c>
+      <c r="D7" t="s">
+        <v>551</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>513</v>
+      </c>
+      <c r="C8" t="s">
+        <v>518</v>
+      </c>
+      <c r="D8" t="s">
+        <v>545</v>
+      </c>
+      <c r="E8" t="s">
+        <v>550</v>
+      </c>
+      <c r="F8" t="s">
+        <v>547</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>513</v>
+      </c>
+      <c r="C9" t="s">
+        <v>519</v>
+      </c>
+      <c r="D9" t="s">
+        <v>545</v>
+      </c>
+      <c r="E9" t="s">
+        <v>549</v>
+      </c>
+      <c r="F9" t="s">
+        <v>547</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>513</v>
+      </c>
+      <c r="C10" t="s">
+        <v>520</v>
+      </c>
+      <c r="D10" t="s">
+        <v>545</v>
+      </c>
+      <c r="E10" t="s">
+        <v>553</v>
+      </c>
+      <c r="F10" t="s">
+        <v>547</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>513</v>
+      </c>
+      <c r="C11" t="s">
+        <v>521</v>
+      </c>
+      <c r="D11" t="s">
+        <v>554</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>513</v>
+      </c>
+      <c r="C12" t="s">
+        <v>522</v>
+      </c>
+      <c r="D12" t="s">
+        <v>545</v>
+      </c>
+      <c r="E12" s="76" t="s">
+        <v>555</v>
+      </c>
+      <c r="F12" t="s">
+        <v>547</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>513</v>
+      </c>
+      <c r="C13" t="s">
+        <v>523</v>
+      </c>
+      <c r="D13" t="s">
+        <v>545</v>
+      </c>
+      <c r="E13" s="76" t="s">
+        <v>557</v>
+      </c>
+      <c r="F13" t="s">
+        <v>547</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>513</v>
+      </c>
+      <c r="C14" t="s">
+        <v>524</v>
+      </c>
+      <c r="D14" t="s">
+        <v>545</v>
+      </c>
+      <c r="E14" s="76" t="s">
+        <v>556</v>
+      </c>
+      <c r="F14" t="s">
+        <v>547</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>513</v>
+      </c>
+      <c r="C15" t="s">
+        <v>525</v>
+      </c>
+      <c r="D15" t="s">
+        <v>545</v>
+      </c>
+      <c r="E15" s="76" t="s">
+        <v>558</v>
+      </c>
+      <c r="F15" t="s">
+        <v>547</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>513</v>
+      </c>
+      <c r="C16" t="s">
+        <v>560</v>
+      </c>
+      <c r="D16" t="s">
+        <v>561</v>
+      </c>
+      <c r="E16" s="76"/>
+      <c r="G16" s="48" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>513</v>
+      </c>
+      <c r="C17" t="s">
+        <v>526</v>
+      </c>
+      <c r="D17" t="s">
+        <v>545</v>
+      </c>
+      <c r="E17" s="76" t="s">
+        <v>559</v>
+      </c>
+      <c r="F17" t="s">
+        <v>547</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="I17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>513</v>
+      </c>
+      <c r="C18" t="s">
+        <v>527</v>
+      </c>
+      <c r="D18" t="s">
+        <v>545</v>
+      </c>
+      <c r="E18" s="76" t="str">
+        <f>+K18</f>
+        <v xml:space="preserve">fTExtra2V  </v>
+      </c>
+      <c r="F18" t="s">
+        <v>547</v>
+      </c>
+      <c r="I18" t="s">
+        <v>422</v>
+      </c>
+      <c r="J18" t="s">
+        <v>423</v>
+      </c>
+      <c r="K18" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>513</v>
+      </c>
+      <c r="C19" t="s">
+        <v>528</v>
+      </c>
+      <c r="D19" t="s">
+        <v>545</v>
+      </c>
+      <c r="E19" s="76" t="str">
+        <f t="shared" ref="E19:E82" si="0">+K19</f>
+        <v xml:space="preserve">fTExtra3V  </v>
+      </c>
+      <c r="F19" t="s">
+        <v>547</v>
+      </c>
+      <c r="I19" t="s">
+        <v>424</v>
+      </c>
+      <c r="J19" t="s">
+        <v>423</v>
+      </c>
+      <c r="K19" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>513</v>
+      </c>
+      <c r="C20" t="s">
+        <v>529</v>
+      </c>
+      <c r="D20" t="s">
+        <v>545</v>
+      </c>
+      <c r="E20" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fDescansoLV  </v>
+      </c>
+      <c r="F20" t="s">
+        <v>547</v>
+      </c>
+      <c r="I20" t="s">
+        <v>425</v>
+      </c>
+      <c r="J20" t="s">
+        <v>423</v>
+      </c>
+      <c r="K20" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>513</v>
+      </c>
+      <c r="C21" t="s">
+        <v>530</v>
+      </c>
+      <c r="D21" t="s">
+        <v>545</v>
+      </c>
+      <c r="E21" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fDiaFestivoLV  </v>
+      </c>
+      <c r="F21" t="s">
+        <v>547</v>
+      </c>
+      <c r="I21" t="s">
+        <v>426</v>
+      </c>
+      <c r="J21" t="s">
+        <v>423</v>
+      </c>
+      <c r="K21" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>513</v>
+      </c>
+      <c r="C22" t="s">
+        <v>531</v>
+      </c>
+      <c r="D22" t="s">
+        <v>545</v>
+      </c>
+      <c r="E22" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fHoras_extras_dobles_V  </v>
+      </c>
+      <c r="F22" t="s">
+        <v>547</v>
+      </c>
+      <c r="I22" t="s">
+        <v>427</v>
+      </c>
+      <c r="J22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K22" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>513</v>
+      </c>
+      <c r="C23" t="s">
+        <v>532</v>
+      </c>
+      <c r="D23" t="s">
+        <v>545</v>
+      </c>
+      <c r="E23" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fHoras_extras_triples_V  </v>
+      </c>
+      <c r="F23" t="s">
+        <v>547</v>
+      </c>
+      <c r="I23" t="s">
+        <v>428</v>
+      </c>
+      <c r="J23" t="s">
+        <v>423</v>
+      </c>
+      <c r="K23" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>513</v>
+      </c>
+      <c r="C24" t="s">
+        <v>533</v>
+      </c>
+      <c r="D24" t="s">
+        <v>545</v>
+      </c>
+      <c r="E24" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fDescanso_Laborado_V  </v>
+      </c>
+      <c r="F24" t="s">
+        <v>547</v>
+      </c>
+      <c r="I24" t="s">
+        <v>429</v>
+      </c>
+      <c r="J24" t="s">
+        <v>423</v>
+      </c>
+      <c r="K24" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>513</v>
+      </c>
+      <c r="C25" t="s">
+        <v>534</v>
+      </c>
+      <c r="D25" t="s">
+        <v>545</v>
+      </c>
+      <c r="E25" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fDia_Festivo_laborado_V  </v>
+      </c>
+      <c r="F25" t="s">
+        <v>547</v>
+      </c>
+      <c r="I25" t="s">
+        <v>430</v>
+      </c>
+      <c r="J25" t="s">
+        <v>423</v>
+      </c>
+      <c r="K25" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>513</v>
+      </c>
+      <c r="C26" t="s">
+        <v>631</v>
+      </c>
+      <c r="D26" t="s">
+        <v>545</v>
+      </c>
+      <c r="E26" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fPrima_Dominical_V  </v>
+      </c>
+      <c r="F26" t="s">
+        <v>547</v>
+      </c>
+      <c r="I26" t="s">
+        <v>431</v>
+      </c>
+      <c r="J26" t="s">
+        <v>423</v>
+      </c>
+      <c r="K26" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>513</v>
+      </c>
+      <c r="C27" t="s">
+        <v>632</v>
+      </c>
+      <c r="D27" t="s">
+        <v>545</v>
+      </c>
+      <c r="E27" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fFalta_Injustificada_V </v>
+      </c>
+      <c r="F27" t="s">
+        <v>547</v>
+      </c>
+      <c r="I27" t="s">
+        <v>432</v>
+      </c>
+      <c r="J27" t="s">
+        <v>423</v>
+      </c>
+      <c r="K27" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>513</v>
+      </c>
+      <c r="C28" t="s">
+        <v>633</v>
+      </c>
+      <c r="D28" t="s">
+        <v>545</v>
+      </c>
+      <c r="E28" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fPermiso_Sin_GS_V  </v>
+      </c>
+      <c r="F28" t="s">
+        <v>547</v>
+      </c>
+      <c r="I28" t="s">
+        <v>433</v>
+      </c>
+      <c r="J28" t="s">
+        <v>423</v>
+      </c>
+      <c r="K28" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>513</v>
+      </c>
+      <c r="C29" t="s">
+        <v>634</v>
+      </c>
+      <c r="D29" t="s">
+        <v>545</v>
+      </c>
+      <c r="E29" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fT_No_laborado_V  </v>
+      </c>
+      <c r="F29" t="s">
+        <v>547</v>
+      </c>
+      <c r="I29" t="s">
+        <v>434</v>
+      </c>
+      <c r="J29" t="s">
+        <v>423</v>
+      </c>
+      <c r="K29" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>513</v>
+      </c>
+      <c r="C30" t="s">
+        <v>635</v>
+      </c>
+      <c r="D30" t="s">
+        <v>545</v>
+      </c>
+      <c r="E30" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fSalarioBase  </v>
+      </c>
+      <c r="F30" t="s">
+        <v>547</v>
+      </c>
+      <c r="I30" t="s">
+        <v>435</v>
+      </c>
+      <c r="J30" t="s">
+        <v>423</v>
+      </c>
+      <c r="K30" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>513</v>
+      </c>
+      <c r="C31" t="s">
+        <v>636</v>
+      </c>
+      <c r="D31" t="s">
+        <v>545</v>
+      </c>
+      <c r="E31" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fSalarioDiario </v>
+      </c>
+      <c r="F31" t="s">
+        <v>547</v>
+      </c>
+      <c r="I31" t="s">
+        <v>436</v>
+      </c>
+      <c r="J31" t="s">
+        <v>423</v>
+      </c>
+      <c r="K31" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>513</v>
+      </c>
+      <c r="C32" t="s">
+        <v>637</v>
+      </c>
+      <c r="D32" t="s">
+        <v>545</v>
+      </c>
+      <c r="E32" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fSalarioBC  </v>
+      </c>
+      <c r="F32" t="s">
+        <v>547</v>
+      </c>
+      <c r="I32" t="s">
+        <v>437</v>
+      </c>
+      <c r="J32" t="s">
+        <v>423</v>
+      </c>
+      <c r="K32" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>513</v>
+      </c>
+      <c r="C33" t="s">
+        <v>638</v>
+      </c>
+      <c r="D33" t="s">
+        <v>545</v>
+      </c>
+      <c r="E33" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">iDiasTrabajados  </v>
+      </c>
+      <c r="F33" t="s">
+        <v>547</v>
+      </c>
+      <c r="I33" t="s">
+        <v>438</v>
+      </c>
+      <c r="J33" t="s">
+        <v>423</v>
+      </c>
+      <c r="K33" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>513</v>
+      </c>
+      <c r="C34" t="s">
+        <v>639</v>
+      </c>
+      <c r="D34" t="s">
+        <v>545</v>
+      </c>
+      <c r="E34" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fSueldoBruto </v>
+      </c>
+      <c r="F34" t="s">
+        <v>547</v>
+      </c>
+      <c r="I34" t="s">
+        <v>439</v>
+      </c>
+      <c r="J34" t="s">
+        <v>423</v>
+      </c>
+      <c r="K34" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>513</v>
+      </c>
+      <c r="C35" t="s">
+        <v>640</v>
+      </c>
+      <c r="D35" t="s">
+        <v>545</v>
+      </c>
+      <c r="E35" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fSeptimoDia </v>
+      </c>
+      <c r="F35" t="s">
+        <v>547</v>
+      </c>
+      <c r="I35" t="s">
+        <v>440</v>
+      </c>
+      <c r="J35" t="s">
+        <v>423</v>
+      </c>
+      <c r="K35" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>513</v>
+      </c>
+      <c r="C36" t="s">
+        <v>641</v>
+      </c>
+      <c r="D36" t="s">
+        <v>545</v>
+      </c>
+      <c r="E36" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fPrimaDomGravada </v>
+      </c>
+      <c r="F36" t="s">
+        <v>547</v>
+      </c>
+      <c r="I36" t="s">
+        <v>441</v>
+      </c>
+      <c r="J36" t="s">
+        <v>423</v>
+      </c>
+      <c r="K36" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>513</v>
+      </c>
+      <c r="C37" t="s">
+        <v>642</v>
+      </c>
+      <c r="D37" t="s">
+        <v>545</v>
+      </c>
+      <c r="E37" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fPrimaDomExenta </v>
+      </c>
+      <c r="F37" t="s">
+        <v>547</v>
+      </c>
+      <c r="I37" t="s">
+        <v>442</v>
+      </c>
+      <c r="J37" t="s">
+        <v>423</v>
+      </c>
+      <c r="K37" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>513</v>
+      </c>
+      <c r="C38" t="s">
+        <v>643</v>
+      </c>
+      <c r="D38" t="s">
+        <v>545</v>
+      </c>
+      <c r="E38" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fTExtra2Gravado </v>
+      </c>
+      <c r="F38" t="s">
+        <v>547</v>
+      </c>
+      <c r="I38" t="s">
+        <v>443</v>
+      </c>
+      <c r="J38" t="s">
+        <v>423</v>
+      </c>
+      <c r="K38" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>513</v>
+      </c>
+      <c r="C39" t="s">
+        <v>644</v>
+      </c>
+      <c r="D39" t="s">
+        <v>545</v>
+      </c>
+      <c r="E39" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fTExtra2Exento </v>
+      </c>
+      <c r="F39" t="s">
+        <v>547</v>
+      </c>
+      <c r="I39" t="s">
+        <v>444</v>
+      </c>
+      <c r="J39" t="s">
+        <v>423</v>
+      </c>
+      <c r="K39" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>513</v>
+      </c>
+      <c r="C40" t="s">
+        <v>645</v>
+      </c>
+      <c r="D40" t="s">
+        <v>545</v>
+      </c>
+      <c r="E40" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fTExtra3 </v>
+      </c>
+      <c r="F40" t="s">
+        <v>547</v>
+      </c>
+      <c r="I40" t="s">
+        <v>445</v>
+      </c>
+      <c r="J40" t="s">
+        <v>423</v>
+      </c>
+      <c r="K40" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>513</v>
+      </c>
+      <c r="C41" t="s">
+        <v>646</v>
+      </c>
+      <c r="D41" t="s">
+        <v>545</v>
+      </c>
+      <c r="E41" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fDescansoL </v>
+      </c>
+      <c r="F41" t="s">
+        <v>547</v>
+      </c>
+      <c r="I41" t="s">
+        <v>446</v>
+      </c>
+      <c r="J41" t="s">
+        <v>423</v>
+      </c>
+      <c r="K41" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>513</v>
+      </c>
+      <c r="C42" t="s">
+        <v>647</v>
+      </c>
+      <c r="D42" t="s">
+        <v>545</v>
+      </c>
+      <c r="E42" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fDiaFestivoL </v>
+      </c>
+      <c r="F42" t="s">
+        <v>547</v>
+      </c>
+      <c r="I42" t="s">
+        <v>447</v>
+      </c>
+      <c r="J42" t="s">
+        <v>423</v>
+      </c>
+      <c r="K42" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>513</v>
+      </c>
+      <c r="C43" t="s">
+        <v>648</v>
+      </c>
+      <c r="D43" t="s">
+        <v>545</v>
+      </c>
+      <c r="E43" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fBonoAsistencia </v>
+      </c>
+      <c r="F43" t="s">
+        <v>547</v>
+      </c>
+      <c r="I43" t="s">
+        <v>448</v>
+      </c>
+      <c r="J43" t="s">
+        <v>423</v>
+      </c>
+      <c r="K43" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C44" t="s">
+        <v>649</v>
+      </c>
+      <c r="D44" t="s">
+        <v>545</v>
+      </c>
+      <c r="E44" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fBonoProductividad </v>
+      </c>
+      <c r="F44" t="s">
+        <v>547</v>
+      </c>
+      <c r="I44" t="s">
+        <v>449</v>
+      </c>
+      <c r="J44" t="s">
+        <v>423</v>
+      </c>
+      <c r="K44" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>513</v>
+      </c>
+      <c r="C45" t="s">
+        <v>650</v>
+      </c>
+      <c r="D45" t="s">
+        <v>545</v>
+      </c>
+      <c r="E45" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fBonoPolivalencia </v>
+      </c>
+      <c r="F45" t="s">
+        <v>547</v>
+      </c>
+      <c r="I45" t="s">
+        <v>450</v>
+      </c>
+      <c r="J45" t="s">
+        <v>423</v>
+      </c>
+      <c r="K45" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>513</v>
+      </c>
+      <c r="C46" t="s">
+        <v>651</v>
+      </c>
+      <c r="D46" t="s">
+        <v>545</v>
+      </c>
+      <c r="E46" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fBonoEspecialidad </v>
+      </c>
+      <c r="F46" t="s">
+        <v>547</v>
+      </c>
+      <c r="I46" t="s">
+        <v>451</v>
+      </c>
+      <c r="J46" t="s">
+        <v>423</v>
+      </c>
+      <c r="K46" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>513</v>
+      </c>
+      <c r="C47" t="s">
+        <v>652</v>
+      </c>
+      <c r="D47" t="s">
+        <v>545</v>
+      </c>
+      <c r="E47" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fBonoCalidad </v>
+      </c>
+      <c r="F47" t="s">
+        <v>547</v>
+      </c>
+      <c r="I47" t="s">
+        <v>452</v>
+      </c>
+      <c r="J47" t="s">
+        <v>423</v>
+      </c>
+      <c r="K47" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>513</v>
+      </c>
+      <c r="C48" t="s">
+        <v>653</v>
+      </c>
+      <c r="D48" t="s">
+        <v>545</v>
+      </c>
+      <c r="E48" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fCompensacion </v>
+      </c>
+      <c r="F48" t="s">
+        <v>547</v>
+      </c>
+      <c r="I48" t="s">
+        <v>453</v>
+      </c>
+      <c r="J48" t="s">
+        <v>423</v>
+      </c>
+      <c r="K48" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>513</v>
+      </c>
+      <c r="C49" t="s">
+        <v>654</v>
+      </c>
+      <c r="D49" t="s">
+        <v>545</v>
+      </c>
+      <c r="E49" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fSemanaFondo </v>
+      </c>
+      <c r="F49" t="s">
+        <v>547</v>
+      </c>
+      <c r="I49" t="s">
+        <v>454</v>
+      </c>
+      <c r="J49" t="s">
+        <v>423</v>
+      </c>
+      <c r="K49" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>513</v>
+      </c>
+      <c r="C50" t="s">
+        <v>655</v>
+      </c>
+      <c r="D50" t="s">
+        <v>545</v>
+      </c>
+      <c r="E50" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fFaltaInjustificada </v>
+      </c>
+      <c r="F50" t="s">
+        <v>547</v>
+      </c>
+      <c r="I50" t="s">
+        <v>455</v>
+      </c>
+      <c r="J50" t="s">
+        <v>423</v>
+      </c>
+      <c r="K50" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>513</v>
+      </c>
+      <c r="C51" t="s">
+        <v>656</v>
+      </c>
+      <c r="D51" t="s">
+        <v>545</v>
+      </c>
+      <c r="E51" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fPermisoSinGS </v>
+      </c>
+      <c r="F51" t="s">
+        <v>547</v>
+      </c>
+      <c r="I51" t="s">
+        <v>456</v>
+      </c>
+      <c r="J51" t="s">
+        <v>423</v>
+      </c>
+      <c r="K51" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>513</v>
+      </c>
+      <c r="C52" t="s">
+        <v>657</v>
+      </c>
+      <c r="D52" t="s">
+        <v>545</v>
+      </c>
+      <c r="E52" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fIncrementoRetenido </v>
+      </c>
+      <c r="F52" t="s">
+        <v>547</v>
+      </c>
+      <c r="I52" t="s">
+        <v>457</v>
+      </c>
+      <c r="J52" t="s">
+        <v>423</v>
+      </c>
+      <c r="K52" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>513</v>
+      </c>
+      <c r="C53" t="s">
+        <v>658</v>
+      </c>
+      <c r="D53" t="s">
+        <v>545</v>
+      </c>
+      <c r="E53" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fVacacionesProporcionales </v>
+      </c>
+      <c r="F53" t="s">
+        <v>547</v>
+      </c>
+      <c r="I53" t="s">
+        <v>458</v>
+      </c>
+      <c r="J53" t="s">
+        <v>423</v>
+      </c>
+      <c r="K53" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>513</v>
+      </c>
+      <c r="C54" t="s">
+        <v>659</v>
+      </c>
+      <c r="D54" t="s">
+        <v>545</v>
+      </c>
+      <c r="E54" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fAguinaldoGravado </v>
+      </c>
+      <c r="F54" t="s">
+        <v>547</v>
+      </c>
+      <c r="I54" t="s">
+        <v>459</v>
+      </c>
+      <c r="J54" t="s">
+        <v>423</v>
+      </c>
+      <c r="K54" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>513</v>
+      </c>
+      <c r="C55" t="s">
+        <v>660</v>
+      </c>
+      <c r="D55" t="s">
+        <v>545</v>
+      </c>
+      <c r="E55" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fAguinaldoExento </v>
+      </c>
+      <c r="F55" t="s">
+        <v>547</v>
+      </c>
+      <c r="I55" t="s">
+        <v>460</v>
+      </c>
+      <c r="J55" t="s">
+        <v>423</v>
+      </c>
+      <c r="K55" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>513</v>
+      </c>
+      <c r="C56" t="s">
+        <v>661</v>
+      </c>
+      <c r="D56" t="s">
+        <v>545</v>
+      </c>
+      <c r="E56" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fPrimaVacacionalGravado </v>
+      </c>
+      <c r="F56" t="s">
+        <v>547</v>
+      </c>
+      <c r="I56" t="s">
+        <v>461</v>
+      </c>
+      <c r="J56" t="s">
+        <v>423</v>
+      </c>
+      <c r="K56" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>513</v>
+      </c>
+      <c r="C57" t="s">
+        <v>662</v>
+      </c>
+      <c r="D57" t="s">
+        <v>545</v>
+      </c>
+      <c r="E57" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fPrimaVacacionalExento </v>
+      </c>
+      <c r="F57" t="s">
+        <v>547</v>
+      </c>
+      <c r="I57" t="s">
+        <v>462</v>
+      </c>
+      <c r="J57" t="s">
+        <v>423</v>
+      </c>
+      <c r="K57" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>513</v>
+      </c>
+      <c r="C58" t="s">
+        <v>663</v>
+      </c>
+      <c r="D58" t="s">
+        <v>545</v>
+      </c>
+      <c r="E58" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fTotalPercepciones </v>
+      </c>
+      <c r="F58" t="s">
+        <v>547</v>
+      </c>
+      <c r="I58" t="s">
+        <v>463</v>
+      </c>
+      <c r="J58" t="s">
+        <v>423</v>
+      </c>
+      <c r="K58" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>513</v>
+      </c>
+      <c r="C59" t="s">
+        <v>664</v>
+      </c>
+      <c r="D59" t="s">
+        <v>545</v>
+      </c>
+      <c r="E59" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fTotalPercepcionesISR </v>
+      </c>
+      <c r="F59" t="s">
+        <v>547</v>
+      </c>
+      <c r="I59" t="s">
+        <v>464</v>
+      </c>
+      <c r="J59" t="s">
+        <v>423</v>
+      </c>
+      <c r="K59" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>513</v>
+      </c>
+      <c r="C60" t="s">
+        <v>665</v>
+      </c>
+      <c r="D60" t="s">
+        <v>545</v>
+      </c>
+      <c r="E60" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fIncapacidad </v>
+      </c>
+      <c r="F60" t="s">
+        <v>547</v>
+      </c>
+      <c r="I60" t="s">
+        <v>465</v>
+      </c>
+      <c r="J60" t="s">
+        <v>423</v>
+      </c>
+      <c r="K60" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>513</v>
+      </c>
+      <c r="C61" t="s">
+        <v>666</v>
+      </c>
+      <c r="D61" t="s">
+        <v>545</v>
+      </c>
+      <c r="E61" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fIsr </v>
+      </c>
+      <c r="F61" t="s">
+        <v>547</v>
+      </c>
+      <c r="I61" t="s">
+        <v>466</v>
+      </c>
+      <c r="J61" t="s">
+        <v>423</v>
+      </c>
+      <c r="K61" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>513</v>
+      </c>
+      <c r="C62" t="s">
+        <v>667</v>
+      </c>
+      <c r="D62" t="s">
+        <v>545</v>
+      </c>
+      <c r="E62" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fImss </v>
+      </c>
+      <c r="F62" t="s">
+        <v>547</v>
+      </c>
+      <c r="I62" t="s">
+        <v>467</v>
+      </c>
+      <c r="J62" t="s">
+        <v>423</v>
+      </c>
+      <c r="K62" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>513</v>
+      </c>
+      <c r="C63" t="s">
+        <v>668</v>
+      </c>
+      <c r="D63" t="s">
+        <v>545</v>
+      </c>
+      <c r="E63" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fInfonavit </v>
+      </c>
+      <c r="F63" t="s">
+        <v>547</v>
+      </c>
+      <c r="I63" t="s">
+        <v>468</v>
+      </c>
+      <c r="J63" t="s">
+        <v>423</v>
+      </c>
+      <c r="K63" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>513</v>
+      </c>
+      <c r="C64" t="s">
+        <v>669</v>
+      </c>
+      <c r="D64" t="s">
+        <v>545</v>
+      </c>
+      <c r="E64" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fInfonavitBanterior </v>
+      </c>
+      <c r="F64" t="s">
+        <v>547</v>
+      </c>
+      <c r="I64" t="s">
+        <v>469</v>
+      </c>
+      <c r="J64" t="s">
+        <v>423</v>
+      </c>
+      <c r="K64" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>513</v>
+      </c>
+      <c r="C65" t="s">
+        <v>670</v>
+      </c>
+      <c r="D65" t="s">
+        <v>545</v>
+      </c>
+      <c r="E65" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fAjusteInfonavit </v>
+      </c>
+      <c r="F65" t="s">
+        <v>547</v>
+      </c>
+      <c r="I65" t="s">
+        <v>470</v>
+      </c>
+      <c r="J65" t="s">
+        <v>423</v>
+      </c>
+      <c r="K65" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>513</v>
+      </c>
+      <c r="C66" t="s">
+        <v>671</v>
+      </c>
+      <c r="D66" t="s">
+        <v>545</v>
+      </c>
+      <c r="E66" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fPensionAlimenticia </v>
+      </c>
+      <c r="F66" t="s">
+        <v>547</v>
+      </c>
+      <c r="I66" t="s">
+        <v>471</v>
+      </c>
+      <c r="J66" t="s">
+        <v>423</v>
+      </c>
+      <c r="K66" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>513</v>
+      </c>
+      <c r="C67" t="s">
+        <v>672</v>
+      </c>
+      <c r="D67" t="s">
+        <v>545</v>
+      </c>
+      <c r="E67" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fPrestamo </v>
+      </c>
+      <c r="F67" t="s">
+        <v>547</v>
+      </c>
+      <c r="I67" t="s">
+        <v>472</v>
+      </c>
+      <c r="J67" t="s">
+        <v>423</v>
+      </c>
+      <c r="K67" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>513</v>
+      </c>
+      <c r="C68" t="s">
+        <v>673</v>
+      </c>
+      <c r="D68" t="s">
+        <v>545</v>
+      </c>
+      <c r="E68" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fFonacot </v>
+      </c>
+      <c r="F68" t="s">
+        <v>547</v>
+      </c>
+      <c r="I68" t="s">
+        <v>473</v>
+      </c>
+      <c r="J68" t="s">
+        <v>423</v>
+      </c>
+      <c r="K68" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>513</v>
+      </c>
+      <c r="C69" t="s">
+        <v>674</v>
+      </c>
+      <c r="D69" t="s">
+        <v>545</v>
+      </c>
+      <c r="E69" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fT_No_laborado </v>
+      </c>
+      <c r="F69" t="s">
+        <v>547</v>
+      </c>
+      <c r="I69" t="s">
+        <v>474</v>
+      </c>
+      <c r="J69" t="s">
+        <v>423</v>
+      </c>
+      <c r="K69" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>513</v>
+      </c>
+      <c r="C70" t="s">
+        <v>675</v>
+      </c>
+      <c r="D70" t="s">
+        <v>545</v>
+      </c>
+      <c r="E70" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fCuotaSindical </v>
+      </c>
+      <c r="F70" t="s">
+        <v>547</v>
+      </c>
+      <c r="I70" t="s">
+        <v>475</v>
+      </c>
+      <c r="J70" t="s">
+        <v>423</v>
+      </c>
+      <c r="K70" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>513</v>
+      </c>
+      <c r="C71" t="s">
+        <v>676</v>
+      </c>
+      <c r="D71" t="s">
+        <v>545</v>
+      </c>
+      <c r="E71" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fSubsidioGenerado </v>
+      </c>
+      <c r="F71" t="s">
+        <v>547</v>
+      </c>
+      <c r="I71" t="s">
+        <v>476</v>
+      </c>
+      <c r="J71" t="s">
+        <v>423</v>
+      </c>
+      <c r="K71" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>513</v>
+      </c>
+      <c r="C72" t="s">
+        <v>677</v>
+      </c>
+      <c r="D72" t="s">
+        <v>545</v>
+      </c>
+      <c r="E72" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fSubsidioAplicado </v>
+      </c>
+      <c r="F72" t="s">
+        <v>547</v>
+      </c>
+      <c r="I72" t="s">
+        <v>477</v>
+      </c>
+      <c r="J72" t="s">
+        <v>423</v>
+      </c>
+      <c r="K72" t="s">
+        <v>616</v>
+      </c>
+      <c r="L72" t="s">
+        <v>496</v>
+      </c>
+      <c r="M72" t="s">
+        <v>497</v>
+      </c>
+      <c r="N72" t="s">
+        <v>498</v>
+      </c>
+      <c r="O72" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>513</v>
+      </c>
+      <c r="C73" t="s">
+        <v>678</v>
+      </c>
+      <c r="D73" t="s">
+        <v>545</v>
+      </c>
+      <c r="E73" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fOperadora </v>
+      </c>
+      <c r="F73" t="s">
+        <v>547</v>
+      </c>
+      <c r="I73" t="s">
+        <v>478</v>
+      </c>
+      <c r="J73" t="s">
+        <v>423</v>
+      </c>
+      <c r="K73" t="s">
+        <v>617</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73" t="s">
+        <v>503</v>
+      </c>
+      <c r="N73" t="s">
+        <v>504</v>
+      </c>
+      <c r="O73" t="s">
+        <v>505</v>
+      </c>
+      <c r="P73" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>507</v>
+      </c>
+      <c r="R73" t="s">
+        <v>506</v>
+      </c>
+      <c r="S73" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>513</v>
+      </c>
+      <c r="C74" t="s">
+        <v>679</v>
+      </c>
+      <c r="D74" t="s">
+        <v>545</v>
+      </c>
+      <c r="E74" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fPrestamoPerA </v>
+      </c>
+      <c r="F74" t="s">
+        <v>547</v>
+      </c>
+      <c r="I74" t="s">
+        <v>479</v>
+      </c>
+      <c r="J74" t="s">
+        <v>423</v>
+      </c>
+      <c r="K74" t="s">
+        <v>618</v>
+      </c>
+      <c r="L74" t="s">
+        <v>511</v>
+      </c>
+      <c r="M74" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>513</v>
+      </c>
+      <c r="C75" t="s">
+        <v>680</v>
+      </c>
+      <c r="D75" t="s">
+        <v>545</v>
+      </c>
+      <c r="E75" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fAdeudoInfonavitA </v>
+      </c>
+      <c r="F75" t="s">
+        <v>547</v>
+      </c>
+      <c r="I75" t="s">
+        <v>480</v>
+      </c>
+      <c r="J75" t="s">
+        <v>423</v>
+      </c>
+      <c r="K75" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>513</v>
+      </c>
+      <c r="C76" t="s">
+        <v>681</v>
+      </c>
+      <c r="D76" t="s">
+        <v>545</v>
+      </c>
+      <c r="E76" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fDiferenciaInfonavitA </v>
+      </c>
+      <c r="F76" t="s">
+        <v>547</v>
+      </c>
+      <c r="I76" t="s">
+        <v>481</v>
+      </c>
+      <c r="J76" t="s">
+        <v>423</v>
+      </c>
+      <c r="K76" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>513</v>
+      </c>
+      <c r="C77" t="s">
+        <v>682</v>
+      </c>
+      <c r="D77" t="s">
+        <v>545</v>
+      </c>
+      <c r="E77" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fAsimilados </v>
+      </c>
+      <c r="F77" t="s">
+        <v>547</v>
+      </c>
+      <c r="I77" t="s">
+        <v>482</v>
+      </c>
+      <c r="J77" t="s">
+        <v>423</v>
+      </c>
+      <c r="K77" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>513</v>
+      </c>
+      <c r="C78" t="s">
+        <v>683</v>
+      </c>
+      <c r="D78" t="s">
+        <v>545</v>
+      </c>
+      <c r="E78" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fRetencionOperadora </v>
+      </c>
+      <c r="F78" t="s">
+        <v>547</v>
+      </c>
+      <c r="I78" t="s">
+        <v>483</v>
+      </c>
+      <c r="J78" t="s">
+        <v>423</v>
+      </c>
+      <c r="K78" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>513</v>
+      </c>
+      <c r="C79" t="s">
+        <v>684</v>
+      </c>
+      <c r="D79" t="s">
+        <v>545</v>
+      </c>
+      <c r="E79" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fPorComision </v>
+      </c>
+      <c r="F79" t="s">
+        <v>547</v>
+      </c>
+      <c r="I79" t="s">
+        <v>484</v>
+      </c>
+      <c r="J79" t="s">
+        <v>423</v>
+      </c>
+      <c r="K79" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>513</v>
+      </c>
+      <c r="C80" t="s">
+        <v>685</v>
+      </c>
+      <c r="D80" t="s">
+        <v>545</v>
+      </c>
+      <c r="E80" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fComisionOperadora </v>
+      </c>
+      <c r="F80" t="s">
+        <v>547</v>
+      </c>
+      <c r="I80" t="s">
+        <v>485</v>
+      </c>
+      <c r="J80" t="s">
+        <v>423</v>
+      </c>
+      <c r="K80" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>513</v>
+      </c>
+      <c r="C81" t="s">
+        <v>686</v>
+      </c>
+      <c r="D81" t="s">
+        <v>545</v>
+      </c>
+      <c r="E81" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fComisionAsimilados </v>
+      </c>
+      <c r="F81" t="s">
+        <v>547</v>
+      </c>
+      <c r="I81" t="s">
+        <v>486</v>
+      </c>
+      <c r="J81" t="s">
+        <v>423</v>
+      </c>
+      <c r="K81" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>513</v>
+      </c>
+      <c r="C82" t="s">
+        <v>687</v>
+      </c>
+      <c r="D82" t="s">
+        <v>545</v>
+      </c>
+      <c r="E82" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">fImssCS </v>
+      </c>
+      <c r="F82" t="s">
+        <v>547</v>
+      </c>
+      <c r="I82" t="s">
+        <v>487</v>
+      </c>
+      <c r="J82" t="s">
+        <v>423</v>
+      </c>
+      <c r="K82" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>513</v>
+      </c>
+      <c r="C83" t="s">
+        <v>688</v>
+      </c>
+      <c r="D83" t="s">
+        <v>545</v>
+      </c>
+      <c r="E83" s="76" t="str">
+        <f t="shared" ref="E83:E87" si="1">+K83</f>
+        <v xml:space="preserve">fRcvCS </v>
+      </c>
+      <c r="F83" t="s">
+        <v>547</v>
+      </c>
+      <c r="I83" t="s">
+        <v>488</v>
+      </c>
+      <c r="J83" t="s">
+        <v>423</v>
+      </c>
+      <c r="K83" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>513</v>
+      </c>
+      <c r="C84" t="s">
+        <v>689</v>
+      </c>
+      <c r="D84" t="s">
+        <v>545</v>
+      </c>
+      <c r="E84" s="76" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">fInfonavitCS </v>
+      </c>
+      <c r="F84" t="s">
+        <v>547</v>
+      </c>
+      <c r="I84" t="s">
+        <v>489</v>
+      </c>
+      <c r="J84" t="s">
+        <v>423</v>
+      </c>
+      <c r="K84" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>513</v>
+      </c>
+      <c r="C85" t="s">
+        <v>690</v>
+      </c>
+      <c r="D85" t="s">
+        <v>545</v>
+      </c>
+      <c r="E85" s="76" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">fInsCS </v>
+      </c>
+      <c r="F85" t="s">
+        <v>547</v>
+      </c>
+      <c r="I85" t="s">
+        <v>490</v>
+      </c>
+      <c r="J85" t="s">
+        <v>423</v>
+      </c>
+      <c r="K85" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>513</v>
+      </c>
+      <c r="C86" t="s">
+        <v>691</v>
+      </c>
+      <c r="D86" t="s">
+        <v>545</v>
+      </c>
+      <c r="E86" s="76" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">fTotalCostoSocial </v>
+      </c>
+      <c r="F86" t="s">
+        <v>547</v>
+      </c>
+      <c r="I86" t="s">
+        <v>491</v>
+      </c>
+      <c r="J86" t="s">
+        <v>423</v>
+      </c>
+      <c r="K86" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E87" s="76"/>
+      <c r="I87" t="s">
+        <v>493</v>
+      </c>
+      <c r="J87" t="s">
+        <v>494</v>
+      </c>
+      <c r="K87" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I88" t="s">
+        <v>500</v>
+      </c>
+      <c r="J88" t="s">
+        <v>501</v>
+      </c>
+      <c r="K88" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I89" t="s">
+        <v>509</v>
+      </c>
+      <c r="J89" t="s">
+        <v>510</v>
+      </c>
+      <c r="K89" t="s">
+        <v>630</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -18,11 +18,12 @@
     <sheet name="PENSION ALIMENTICIA" sheetId="32" r:id="rId4"/>
     <sheet name="Hoja1" sheetId="39" state="hidden" r:id="rId5"/>
     <sheet name="Hoja2" sheetId="40" r:id="rId6"/>
+    <sheet name="Hoja3" sheetId="41" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="__TC1">[1]FOR!$B$9</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="711">
   <si>
     <t>TOTAL</t>
   </si>
@@ -1537,9 +1538,6 @@
     <t>inner</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>EmpleadosC</t>
   </si>
   <si>
@@ -1582,9 +1580,6 @@
     <t>BY</t>
   </si>
   <si>
-    <t>EmpleadosC.cCodigoEmpleado,</t>
-  </si>
-  <si>
     <t>EmpleadosC.cNombreLargo</t>
   </si>
   <si>
@@ -2123,6 +2118,69 @@
   </si>
   <si>
     <t>85 ).Value=</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>,"</t>
+  </si>
+  <si>
+    <t>, "</t>
+  </si>
+  <si>
+    <t>sql &amp;=</t>
+  </si>
+  <si>
+    <t>86 ).Value=</t>
+  </si>
+  <si>
+    <t>87 ).Value=</t>
+  </si>
+  <si>
+    <t>CENTRO DE COSTO</t>
+  </si>
+  <si>
+    <t>" "</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CDbl(rwFilas(x).Item("fTotalPercepciones")) - CDbl(rwFilas(x).Item("fTotalPercepcionesISR")) 'total percep no grava</t>
+  </si>
+  <si>
+    <t>rwFilas(x).Item("NETO_SA")</t>
+  </si>
+  <si>
+    <t>88 ).Value=</t>
+  </si>
+  <si>
+    <t>89 ).Value=</t>
+  </si>
+  <si>
+    <t>deduccionestotal</t>
+  </si>
+  <si>
+    <t>90 ).Value=</t>
+  </si>
+  <si>
+    <t>91 ).Value=</t>
+  </si>
+  <si>
+    <t>92 ).Value=</t>
+  </si>
+  <si>
+    <t>93 ).Value=</t>
+  </si>
+  <si>
+    <t>94 ).Value=</t>
+  </si>
+  <si>
+    <t>95 ).Value=</t>
+  </si>
+  <si>
+    <t>96 ).Value=</t>
+  </si>
+  <si>
+    <t>97 ).Value=</t>
   </si>
 </sst>
 </file>
@@ -4018,7 +4076,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -4138,6 +4196,8 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4165,7 +4225,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1493">
     <cellStyle name="Comma_2 SALARIOS" xfId="1491"/>
@@ -7737,19 +7796,19 @@
       <c r="F2" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="71"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="70" t="str">
+      <c r="B3" s="72" t="str">
         <f>+CONCATENATE("FACTURA ",G2)</f>
         <v xml:space="preserve">FACTURA </v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="F3" s="72" t="s">
+      <c r="C3" s="73"/>
+      <c r="F3" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="72"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="50">
         <v>0</v>
       </c>
@@ -7762,10 +7821,10 @@
         <f>+H8</f>
         <v>empresa</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="74"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="50">
         <v>0</v>
       </c>
@@ -7778,10 +7837,10 @@
         <f>+H4+H5+H6+H7</f>
         <v>0</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="75" t="s">
         <v>420</v>
       </c>
-      <c r="G5" s="74"/>
+      <c r="G5" s="76"/>
       <c r="H5" s="50">
         <v>0</v>
       </c>
@@ -7794,10 +7853,10 @@
         <f>+C5</f>
         <v>0</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="75"/>
+      <c r="G6" s="77"/>
       <c r="H6" s="50">
         <v>0</v>
       </c>
@@ -7830,10 +7889,10 @@
         <f>+C6+C7</f>
         <v>0</v>
       </c>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="67"/>
+      <c r="G8" s="69"/>
       <c r="H8" s="62" t="s">
         <v>120</v>
       </c>
@@ -9660,10 +9719,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S89"/>
+  <dimension ref="B2:X98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18:K86"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91:C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9671,2217 +9730,3787 @@
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="G2" s="48" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+    </row>
+    <row r="3" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="G3" s="48" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+    </row>
+    <row r="4" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E4" t="s">
+        <v>544</v>
+      </c>
+      <c r="F4" t="s">
+        <v>545</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>534</v>
+      </c>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+    </row>
+    <row r="5" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C5" t="s">
         <v>513</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" s="68" t="s">
+        <v>697</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>696</v>
+      </c>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+    </row>
+    <row r="6" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C6" t="s">
         <v>514</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D6" t="s">
+        <v>543</v>
+      </c>
+      <c r="E6" t="s">
+        <v>546</v>
+      </c>
+      <c r="F6" t="s">
         <v>545</v>
       </c>
-      <c r="E4" t="s">
-        <v>546</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G6" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+    </row>
+    <row r="7" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>511</v>
+      </c>
+      <c r="C7" t="s">
+        <v>515</v>
+      </c>
+      <c r="D7" t="s">
+        <v>550</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>535</v>
+      </c>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+    </row>
+    <row r="8" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>511</v>
+      </c>
+      <c r="C8" t="s">
+        <v>516</v>
+      </c>
+      <c r="D8" t="s">
+        <v>549</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>536</v>
+      </c>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+    </row>
+    <row r="9" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>511</v>
+      </c>
+      <c r="C9" t="s">
+        <v>517</v>
+      </c>
+      <c r="D9" t="s">
+        <v>543</v>
+      </c>
+      <c r="E9" t="s">
+        <v>548</v>
+      </c>
+      <c r="F9" t="s">
+        <v>545</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+    </row>
+    <row r="10" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>511</v>
+      </c>
+      <c r="C10" t="s">
+        <v>518</v>
+      </c>
+      <c r="D10" t="s">
+        <v>543</v>
+      </c>
+      <c r="E10" t="s">
         <v>547</v>
       </c>
-      <c r="G4" s="48" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>513</v>
-      </c>
-      <c r="C5" t="s">
-        <v>515</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F10" t="s">
         <v>545</v>
       </c>
-      <c r="E5" t="s">
-        <v>548</v>
-      </c>
-      <c r="F5" t="s">
-        <v>547</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>513</v>
-      </c>
-      <c r="C6" t="s">
-        <v>516</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="G10" s="48" t="s">
+        <v>537</v>
+      </c>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+    </row>
+    <row r="11" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C11" t="s">
+        <v>519</v>
+      </c>
+      <c r="D11" t="s">
+        <v>543</v>
+      </c>
+      <c r="E11" t="s">
+        <v>551</v>
+      </c>
+      <c r="F11" t="s">
+        <v>545</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>538</v>
+      </c>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+    </row>
+    <row r="12" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>511</v>
+      </c>
+      <c r="C12" t="s">
+        <v>520</v>
+      </c>
+      <c r="D12" t="s">
         <v>552</v>
       </c>
-      <c r="G6" s="48" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>513</v>
-      </c>
-      <c r="C7" t="s">
-        <v>517</v>
-      </c>
-      <c r="D7" t="s">
-        <v>551</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>513</v>
-      </c>
-      <c r="C8" t="s">
-        <v>518</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="G12" s="48" t="s">
+        <v>539</v>
+      </c>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+    </row>
+    <row r="13" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>511</v>
+      </c>
+      <c r="C13" t="s">
+        <v>521</v>
+      </c>
+      <c r="D13" t="s">
+        <v>543</v>
+      </c>
+      <c r="E13" s="67" t="s">
+        <v>553</v>
+      </c>
+      <c r="F13" t="s">
         <v>545</v>
       </c>
-      <c r="E8" t="s">
-        <v>550</v>
-      </c>
-      <c r="F8" t="s">
-        <v>547</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>513</v>
-      </c>
-      <c r="C9" t="s">
-        <v>519</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="G13" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+    </row>
+    <row r="14" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>511</v>
+      </c>
+      <c r="C14" t="s">
+        <v>522</v>
+      </c>
+      <c r="D14" t="s">
+        <v>543</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>555</v>
+      </c>
+      <c r="F14" t="s">
         <v>545</v>
       </c>
-      <c r="E9" t="s">
-        <v>549</v>
-      </c>
-      <c r="F9" t="s">
-        <v>547</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>513</v>
-      </c>
-      <c r="C10" t="s">
-        <v>520</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="G14" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+    </row>
+    <row r="15" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>511</v>
+      </c>
+      <c r="C15" t="s">
+        <v>523</v>
+      </c>
+      <c r="D15" t="s">
+        <v>543</v>
+      </c>
+      <c r="E15" s="67" t="s">
+        <v>554</v>
+      </c>
+      <c r="F15" t="s">
         <v>545</v>
       </c>
-      <c r="E10" t="s">
-        <v>553</v>
-      </c>
-      <c r="F10" t="s">
-        <v>547</v>
-      </c>
-      <c r="G10" s="48" t="s">
+      <c r="G15" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+    </row>
+    <row r="16" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C16" t="s">
+        <v>558</v>
+      </c>
+      <c r="D16" t="s">
+        <v>543</v>
+      </c>
+      <c r="E16" s="67" t="s">
+        <v>556</v>
+      </c>
+      <c r="F16" t="s">
+        <v>545</v>
+      </c>
+      <c r="G16" s="48" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>513</v>
-      </c>
-      <c r="C11" t="s">
-        <v>521</v>
-      </c>
-      <c r="D11" t="s">
-        <v>554</v>
-      </c>
-      <c r="G11" s="48" t="s">
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+    </row>
+    <row r="17" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>511</v>
+      </c>
+      <c r="C17" t="s">
+        <v>524</v>
+      </c>
+      <c r="D17" t="s">
+        <v>559</v>
+      </c>
+      <c r="E17" s="67"/>
+      <c r="G17" s="48" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>513</v>
-      </c>
-      <c r="C12" t="s">
-        <v>522</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="M17" s="68" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>511</v>
+      </c>
+      <c r="C18" t="s">
+        <v>525</v>
+      </c>
+      <c r="D18" t="s">
+        <v>543</v>
+      </c>
+      <c r="E18" s="67" t="s">
+        <v>557</v>
+      </c>
+      <c r="F18" t="s">
         <v>545</v>
       </c>
-      <c r="E12" s="76" t="s">
-        <v>555</v>
-      </c>
-      <c r="F12" t="s">
-        <v>547</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>513</v>
-      </c>
-      <c r="C13" t="s">
-        <v>523</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="G18" s="48" t="s">
+        <v>542</v>
+      </c>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="M18" t="s">
+        <v>422</v>
+      </c>
+      <c r="N18" t="s">
+        <v>423</v>
+      </c>
+      <c r="O18" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P18" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q18" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>511</v>
+      </c>
+      <c r="C19" t="s">
+        <v>526</v>
+      </c>
+      <c r="D19" t="s">
+        <v>543</v>
+      </c>
+      <c r="E19" s="67" t="str">
+        <f>+P18</f>
+        <v xml:space="preserve">fTExtra2V  </v>
+      </c>
+      <c r="F19" t="s">
         <v>545</v>
       </c>
-      <c r="E13" s="76" t="s">
-        <v>557</v>
-      </c>
-      <c r="F13" t="s">
-        <v>547</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>513</v>
-      </c>
-      <c r="C14" t="s">
-        <v>524</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="M19" t="s">
+        <v>424</v>
+      </c>
+      <c r="N19" t="s">
+        <v>423</v>
+      </c>
+      <c r="O19" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P19" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q19" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>511</v>
+      </c>
+      <c r="C20" t="s">
+        <v>527</v>
+      </c>
+      <c r="D20" t="s">
+        <v>543</v>
+      </c>
+      <c r="E20" s="67" t="str">
+        <f t="shared" ref="E20:E60" si="0">+P19</f>
+        <v xml:space="preserve">fTExtra3V  </v>
+      </c>
+      <c r="F20" t="s">
         <v>545</v>
       </c>
-      <c r="E14" s="76" t="s">
-        <v>556</v>
-      </c>
-      <c r="F14" t="s">
-        <v>547</v>
-      </c>
-      <c r="G14" s="48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>513</v>
-      </c>
-      <c r="C15" t="s">
-        <v>525</v>
-      </c>
-      <c r="D15" t="s">
-        <v>545</v>
-      </c>
-      <c r="E15" s="76" t="s">
-        <v>558</v>
-      </c>
-      <c r="F15" t="s">
-        <v>547</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>513</v>
-      </c>
-      <c r="C16" t="s">
-        <v>560</v>
-      </c>
-      <c r="D16" t="s">
-        <v>561</v>
-      </c>
-      <c r="E16" s="76"/>
-      <c r="G16" s="48" t="s">
+      <c r="M20" t="s">
+        <v>425</v>
+      </c>
+      <c r="N20" t="s">
+        <v>423</v>
+      </c>
+      <c r="O20" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P20" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q20" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>511</v>
+      </c>
+      <c r="C21" t="s">
+        <v>528</v>
+      </c>
+      <c r="D21" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>513</v>
-      </c>
-      <c r="C17" t="s">
-        <v>526</v>
-      </c>
-      <c r="D17" t="s">
-        <v>545</v>
-      </c>
-      <c r="E17" s="76" t="s">
-        <v>559</v>
-      </c>
-      <c r="F17" t="s">
-        <v>547</v>
-      </c>
-      <c r="G17" s="48" t="s">
-        <v>544</v>
-      </c>
-      <c r="I17" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>513</v>
-      </c>
-      <c r="C18" t="s">
-        <v>527</v>
-      </c>
-      <c r="D18" t="s">
-        <v>545</v>
-      </c>
-      <c r="E18" s="76" t="str">
-        <f>+K18</f>
-        <v xml:space="preserve">fTExtra2V  </v>
-      </c>
-      <c r="F18" t="s">
-        <v>547</v>
-      </c>
-      <c r="I18" t="s">
-        <v>422</v>
-      </c>
-      <c r="J18" t="s">
-        <v>423</v>
-      </c>
-      <c r="K18" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>513</v>
-      </c>
-      <c r="C19" t="s">
-        <v>528</v>
-      </c>
-      <c r="D19" t="s">
-        <v>545</v>
-      </c>
-      <c r="E19" s="76" t="str">
-        <f t="shared" ref="E19:E82" si="0">+K19</f>
-        <v xml:space="preserve">fTExtra3V  </v>
-      </c>
-      <c r="F19" t="s">
-        <v>547</v>
-      </c>
-      <c r="I19" t="s">
-        <v>424</v>
-      </c>
-      <c r="J19" t="s">
-        <v>423</v>
-      </c>
-      <c r="K19" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>513</v>
-      </c>
-      <c r="C20" t="s">
-        <v>529</v>
-      </c>
-      <c r="D20" t="s">
-        <v>545</v>
-      </c>
-      <c r="E20" s="76" t="str">
+      <c r="E21" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescansoLV  </v>
       </c>
-      <c r="F20" t="s">
-        <v>547</v>
-      </c>
-      <c r="I20" t="s">
-        <v>425</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="F21" t="s">
+        <v>545</v>
+      </c>
+      <c r="M21" t="s">
+        <v>426</v>
+      </c>
+      <c r="N21" t="s">
         <v>423</v>
       </c>
-      <c r="K20" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>513</v>
-      </c>
-      <c r="C21" t="s">
-        <v>530</v>
-      </c>
-      <c r="D21" t="s">
-        <v>545</v>
-      </c>
-      <c r="E21" s="76" t="str">
+      <c r="O21" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P21" t="s">
+        <v>563</v>
+      </c>
+      <c r="Q21" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>511</v>
+      </c>
+      <c r="C22" t="s">
+        <v>529</v>
+      </c>
+      <c r="D22" t="s">
+        <v>543</v>
+      </c>
+      <c r="E22" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDiaFestivoLV  </v>
       </c>
-      <c r="F21" t="s">
-        <v>547</v>
-      </c>
-      <c r="I21" t="s">
-        <v>426</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="F22" t="s">
+        <v>545</v>
+      </c>
+      <c r="M22" t="s">
+        <v>427</v>
+      </c>
+      <c r="N22" t="s">
         <v>423</v>
       </c>
-      <c r="K21" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>513</v>
-      </c>
-      <c r="C22" t="s">
-        <v>531</v>
-      </c>
-      <c r="D22" t="s">
-        <v>545</v>
-      </c>
-      <c r="E22" s="76" t="str">
+      <c r="O22" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P22" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q22" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>511</v>
+      </c>
+      <c r="C23" t="s">
+        <v>530</v>
+      </c>
+      <c r="D23" t="s">
+        <v>543</v>
+      </c>
+      <c r="E23" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fHoras_extras_dobles_V  </v>
       </c>
-      <c r="F22" t="s">
-        <v>547</v>
-      </c>
-      <c r="I22" t="s">
-        <v>427</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="F23" t="s">
+        <v>545</v>
+      </c>
+      <c r="M23" t="s">
+        <v>428</v>
+      </c>
+      <c r="N23" t="s">
         <v>423</v>
       </c>
-      <c r="K22" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>513</v>
-      </c>
-      <c r="C23" t="s">
-        <v>532</v>
-      </c>
-      <c r="D23" t="s">
-        <v>545</v>
-      </c>
-      <c r="E23" s="76" t="str">
+      <c r="O23" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P23" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q23" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>511</v>
+      </c>
+      <c r="C24" t="s">
+        <v>531</v>
+      </c>
+      <c r="D24" t="s">
+        <v>543</v>
+      </c>
+      <c r="E24" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fHoras_extras_triples_V  </v>
       </c>
-      <c r="F23" t="s">
-        <v>547</v>
-      </c>
-      <c r="I23" t="s">
-        <v>428</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="F24" t="s">
+        <v>545</v>
+      </c>
+      <c r="M24" t="s">
+        <v>429</v>
+      </c>
+      <c r="N24" t="s">
         <v>423</v>
       </c>
-      <c r="K23" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>513</v>
-      </c>
-      <c r="C24" t="s">
-        <v>533</v>
-      </c>
-      <c r="D24" t="s">
-        <v>545</v>
-      </c>
-      <c r="E24" s="76" t="str">
+      <c r="O24" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P24" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q24" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>511</v>
+      </c>
+      <c r="C25" t="s">
+        <v>532</v>
+      </c>
+      <c r="D25" t="s">
+        <v>543</v>
+      </c>
+      <c r="E25" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescanso_Laborado_V  </v>
       </c>
-      <c r="F24" t="s">
-        <v>547</v>
-      </c>
-      <c r="I24" t="s">
-        <v>429</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="F25" t="s">
+        <v>545</v>
+      </c>
+      <c r="M25" t="s">
+        <v>430</v>
+      </c>
+      <c r="N25" t="s">
         <v>423</v>
       </c>
-      <c r="K24" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>513</v>
-      </c>
-      <c r="C25" t="s">
-        <v>534</v>
-      </c>
-      <c r="D25" t="s">
-        <v>545</v>
-      </c>
-      <c r="E25" s="76" t="str">
+      <c r="O25" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P25" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q25" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>511</v>
+      </c>
+      <c r="C26" t="s">
+        <v>629</v>
+      </c>
+      <c r="D26" t="s">
+        <v>543</v>
+      </c>
+      <c r="E26" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDia_Festivo_laborado_V  </v>
       </c>
-      <c r="F25" t="s">
-        <v>547</v>
-      </c>
-      <c r="I25" t="s">
-        <v>430</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="F26" t="s">
+        <v>545</v>
+      </c>
+      <c r="M26" t="s">
+        <v>431</v>
+      </c>
+      <c r="N26" t="s">
         <v>423</v>
       </c>
-      <c r="K25" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>513</v>
-      </c>
-      <c r="C26" t="s">
-        <v>631</v>
-      </c>
-      <c r="D26" t="s">
-        <v>545</v>
-      </c>
-      <c r="E26" s="76" t="str">
+      <c r="O26" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P26" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q26" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>511</v>
+      </c>
+      <c r="C27" t="s">
+        <v>630</v>
+      </c>
+      <c r="D27" t="s">
+        <v>543</v>
+      </c>
+      <c r="E27" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrima_Dominical_V  </v>
       </c>
-      <c r="F26" t="s">
-        <v>547</v>
-      </c>
-      <c r="I26" t="s">
-        <v>431</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="F27" t="s">
+        <v>545</v>
+      </c>
+      <c r="M27" t="s">
+        <v>432</v>
+      </c>
+      <c r="N27" t="s">
         <v>423</v>
       </c>
-      <c r="K26" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>513</v>
-      </c>
-      <c r="C27" t="s">
-        <v>632</v>
-      </c>
-      <c r="D27" t="s">
-        <v>545</v>
-      </c>
-      <c r="E27" s="76" t="str">
+      <c r="O27" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P27" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q27" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>511</v>
+      </c>
+      <c r="C28" t="s">
+        <v>631</v>
+      </c>
+      <c r="D28" t="s">
+        <v>543</v>
+      </c>
+      <c r="E28" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fFalta_Injustificada_V </v>
       </c>
-      <c r="F27" t="s">
-        <v>547</v>
-      </c>
-      <c r="I27" t="s">
-        <v>432</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="F28" t="s">
+        <v>545</v>
+      </c>
+      <c r="M28" t="s">
+        <v>433</v>
+      </c>
+      <c r="N28" t="s">
         <v>423</v>
       </c>
-      <c r="K27" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>513</v>
-      </c>
-      <c r="C28" t="s">
-        <v>633</v>
-      </c>
-      <c r="D28" t="s">
-        <v>545</v>
-      </c>
-      <c r="E28" s="76" t="str">
+      <c r="O28" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P28" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q28" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>511</v>
+      </c>
+      <c r="C29" t="s">
+        <v>632</v>
+      </c>
+      <c r="D29" t="s">
+        <v>543</v>
+      </c>
+      <c r="E29" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPermiso_Sin_GS_V  </v>
       </c>
-      <c r="F28" t="s">
-        <v>547</v>
-      </c>
-      <c r="I28" t="s">
-        <v>433</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="F29" t="s">
+        <v>545</v>
+      </c>
+      <c r="M29" t="s">
+        <v>434</v>
+      </c>
+      <c r="N29" t="s">
         <v>423</v>
       </c>
-      <c r="K28" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>513</v>
-      </c>
-      <c r="C29" t="s">
-        <v>634</v>
-      </c>
-      <c r="D29" t="s">
-        <v>545</v>
-      </c>
-      <c r="E29" s="76" t="str">
+      <c r="O29" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P29" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q29" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>511</v>
+      </c>
+      <c r="C30" t="s">
+        <v>633</v>
+      </c>
+      <c r="D30" t="s">
+        <v>543</v>
+      </c>
+      <c r="E30" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fT_No_laborado_V  </v>
       </c>
-      <c r="F29" t="s">
-        <v>547</v>
-      </c>
-      <c r="I29" t="s">
-        <v>434</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="F30" t="s">
+        <v>545</v>
+      </c>
+      <c r="M30" t="s">
+        <v>435</v>
+      </c>
+      <c r="N30" t="s">
         <v>423</v>
       </c>
-      <c r="K29" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>513</v>
-      </c>
-      <c r="C30" t="s">
-        <v>635</v>
-      </c>
-      <c r="D30" t="s">
-        <v>545</v>
-      </c>
-      <c r="E30" s="76" t="str">
+      <c r="O30" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P30" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q30" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>511</v>
+      </c>
+      <c r="C31" t="s">
+        <v>634</v>
+      </c>
+      <c r="D31" t="s">
+        <v>543</v>
+      </c>
+      <c r="E31" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioBase  </v>
       </c>
-      <c r="F30" t="s">
-        <v>547</v>
-      </c>
-      <c r="I30" t="s">
-        <v>435</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="F31" t="s">
+        <v>545</v>
+      </c>
+      <c r="M31" t="s">
+        <v>436</v>
+      </c>
+      <c r="N31" t="s">
         <v>423</v>
       </c>
-      <c r="K30" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>513</v>
-      </c>
-      <c r="C31" t="s">
-        <v>636</v>
-      </c>
-      <c r="D31" t="s">
-        <v>545</v>
-      </c>
-      <c r="E31" s="76" t="str">
+      <c r="O31" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P31" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q31" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>511</v>
+      </c>
+      <c r="C32" t="s">
+        <v>635</v>
+      </c>
+      <c r="D32" t="s">
+        <v>543</v>
+      </c>
+      <c r="E32" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioDiario </v>
       </c>
-      <c r="F31" t="s">
-        <v>547</v>
-      </c>
-      <c r="I31" t="s">
-        <v>436</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="F32" t="s">
+        <v>545</v>
+      </c>
+      <c r="M32" t="s">
+        <v>437</v>
+      </c>
+      <c r="N32" t="s">
         <v>423</v>
       </c>
-      <c r="K31" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>513</v>
-      </c>
-      <c r="C32" t="s">
-        <v>637</v>
-      </c>
-      <c r="D32" t="s">
-        <v>545</v>
-      </c>
-      <c r="E32" s="76" t="str">
+      <c r="O32" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P32" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q32" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>511</v>
+      </c>
+      <c r="C33" t="s">
+        <v>636</v>
+      </c>
+      <c r="D33" t="s">
+        <v>543</v>
+      </c>
+      <c r="E33" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioBC  </v>
       </c>
-      <c r="F32" t="s">
-        <v>547</v>
-      </c>
-      <c r="I32" t="s">
-        <v>437</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="F33" t="s">
+        <v>545</v>
+      </c>
+      <c r="M33" t="s">
+        <v>438</v>
+      </c>
+      <c r="N33" t="s">
         <v>423</v>
       </c>
-      <c r="K32" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>513</v>
-      </c>
-      <c r="C33" t="s">
-        <v>638</v>
-      </c>
-      <c r="D33" t="s">
-        <v>545</v>
-      </c>
-      <c r="E33" s="76" t="str">
+      <c r="O33" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P33" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q33" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>511</v>
+      </c>
+      <c r="C34" t="s">
+        <v>637</v>
+      </c>
+      <c r="D34" t="s">
+        <v>543</v>
+      </c>
+      <c r="E34" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">iDiasTrabajados  </v>
       </c>
-      <c r="F33" t="s">
-        <v>547</v>
-      </c>
-      <c r="I33" t="s">
-        <v>438</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="F34" t="s">
+        <v>545</v>
+      </c>
+      <c r="M34" t="s">
+        <v>439</v>
+      </c>
+      <c r="N34" t="s">
         <v>423</v>
       </c>
-      <c r="K33" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>513</v>
-      </c>
-      <c r="C34" t="s">
-        <v>639</v>
-      </c>
-      <c r="D34" t="s">
-        <v>545</v>
-      </c>
-      <c r="E34" s="76" t="str">
+      <c r="O34" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P34" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q34" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>511</v>
+      </c>
+      <c r="C35" t="s">
+        <v>638</v>
+      </c>
+      <c r="D35" t="s">
+        <v>543</v>
+      </c>
+      <c r="E35" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSueldoBruto </v>
       </c>
-      <c r="F34" t="s">
-        <v>547</v>
-      </c>
-      <c r="I34" t="s">
-        <v>439</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="F35" t="s">
+        <v>545</v>
+      </c>
+      <c r="M35" t="s">
+        <v>440</v>
+      </c>
+      <c r="N35" t="s">
         <v>423</v>
       </c>
-      <c r="K34" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>513</v>
-      </c>
-      <c r="C35" t="s">
-        <v>640</v>
-      </c>
-      <c r="D35" t="s">
-        <v>545</v>
-      </c>
-      <c r="E35" s="76" t="str">
+      <c r="O35" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P35" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q35" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>511</v>
+      </c>
+      <c r="C36" t="s">
+        <v>639</v>
+      </c>
+      <c r="D36" t="s">
+        <v>543</v>
+      </c>
+      <c r="E36" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSeptimoDia </v>
       </c>
-      <c r="F35" t="s">
-        <v>547</v>
-      </c>
-      <c r="I35" t="s">
-        <v>440</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="F36" t="s">
+        <v>545</v>
+      </c>
+      <c r="M36" t="s">
+        <v>441</v>
+      </c>
+      <c r="N36" t="s">
         <v>423</v>
       </c>
-      <c r="K35" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>513</v>
-      </c>
-      <c r="C36" t="s">
-        <v>641</v>
-      </c>
-      <c r="D36" t="s">
-        <v>545</v>
-      </c>
-      <c r="E36" s="76" t="str">
+      <c r="O36" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P36" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q36" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>511</v>
+      </c>
+      <c r="C37" t="s">
+        <v>640</v>
+      </c>
+      <c r="D37" t="s">
+        <v>543</v>
+      </c>
+      <c r="E37" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaDomGravada </v>
       </c>
-      <c r="F36" t="s">
-        <v>547</v>
-      </c>
-      <c r="I36" t="s">
-        <v>441</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="F37" t="s">
+        <v>545</v>
+      </c>
+      <c r="M37" t="s">
+        <v>442</v>
+      </c>
+      <c r="N37" t="s">
         <v>423</v>
       </c>
-      <c r="K36" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>513</v>
-      </c>
-      <c r="C37" t="s">
-        <v>642</v>
-      </c>
-      <c r="D37" t="s">
-        <v>545</v>
-      </c>
-      <c r="E37" s="76" t="str">
+      <c r="O37" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P37" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q37" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>511</v>
+      </c>
+      <c r="C38" t="s">
+        <v>641</v>
+      </c>
+      <c r="D38" t="s">
+        <v>543</v>
+      </c>
+      <c r="E38" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaDomExenta </v>
       </c>
-      <c r="F37" t="s">
-        <v>547</v>
-      </c>
-      <c r="I37" t="s">
-        <v>442</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="F38" t="s">
+        <v>545</v>
+      </c>
+      <c r="M38" t="s">
+        <v>443</v>
+      </c>
+      <c r="N38" t="s">
         <v>423</v>
       </c>
-      <c r="K37" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>513</v>
-      </c>
-      <c r="C38" t="s">
-        <v>643</v>
-      </c>
-      <c r="D38" t="s">
-        <v>545</v>
-      </c>
-      <c r="E38" s="76" t="str">
+      <c r="O38" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P38" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q38" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>511</v>
+      </c>
+      <c r="C39" t="s">
+        <v>642</v>
+      </c>
+      <c r="D39" t="s">
+        <v>543</v>
+      </c>
+      <c r="E39" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra2Gravado </v>
       </c>
-      <c r="F38" t="s">
-        <v>547</v>
-      </c>
-      <c r="I38" t="s">
-        <v>443</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="F39" t="s">
+        <v>545</v>
+      </c>
+      <c r="M39" t="s">
+        <v>444</v>
+      </c>
+      <c r="N39" t="s">
         <v>423</v>
       </c>
-      <c r="K38" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>513</v>
-      </c>
-      <c r="C39" t="s">
-        <v>644</v>
-      </c>
-      <c r="D39" t="s">
-        <v>545</v>
-      </c>
-      <c r="E39" s="76" t="str">
+      <c r="O39" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P39" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q39" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>511</v>
+      </c>
+      <c r="C40" t="s">
+        <v>643</v>
+      </c>
+      <c r="D40" t="s">
+        <v>543</v>
+      </c>
+      <c r="E40" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra2Exento </v>
       </c>
-      <c r="F39" t="s">
-        <v>547</v>
-      </c>
-      <c r="I39" t="s">
-        <v>444</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="F40" t="s">
+        <v>545</v>
+      </c>
+      <c r="M40" t="s">
+        <v>445</v>
+      </c>
+      <c r="N40" t="s">
         <v>423</v>
       </c>
-      <c r="K39" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>513</v>
-      </c>
-      <c r="C40" t="s">
-        <v>645</v>
-      </c>
-      <c r="D40" t="s">
-        <v>545</v>
-      </c>
-      <c r="E40" s="76" t="str">
+      <c r="O40" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P40" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q40" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>511</v>
+      </c>
+      <c r="C41" t="s">
+        <v>644</v>
+      </c>
+      <c r="D41" t="s">
+        <v>543</v>
+      </c>
+      <c r="E41" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra3 </v>
       </c>
-      <c r="F40" t="s">
-        <v>547</v>
-      </c>
-      <c r="I40" t="s">
-        <v>445</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="F41" t="s">
+        <v>545</v>
+      </c>
+      <c r="M41" t="s">
+        <v>446</v>
+      </c>
+      <c r="N41" t="s">
         <v>423</v>
       </c>
-      <c r="K40" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>513</v>
-      </c>
-      <c r="C41" t="s">
-        <v>646</v>
-      </c>
-      <c r="D41" t="s">
-        <v>545</v>
-      </c>
-      <c r="E41" s="76" t="str">
+      <c r="O41" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P41" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q41" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>511</v>
+      </c>
+      <c r="C42" t="s">
+        <v>645</v>
+      </c>
+      <c r="D42" t="s">
+        <v>543</v>
+      </c>
+      <c r="E42" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescansoL </v>
       </c>
-      <c r="F41" t="s">
-        <v>547</v>
-      </c>
-      <c r="I41" t="s">
-        <v>446</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="F42" t="s">
+        <v>545</v>
+      </c>
+      <c r="M42" t="s">
+        <v>447</v>
+      </c>
+      <c r="N42" t="s">
         <v>423</v>
       </c>
-      <c r="K41" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>513</v>
-      </c>
-      <c r="C42" t="s">
-        <v>647</v>
-      </c>
-      <c r="D42" t="s">
-        <v>545</v>
-      </c>
-      <c r="E42" s="76" t="str">
+      <c r="O42" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P42" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q42" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>511</v>
+      </c>
+      <c r="C43" t="s">
+        <v>646</v>
+      </c>
+      <c r="D43" t="s">
+        <v>543</v>
+      </c>
+      <c r="E43" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDiaFestivoL </v>
       </c>
-      <c r="F42" t="s">
-        <v>547</v>
-      </c>
-      <c r="I42" t="s">
-        <v>447</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="F43" t="s">
+        <v>545</v>
+      </c>
+      <c r="M43" t="s">
+        <v>448</v>
+      </c>
+      <c r="N43" t="s">
         <v>423</v>
       </c>
-      <c r="K42" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>513</v>
-      </c>
-      <c r="C43" t="s">
-        <v>648</v>
-      </c>
-      <c r="D43" t="s">
-        <v>545</v>
-      </c>
-      <c r="E43" s="76" t="str">
+      <c r="O43" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P43" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q43" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>511</v>
+      </c>
+      <c r="C44" t="s">
+        <v>647</v>
+      </c>
+      <c r="D44" t="s">
+        <v>543</v>
+      </c>
+      <c r="E44" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoAsistencia </v>
       </c>
-      <c r="F43" t="s">
-        <v>547</v>
-      </c>
-      <c r="I43" t="s">
-        <v>448</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="F44" t="s">
+        <v>545</v>
+      </c>
+      <c r="M44" t="s">
+        <v>449</v>
+      </c>
+      <c r="N44" t="s">
         <v>423</v>
       </c>
-      <c r="K43" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>513</v>
-      </c>
-      <c r="C44" t="s">
-        <v>649</v>
-      </c>
-      <c r="D44" t="s">
-        <v>545</v>
-      </c>
-      <c r="E44" s="76" t="str">
+      <c r="O44" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P44" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q44" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>511</v>
+      </c>
+      <c r="C45" t="s">
+        <v>648</v>
+      </c>
+      <c r="D45" t="s">
+        <v>543</v>
+      </c>
+      <c r="E45" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoProductividad </v>
       </c>
-      <c r="F44" t="s">
-        <v>547</v>
-      </c>
-      <c r="I44" t="s">
-        <v>449</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="F45" t="s">
+        <v>545</v>
+      </c>
+      <c r="M45" t="s">
+        <v>450</v>
+      </c>
+      <c r="N45" t="s">
         <v>423</v>
       </c>
-      <c r="K44" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>513</v>
-      </c>
-      <c r="C45" t="s">
-        <v>650</v>
-      </c>
-      <c r="D45" t="s">
-        <v>545</v>
-      </c>
-      <c r="E45" s="76" t="str">
+      <c r="O45" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P45" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q45" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>511</v>
+      </c>
+      <c r="C46" t="s">
+        <v>649</v>
+      </c>
+      <c r="D46" t="s">
+        <v>543</v>
+      </c>
+      <c r="E46" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoPolivalencia </v>
       </c>
-      <c r="F45" t="s">
-        <v>547</v>
-      </c>
-      <c r="I45" t="s">
-        <v>450</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="F46" t="s">
+        <v>545</v>
+      </c>
+      <c r="M46" t="s">
+        <v>451</v>
+      </c>
+      <c r="N46" t="s">
         <v>423</v>
       </c>
-      <c r="K45" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>513</v>
-      </c>
-      <c r="C46" t="s">
-        <v>651</v>
-      </c>
-      <c r="D46" t="s">
-        <v>545</v>
-      </c>
-      <c r="E46" s="76" t="str">
+      <c r="O46" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P46" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q46" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>511</v>
+      </c>
+      <c r="C47" t="s">
+        <v>650</v>
+      </c>
+      <c r="D47" t="s">
+        <v>543</v>
+      </c>
+      <c r="E47" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoEspecialidad </v>
       </c>
-      <c r="F46" t="s">
-        <v>547</v>
-      </c>
-      <c r="I46" t="s">
-        <v>451</v>
-      </c>
-      <c r="J46" t="s">
+      <c r="F47" t="s">
+        <v>545</v>
+      </c>
+      <c r="M47" t="s">
+        <v>452</v>
+      </c>
+      <c r="N47" t="s">
         <v>423</v>
       </c>
-      <c r="K46" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>513</v>
-      </c>
-      <c r="C47" t="s">
-        <v>652</v>
-      </c>
-      <c r="D47" t="s">
-        <v>545</v>
-      </c>
-      <c r="E47" s="76" t="str">
+      <c r="O47" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P47" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q47" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>511</v>
+      </c>
+      <c r="C48" t="s">
+        <v>651</v>
+      </c>
+      <c r="D48" t="s">
+        <v>543</v>
+      </c>
+      <c r="E48" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoCalidad </v>
       </c>
-      <c r="F47" t="s">
-        <v>547</v>
-      </c>
-      <c r="I47" t="s">
-        <v>452</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="F48" t="s">
+        <v>545</v>
+      </c>
+      <c r="M48" t="s">
+        <v>453</v>
+      </c>
+      <c r="N48" t="s">
         <v>423</v>
       </c>
-      <c r="K47" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>513</v>
-      </c>
-      <c r="C48" t="s">
-        <v>653</v>
-      </c>
-      <c r="D48" t="s">
-        <v>545</v>
-      </c>
-      <c r="E48" s="76" t="str">
+      <c r="O48" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P48" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q48" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>511</v>
+      </c>
+      <c r="C49" t="s">
+        <v>652</v>
+      </c>
+      <c r="D49" t="s">
+        <v>543</v>
+      </c>
+      <c r="E49" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fCompensacion </v>
       </c>
-      <c r="F48" t="s">
-        <v>547</v>
-      </c>
-      <c r="I48" t="s">
-        <v>453</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="F49" t="s">
+        <v>545</v>
+      </c>
+      <c r="M49" t="s">
+        <v>454</v>
+      </c>
+      <c r="N49" t="s">
         <v>423</v>
       </c>
-      <c r="K48" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>513</v>
-      </c>
-      <c r="C49" t="s">
-        <v>654</v>
-      </c>
-      <c r="D49" t="s">
-        <v>545</v>
-      </c>
-      <c r="E49" s="76" t="str">
+      <c r="O49" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P49" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q49" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>511</v>
+      </c>
+      <c r="C50" t="s">
+        <v>653</v>
+      </c>
+      <c r="D50" t="s">
+        <v>543</v>
+      </c>
+      <c r="E50" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSemanaFondo </v>
       </c>
-      <c r="F49" t="s">
-        <v>547</v>
-      </c>
-      <c r="I49" t="s">
-        <v>454</v>
-      </c>
-      <c r="J49" t="s">
+      <c r="F50" t="s">
+        <v>545</v>
+      </c>
+      <c r="M50" t="s">
+        <v>455</v>
+      </c>
+      <c r="N50" t="s">
         <v>423</v>
       </c>
-      <c r="K49" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>513</v>
-      </c>
-      <c r="C50" t="s">
-        <v>655</v>
-      </c>
-      <c r="D50" t="s">
-        <v>545</v>
-      </c>
-      <c r="E50" s="76" t="str">
+      <c r="O50" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P50" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q50" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>511</v>
+      </c>
+      <c r="C51" t="s">
+        <v>654</v>
+      </c>
+      <c r="D51" t="s">
+        <v>543</v>
+      </c>
+      <c r="E51" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fFaltaInjustificada </v>
       </c>
-      <c r="F50" t="s">
-        <v>547</v>
-      </c>
-      <c r="I50" t="s">
-        <v>455</v>
-      </c>
-      <c r="J50" t="s">
+      <c r="F51" t="s">
+        <v>545</v>
+      </c>
+      <c r="M51" t="s">
+        <v>456</v>
+      </c>
+      <c r="N51" t="s">
         <v>423</v>
       </c>
-      <c r="K50" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>513</v>
-      </c>
-      <c r="C51" t="s">
-        <v>656</v>
-      </c>
-      <c r="D51" t="s">
-        <v>545</v>
-      </c>
-      <c r="E51" s="76" t="str">
+      <c r="O51" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P51" t="s">
+        <v>593</v>
+      </c>
+      <c r="Q51" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>511</v>
+      </c>
+      <c r="C52" t="s">
+        <v>655</v>
+      </c>
+      <c r="D52" t="s">
+        <v>543</v>
+      </c>
+      <c r="E52" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPermisoSinGS </v>
       </c>
-      <c r="F51" t="s">
-        <v>547</v>
-      </c>
-      <c r="I51" t="s">
-        <v>456</v>
-      </c>
-      <c r="J51" t="s">
+      <c r="F52" t="s">
+        <v>545</v>
+      </c>
+      <c r="M52" t="s">
+        <v>457</v>
+      </c>
+      <c r="N52" t="s">
         <v>423</v>
       </c>
-      <c r="K51" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>513</v>
-      </c>
-      <c r="C52" t="s">
-        <v>657</v>
-      </c>
-      <c r="D52" t="s">
-        <v>545</v>
-      </c>
-      <c r="E52" s="76" t="str">
+      <c r="O52" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P52" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q52" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>511</v>
+      </c>
+      <c r="C53" t="s">
+        <v>656</v>
+      </c>
+      <c r="D53" t="s">
+        <v>543</v>
+      </c>
+      <c r="E53" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fIncrementoRetenido </v>
       </c>
-      <c r="F52" t="s">
-        <v>547</v>
-      </c>
-      <c r="I52" t="s">
-        <v>457</v>
-      </c>
-      <c r="J52" t="s">
+      <c r="F53" t="s">
+        <v>545</v>
+      </c>
+      <c r="M53" t="s">
+        <v>458</v>
+      </c>
+      <c r="N53" t="s">
         <v>423</v>
       </c>
-      <c r="K52" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>513</v>
-      </c>
-      <c r="C53" t="s">
-        <v>658</v>
-      </c>
-      <c r="D53" t="s">
-        <v>545</v>
-      </c>
-      <c r="E53" s="76" t="str">
+      <c r="O53" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P53" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q53" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>511</v>
+      </c>
+      <c r="C54" t="s">
+        <v>657</v>
+      </c>
+      <c r="D54" t="s">
+        <v>543</v>
+      </c>
+      <c r="E54" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fVacacionesProporcionales </v>
       </c>
-      <c r="F53" t="s">
-        <v>547</v>
-      </c>
-      <c r="I53" t="s">
-        <v>458</v>
-      </c>
-      <c r="J53" t="s">
+      <c r="F54" t="s">
+        <v>545</v>
+      </c>
+      <c r="M54" t="s">
+        <v>459</v>
+      </c>
+      <c r="N54" t="s">
         <v>423</v>
       </c>
-      <c r="K53" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>513</v>
-      </c>
-      <c r="C54" t="s">
-        <v>659</v>
-      </c>
-      <c r="D54" t="s">
-        <v>545</v>
-      </c>
-      <c r="E54" s="76" t="str">
+      <c r="O54" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P54" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q54" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>511</v>
+      </c>
+      <c r="C55" t="s">
+        <v>658</v>
+      </c>
+      <c r="D55" t="s">
+        <v>543</v>
+      </c>
+      <c r="E55" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fAguinaldoGravado </v>
       </c>
-      <c r="F54" t="s">
-        <v>547</v>
-      </c>
-      <c r="I54" t="s">
-        <v>459</v>
-      </c>
-      <c r="J54" t="s">
+      <c r="F55" t="s">
+        <v>545</v>
+      </c>
+      <c r="M55" t="s">
+        <v>460</v>
+      </c>
+      <c r="N55" t="s">
         <v>423</v>
       </c>
-      <c r="K54" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>513</v>
-      </c>
-      <c r="C55" t="s">
-        <v>660</v>
-      </c>
-      <c r="D55" t="s">
-        <v>545</v>
-      </c>
-      <c r="E55" s="76" t="str">
+      <c r="O55" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P55" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q55" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>511</v>
+      </c>
+      <c r="C56" t="s">
+        <v>659</v>
+      </c>
+      <c r="D56" t="s">
+        <v>543</v>
+      </c>
+      <c r="E56" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fAguinaldoExento </v>
       </c>
-      <c r="F55" t="s">
-        <v>547</v>
-      </c>
-      <c r="I55" t="s">
-        <v>460</v>
-      </c>
-      <c r="J55" t="s">
+      <c r="F56" t="s">
+        <v>545</v>
+      </c>
+      <c r="M56" t="s">
+        <v>461</v>
+      </c>
+      <c r="N56" t="s">
         <v>423</v>
       </c>
-      <c r="K55" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>513</v>
-      </c>
-      <c r="C56" t="s">
-        <v>661</v>
-      </c>
-      <c r="D56" t="s">
-        <v>545</v>
-      </c>
-      <c r="E56" s="76" t="str">
+      <c r="O56" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P56" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q56" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>511</v>
+      </c>
+      <c r="C57" t="s">
+        <v>660</v>
+      </c>
+      <c r="D57" t="s">
+        <v>543</v>
+      </c>
+      <c r="E57" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaVacacionalGravado </v>
       </c>
-      <c r="F56" t="s">
-        <v>547</v>
-      </c>
-      <c r="I56" t="s">
-        <v>461</v>
-      </c>
-      <c r="J56" t="s">
+      <c r="F57" t="s">
+        <v>545</v>
+      </c>
+      <c r="M57" t="s">
+        <v>462</v>
+      </c>
+      <c r="N57" t="s">
         <v>423</v>
       </c>
-      <c r="K56" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>513</v>
-      </c>
-      <c r="C57" t="s">
-        <v>662</v>
-      </c>
-      <c r="D57" t="s">
-        <v>545</v>
-      </c>
-      <c r="E57" s="76" t="str">
+      <c r="O57" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P57" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q57" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>511</v>
+      </c>
+      <c r="C58" t="s">
+        <v>661</v>
+      </c>
+      <c r="D58" t="s">
+        <v>543</v>
+      </c>
+      <c r="E58" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaVacacionalExento </v>
       </c>
-      <c r="F57" t="s">
-        <v>547</v>
-      </c>
-      <c r="I57" t="s">
-        <v>462</v>
-      </c>
-      <c r="J57" t="s">
+      <c r="F58" t="s">
+        <v>545</v>
+      </c>
+      <c r="M58" t="s">
+        <v>463</v>
+      </c>
+      <c r="N58" t="s">
         <v>423</v>
       </c>
-      <c r="K57" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>513</v>
-      </c>
-      <c r="C58" t="s">
-        <v>663</v>
-      </c>
-      <c r="D58" t="s">
-        <v>545</v>
-      </c>
-      <c r="E58" s="76" t="str">
+      <c r="O58" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P58" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q58" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>511</v>
+      </c>
+      <c r="C59" t="s">
+        <v>662</v>
+      </c>
+      <c r="D59" t="s">
+        <v>543</v>
+      </c>
+      <c r="E59" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTotalPercepciones </v>
       </c>
-      <c r="F58" t="s">
-        <v>547</v>
-      </c>
-      <c r="I58" t="s">
-        <v>463</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="F59" t="s">
+        <v>545</v>
+      </c>
+      <c r="M59" t="s">
+        <v>464</v>
+      </c>
+      <c r="N59" t="s">
         <v>423</v>
       </c>
-      <c r="K58" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>513</v>
-      </c>
-      <c r="C59" t="s">
-        <v>664</v>
-      </c>
-      <c r="D59" t="s">
-        <v>545</v>
-      </c>
-      <c r="E59" s="76" t="str">
+      <c r="O59" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P59" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q59" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>511</v>
+      </c>
+      <c r="C60" t="s">
+        <v>663</v>
+      </c>
+      <c r="D60" t="s">
+        <v>543</v>
+      </c>
+      <c r="E60" s="67" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTotalPercepcionesISR </v>
       </c>
-      <c r="F59" t="s">
-        <v>547</v>
-      </c>
-      <c r="I59" t="s">
-        <v>464</v>
-      </c>
-      <c r="J59" t="s">
+      <c r="F60" t="s">
+        <v>545</v>
+      </c>
+      <c r="M60" t="s">
+        <v>465</v>
+      </c>
+      <c r="N60" t="s">
         <v>423</v>
       </c>
-      <c r="K59" t="s">
+      <c r="O60" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P60" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q60" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>511</v>
+      </c>
+      <c r="C61" t="s">
+        <v>664</v>
+      </c>
+      <c r="D61" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="E61" s="67"/>
+      <c r="M61" t="s">
+        <v>466</v>
+      </c>
+      <c r="N61" t="s">
+        <v>423</v>
+      </c>
+      <c r="O61" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P61" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>513</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="Q61" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>511</v>
+      </c>
+      <c r="C62" t="s">
         <v>665</v>
       </c>
+      <c r="D62" t="s">
+        <v>543</v>
+      </c>
+      <c r="E62" s="67" t="str">
+        <f t="shared" ref="E62:E74" si="1">+P60</f>
+        <v xml:space="preserve">fIncapacidad </v>
+      </c>
+      <c r="F62" t="s">
+        <v>545</v>
+      </c>
+      <c r="M62" t="s">
+        <v>467</v>
+      </c>
+      <c r="N62" t="s">
+        <v>423</v>
+      </c>
+      <c r="O62" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P62" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q62" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>511</v>
+      </c>
+      <c r="C63" t="s">
+        <v>666</v>
+      </c>
+      <c r="D63" t="s">
+        <v>543</v>
+      </c>
+      <c r="E63" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">fIsr </v>
+      </c>
+      <c r="F63" t="s">
+        <v>545</v>
+      </c>
+      <c r="M63" t="s">
+        <v>468</v>
+      </c>
+      <c r="N63" t="s">
+        <v>423</v>
+      </c>
+      <c r="O63" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P63" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q63" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>511</v>
+      </c>
+      <c r="C64" t="s">
+        <v>667</v>
+      </c>
+      <c r="D64" t="s">
+        <v>543</v>
+      </c>
+      <c r="E64" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">fImss </v>
+      </c>
+      <c r="F64" t="s">
+        <v>545</v>
+      </c>
+      <c r="M64" t="s">
+        <v>469</v>
+      </c>
+      <c r="N64" t="s">
+        <v>423</v>
+      </c>
+      <c r="O64" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P64" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q64" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>511</v>
+      </c>
+      <c r="C65" t="s">
+        <v>668</v>
+      </c>
+      <c r="D65" t="s">
+        <v>543</v>
+      </c>
+      <c r="E65" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">fInfonavit </v>
+      </c>
+      <c r="F65" t="s">
+        <v>545</v>
+      </c>
+      <c r="M65" t="s">
+        <v>470</v>
+      </c>
+      <c r="N65" t="s">
+        <v>423</v>
+      </c>
+      <c r="O65" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P65" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q65" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>511</v>
+      </c>
+      <c r="C66" t="s">
+        <v>669</v>
+      </c>
+      <c r="D66" t="s">
+        <v>543</v>
+      </c>
+      <c r="E66" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">fInfonavitBanterior </v>
+      </c>
+      <c r="F66" t="s">
+        <v>545</v>
+      </c>
+      <c r="M66" t="s">
+        <v>471</v>
+      </c>
+      <c r="N66" t="s">
+        <v>423</v>
+      </c>
+      <c r="O66" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P66" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q66" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>511</v>
+      </c>
+      <c r="C67" t="s">
+        <v>670</v>
+      </c>
+      <c r="D67" t="s">
+        <v>543</v>
+      </c>
+      <c r="E67" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">fAjusteInfonavit </v>
+      </c>
+      <c r="F67" t="s">
+        <v>545</v>
+      </c>
+      <c r="M67" t="s">
+        <v>472</v>
+      </c>
+      <c r="N67" t="s">
+        <v>423</v>
+      </c>
+      <c r="O67" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P67" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q67" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>511</v>
+      </c>
+      <c r="C68" t="s">
+        <v>671</v>
+      </c>
+      <c r="D68" t="s">
+        <v>543</v>
+      </c>
+      <c r="E68" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">fPensionAlimenticia </v>
+      </c>
+      <c r="F68" t="s">
+        <v>545</v>
+      </c>
+      <c r="M68" t="s">
+        <v>473</v>
+      </c>
+      <c r="N68" t="s">
+        <v>423</v>
+      </c>
+      <c r="O68" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P68" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q68" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>511</v>
+      </c>
+      <c r="C69" t="s">
+        <v>672</v>
+      </c>
+      <c r="D69" t="s">
+        <v>543</v>
+      </c>
+      <c r="E69" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">fPrestamo </v>
+      </c>
+      <c r="F69" t="s">
+        <v>545</v>
+      </c>
+      <c r="M69" t="s">
+        <v>474</v>
+      </c>
+      <c r="N69" t="s">
+        <v>423</v>
+      </c>
+      <c r="O69" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P69" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q69" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>511</v>
+      </c>
+      <c r="C70" t="s">
+        <v>673</v>
+      </c>
+      <c r="D70" t="s">
+        <v>543</v>
+      </c>
+      <c r="E70" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">fFonacot </v>
+      </c>
+      <c r="F70" t="s">
+        <v>545</v>
+      </c>
+      <c r="M70" t="s">
+        <v>475</v>
+      </c>
+      <c r="N70" t="s">
+        <v>423</v>
+      </c>
+      <c r="O70" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P70" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q70" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>511</v>
+      </c>
+      <c r="C71" t="s">
+        <v>674</v>
+      </c>
+      <c r="D71" t="s">
+        <v>543</v>
+      </c>
+      <c r="E71" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">fT_No_laborado </v>
+      </c>
+      <c r="F71" t="s">
+        <v>545</v>
+      </c>
+      <c r="M71" t="s">
+        <v>476</v>
+      </c>
+      <c r="N71" t="s">
+        <v>423</v>
+      </c>
+      <c r="O71" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P71" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q71" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>511</v>
+      </c>
+      <c r="C72" t="s">
+        <v>675</v>
+      </c>
+      <c r="D72" t="s">
+        <v>543</v>
+      </c>
+      <c r="E72" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">fCuotaSindical </v>
+      </c>
+      <c r="F72" t="s">
+        <v>545</v>
+      </c>
+      <c r="M72" t="s">
+        <v>477</v>
+      </c>
+      <c r="N72" t="s">
+        <v>423</v>
+      </c>
+      <c r="O72" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P72" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q72" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>511</v>
+      </c>
+      <c r="C73" t="s">
+        <v>676</v>
+      </c>
+      <c r="D73" t="s">
+        <v>543</v>
+      </c>
+      <c r="E73" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">fSubsidioGenerado </v>
+      </c>
+      <c r="F73" t="s">
+        <v>545</v>
+      </c>
+      <c r="M73" t="s">
+        <v>478</v>
+      </c>
+      <c r="N73" t="s">
+        <v>423</v>
+      </c>
+      <c r="O73" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P73" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q73" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>511</v>
+      </c>
+      <c r="C74" t="s">
+        <v>677</v>
+      </c>
+      <c r="D74" t="s">
+        <v>543</v>
+      </c>
+      <c r="E74" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">fSubsidioAplicado </v>
+      </c>
+      <c r="F74" t="s">
+        <v>545</v>
+      </c>
+      <c r="M74" t="s">
+        <v>479</v>
+      </c>
+      <c r="N74" t="s">
+        <v>423</v>
+      </c>
+      <c r="O74" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P74" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q74" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>511</v>
+      </c>
+      <c r="C75" t="s">
+        <v>678</v>
+      </c>
+      <c r="D75" t="s">
+        <v>702</v>
+      </c>
+      <c r="E75" s="67"/>
+      <c r="M75" t="s">
+        <v>480</v>
+      </c>
+      <c r="N75" t="s">
+        <v>423</v>
+      </c>
+      <c r="O75" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P75" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q75" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B76" s="68" t="s">
+        <v>511</v>
+      </c>
+      <c r="C76" t="s">
+        <v>679</v>
+      </c>
+      <c r="D76" s="68" t="s">
+        <v>699</v>
+      </c>
+      <c r="E76" s="67"/>
+      <c r="M76" t="s">
+        <v>481</v>
+      </c>
+      <c r="N76" t="s">
+        <v>423</v>
+      </c>
+      <c r="O76" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P76" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q76" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>511</v>
+      </c>
+      <c r="C77" t="s">
+        <v>680</v>
+      </c>
+      <c r="D77" t="s">
+        <v>543</v>
+      </c>
+      <c r="E77" s="67" t="str">
+        <f>+P74</f>
+        <v xml:space="preserve">fPrestamoPerA </v>
+      </c>
+      <c r="F77" t="s">
+        <v>545</v>
+      </c>
+      <c r="M77" t="s">
+        <v>482</v>
+      </c>
+      <c r="N77" t="s">
+        <v>423</v>
+      </c>
+      <c r="O77" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P77" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q77" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>511</v>
+      </c>
+      <c r="C78" t="s">
+        <v>681</v>
+      </c>
+      <c r="D78" t="s">
+        <v>543</v>
+      </c>
+      <c r="E78" s="67" t="str">
+        <f>+P75</f>
+        <v xml:space="preserve">fAdeudoInfonavitA </v>
+      </c>
+      <c r="F78" t="s">
+        <v>545</v>
+      </c>
+      <c r="M78" t="s">
+        <v>483</v>
+      </c>
+      <c r="N78" t="s">
+        <v>423</v>
+      </c>
+      <c r="O78" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P78" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q78" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>511</v>
+      </c>
+      <c r="C79" t="s">
+        <v>682</v>
+      </c>
+      <c r="D79" t="s">
+        <v>543</v>
+      </c>
+      <c r="E79" s="67" t="str">
+        <f>+P76</f>
+        <v xml:space="preserve">fDiferenciaInfonavitA </v>
+      </c>
+      <c r="F79" t="s">
+        <v>545</v>
+      </c>
+      <c r="M79" t="s">
+        <v>484</v>
+      </c>
+      <c r="N79" t="s">
+        <v>423</v>
+      </c>
+      <c r="O79" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P79" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q79" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C80" t="s">
+        <v>683</v>
+      </c>
+      <c r="D80" t="s">
+        <v>543</v>
+      </c>
+      <c r="E80" s="67" t="str">
+        <f>+P77</f>
+        <v xml:space="preserve">fAsimilados </v>
+      </c>
+      <c r="F80" t="s">
+        <v>545</v>
+      </c>
+      <c r="M80" t="s">
+        <v>485</v>
+      </c>
+      <c r="N80" t="s">
+        <v>423</v>
+      </c>
+      <c r="O80" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P80" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q80" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="81" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>511</v>
+      </c>
+      <c r="C81" t="s">
+        <v>684</v>
+      </c>
+      <c r="D81" t="s">
+        <v>543</v>
+      </c>
+      <c r="E81" s="67" t="str">
+        <f>+P78</f>
+        <v xml:space="preserve">fRetencionOperadora </v>
+      </c>
+      <c r="F81" t="s">
+        <v>545</v>
+      </c>
+      <c r="M81" t="s">
+        <v>486</v>
+      </c>
+      <c r="N81" t="s">
+        <v>423</v>
+      </c>
+      <c r="O81" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P81" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q81" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="82" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>511</v>
+      </c>
+      <c r="C82" t="s">
+        <v>685</v>
+      </c>
+      <c r="D82" t="s">
+        <v>543</v>
+      </c>
+      <c r="E82" s="67" t="str">
+        <f>+P79</f>
+        <v xml:space="preserve">fPorComision </v>
+      </c>
+      <c r="F82" t="s">
+        <v>545</v>
+      </c>
+      <c r="M82" t="s">
+        <v>487</v>
+      </c>
+      <c r="N82" t="s">
+        <v>423</v>
+      </c>
+      <c r="O82" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P82" t="s">
+        <v>624</v>
+      </c>
+      <c r="Q82" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="83" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>511</v>
+      </c>
+      <c r="C83" t="s">
+        <v>686</v>
+      </c>
+      <c r="D83" t="s">
+        <v>543</v>
+      </c>
+      <c r="E83" s="67" t="str">
+        <f>+P80</f>
+        <v xml:space="preserve">fComisionOperadora </v>
+      </c>
+      <c r="F83" t="s">
+        <v>545</v>
+      </c>
+      <c r="M83" t="s">
+        <v>488</v>
+      </c>
+      <c r="N83" t="s">
+        <v>423</v>
+      </c>
+      <c r="O83" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P83" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q83" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="84" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>511</v>
+      </c>
+      <c r="C84" t="s">
+        <v>687</v>
+      </c>
+      <c r="D84" t="s">
+        <v>543</v>
+      </c>
+      <c r="E84" s="67" t="str">
+        <f>+P81</f>
+        <v xml:space="preserve">fComisionAsimilados </v>
+      </c>
+      <c r="F84" t="s">
+        <v>545</v>
+      </c>
+      <c r="M84" t="s">
+        <v>489</v>
+      </c>
+      <c r="N84" t="s">
+        <v>423</v>
+      </c>
+      <c r="O84" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P84" t="s">
+        <v>626</v>
+      </c>
+      <c r="Q84" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="85" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>511</v>
+      </c>
+      <c r="C85" t="s">
+        <v>688</v>
+      </c>
+      <c r="D85" t="s">
+        <v>543</v>
+      </c>
+      <c r="E85" s="67" t="str">
+        <f>+P82</f>
+        <v xml:space="preserve">fImssCS </v>
+      </c>
+      <c r="F85" t="s">
+        <v>545</v>
+      </c>
+      <c r="M85" t="s">
+        <v>490</v>
+      </c>
+      <c r="N85" t="s">
+        <v>423</v>
+      </c>
+      <c r="O85" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P85" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q85" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="86" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>511</v>
+      </c>
+      <c r="C86" t="s">
+        <v>689</v>
+      </c>
+      <c r="D86" t="s">
+        <v>543</v>
+      </c>
+      <c r="E86" s="67" t="str">
+        <f t="shared" ref="E86:E89" si="2">+P83</f>
+        <v xml:space="preserve">fRcvCS </v>
+      </c>
+      <c r="F86" t="s">
+        <v>545</v>
+      </c>
+      <c r="M86" t="s">
+        <v>491</v>
+      </c>
+      <c r="N86" t="s">
+        <v>423</v>
+      </c>
+      <c r="O86" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P86" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q86" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="87" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>511</v>
+      </c>
+      <c r="C87" t="s">
+        <v>694</v>
+      </c>
+      <c r="D87" t="s">
+        <v>543</v>
+      </c>
+      <c r="E87" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">fInfonavitCS </v>
+      </c>
+      <c r="F87" t="s">
+        <v>545</v>
+      </c>
+      <c r="M87" t="s">
+        <v>493</v>
+      </c>
+      <c r="N87" t="s">
+        <v>494</v>
+      </c>
+      <c r="O87" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P87" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="88" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>511</v>
+      </c>
+      <c r="C88" t="s">
+        <v>695</v>
+      </c>
+      <c r="D88" t="s">
+        <v>543</v>
+      </c>
+      <c r="E88" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">fInsCS </v>
+      </c>
+      <c r="F88" t="s">
+        <v>545</v>
+      </c>
+      <c r="M88" t="s">
+        <v>499</v>
+      </c>
+      <c r="N88" t="s">
+        <v>500</v>
+      </c>
+      <c r="O88" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P88" t="s">
+        <v>501</v>
+      </c>
+      <c r="R88" t="s">
+        <v>496</v>
+      </c>
+      <c r="S88" t="s">
+        <v>497</v>
+      </c>
+      <c r="T88" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="89" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>511</v>
+      </c>
+      <c r="C89" t="s">
+        <v>700</v>
+      </c>
+      <c r="F89" t="s">
+        <v>545</v>
+      </c>
+      <c r="M89" t="s">
+        <v>508</v>
+      </c>
+      <c r="N89" t="s">
+        <v>509</v>
+      </c>
+      <c r="O89" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="P89" t="s">
+        <v>628</v>
+      </c>
+      <c r="R89" t="s">
+        <v>502</v>
+      </c>
+      <c r="S89" t="s">
+        <v>503</v>
+      </c>
+      <c r="T89" t="s">
+        <v>504</v>
+      </c>
+      <c r="U89" t="s">
+        <v>505</v>
+      </c>
+      <c r="V89" t="s">
+        <v>506</v>
+      </c>
+      <c r="W89" t="s">
+        <v>505</v>
+      </c>
+      <c r="X89" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="90" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>511</v>
+      </c>
+      <c r="C90" t="s">
+        <v>701</v>
+      </c>
+      <c r="D90" t="s">
+        <v>543</v>
+      </c>
+      <c r="E90" s="67" t="str">
+        <f>+P86</f>
+        <v xml:space="preserve">fTotalCostoSocial </v>
+      </c>
+      <c r="F90" t="s">
+        <v>545</v>
+      </c>
+      <c r="O90" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="R90" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="91" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>511</v>
+      </c>
+      <c r="C91" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="92" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>511</v>
+      </c>
+      <c r="C92" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="93" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>511</v>
+      </c>
+      <c r="C93" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="94" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>511</v>
+      </c>
+      <c r="C94" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="95" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>511</v>
+      </c>
+      <c r="C95" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="96" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>511</v>
+      </c>
+      <c r="C96" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>511</v>
+      </c>
+      <c r="C97" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>511</v>
+      </c>
+      <c r="C98" t="s">
+        <v>710</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E70"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="1.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D3" t="s">
+        <v>561</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D4" t="s">
+        <v>562</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D5" t="s">
+        <v>563</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D6" t="s">
+        <v>564</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D7" t="s">
+        <v>565</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D8" t="s">
+        <v>566</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D9" t="s">
+        <v>567</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D10" t="s">
+        <v>568</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D11" t="s">
+        <v>569</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D12" t="s">
+        <v>570</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D13" t="s">
+        <v>571</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D14" t="s">
+        <v>572</v>
+      </c>
+      <c r="E14" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C15" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D15" t="s">
+        <v>573</v>
+      </c>
+      <c r="E15" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D16" t="s">
+        <v>574</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D17" t="s">
+        <v>575</v>
+      </c>
+      <c r="E17" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D18" t="s">
+        <v>576</v>
+      </c>
+      <c r="E18" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D19" t="s">
+        <v>577</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C20" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D20" t="s">
+        <v>578</v>
+      </c>
+      <c r="E20" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D21" t="s">
+        <v>579</v>
+      </c>
+      <c r="E21" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D22" t="s">
+        <v>580</v>
+      </c>
+      <c r="E22" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C23" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D23" t="s">
+        <v>581</v>
+      </c>
+      <c r="E23" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D24" t="s">
+        <v>582</v>
+      </c>
+      <c r="E24" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D25" t="s">
+        <v>583</v>
+      </c>
+      <c r="E25" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D26" t="s">
+        <v>584</v>
+      </c>
+      <c r="E26" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D27" t="s">
+        <v>585</v>
+      </c>
+      <c r="E27" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C28" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E28" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C29" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D29" t="s">
+        <v>587</v>
+      </c>
+      <c r="E29" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C30" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D30" t="s">
+        <v>588</v>
+      </c>
+      <c r="E30" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C31" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D31" t="s">
+        <v>589</v>
+      </c>
+      <c r="E31" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C32" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D32" t="s">
+        <v>590</v>
+      </c>
+      <c r="E32" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C33" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D33" t="s">
+        <v>591</v>
+      </c>
+      <c r="E33" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C34" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D34" t="s">
+        <v>592</v>
+      </c>
+      <c r="E34" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C35" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D35" t="s">
+        <v>593</v>
+      </c>
+      <c r="E35" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C36" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D36" t="s">
+        <v>594</v>
+      </c>
+      <c r="E36" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C37" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D37" t="s">
+        <v>595</v>
+      </c>
+      <c r="E37" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C38" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D38" t="s">
+        <v>596</v>
+      </c>
+      <c r="E38" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C39" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D39" t="s">
+        <v>597</v>
+      </c>
+      <c r="E39" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C40" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D40" t="s">
+        <v>598</v>
+      </c>
+      <c r="E40" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C41" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D41" t="s">
+        <v>599</v>
+      </c>
+      <c r="E41" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C42" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D42" t="s">
+        <v>600</v>
+      </c>
+      <c r="E42" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C43" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D43" t="s">
+        <v>601</v>
+      </c>
+      <c r="E43" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C44" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D44" t="s">
+        <v>602</v>
+      </c>
+      <c r="E44" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C45" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D45" t="s">
+        <v>603</v>
+      </c>
+      <c r="E45" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C46" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D46" t="s">
+        <v>604</v>
+      </c>
+      <c r="E46" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C47" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D47" t="s">
+        <v>605</v>
+      </c>
+      <c r="E47" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C48" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D48" t="s">
+        <v>606</v>
+      </c>
+      <c r="E48" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C49" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D49" t="s">
+        <v>607</v>
+      </c>
+      <c r="E49" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C50" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D50" t="s">
+        <v>608</v>
+      </c>
+      <c r="E50" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C51" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D51" t="s">
+        <v>609</v>
+      </c>
+      <c r="E51" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C52" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D52" t="s">
+        <v>610</v>
+      </c>
+      <c r="E52" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C53" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D53" t="s">
+        <v>611</v>
+      </c>
+      <c r="E53" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C54" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D54" t="s">
+        <v>612</v>
+      </c>
+      <c r="E54" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C55" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D55" t="s">
+        <v>613</v>
+      </c>
+      <c r="E55" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C56" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D56" t="s">
+        <v>614</v>
+      </c>
+      <c r="E56" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C57" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D57" t="s">
+        <v>615</v>
+      </c>
+      <c r="E57" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C58" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D58" t="s">
+        <v>616</v>
+      </c>
+      <c r="E58" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C59" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D59" t="s">
+        <v>617</v>
+      </c>
+      <c r="E59" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C60" s="68" t="s">
+        <v>690</v>
+      </c>
       <c r="D60" t="s">
-        <v>545</v>
-      </c>
-      <c r="E60" s="76" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">fIncapacidad </v>
-      </c>
-      <c r="F60" t="s">
-        <v>547</v>
-      </c>
-      <c r="I60" t="s">
-        <v>465</v>
-      </c>
-      <c r="J60" t="s">
-        <v>423</v>
-      </c>
-      <c r="K60" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>513</v>
-      </c>
-      <c r="C61" t="s">
-        <v>666</v>
+        <v>618</v>
+      </c>
+      <c r="E60" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C61" s="68" t="s">
+        <v>690</v>
       </c>
       <c r="D61" t="s">
-        <v>545</v>
-      </c>
-      <c r="E61" s="76" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">fIsr </v>
-      </c>
-      <c r="F61" t="s">
-        <v>547</v>
-      </c>
-      <c r="I61" t="s">
-        <v>466</v>
-      </c>
-      <c r="J61" t="s">
-        <v>423</v>
-      </c>
-      <c r="K61" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>513</v>
-      </c>
-      <c r="C62" t="s">
-        <v>667</v>
+        <v>619</v>
+      </c>
+      <c r="E61" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C62" s="68" t="s">
+        <v>690</v>
       </c>
       <c r="D62" t="s">
-        <v>545</v>
-      </c>
-      <c r="E62" s="76" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">fImss </v>
-      </c>
-      <c r="F62" t="s">
-        <v>547</v>
-      </c>
-      <c r="I62" t="s">
-        <v>467</v>
-      </c>
-      <c r="J62" t="s">
-        <v>423</v>
-      </c>
-      <c r="K62" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>513</v>
-      </c>
-      <c r="C63" t="s">
-        <v>668</v>
+        <v>620</v>
+      </c>
+      <c r="E62" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C63" s="68" t="s">
+        <v>690</v>
       </c>
       <c r="D63" t="s">
-        <v>545</v>
-      </c>
-      <c r="E63" s="76" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">fInfonavit </v>
-      </c>
-      <c r="F63" t="s">
-        <v>547</v>
-      </c>
-      <c r="I63" t="s">
-        <v>468</v>
-      </c>
-      <c r="J63" t="s">
-        <v>423</v>
-      </c>
-      <c r="K63" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>513</v>
-      </c>
-      <c r="C64" t="s">
-        <v>669</v>
+        <v>621</v>
+      </c>
+      <c r="E63" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C64" s="68" t="s">
+        <v>690</v>
       </c>
       <c r="D64" t="s">
-        <v>545</v>
-      </c>
-      <c r="E64" s="76" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">fInfonavitBanterior </v>
-      </c>
-      <c r="F64" t="s">
-        <v>547</v>
-      </c>
-      <c r="I64" t="s">
-        <v>469</v>
-      </c>
-      <c r="J64" t="s">
-        <v>423</v>
-      </c>
-      <c r="K64" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>513</v>
-      </c>
-      <c r="C65" t="s">
-        <v>670</v>
+        <v>622</v>
+      </c>
+      <c r="E64" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C65" s="68" t="s">
+        <v>690</v>
       </c>
       <c r="D65" t="s">
-        <v>545</v>
-      </c>
-      <c r="E65" s="76" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">fAjusteInfonavit </v>
-      </c>
-      <c r="F65" t="s">
-        <v>547</v>
-      </c>
-      <c r="I65" t="s">
-        <v>470</v>
-      </c>
-      <c r="J65" t="s">
-        <v>423</v>
-      </c>
-      <c r="K65" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>513</v>
-      </c>
-      <c r="C66" t="s">
-        <v>671</v>
+        <v>623</v>
+      </c>
+      <c r="E65" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C66" s="68" t="s">
+        <v>690</v>
       </c>
       <c r="D66" t="s">
-        <v>545</v>
-      </c>
-      <c r="E66" s="76" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">fPensionAlimenticia </v>
-      </c>
-      <c r="F66" t="s">
-        <v>547</v>
-      </c>
-      <c r="I66" t="s">
-        <v>471</v>
-      </c>
-      <c r="J66" t="s">
-        <v>423</v>
-      </c>
-      <c r="K66" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>513</v>
-      </c>
-      <c r="C67" t="s">
-        <v>672</v>
+        <v>624</v>
+      </c>
+      <c r="E66" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C67" s="68" t="s">
+        <v>690</v>
       </c>
       <c r="D67" t="s">
-        <v>545</v>
-      </c>
-      <c r="E67" s="76" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">fPrestamo </v>
-      </c>
-      <c r="F67" t="s">
-        <v>547</v>
-      </c>
-      <c r="I67" t="s">
-        <v>472</v>
-      </c>
-      <c r="J67" t="s">
-        <v>423</v>
-      </c>
-      <c r="K67" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>513</v>
-      </c>
-      <c r="C68" t="s">
-        <v>673</v>
+        <v>625</v>
+      </c>
+      <c r="E67" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C68" s="68" t="s">
+        <v>690</v>
       </c>
       <c r="D68" t="s">
-        <v>545</v>
-      </c>
-      <c r="E68" s="76" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">fFonacot </v>
-      </c>
-      <c r="F68" t="s">
-        <v>547</v>
-      </c>
-      <c r="I68" t="s">
-        <v>473</v>
-      </c>
-      <c r="J68" t="s">
-        <v>423</v>
-      </c>
-      <c r="K68" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>513</v>
-      </c>
-      <c r="C69" t="s">
-        <v>674</v>
+        <v>626</v>
+      </c>
+      <c r="E68" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C69" s="68" t="s">
+        <v>690</v>
       </c>
       <c r="D69" t="s">
-        <v>545</v>
-      </c>
-      <c r="E69" s="76" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">fT_No_laborado </v>
-      </c>
-      <c r="F69" t="s">
-        <v>547</v>
-      </c>
-      <c r="I69" t="s">
-        <v>474</v>
-      </c>
-      <c r="J69" t="s">
-        <v>423</v>
-      </c>
-      <c r="K69" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>513</v>
-      </c>
-      <c r="C70" t="s">
-        <v>675</v>
+        <v>627</v>
+      </c>
+      <c r="E69" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="C70" s="68" t="s">
+        <v>690</v>
       </c>
       <c r="D70" t="s">
-        <v>545</v>
-      </c>
-      <c r="E70" s="76" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">fCuotaSindical </v>
-      </c>
-      <c r="F70" t="s">
-        <v>547</v>
-      </c>
-      <c r="I70" t="s">
-        <v>475</v>
-      </c>
-      <c r="J70" t="s">
-        <v>423</v>
-      </c>
-      <c r="K70" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>513</v>
-      </c>
-      <c r="C71" t="s">
-        <v>676</v>
-      </c>
-      <c r="D71" t="s">
-        <v>545</v>
-      </c>
-      <c r="E71" s="76" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">fSubsidioGenerado </v>
-      </c>
-      <c r="F71" t="s">
-        <v>547</v>
-      </c>
-      <c r="I71" t="s">
-        <v>476</v>
-      </c>
-      <c r="J71" t="s">
-        <v>423</v>
-      </c>
-      <c r="K71" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>513</v>
-      </c>
-      <c r="C72" t="s">
-        <v>677</v>
-      </c>
-      <c r="D72" t="s">
-        <v>545</v>
-      </c>
-      <c r="E72" s="76" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">fSubsidioAplicado </v>
-      </c>
-      <c r="F72" t="s">
-        <v>547</v>
-      </c>
-      <c r="I72" t="s">
-        <v>477</v>
-      </c>
-      <c r="J72" t="s">
-        <v>423</v>
-      </c>
-      <c r="K72" t="s">
-        <v>616</v>
-      </c>
-      <c r="L72" t="s">
-        <v>496</v>
-      </c>
-      <c r="M72" t="s">
-        <v>497</v>
-      </c>
-      <c r="N72" t="s">
-        <v>498</v>
-      </c>
-      <c r="O72" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>513</v>
-      </c>
-      <c r="C73" t="s">
-        <v>678</v>
-      </c>
-      <c r="D73" t="s">
-        <v>545</v>
-      </c>
-      <c r="E73" s="76" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">fOperadora </v>
-      </c>
-      <c r="F73" t="s">
-        <v>547</v>
-      </c>
-      <c r="I73" t="s">
-        <v>478</v>
-      </c>
-      <c r="J73" t="s">
-        <v>423</v>
-      </c>
-      <c r="K73" t="s">
-        <v>617</v>
-      </c>
-      <c r="L73">
-        <v>1</v>
-      </c>
-      <c r="M73" t="s">
-        <v>503</v>
-      </c>
-      <c r="N73" t="s">
-        <v>504</v>
-      </c>
-      <c r="O73" t="s">
-        <v>505</v>
-      </c>
-      <c r="P73" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>507</v>
-      </c>
-      <c r="R73" t="s">
-        <v>506</v>
-      </c>
-      <c r="S73" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>513</v>
-      </c>
-      <c r="C74" t="s">
-        <v>679</v>
-      </c>
-      <c r="D74" t="s">
-        <v>545</v>
-      </c>
-      <c r="E74" s="76" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">fPrestamoPerA </v>
-      </c>
-      <c r="F74" t="s">
-        <v>547</v>
-      </c>
-      <c r="I74" t="s">
-        <v>479</v>
-      </c>
-      <c r="J74" t="s">
-        <v>423</v>
-      </c>
-      <c r="K74" t="s">
-        <v>618</v>
-      </c>
-      <c r="L74" t="s">
-        <v>511</v>
-      </c>
-      <c r="M74" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
-        <v>513</v>
-      </c>
-      <c r="C75" t="s">
-        <v>680</v>
-      </c>
-      <c r="D75" t="s">
-        <v>545</v>
-      </c>
-      <c r="E75" s="76" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">fAdeudoInfonavitA </v>
-      </c>
-      <c r="F75" t="s">
-        <v>547</v>
-      </c>
-      <c r="I75" t="s">
-        <v>480</v>
-      </c>
-      <c r="J75" t="s">
-        <v>423</v>
-      </c>
-      <c r="K75" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
-        <v>513</v>
-      </c>
-      <c r="C76" t="s">
-        <v>681</v>
-      </c>
-      <c r="D76" t="s">
-        <v>545</v>
-      </c>
-      <c r="E76" s="76" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">fDiferenciaInfonavitA </v>
-      </c>
-      <c r="F76" t="s">
-        <v>547</v>
-      </c>
-      <c r="I76" t="s">
-        <v>481</v>
-      </c>
-      <c r="J76" t="s">
-        <v>423</v>
-      </c>
-      <c r="K76" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>513</v>
-      </c>
-      <c r="C77" t="s">
-        <v>682</v>
-      </c>
-      <c r="D77" t="s">
-        <v>545</v>
-      </c>
-      <c r="E77" s="76" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">fAsimilados </v>
-      </c>
-      <c r="F77" t="s">
-        <v>547</v>
-      </c>
-      <c r="I77" t="s">
-        <v>482</v>
-      </c>
-      <c r="J77" t="s">
-        <v>423</v>
-      </c>
-      <c r="K77" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>513</v>
-      </c>
-      <c r="C78" t="s">
-        <v>683</v>
-      </c>
-      <c r="D78" t="s">
-        <v>545</v>
-      </c>
-      <c r="E78" s="76" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">fRetencionOperadora </v>
-      </c>
-      <c r="F78" t="s">
-        <v>547</v>
-      </c>
-      <c r="I78" t="s">
-        <v>483</v>
-      </c>
-      <c r="J78" t="s">
-        <v>423</v>
-      </c>
-      <c r="K78" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>513</v>
-      </c>
-      <c r="C79" t="s">
-        <v>684</v>
-      </c>
-      <c r="D79" t="s">
-        <v>545</v>
-      </c>
-      <c r="E79" s="76" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">fPorComision </v>
-      </c>
-      <c r="F79" t="s">
-        <v>547</v>
-      </c>
-      <c r="I79" t="s">
-        <v>484</v>
-      </c>
-      <c r="J79" t="s">
-        <v>423</v>
-      </c>
-      <c r="K79" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>513</v>
-      </c>
-      <c r="C80" t="s">
-        <v>685</v>
-      </c>
-      <c r="D80" t="s">
-        <v>545</v>
-      </c>
-      <c r="E80" s="76" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">fComisionOperadora </v>
-      </c>
-      <c r="F80" t="s">
-        <v>547</v>
-      </c>
-      <c r="I80" t="s">
-        <v>485</v>
-      </c>
-      <c r="J80" t="s">
-        <v>423</v>
-      </c>
-      <c r="K80" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>513</v>
-      </c>
-      <c r="C81" t="s">
-        <v>686</v>
-      </c>
-      <c r="D81" t="s">
-        <v>545</v>
-      </c>
-      <c r="E81" s="76" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">fComisionAsimilados </v>
-      </c>
-      <c r="F81" t="s">
-        <v>547</v>
-      </c>
-      <c r="I81" t="s">
-        <v>486</v>
-      </c>
-      <c r="J81" t="s">
-        <v>423</v>
-      </c>
-      <c r="K81" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>513</v>
-      </c>
-      <c r="C82" t="s">
-        <v>687</v>
-      </c>
-      <c r="D82" t="s">
-        <v>545</v>
-      </c>
-      <c r="E82" s="76" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">fImssCS </v>
-      </c>
-      <c r="F82" t="s">
-        <v>547</v>
-      </c>
-      <c r="I82" t="s">
-        <v>487</v>
-      </c>
-      <c r="J82" t="s">
-        <v>423</v>
-      </c>
-      <c r="K82" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>513</v>
-      </c>
-      <c r="C83" t="s">
-        <v>688</v>
-      </c>
-      <c r="D83" t="s">
-        <v>545</v>
-      </c>
-      <c r="E83" s="76" t="str">
-        <f t="shared" ref="E83:E87" si="1">+K83</f>
-        <v xml:space="preserve">fRcvCS </v>
-      </c>
-      <c r="F83" t="s">
-        <v>547</v>
-      </c>
-      <c r="I83" t="s">
-        <v>488</v>
-      </c>
-      <c r="J83" t="s">
-        <v>423</v>
-      </c>
-      <c r="K83" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>513</v>
-      </c>
-      <c r="C84" t="s">
-        <v>689</v>
-      </c>
-      <c r="D84" t="s">
-        <v>545</v>
-      </c>
-      <c r="E84" s="76" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">fInfonavitCS </v>
-      </c>
-      <c r="F84" t="s">
-        <v>547</v>
-      </c>
-      <c r="I84" t="s">
-        <v>489</v>
-      </c>
-      <c r="J84" t="s">
-        <v>423</v>
-      </c>
-      <c r="K84" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
-        <v>513</v>
-      </c>
-      <c r="C85" t="s">
-        <v>690</v>
-      </c>
-      <c r="D85" t="s">
-        <v>545</v>
-      </c>
-      <c r="E85" s="76" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">fInsCS </v>
-      </c>
-      <c r="F85" t="s">
-        <v>547</v>
-      </c>
-      <c r="I85" t="s">
-        <v>490</v>
-      </c>
-      <c r="J85" t="s">
-        <v>423</v>
-      </c>
-      <c r="K85" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
-        <v>513</v>
-      </c>
-      <c r="C86" t="s">
-        <v>691</v>
-      </c>
-      <c r="D86" t="s">
-        <v>545</v>
-      </c>
-      <c r="E86" s="76" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">fTotalCostoSocial </v>
-      </c>
-      <c r="F86" t="s">
-        <v>547</v>
-      </c>
-      <c r="I86" t="s">
-        <v>491</v>
-      </c>
-      <c r="J86" t="s">
-        <v>423</v>
-      </c>
-      <c r="K86" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="E87" s="76"/>
-      <c r="I87" t="s">
-        <v>493</v>
-      </c>
-      <c r="J87" t="s">
-        <v>494</v>
-      </c>
-      <c r="K87" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="I88" t="s">
-        <v>500</v>
-      </c>
-      <c r="J88" t="s">
-        <v>501</v>
-      </c>
-      <c r="K88" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="I89" t="s">
-        <v>509</v>
-      </c>
-      <c r="J89" t="s">
-        <v>510</v>
-      </c>
-      <c r="K89" t="s">
-        <v>630</v>
+      <c r="E70" s="68" t="s">
+        <v>690</v>
       </c>
     </row>
   </sheetData>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="647" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="647"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA" sheetId="38" r:id="rId1"/>
@@ -5509,13 +5509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:CT6"/>
+  <dimension ref="A3:DU6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BI10" sqref="BI10:BJ10"/>
+      <selection pane="bottomRight" activeCell="CQ3" sqref="CQ3:DU3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5524,13 +5524,13 @@
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="30.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
-    <col min="13" max="13" width="24.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" customWidth="1"/>
     <col min="14" max="14" width="15.140625" customWidth="1"/>
     <col min="71" max="71" width="15.42578125" customWidth="1"/>
     <col min="81" max="81" width="14.85546875" customWidth="1"/>
@@ -5539,7 +5539,7 @@
     <col min="93" max="93" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:98" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:125" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
@@ -5624,12 +5624,39 @@
       <c r="CN3" s="37"/>
       <c r="CO3" s="37"/>
       <c r="CP3" s="37"/>
-      <c r="CQ3" s="37"/>
-      <c r="CR3" s="37"/>
-      <c r="CS3" s="37"/>
-      <c r="CT3" s="37"/>
-    </row>
-    <row r="4" spans="1:98" s="28" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="CQ3"/>
+      <c r="CR3"/>
+      <c r="CS3"/>
+      <c r="CT3"/>
+      <c r="CU3"/>
+      <c r="CV3"/>
+      <c r="CW3"/>
+      <c r="CX3"/>
+      <c r="CY3"/>
+      <c r="CZ3"/>
+      <c r="DA3"/>
+      <c r="DB3"/>
+      <c r="DC3"/>
+      <c r="DD3"/>
+      <c r="DE3"/>
+      <c r="DF3"/>
+      <c r="DG3"/>
+      <c r="DH3"/>
+      <c r="DI3"/>
+      <c r="DJ3"/>
+      <c r="DK3"/>
+      <c r="DL3"/>
+      <c r="DM3"/>
+      <c r="DN3"/>
+      <c r="DO3"/>
+      <c r="DP3"/>
+      <c r="DQ3"/>
+      <c r="DR3"/>
+      <c r="DS3"/>
+      <c r="DT3"/>
+      <c r="DU3"/>
+    </row>
+    <row r="4" spans="1:125" s="28" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
       <c r="B4" s="31" t="s">
         <v>31</v>
@@ -5911,7 +5938,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:125" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
@@ -6187,7 +6214,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:125" x14ac:dyDescent="0.2">
       <c r="BY6" t="s">
         <v>104</v>
       </c>
@@ -9947,7 +9974,7 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -1294,7 +1294,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1438,6 +1438,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3148,7 +3154,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3288,6 +3294,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1493">
     <cellStyle name="Comma_2 SALARIOS" xfId="1491"/>
@@ -5515,7 +5522,7 @@
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CQ3" sqref="CQ3:DU3"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5938,280 +5945,285 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:125" x14ac:dyDescent="0.2">
-      <c r="B5">
+    <row r="5" spans="1:125" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="71">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="71">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="71">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="71">
         <v>5</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="71">
         <v>6</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="71">
         <v>7</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="71">
         <v>8</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="71">
         <v>9</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="71">
         <v>10</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="71">
         <v>11</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="71">
         <v>12</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="71">
         <v>13</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="71">
         <v>14</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="71">
         <v>15</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="71">
         <v>16</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="71">
         <v>17</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="71">
         <v>18</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="71">
         <v>19</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="71">
         <v>20</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="71">
         <v>21</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="71">
         <v>22</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="71">
         <v>23</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="71">
         <v>24</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="71">
         <v>25</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="71">
         <v>26</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="71">
         <v>27</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="71">
         <v>28</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="71">
         <v>29</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="71">
         <v>30</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="71">
         <v>31</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="71">
         <v>32</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="71">
         <v>33</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="71">
         <v>34</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" s="71">
         <v>35</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" s="71">
         <v>36</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" s="71">
         <v>37</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" s="71">
         <v>38</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" s="71">
         <v>39</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" s="71">
         <v>40</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" s="71">
         <v>41</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" s="71">
         <v>42</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" s="71">
         <v>43</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" s="71">
         <v>44</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" s="71">
         <v>45</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" s="71">
         <v>46</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" s="71">
         <v>47</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" s="71">
         <v>48</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" s="71">
         <v>49</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" s="71">
         <v>50</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" s="71">
         <v>51</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" s="71">
         <v>52</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" s="71">
         <v>53</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" s="71">
         <v>54</v>
       </c>
-      <c r="BC5">
+      <c r="BC5" s="71">
         <v>55</v>
       </c>
-      <c r="BD5">
+      <c r="BD5" s="71">
         <v>56</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" s="71">
         <v>57</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" s="71">
         <v>58</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" s="71">
         <v>59</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" s="71">
         <v>60</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" s="71">
         <v>61</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" s="71">
         <v>62</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" s="71">
         <v>63</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" s="71">
         <v>64</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" s="71">
         <v>65</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" s="71">
         <v>66</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" s="71">
         <v>67</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" s="71">
         <v>68</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" s="71">
         <v>69</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" s="71">
         <v>70</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" s="71">
         <v>71</v>
       </c>
-      <c r="BT5">
+      <c r="BT5" s="71">
         <v>72</v>
       </c>
-      <c r="BU5">
+      <c r="BU5" s="71">
         <v>73</v>
       </c>
-      <c r="BV5">
+      <c r="BV5" s="71">
         <v>74</v>
       </c>
-      <c r="BW5">
+      <c r="BW5" s="71">
         <v>75</v>
       </c>
-      <c r="BX5">
+      <c r="BX5" s="71">
         <v>76</v>
       </c>
-      <c r="BY5">
+      <c r="BY5" s="71">
         <v>77</v>
       </c>
-      <c r="BZ5">
+      <c r="BZ5" s="71">
         <v>78</v>
       </c>
-      <c r="CA5">
+      <c r="CA5" s="71">
         <v>79</v>
       </c>
-      <c r="CB5">
+      <c r="CB5" s="71">
         <v>80</v>
       </c>
-      <c r="CC5">
+      <c r="CC5" s="71">
         <v>81</v>
       </c>
-      <c r="CD5">
+      <c r="CD5" s="71">
         <v>82</v>
       </c>
-      <c r="CE5">
+      <c r="CE5" s="71">
         <v>83</v>
       </c>
-      <c r="CF5">
+      <c r="CF5" s="71">
         <v>84</v>
       </c>
-      <c r="CG5">
+      <c r="CG5" s="71">
         <v>85</v>
       </c>
-      <c r="CH5">
+      <c r="CH5" s="71">
         <v>86</v>
       </c>
-      <c r="CI5">
+      <c r="CI5" s="71">
         <v>87</v>
       </c>
-      <c r="CJ5">
+      <c r="CJ5" s="71">
         <v>88</v>
       </c>
-      <c r="CK5">
+      <c r="CK5" s="71">
         <v>89</v>
       </c>
-      <c r="CL5">
+      <c r="CL5" s="71">
         <v>90</v>
       </c>
-      <c r="CM5">
-        <f>+CI5+CJ5+CK5+CL5</f>
-        <v>354</v>
-      </c>
-      <c r="CO5">
+      <c r="CM5" s="71">
+        <v>91</v>
+      </c>
+      <c r="CN5" s="71">
+        <v>92</v>
+      </c>
+      <c r="CO5" s="71">
         <v>93</v>
+      </c>
+      <c r="CP5" s="71">
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:125" x14ac:dyDescent="0.2">
@@ -6221,6 +6233,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -5531,10 +5531,10 @@
   <dimension ref="A3:DV6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="CO5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="BY5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CP4" sqref="CP4"/>
+      <selection pane="bottomRight" activeCell="CE5" sqref="CE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6224,7 +6224,8 @@
         <v>82</v>
       </c>
       <c r="CE5" s="60">
-        <v>83</v>
+        <f>BW5+BY5+BZ5+CA5+CB5+CC5+CD5-BT5-BU5-BV5</f>
+        <v>333</v>
       </c>
       <c r="CF5" s="60">
         <v>84</v>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -5531,10 +5531,10 @@
   <dimension ref="A3:DV6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="BY5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CE5" sqref="CE5"/>
+      <selection pane="bottomRight" activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5542,7 +5542,7 @@
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
@@ -5551,6 +5551,9 @@
     <col min="12" max="12" width="19.85546875" customWidth="1"/>
     <col min="13" max="13" width="28.7109375" customWidth="1"/>
     <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="24" max="24" width="13.85546875" customWidth="1"/>
+    <col min="25" max="25" width="16.140625" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" customWidth="1"/>
     <col min="71" max="71" width="15.42578125" customWidth="1"/>
     <col min="81" max="81" width="14.85546875" customWidth="1"/>
     <col min="83" max="83" width="15.7109375" customWidth="1"/>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="419">
   <si>
     <t>TOTAL</t>
   </si>
@@ -301,24 +301,9 @@
     <t>ADEUDO INF EXCEDENTE</t>
   </si>
   <si>
-    <t>PA E</t>
-  </si>
-  <si>
-    <t>EXCEDENTE</t>
-  </si>
-  <si>
     <t>PRIMA EXCEDENTE</t>
   </si>
   <si>
-    <t>POR COMISION</t>
-  </si>
-  <si>
-    <t>COMISION A</t>
-  </si>
-  <si>
-    <t>COMISION B</t>
-  </si>
-  <si>
     <t>IMSS_CS</t>
   </si>
   <si>
@@ -1301,6 +1286,24 @@
   </si>
   <si>
     <t>PRO PRIMA ANTI</t>
+  </si>
+  <si>
+    <t>EXCDENETE V</t>
+  </si>
+  <si>
+    <t>EXCDENTE SUB</t>
+  </si>
+  <si>
+    <t>PA EXCEDENTE</t>
+  </si>
+  <si>
+    <t>EXCDENETE M</t>
+  </si>
+  <si>
+    <t>COMISION BSS</t>
+  </si>
+  <si>
+    <t>TIPO SIND/PPP</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1315,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1458,8 +1461,15 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1542,6 +1552,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor rgb="FF538DD5"/>
       </patternFill>
     </fill>
   </fills>
@@ -3166,7 +3182,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3306,6 +3322,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1493">
@@ -5531,10 +5550,10 @@
   <dimension ref="A3:DV6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="CC5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AC4" sqref="AC4"/>
+      <selection pane="bottomRight" activeCell="CI5" sqref="CI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5554,9 +5573,10 @@
     <col min="24" max="24" width="13.85546875" customWidth="1"/>
     <col min="25" max="25" width="16.140625" customWidth="1"/>
     <col min="26" max="26" width="13.42578125" customWidth="1"/>
-    <col min="71" max="71" width="15.42578125" customWidth="1"/>
+    <col min="71" max="71" width="16.5703125" customWidth="1"/>
+    <col min="72" max="72" width="12.85546875" customWidth="1"/>
     <col min="81" max="81" width="14.85546875" customWidth="1"/>
-    <col min="83" max="83" width="15.7109375" customWidth="1"/>
+    <col min="85" max="85" width="15.7109375" customWidth="1"/>
     <col min="91" max="91" width="14" customWidth="1"/>
     <col min="93" max="93" width="15.7109375" customWidth="1"/>
     <col min="98" max="98" width="12.7109375" customWidth="1"/>
@@ -5861,7 +5881,7 @@
         <v>13</v>
       </c>
       <c r="BI4" s="31" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="BJ4" s="31" t="s">
         <v>75</v>
@@ -5893,92 +5913,92 @@
       <c r="BS4" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="BT4" s="31" t="s">
+      <c r="BT4" s="72" t="s">
+        <v>418</v>
+      </c>
+      <c r="BU4" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="BU4" s="31" t="s">
+      <c r="BV4" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="BV4" s="31" t="s">
+      <c r="BW4" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="BX4" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="BY4" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="BW4" s="31" t="s">
+      <c r="BZ4" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="CA4" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="CB4" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="CC4" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="CD4" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="CE4" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="CF4" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="CG4" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="CH4" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="CI4" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="BX4" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="BY4" s="40" t="s">
+      <c r="CJ4" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="BZ4" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="CA4" s="31" t="s">
+      <c r="CK4" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL4" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM4" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN4" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO4" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="CB4" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="CC4" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="CD4" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="CE4" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="CF4" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="CG4" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH4" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="CI4" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="CJ4" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK4" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="CL4" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="CM4" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="CN4" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="CO4" s="40" t="s">
-        <v>103</v>
-      </c>
       <c r="CP4" s="58" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="CQ4" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="CR4" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="CS4" s="40" t="s">
         <v>412</v>
       </c>
-      <c r="CR4" s="40" t="s">
-        <v>416</v>
-      </c>
-      <c r="CS4" s="40" t="s">
-        <v>417</v>
-      </c>
       <c r="CT4" s="40" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="CU4" s="40" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="CV4" s="40" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="CW4"/>
     </row>
@@ -6227,14 +6247,14 @@
         <v>82</v>
       </c>
       <c r="CE5" s="60">
-        <f>BW5+BY5+BZ5+CA5+CB5+CC5+CD5-BT5-BU5-BV5</f>
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="CF5" s="60">
         <v>84</v>
       </c>
       <c r="CG5" s="60">
-        <v>85</v>
+        <f>+BX5-BU5-BV5+BW5+BY5+BZ5+CA5+CB5+CC5+CD5-CE5+CF5</f>
+        <v>482</v>
       </c>
       <c r="CH5" s="60">
         <v>86</v>
@@ -6284,7 +6304,7 @@
     </row>
     <row r="6" spans="1:126" x14ac:dyDescent="0.2">
       <c r="BY6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -6333,7 +6353,7 @@
     </row>
     <row r="5" spans="2:15" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>8</v>
@@ -6342,7 +6362,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>11</v>
@@ -6351,7 +6371,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>6</v>
@@ -6360,13 +6380,13 @@
         <v>4</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N5" s="18"/>
     </row>
@@ -7083,7 +7103,7 @@
       </c>
       <c r="C2"/>
       <c r="F2" s="43" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G2" s="64"/>
       <c r="H2" s="65"/>
@@ -7095,7 +7115,7 @@
       </c>
       <c r="C3" s="67"/>
       <c r="F3" s="68" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G3" s="68"/>
       <c r="H3" s="44">
@@ -7111,7 +7131,7 @@
         <v>empresa</v>
       </c>
       <c r="F4" s="69" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G4" s="70"/>
       <c r="H4" s="44">
@@ -7120,14 +7140,14 @@
     </row>
     <row r="5" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="47" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C5" s="48">
         <f>+H4+H5+H6+H7</f>
         <v>0</v>
       </c>
       <c r="F5" s="69" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G5" s="70"/>
       <c r="H5" s="44">
@@ -7136,14 +7156,14 @@
     </row>
     <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="49" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C6" s="50">
         <f>+C5</f>
         <v>0</v>
       </c>
       <c r="F6" s="71" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G6" s="71"/>
       <c r="H6" s="44">
@@ -7160,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G7" s="53">
         <v>0.06</v>
@@ -7179,11 +7199,11 @@
         <v>0</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G8" s="63"/>
       <c r="H8" s="56" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -7241,7 +7261,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="G2" s="42" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H2" s="42"/>
       <c r="I2" s="42"/>
@@ -7259,22 +7279,22 @@
     </row>
     <row r="4" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H4" s="42"/>
       <c r="I4" s="42"/>
@@ -7283,16 +7303,16 @@
     </row>
     <row r="5" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H5" s="42"/>
       <c r="I5" s="42"/>
@@ -7301,19 +7321,19 @@
     </row>
     <row r="6" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D6" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E6" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F6" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G6" s="42" t="s">
         <v>2</v>
@@ -7325,16 +7345,16 @@
     </row>
     <row r="7" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H7" s="42"/>
       <c r="I7" s="42"/>
@@ -7343,16 +7363,16 @@
     </row>
     <row r="8" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" t="s">
         <v>208</v>
       </c>
-      <c r="C8" t="s">
-        <v>213</v>
-      </c>
       <c r="D8" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H8" s="42"/>
       <c r="I8" s="42"/>
@@ -7361,19 +7381,19 @@
     </row>
     <row r="9" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C9" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E9" t="s">
         <v>240</v>
       </c>
-      <c r="E9" t="s">
-        <v>245</v>
-      </c>
       <c r="F9" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G9" s="42" t="s">
         <v>16</v>
@@ -7385,22 +7405,22 @@
     </row>
     <row r="10" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D10" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E10" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F10" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
@@ -7409,22 +7429,22 @@
     </row>
     <row r="11" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C11" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D11" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E11" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F11" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
@@ -7433,16 +7453,16 @@
     </row>
     <row r="12" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D12" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
@@ -7451,19 +7471,19 @@
     </row>
     <row r="13" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D13" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F13" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G13" s="42" t="s">
         <v>11</v>
@@ -7475,19 +7495,19 @@
     </row>
     <row r="14" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C14" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D14" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F14" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>13</v>
@@ -7499,19 +7519,19 @@
     </row>
     <row r="15" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D15" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G15" s="42" t="s">
         <v>12</v>
@@ -7523,22 +7543,22 @@
     </row>
     <row r="16" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C16" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D16" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F16" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
@@ -7547,2490 +7567,2490 @@
     </row>
     <row r="17" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C17" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E17" s="59"/>
       <c r="G17" s="42" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
       <c r="K17" s="42"/>
       <c r="M17" s="60" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C18" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D18" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F18" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
       <c r="M18" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N18" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O18" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P18" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="Q18" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C19" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D19" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E19" s="59" t="str">
         <f>+P18</f>
         <v xml:space="preserve">fTExtra2V  </v>
       </c>
       <c r="F19" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M19" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O19" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Q19" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D20" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E20" s="59" t="str">
         <f t="shared" ref="E20:E60" si="0">+P19</f>
         <v xml:space="preserve">fTExtra3V  </v>
       </c>
       <c r="F20" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="N20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O20" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P20" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Q20" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C21" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D21" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E21" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescansoLV  </v>
       </c>
       <c r="F21" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M21" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N21" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O21" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P21" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q21" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C22" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D22" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E22" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDiaFestivoLV  </v>
       </c>
       <c r="F22" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M22" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O22" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P22" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Q22" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C23" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D23" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E23" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fHoras_extras_dobles_V  </v>
       </c>
       <c r="F23" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M23" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O23" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P23" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="Q23" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D24" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E24" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fHoras_extras_triples_V  </v>
       </c>
       <c r="F24" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M24" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="N24" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O24" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P24" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="Q24" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C25" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D25" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E25" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescanso_Laborado_V  </v>
       </c>
       <c r="F25" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="N25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O25" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P25" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="Q25" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C26" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D26" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E26" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDia_Festivo_laborado_V  </v>
       </c>
       <c r="F26" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M26" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="N26" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O26" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P26" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Q26" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C27" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D27" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E27" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrima_Dominical_V  </v>
       </c>
       <c r="F27" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M27" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N27" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O27" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P27" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="Q27" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C28" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D28" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E28" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fFalta_Injustificada_V </v>
       </c>
       <c r="F28" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M28" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="N28" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O28" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P28" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q28" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C29" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D29" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E29" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPermiso_Sin_GS_V  </v>
       </c>
       <c r="F29" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M29" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="N29" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O29" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P29" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="Q29" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C30" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D30" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E30" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fT_No_laborado_V  </v>
       </c>
       <c r="F30" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M30" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N30" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O30" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P30" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Q30" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C31" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D31" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E31" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioBase  </v>
       </c>
       <c r="F31" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M31" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="N31" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O31" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P31" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="Q31" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C32" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D32" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E32" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioDiario </v>
       </c>
       <c r="F32" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M32" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="N32" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O32" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P32" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q32" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C33" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D33" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E33" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioBC  </v>
       </c>
       <c r="F33" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M33" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="N33" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O33" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P33" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="Q33" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C34" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D34" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E34" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">iDiasTrabajados  </v>
       </c>
       <c r="F34" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M34" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N34" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O34" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P34" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Q34" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C35" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D35" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E35" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSueldoBruto </v>
       </c>
       <c r="F35" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M35" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="N35" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O35" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P35" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="Q35" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C36" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D36" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E36" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSeptimoDia </v>
       </c>
       <c r="F36" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M36" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N36" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O36" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P36" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="Q36" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C37" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D37" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E37" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaDomGravada </v>
       </c>
       <c r="F37" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M37" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N37" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O37" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P37" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Q37" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C38" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D38" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E38" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaDomExenta </v>
       </c>
       <c r="F38" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M38" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="N38" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O38" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P38" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="Q38" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C39" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D39" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E39" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra2Gravado </v>
       </c>
       <c r="F39" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M39" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="N39" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O39" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P39" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q39" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C40" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D40" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E40" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra2Exento </v>
       </c>
       <c r="F40" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M40" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="N40" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O40" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P40" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="Q40" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C41" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D41" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E41" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra3 </v>
       </c>
       <c r="F41" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M41" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="N41" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O41" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P41" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Q41" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C42" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D42" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E42" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescansoL </v>
       </c>
       <c r="F42" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M42" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N42" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O42" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P42" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="Q42" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C43" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D43" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E43" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDiaFestivoL </v>
       </c>
       <c r="F43" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M43" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="N43" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O43" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P43" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="Q43" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C44" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D44" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E44" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoAsistencia </v>
       </c>
       <c r="F44" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M44" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="N44" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O44" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P44" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="Q44" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C45" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D45" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E45" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoProductividad </v>
       </c>
       <c r="F45" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M45" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="N45" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O45" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P45" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="Q45" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C46" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D46" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E46" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoPolivalencia </v>
       </c>
       <c r="F46" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M46" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="N46" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O46" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P46" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="Q46" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C47" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D47" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E47" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoEspecialidad </v>
       </c>
       <c r="F47" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M47" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="N47" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O47" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P47" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="Q47" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C48" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D48" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E48" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoCalidad </v>
       </c>
       <c r="F48" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M48" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="N48" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O48" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P48" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Q48" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C49" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D49" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E49" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fCompensacion </v>
       </c>
       <c r="F49" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M49" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="N49" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O49" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P49" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="Q49" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C50" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D50" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E50" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSemanaFondo </v>
       </c>
       <c r="F50" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M50" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="N50" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O50" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P50" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="Q50" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C51" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D51" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E51" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fFaltaInjustificada </v>
       </c>
       <c r="F51" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M51" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="N51" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O51" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P51" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Q51" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C52" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D52" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E52" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPermisoSinGS </v>
       </c>
       <c r="F52" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M52" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="N52" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O52" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P52" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="Q52" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C53" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D53" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E53" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fIncrementoRetenido </v>
       </c>
       <c r="F53" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M53" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="N53" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O53" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P53" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="Q53" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C54" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D54" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E54" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fVacacionesProporcionales </v>
       </c>
       <c r="F54" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M54" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="N54" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O54" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P54" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Q54" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C55" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D55" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E55" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fAguinaldoGravado </v>
       </c>
       <c r="F55" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M55" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="N55" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O55" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P55" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="Q55" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C56" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D56" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E56" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fAguinaldoExento </v>
       </c>
       <c r="F56" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M56" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="N56" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O56" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P56" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Q56" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C57" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D57" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E57" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaVacacionalGravado </v>
       </c>
       <c r="F57" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M57" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="N57" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O57" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P57" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="Q57" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C58" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D58" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E58" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaVacacionalExento </v>
       </c>
       <c r="F58" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M58" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="N58" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O58" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P58" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="Q58" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C59" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D59" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E59" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTotalPercepciones </v>
       </c>
       <c r="F59" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M59" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="N59" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O59" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P59" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="Q59" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C60" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D60" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E60" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTotalPercepcionesISR </v>
       </c>
       <c r="F60" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M60" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="N60" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O60" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P60" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="Q60" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C61" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D61" s="60" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E61" s="59"/>
       <c r="M61" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="N61" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O61" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P61" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="Q61" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C62" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D62" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E62" s="59" t="str">
         <f t="shared" ref="E62:E74" si="1">+P60</f>
         <v xml:space="preserve">fIncapacidad </v>
       </c>
       <c r="F62" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M62" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="N62" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O62" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P62" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="Q62" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C63" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D63" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E63" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fIsr </v>
       </c>
       <c r="F63" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M63" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="N63" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O63" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P63" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="Q63" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C64" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D64" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E64" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fImss </v>
       </c>
       <c r="F64" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M64" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="N64" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O64" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P64" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="Q64" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C65" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D65" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E65" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fInfonavit </v>
       </c>
       <c r="F65" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M65" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="N65" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O65" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P65" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Q65" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C66" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D66" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E66" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fInfonavitBanterior </v>
       </c>
       <c r="F66" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M66" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N66" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O66" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P66" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="Q66" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C67" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D67" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E67" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fAjusteInfonavit </v>
       </c>
       <c r="F67" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M67" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="N67" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O67" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P67" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="Q67" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C68" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D68" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E68" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fPensionAlimenticia </v>
       </c>
       <c r="F68" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M68" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="N68" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O68" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P68" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="Q68" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C69" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D69" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E69" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fPrestamo </v>
       </c>
       <c r="F69" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M69" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="N69" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O69" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P69" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="Q69" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C70" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D70" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E70" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fFonacot </v>
       </c>
       <c r="F70" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M70" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="N70" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O70" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P70" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="Q70" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C71" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D71" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E71" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fT_No_laborado </v>
       </c>
       <c r="F71" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M71" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N71" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O71" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P71" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="Q71" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C72" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D72" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E72" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fCuotaSindical </v>
       </c>
       <c r="F72" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M72" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="N72" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O72" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P72" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="Q72" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C73" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D73" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E73" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fSubsidioGenerado </v>
       </c>
       <c r="F73" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M73" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="N73" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O73" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P73" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="Q73" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C74" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D74" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E74" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fSubsidioAplicado </v>
       </c>
       <c r="F74" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M74" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N74" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O74" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P74" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="Q74" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C75" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D75" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E75" s="59"/>
       <c r="M75" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="N75" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O75" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P75" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="Q75" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B76" s="60" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C76" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D76" s="60" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E76" s="59"/>
       <c r="M76" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="N76" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O76" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P76" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Q76" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C77" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D77" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E77" s="59" t="str">
         <f t="shared" ref="E77:E85" si="2">+P74</f>
         <v xml:space="preserve">fPrestamoPerA </v>
       </c>
       <c r="F77" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M77" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="N77" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O77" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P77" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="Q77" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C78" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D78" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E78" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fAdeudoInfonavitA </v>
       </c>
       <c r="F78" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M78" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N78" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O78" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P78" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="Q78" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C79" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D79" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E79" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fDiferenciaInfonavitA </v>
       </c>
       <c r="F79" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M79" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="N79" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O79" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P79" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="Q79" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C80" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D80" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E80" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fAsimilados </v>
       </c>
       <c r="F80" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M80" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="N80" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O80" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P80" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="Q80" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="81" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C81" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D81" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E81" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fRetencionOperadora </v>
       </c>
       <c r="F81" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M81" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N81" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O81" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P81" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="Q81" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="82" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C82" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D82" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E82" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fPorComision </v>
       </c>
       <c r="F82" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M82" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N82" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O82" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P82" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="Q82" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="83" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C83" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D83" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E83" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fComisionOperadora </v>
       </c>
       <c r="F83" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M83" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="N83" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O83" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P83" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="Q83" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C84" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D84" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E84" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fComisionAsimilados </v>
       </c>
       <c r="F84" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M84" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N84" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O84" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P84" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="Q84" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="85" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C85" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D85" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E85" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fImssCS </v>
       </c>
       <c r="F85" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M85" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="N85" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O85" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P85" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="Q85" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="86" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C86" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D86" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E86" s="59" t="str">
         <f t="shared" ref="E86:E88" si="3">+P83</f>
         <v xml:space="preserve">fRcvCS </v>
       </c>
       <c r="F86" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M86" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N86" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O86" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P86" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Q86" s="60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="87" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D87" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E87" s="59" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">fInfonavitCS </v>
       </c>
       <c r="F87" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M87" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="N87" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="O87" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P87" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C88" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D88" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E88" s="59" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">fInsCS </v>
       </c>
       <c r="F88" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M88" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="N88" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="O88" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P88" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="R88" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="S88" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="T88" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C89" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F89" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="O89" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P89" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="R89" t="s">
+        <v>194</v>
+      </c>
+      <c r="S89" t="s">
+        <v>195</v>
+      </c>
+      <c r="T89" t="s">
+        <v>196</v>
+      </c>
+      <c r="U89" t="s">
+        <v>197</v>
+      </c>
+      <c r="V89" t="s">
+        <v>198</v>
+      </c>
+      <c r="W89" t="s">
+        <v>197</v>
+      </c>
+      <c r="X89" t="s">
         <v>199</v>
-      </c>
-      <c r="S89" t="s">
-        <v>200</v>
-      </c>
-      <c r="T89" t="s">
-        <v>201</v>
-      </c>
-      <c r="U89" t="s">
-        <v>202</v>
-      </c>
-      <c r="V89" t="s">
-        <v>203</v>
-      </c>
-      <c r="W89" t="s">
-        <v>202</v>
-      </c>
-      <c r="X89" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="90" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C90" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D90" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E90" s="59" t="str">
         <f>+P86</f>
         <v xml:space="preserve">fTotalCostoSocial </v>
       </c>
       <c r="F90" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="O90" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="R90" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C91" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="92" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C92" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="93" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C93" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="94" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C94" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="95" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C95" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="96" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C96" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C97" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C98" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -10060,7 +10080,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>28</v>
@@ -10109,968 +10129,968 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E3" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D6" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D8" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D9" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D11" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D12" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D13" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D14" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E14" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D15" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D16" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D17" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D18" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E18" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D19" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D20" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D21" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E21" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D22" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E22" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D23" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E23" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D24" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E24" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C25" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D25" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E25" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D26" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E26" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C27" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D27" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E27" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D28" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E28" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C29" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D29" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E29" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C30" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D30" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E30" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C31" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D31" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E31" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C32" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D32" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E32" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C33" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D33" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E33" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C34" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D34" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E34" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C35" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D35" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E35" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C36" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D36" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E36" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C37" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D37" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E37" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C38" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D38" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E38" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C39" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D39" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E39" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C40" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D40" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C41" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D41" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E41" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C42" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D42" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E42" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C43" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D43" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E43" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C44" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D44" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E44" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C45" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D45" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E45" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C46" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D46" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E46" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C47" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D47" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E47" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C48" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D48" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E48" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C49" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D49" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E49" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C50" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D50" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E50" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C51" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D51" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E51" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C52" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D52" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E52" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C53" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D53" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E53" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C54" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D54" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E54" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C55" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D55" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E55" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C56" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D56" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E56" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C57" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D57" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E57" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C58" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D58" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E58" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C59" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D59" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E59" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C60" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D60" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E60" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C61" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D61" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E61" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C62" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D62" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E62" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C63" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D63" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E63" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C64" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D64" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E64" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C65" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D65" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E65" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C66" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D66" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E66" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C67" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D67" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E67" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C68" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D68" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E68" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C69" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D69" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E69" s="60" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C70" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D70" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E70" s="60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="421">
   <si>
     <t>TOTAL</t>
   </si>
@@ -325,27 +325,15 @@
     <t>SIND/PPP</t>
   </si>
   <si>
-    <t>PDE E</t>
-  </si>
-  <si>
     <t>TEG E</t>
   </si>
   <si>
     <t>TE3 E</t>
   </si>
   <si>
-    <t>DESCANSO LABORADO E</t>
-  </si>
-  <si>
-    <t>DIA FESTIVO E</t>
-  </si>
-  <si>
     <t>TOTAL PAGO EXCEDENTE</t>
   </si>
   <si>
-    <t>EXEDENTE MONTO</t>
-  </si>
-  <si>
     <t>**</t>
   </si>
   <si>
@@ -1276,9 +1264,6 @@
     <t>2% SAR</t>
   </si>
   <si>
-    <t>VejezP</t>
-  </si>
-  <si>
     <t>PRO INDEMNIZACION</t>
   </si>
   <si>
@@ -1288,22 +1273,43 @@
     <t>PRO PRIMA ANTI</t>
   </si>
   <si>
-    <t>EXCDENETE V</t>
-  </si>
-  <si>
-    <t>EXCDENTE SUB</t>
-  </si>
-  <si>
-    <t>PA EXCEDENTE</t>
-  </si>
-  <si>
-    <t>EXCDENETE M</t>
-  </si>
-  <si>
     <t>COMISION BSS</t>
   </si>
   <si>
     <t>TIPO SIND/PPP</t>
+  </si>
+  <si>
+    <t>PENSION ALIMENTICA EXCEDENTE</t>
+  </si>
+  <si>
+    <t>EXCEDENTE M</t>
+  </si>
+  <si>
+    <t>NORMAL</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>EXCEDENTE VARIABLE</t>
+  </si>
+  <si>
+    <t>EXCEDENTE SUB</t>
+  </si>
+  <si>
+    <t>PRIMA DOMINICAL EXCEDENTE</t>
+  </si>
+  <si>
+    <t>DESCANSO LABORADO EXCE</t>
+  </si>
+  <si>
+    <t>DIA FESTIVO EXCE</t>
+  </si>
+  <si>
+    <t>EXCEDENTE MONTO</t>
+  </si>
+  <si>
+    <t>VEJEZ</t>
   </si>
 </sst>
 </file>
@@ -3296,6 +3302,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3322,9 +3331,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1493">
@@ -5547,13 +5553,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:DV6"/>
+  <dimension ref="A2:DV7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="CC5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="CE5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CI5" sqref="CI5"/>
+      <selection pane="bottomRight" activeCell="CV4" sqref="CV4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5577,11 +5583,17 @@
     <col min="72" max="72" width="12.85546875" customWidth="1"/>
     <col min="81" max="81" width="14.85546875" customWidth="1"/>
     <col min="85" max="85" width="15.7109375" customWidth="1"/>
+    <col min="89" max="89" width="14.140625" customWidth="1"/>
     <col min="91" max="91" width="14" customWidth="1"/>
     <col min="93" max="93" width="15.7109375" customWidth="1"/>
     <col min="98" max="98" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>412</v>
+      </c>
+    </row>
     <row r="3" spans="1:126" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" s="34" t="s">
@@ -5881,7 +5893,7 @@
         <v>13</v>
       </c>
       <c r="BI4" s="31" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="BJ4" s="31" t="s">
         <v>75</v>
@@ -5913,8 +5925,8 @@
       <c r="BS4" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="BT4" s="72" t="s">
-        <v>418</v>
+      <c r="BT4" s="63" t="s">
+        <v>409</v>
       </c>
       <c r="BU4" s="31" t="s">
         <v>82</v>
@@ -5923,40 +5935,40 @@
         <v>83</v>
       </c>
       <c r="BW4" s="31" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="BX4" s="31" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="BY4" s="40" t="s">
         <v>84</v>
       </c>
       <c r="BZ4" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="CA4" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="CA4" s="31" t="s">
+      <c r="CB4" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="CB4" s="31" t="s">
+      <c r="CC4" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="CD4" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="CE4" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="CF4" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="CG4" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="CC4" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="CD4" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="CE4" s="31" t="s">
-        <v>415</v>
-      </c>
-      <c r="CF4" s="31" t="s">
-        <v>416</v>
-      </c>
-      <c r="CG4" s="41" t="s">
-        <v>97</v>
-      </c>
       <c r="CH4" s="31" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="CI4" s="31" t="s">
         <v>85</v>
@@ -5977,28 +5989,28 @@
         <v>90</v>
       </c>
       <c r="CO4" s="40" t="s">
-        <v>98</v>
+        <v>419</v>
       </c>
       <c r="CP4" s="58" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="CQ4" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="CR4" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="CS4" s="40" t="s">
         <v>407</v>
       </c>
-      <c r="CR4" s="40" t="s">
-        <v>411</v>
-      </c>
-      <c r="CS4" s="40" t="s">
-        <v>412</v>
-      </c>
       <c r="CT4" s="40" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="CU4" s="40" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="CV4" s="40" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="CW4"/>
     </row>
@@ -6303,8 +6315,14 @@
       </c>
     </row>
     <row r="6" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="B6" s="60"/>
       <c r="BY6" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="B7" s="60" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -6353,7 +6371,7 @@
     </row>
     <row r="5" spans="2:15" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>8</v>
@@ -6371,7 +6389,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>6</v>
@@ -6380,10 +6398,10 @@
         <v>4</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>90</v>
@@ -7103,21 +7121,21 @@
       </c>
       <c r="C2"/>
       <c r="F2" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65"/>
+        <v>96</v>
+      </c>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="66" t="str">
+      <c r="B3" s="67" t="str">
         <f>+CONCATENATE("FACTURA ",G2)</f>
         <v xml:space="preserve">FACTURA </v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="F3" s="68" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="F3" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="69"/>
       <c r="H3" s="44">
         <v>0</v>
       </c>
@@ -7130,42 +7148,42 @@
         <f>+H8</f>
         <v>empresa</v>
       </c>
-      <c r="F4" s="69" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="70"/>
+      <c r="F4" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="71"/>
       <c r="H4" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="47" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C5" s="48">
         <f>+H4+H5+H6+H7</f>
         <v>0</v>
       </c>
-      <c r="F5" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="70"/>
+      <c r="F5" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="71"/>
       <c r="H5" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="49" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C6" s="50">
         <f>+C5</f>
         <v>0</v>
       </c>
-      <c r="F6" s="71" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" s="71"/>
+      <c r="F6" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="72"/>
       <c r="H6" s="44">
         <v>0</v>
       </c>
@@ -7180,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G7" s="53">
         <v>0.06</v>
@@ -7198,12 +7216,12 @@
         <f>+C6+C7</f>
         <v>0</v>
       </c>
-      <c r="F8" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="63"/>
+      <c r="F8" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="64"/>
       <c r="H8" s="56" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -7261,7 +7279,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="G2" s="42" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H2" s="42"/>
       <c r="I2" s="42"/>
@@ -7279,22 +7297,22 @@
     </row>
     <row r="4" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H4" s="42"/>
       <c r="I4" s="42"/>
@@ -7303,16 +7321,16 @@
     </row>
     <row r="5" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H5" s="42"/>
       <c r="I5" s="42"/>
@@ -7321,19 +7339,19 @@
     </row>
     <row r="6" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G6" s="42" t="s">
         <v>2</v>
@@ -7345,16 +7363,16 @@
     </row>
     <row r="7" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" t="s">
         <v>203</v>
       </c>
-      <c r="C7" t="s">
-        <v>207</v>
-      </c>
       <c r="D7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H7" s="42"/>
       <c r="I7" s="42"/>
@@ -7363,16 +7381,16 @@
     </row>
     <row r="8" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D8" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H8" s="42"/>
       <c r="I8" s="42"/>
@@ -7381,19 +7399,19 @@
     </row>
     <row r="9" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D9" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E9" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G9" s="42" t="s">
         <v>16</v>
@@ -7405,22 +7423,22 @@
     </row>
     <row r="10" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E10" t="s">
         <v>235</v>
       </c>
-      <c r="E10" t="s">
-        <v>239</v>
-      </c>
       <c r="F10" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
@@ -7429,22 +7447,22 @@
     </row>
     <row r="11" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F11" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
@@ -7453,16 +7471,16 @@
     </row>
     <row r="12" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
@@ -7471,19 +7489,19 @@
     </row>
     <row r="13" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C13" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D13" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F13" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G13" s="42" t="s">
         <v>11</v>
@@ -7495,19 +7513,19 @@
     </row>
     <row r="14" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C14" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D14" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F14" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>13</v>
@@ -7519,19 +7537,19 @@
     </row>
     <row r="15" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C15" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D15" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F15" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G15" s="42" t="s">
         <v>12</v>
@@ -7543,22 +7561,22 @@
     </row>
     <row r="16" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C16" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D16" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F16" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
@@ -7567,2490 +7585,2490 @@
     </row>
     <row r="17" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C17" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D17" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E17" s="59"/>
       <c r="G17" s="42" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
       <c r="K17" s="42"/>
       <c r="M17" s="60" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C18" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D18" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F18" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
       <c r="M18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O18" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P18" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q18" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C19" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D19" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E19" s="59" t="str">
         <f>+P18</f>
         <v xml:space="preserve">fTExtra2V  </v>
       </c>
       <c r="F19" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M19" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="N19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O19" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P19" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q19" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C20" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D20" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E20" s="59" t="str">
         <f t="shared" ref="E20:E60" si="0">+P19</f>
         <v xml:space="preserve">fTExtra3V  </v>
       </c>
       <c r="F20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O20" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C21" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D21" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E21" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescansoLV  </v>
       </c>
       <c r="F21" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M21" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="N21" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O21" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P21" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q21" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C22" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D22" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E22" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDiaFestivoLV  </v>
       </c>
       <c r="F22" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N22" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O22" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P22" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q22" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C23" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D23" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E23" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fHoras_extras_dobles_V  </v>
       </c>
       <c r="F23" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N23" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O23" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P23" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q23" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C24" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D24" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E24" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fHoras_extras_triples_V  </v>
       </c>
       <c r="F24" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M24" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N24" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O24" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P24" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q24" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C25" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D25" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E25" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescanso_Laborado_V  </v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M25" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O25" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P25" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q25" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C26" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D26" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E26" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDia_Festivo_laborado_V  </v>
       </c>
       <c r="F26" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O26" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P26" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q26" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C27" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D27" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E27" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrima_Dominical_V  </v>
       </c>
       <c r="F27" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M27" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="N27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O27" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P27" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q27" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C28" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D28" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E28" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fFalta_Injustificada_V </v>
       </c>
       <c r="F28" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M28" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="N28" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O28" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P28" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q28" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C29" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D29" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E29" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPermiso_Sin_GS_V  </v>
       </c>
       <c r="F29" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M29" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="N29" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O29" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P29" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q29" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C30" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D30" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E30" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fT_No_laborado_V  </v>
       </c>
       <c r="F30" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M30" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N30" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O30" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P30" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q30" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C31" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E31" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioBase  </v>
       </c>
       <c r="F31" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M31" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="N31" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O31" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P31" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q31" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C32" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D32" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E32" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioDiario </v>
       </c>
       <c r="F32" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M32" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N32" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O32" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q32" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C33" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D33" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E33" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioBC  </v>
       </c>
       <c r="F33" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M33" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="N33" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O33" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P33" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q33" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C34" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D34" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E34" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">iDiasTrabajados  </v>
       </c>
       <c r="F34" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M34" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O34" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P34" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q34" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C35" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D35" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E35" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSueldoBruto </v>
       </c>
       <c r="F35" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M35" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N35" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O35" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P35" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q35" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C36" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D36" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E36" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSeptimoDia </v>
       </c>
       <c r="F36" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M36" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="N36" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O36" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P36" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q36" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C37" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D37" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E37" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaDomGravada </v>
       </c>
       <c r="F37" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M37" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O37" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P37" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q37" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C38" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D38" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E38" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaDomExenta </v>
       </c>
       <c r="F38" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M38" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N38" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O38" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P38" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q38" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C39" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D39" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E39" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra2Gravado </v>
       </c>
       <c r="F39" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M39" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="N39" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O39" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P39" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q39" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C40" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D40" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E40" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra2Exento </v>
       </c>
       <c r="F40" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M40" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N40" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O40" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P40" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q40" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C41" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D41" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E41" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra3 </v>
       </c>
       <c r="F41" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M41" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N41" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O41" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P41" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Q41" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C42" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D42" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E42" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescansoL </v>
       </c>
       <c r="F42" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M42" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N42" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O42" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P42" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q42" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C43" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D43" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E43" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDiaFestivoL </v>
       </c>
       <c r="F43" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M43" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N43" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O43" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P43" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q43" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C44" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D44" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E44" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoAsistencia </v>
       </c>
       <c r="F44" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M44" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N44" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O44" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P44" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q44" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C45" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D45" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E45" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoProductividad </v>
       </c>
       <c r="F45" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M45" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N45" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O45" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P45" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q45" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C46" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D46" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E46" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoPolivalencia </v>
       </c>
       <c r="F46" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M46" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N46" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O46" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P46" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q46" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C47" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D47" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E47" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoEspecialidad </v>
       </c>
       <c r="F47" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M47" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N47" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O47" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P47" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q47" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C48" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D48" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E48" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoCalidad </v>
       </c>
       <c r="F48" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M48" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N48" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O48" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P48" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Q48" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C49" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D49" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E49" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fCompensacion </v>
       </c>
       <c r="F49" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M49" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N49" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O49" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P49" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q49" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C50" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D50" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E50" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSemanaFondo </v>
       </c>
       <c r="F50" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M50" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="N50" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O50" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P50" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Q50" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C51" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D51" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E51" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fFaltaInjustificada </v>
       </c>
       <c r="F51" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M51" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N51" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O51" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P51" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q51" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C52" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D52" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E52" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPermisoSinGS </v>
       </c>
       <c r="F52" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M52" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="N52" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O52" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P52" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Q52" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C53" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D53" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E53" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fIncrementoRetenido </v>
       </c>
       <c r="F53" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M53" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="N53" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O53" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P53" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q53" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C54" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D54" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E54" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fVacacionesProporcionales </v>
       </c>
       <c r="F54" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M54" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N54" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O54" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P54" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Q54" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C55" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D55" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E55" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fAguinaldoGravado </v>
       </c>
       <c r="F55" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M55" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="N55" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O55" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P55" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q55" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C56" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D56" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E56" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fAguinaldoExento </v>
       </c>
       <c r="F56" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M56" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N56" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O56" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P56" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="Q56" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C57" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D57" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E57" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaVacacionalGravado </v>
       </c>
       <c r="F57" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M57" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N57" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O57" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P57" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="Q57" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C58" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D58" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E58" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaVacacionalExento </v>
       </c>
       <c r="F58" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M58" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N58" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O58" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P58" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q58" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C59" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D59" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E59" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTotalPercepciones </v>
       </c>
       <c r="F59" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M59" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N59" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O59" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P59" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q59" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C60" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D60" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E60" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTotalPercepcionesISR </v>
       </c>
       <c r="F60" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M60" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N60" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O60" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P60" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q60" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C61" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D61" s="60" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E61" s="59"/>
       <c r="M61" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="N61" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O61" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P61" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Q61" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C62" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D62" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E62" s="59" t="str">
         <f t="shared" ref="E62:E74" si="1">+P60</f>
         <v xml:space="preserve">fIncapacidad </v>
       </c>
       <c r="F62" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M62" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N62" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O62" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P62" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q62" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C63" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D63" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E63" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fIsr </v>
       </c>
       <c r="F63" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M63" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="N63" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O63" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P63" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Q63" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C64" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D64" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E64" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fImss </v>
       </c>
       <c r="F64" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M64" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N64" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O64" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P64" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q64" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C65" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D65" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E65" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fInfonavit </v>
       </c>
       <c r="F65" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M65" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="N65" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O65" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P65" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q65" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C66" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D66" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E66" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fInfonavitBanterior </v>
       </c>
       <c r="F66" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M66" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N66" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O66" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P66" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Q66" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C67" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D67" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E67" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fAjusteInfonavit </v>
       </c>
       <c r="F67" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M67" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N67" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O67" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P67" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q67" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C68" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D68" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E68" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fPensionAlimenticia </v>
       </c>
       <c r="F68" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M68" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N68" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O68" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P68" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q68" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C69" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D69" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E69" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fPrestamo </v>
       </c>
       <c r="F69" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M69" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="N69" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O69" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P69" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q69" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C70" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D70" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E70" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fFonacot </v>
       </c>
       <c r="F70" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M70" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="N70" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O70" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P70" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="Q70" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C71" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D71" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E71" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fT_No_laborado </v>
       </c>
       <c r="F71" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M71" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="N71" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O71" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P71" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q71" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C72" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D72" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E72" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fCuotaSindical </v>
       </c>
       <c r="F72" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M72" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="N72" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O72" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P72" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Q72" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C73" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D73" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E73" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fSubsidioGenerado </v>
       </c>
       <c r="F73" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M73" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="N73" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O73" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P73" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q73" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C74" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D74" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E74" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fSubsidioAplicado </v>
       </c>
       <c r="F74" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M74" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="N74" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O74" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P74" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q74" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C75" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D75" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E75" s="59"/>
       <c r="M75" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="N75" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O75" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P75" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q75" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B76" s="60" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C76" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D76" s="60" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E76" s="59"/>
       <c r="M76" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N76" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O76" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P76" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q76" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C77" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D77" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E77" s="59" t="str">
         <f t="shared" ref="E77:E85" si="2">+P74</f>
         <v xml:space="preserve">fPrestamoPerA </v>
       </c>
       <c r="F77" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M77" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="N77" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O77" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P77" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q77" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C78" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D78" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E78" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fAdeudoInfonavitA </v>
       </c>
       <c r="F78" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M78" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N78" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O78" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P78" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q78" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C79" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D79" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E79" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fDiferenciaInfonavitA </v>
       </c>
       <c r="F79" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M79" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N79" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O79" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P79" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Q79" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C80" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D80" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E80" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fAsimilados </v>
       </c>
       <c r="F80" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M80" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N80" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O80" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P80" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q80" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="81" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C81" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D81" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E81" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fRetencionOperadora </v>
       </c>
       <c r="F81" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M81" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N81" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O81" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P81" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Q81" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="82" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C82" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D82" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E82" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fPorComision </v>
       </c>
       <c r="F82" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M82" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="N82" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O82" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P82" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Q82" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="83" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C83" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D83" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E83" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fComisionOperadora </v>
       </c>
       <c r="F83" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M83" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N83" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O83" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P83" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q83" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="84" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C84" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D84" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E84" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fComisionAsimilados </v>
       </c>
       <c r="F84" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M84" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N84" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O84" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P84" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="Q84" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="85" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C85" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D85" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E85" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fImssCS </v>
       </c>
       <c r="F85" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M85" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N85" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O85" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P85" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Q85" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="86" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C86" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D86" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E86" s="59" t="str">
         <f t="shared" ref="E86:E88" si="3">+P83</f>
         <v xml:space="preserve">fRcvCS </v>
       </c>
       <c r="F86" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M86" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N86" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O86" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P86" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q86" s="60" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="87" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C87" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D87" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E87" s="59" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">fInfonavitCS </v>
       </c>
       <c r="F87" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M87" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="N87" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O87" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P87" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C88" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D88" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E88" s="59" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">fInsCS </v>
       </c>
       <c r="F88" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M88" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="N88" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O88" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P88" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="R88" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="S88" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="T88" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C89" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F89" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M89" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="N89" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O89" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P89" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="R89" t="s">
+        <v>190</v>
+      </c>
+      <c r="S89" t="s">
+        <v>191</v>
+      </c>
+      <c r="T89" t="s">
+        <v>192</v>
+      </c>
+      <c r="U89" t="s">
+        <v>193</v>
+      </c>
+      <c r="V89" t="s">
         <v>194</v>
       </c>
-      <c r="S89" t="s">
+      <c r="W89" t="s">
+        <v>193</v>
+      </c>
+      <c r="X89" t="s">
         <v>195</v>
-      </c>
-      <c r="T89" t="s">
-        <v>196</v>
-      </c>
-      <c r="U89" t="s">
-        <v>197</v>
-      </c>
-      <c r="V89" t="s">
-        <v>198</v>
-      </c>
-      <c r="W89" t="s">
-        <v>197</v>
-      </c>
-      <c r="X89" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="90" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C90" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D90" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E90" s="59" t="str">
         <f>+P86</f>
         <v xml:space="preserve">fTotalCostoSocial </v>
       </c>
       <c r="F90" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="O90" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="R90" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C91" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="92" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C92" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="93" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C93" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="94" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C94" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="95" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C95" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="96" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C96" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C97" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C98" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -10080,7 +10098,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>28</v>
@@ -10129,968 +10147,968 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E3" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D10" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D11" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D13" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D14" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E14" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D15" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D16" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D17" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D18" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E18" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D19" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D20" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E21" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D22" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E22" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D23" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E23" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D24" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E24" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C25" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D25" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E25" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D26" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E26" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C27" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D27" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E27" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D28" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E28" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C29" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D29" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E29" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C30" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D30" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E30" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C31" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D31" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E31" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C32" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D32" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E32" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C33" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D33" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E33" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C34" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D34" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E34" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C35" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D35" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E35" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C36" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D36" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E36" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C37" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D37" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E37" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C38" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D38" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E38" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C39" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D39" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E39" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C40" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D40" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C41" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D41" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E41" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C42" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D42" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E42" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C43" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D43" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E43" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C44" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D44" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E44" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C45" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D45" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E45" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C46" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D46" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E46" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C47" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D47" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E47" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C48" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D48" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E48" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C49" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D49" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E49" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C50" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D50" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E50" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C51" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D51" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E51" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C52" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D52" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E52" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C53" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D53" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E53" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C54" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D54" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E54" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C55" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D55" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E55" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C56" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D56" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E56" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C57" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D57" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E57" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C58" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D58" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E58" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C59" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D59" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E59" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C60" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D60" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E60" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C61" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D61" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E61" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C62" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D62" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E62" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C63" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D63" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E63" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C64" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D64" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E64" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C65" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D65" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E65" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C66" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D66" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E66" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C67" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D67" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E67" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C68" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D68" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E68" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C69" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D69" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E69" s="60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C70" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D70" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E70" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -1475,7 +1475,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1563,6 +1563,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor rgb="FF538DD5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor rgb="FF538DD5"/>
       </patternFill>
     </fill>
@@ -3188,7 +3194,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3331,6 +3337,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1493">
@@ -5559,7 +5568,7 @@
       <pane xSplit="6" ySplit="4" topLeftCell="CE5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CV4" sqref="CV4"/>
+      <selection pane="bottomRight" activeCell="CN4" sqref="CN4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5585,6 +5594,7 @@
     <col min="85" max="85" width="15.7109375" customWidth="1"/>
     <col min="89" max="89" width="14.140625" customWidth="1"/>
     <col min="91" max="91" width="14" customWidth="1"/>
+    <col min="92" max="92" width="14.85546875" customWidth="1"/>
     <col min="93" max="93" width="15.7109375" customWidth="1"/>
     <col min="98" max="98" width="12.7109375" customWidth="1"/>
   </cols>
@@ -5985,7 +5995,7 @@
       <c r="CM4" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="CN4" s="31" t="s">
+      <c r="CN4" s="73" t="s">
         <v>90</v>
       </c>
       <c r="CO4" s="40" t="s">

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="420">
   <si>
     <t>TOTAL</t>
   </si>
@@ -1283,9 +1283,6 @@
   </si>
   <si>
     <t>EXCEDENTE M</t>
-  </si>
-  <si>
-    <t>NORMAL</t>
   </si>
   <si>
     <t>E</t>
@@ -3311,6 +3308,9 @@
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3337,9 +3337,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1493">
@@ -5562,13 +5559,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:DV7"/>
+  <dimension ref="A3:DV7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="CE5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CN4" sqref="CN4"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5599,11 +5596,6 @@
     <col min="98" max="98" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:126" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>412</v>
-      </c>
-    </row>
     <row r="3" spans="1:126" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" s="34" t="s">
@@ -5945,16 +5937,16 @@
         <v>83</v>
       </c>
       <c r="BW4" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="BX4" s="31" t="s">
         <v>414</v>
-      </c>
-      <c r="BX4" s="31" t="s">
-        <v>415</v>
       </c>
       <c r="BY4" s="40" t="s">
         <v>84</v>
       </c>
       <c r="BZ4" s="31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="CA4" s="31" t="s">
         <v>92</v>
@@ -5963,10 +5955,10 @@
         <v>93</v>
       </c>
       <c r="CC4" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="CD4" s="31" t="s">
         <v>417</v>
-      </c>
-      <c r="CD4" s="31" t="s">
-        <v>418</v>
       </c>
       <c r="CE4" s="31" t="s">
         <v>410</v>
@@ -5995,11 +5987,11 @@
       <c r="CM4" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="CN4" s="73" t="s">
+      <c r="CN4" s="64" t="s">
         <v>90</v>
       </c>
       <c r="CO4" s="40" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="CP4" s="58" t="s">
         <v>107</v>
@@ -6020,7 +6012,7 @@
         <v>404</v>
       </c>
       <c r="CV4" s="40" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="CW4"/>
     </row>
@@ -6332,7 +6324,7 @@
     </row>
     <row r="7" spans="1:126" x14ac:dyDescent="0.2">
       <c r="B7" s="60" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -7133,19 +7125,19 @@
       <c r="F2" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="67" t="str">
+      <c r="B3" s="68" t="str">
         <f>+CONCATENATE("FACTURA ",G2)</f>
         <v xml:space="preserve">FACTURA </v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="F3" s="69" t="s">
+      <c r="C3" s="69"/>
+      <c r="F3" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="69"/>
+      <c r="G3" s="70"/>
       <c r="H3" s="44">
         <v>0</v>
       </c>
@@ -7158,10 +7150,10 @@
         <f>+H8</f>
         <v>empresa</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="71"/>
+      <c r="G4" s="72"/>
       <c r="H4" s="44">
         <v>0</v>
       </c>
@@ -7174,10 +7166,10 @@
         <f>+H4+H5+H6+H7</f>
         <v>0</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="71"/>
+      <c r="G5" s="72"/>
       <c r="H5" s="44">
         <v>0</v>
       </c>
@@ -7190,10 +7182,10 @@
         <f>+C5</f>
         <v>0</v>
       </c>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="G6" s="72"/>
+      <c r="G6" s="73"/>
       <c r="H6" s="44">
         <v>0</v>
       </c>
@@ -7226,10 +7218,10 @@
         <f>+C6+C7</f>
         <v>0</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="64"/>
+      <c r="G8" s="65"/>
       <c r="H8" s="56" t="s">
         <v>106</v>
       </c>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="647"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="647" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA" sheetId="38" r:id="rId1"/>
@@ -17,12 +17,13 @@
     <sheet name="FACT" sheetId="30" r:id="rId3"/>
     <sheet name="Hoja2" sheetId="40" r:id="rId4"/>
     <sheet name="PENSION ALIMENTICIA" sheetId="32" r:id="rId5"/>
-    <sheet name="Hoja3" sheetId="41" r:id="rId6"/>
+    <sheet name="CARATULA" sheetId="42" r:id="rId6"/>
+    <sheet name="Hoja3" sheetId="41" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="__TC1">[1]FOR!$B$9</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="444">
   <si>
     <t>TOTAL</t>
   </si>
@@ -1307,6 +1308,78 @@
   </si>
   <si>
     <t>VEJEZ</t>
+  </si>
+  <si>
+    <t>REPORTE DE LA NÓMINA</t>
+  </si>
+  <si>
+    <t>Nomina:</t>
+  </si>
+  <si>
+    <t>Clasificacion:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periodo de pago: </t>
+  </si>
+  <si>
+    <t>Periodicidad:</t>
+  </si>
+  <si>
+    <t>Froma de Pagos:</t>
+  </si>
+  <si>
+    <t>Todas</t>
+  </si>
+  <si>
+    <t>PERCEPCIONES:</t>
+  </si>
+  <si>
+    <t>SUELDO:</t>
+  </si>
+  <si>
+    <t>HORAS EXTRAS DOBLES</t>
+  </si>
+  <si>
+    <t>PRIMA VACIONAL</t>
+  </si>
+  <si>
+    <t>BONO</t>
+  </si>
+  <si>
+    <t>Total Percepciones</t>
+  </si>
+  <si>
+    <t>DEDUCCIONES:</t>
+  </si>
+  <si>
+    <t>CREDITO INFONAVIT</t>
+  </si>
+  <si>
+    <t>SUBSIDIO PARA EL EMPLEO</t>
+  </si>
+  <si>
+    <t>SUBS. PARA EL EMPLEO APLICADO</t>
+  </si>
+  <si>
+    <t>Total Deducciones</t>
+  </si>
+  <si>
+    <t>TOTALES</t>
+  </si>
+  <si>
+    <t>TOTAL EN EFECTIVO</t>
+  </si>
+  <si>
+    <t>NETO PAGADO</t>
+  </si>
+  <si>
+    <t>Total Gravable</t>
+  </si>
+  <si>
+    <t>Subs. Empleo</t>
+  </si>
+  <si>
+    <t>Total en especia</t>
   </si>
 </sst>
 </file>
@@ -1318,7 +1391,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1471,8 +1544,22 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1567,6 +1654,12 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor rgb="FF538DD5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3191,7 +3284,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3338,6 +3431,19 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1493">
     <cellStyle name="Comma_2 SALARIOS" xfId="1491"/>
@@ -5561,7 +5667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:DV7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="CE5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -7100,8 +7206,8 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A2:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10136,6 +10242,178 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="79" t="s">
+        <v>420</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="74"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="78" t="s">
+        <v>421</v>
+      </c>
+      <c r="B4" s="76"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="78" t="s">
+        <v>422</v>
+      </c>
+      <c r="B5" s="76"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="78" t="s">
+        <v>423</v>
+      </c>
+      <c r="B6" s="76"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="78" t="s">
+        <v>424</v>
+      </c>
+      <c r="B7" s="76"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E8" s="80" t="s">
+        <v>425</v>
+      </c>
+      <c r="F8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D17" s="75" t="s">
+        <v>432</v>
+      </c>
+      <c r="E17" s="75"/>
+      <c r="F17" s="76">
+        <f>+F13+F14+F15+F16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D28" s="77" t="s">
+        <v>437</v>
+      </c>
+      <c r="E28" s="77"/>
+      <c r="F28" s="76">
+        <f>+F23+F24+F25+F26+F27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>443</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E70"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="647" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="647" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA" sheetId="38" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="440">
   <si>
     <t>TOTAL</t>
   </si>
@@ -1334,52 +1334,40 @@
     <t>PERCEPCIONES:</t>
   </si>
   <si>
-    <t>SUELDO:</t>
-  </si>
-  <si>
-    <t>HORAS EXTRAS DOBLES</t>
-  </si>
-  <si>
-    <t>PRIMA VACIONAL</t>
-  </si>
-  <si>
-    <t>BONO</t>
-  </si>
-  <si>
     <t>Total Percepciones</t>
   </si>
   <si>
     <t>DEDUCCIONES:</t>
   </si>
   <si>
-    <t>CREDITO INFONAVIT</t>
-  </si>
-  <si>
-    <t>SUBSIDIO PARA EL EMPLEO</t>
-  </si>
-  <si>
-    <t>SUBS. PARA EL EMPLEO APLICADO</t>
-  </si>
-  <si>
     <t>Total Deducciones</t>
   </si>
   <si>
     <t>TOTALES</t>
   </si>
   <si>
-    <t>TOTAL EN EFECTIVO</t>
-  </si>
-  <si>
-    <t>NETO PAGADO</t>
-  </si>
-  <si>
-    <t>Total Gravable</t>
-  </si>
-  <si>
-    <t>Subs. Empleo</t>
-  </si>
-  <si>
-    <t>Total en especia</t>
+    <t>BONOS</t>
+  </si>
+  <si>
+    <t>VACACIONES PROPORCIONALES</t>
+  </si>
+  <si>
+    <t>AGUINADO</t>
+  </si>
+  <si>
+    <t>PRIM VACACIONAL</t>
+  </si>
+  <si>
+    <t>SUELDO</t>
+  </si>
+  <si>
+    <t>PRIMA DOMINICAL</t>
+  </si>
+  <si>
+    <t>TIEMPO EXTRA DOBLE</t>
+  </si>
+  <si>
+    <t>TIEMPO EXTRA TRIPLE</t>
   </si>
 </sst>
 </file>
@@ -1391,7 +1379,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1558,8 +1546,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1654,12 +1648,6 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor rgb="FF538DD5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3284,7 +3272,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3404,6 +3392,13 @@
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3431,19 +3426,9 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1493">
     <cellStyle name="Comma_2 SALARIOS" xfId="1491"/>
@@ -5668,10 +5653,10 @@
   <dimension ref="A3:DV7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="CE5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="AO5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7206,7 +7191,7 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A2:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -7231,19 +7216,19 @@
       <c r="F2" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="68" t="str">
+      <c r="B3" s="75" t="str">
         <f>+CONCATENATE("FACTURA ",G2)</f>
         <v xml:space="preserve">FACTURA </v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="F3" s="70" t="s">
+      <c r="C3" s="76"/>
+      <c r="F3" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="77"/>
       <c r="H3" s="44">
         <v>0</v>
       </c>
@@ -7256,10 +7241,10 @@
         <f>+H8</f>
         <v>empresa</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="72"/>
+      <c r="G4" s="79"/>
       <c r="H4" s="44">
         <v>0</v>
       </c>
@@ -7272,10 +7257,10 @@
         <f>+H4+H5+H6+H7</f>
         <v>0</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="72"/>
+      <c r="G5" s="79"/>
       <c r="H5" s="44">
         <v>0</v>
       </c>
@@ -7288,10 +7273,10 @@
         <f>+C5</f>
         <v>0</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="G6" s="73"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="44">
         <v>0</v>
       </c>
@@ -7324,10 +7309,10 @@
         <f>+C6+C7</f>
         <v>0</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="65"/>
+      <c r="G8" s="72"/>
       <c r="H8" s="56" t="s">
         <v>106</v>
       </c>
@@ -10242,54 +10227,55 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F37"/>
+  <dimension ref="A2:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="81" t="s">
         <v>420</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="74"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="67" t="s">
         <v>421</v>
       </c>
-      <c r="B4" s="76"/>
+      <c r="B4" s="66"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="67" t="s">
         <v>422</v>
       </c>
-      <c r="B5" s="76"/>
+      <c r="B5" s="66"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="67" t="s">
         <v>423</v>
       </c>
-      <c r="B6" s="76"/>
+      <c r="B6" s="66"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="67" t="s">
         <v>424</v>
       </c>
-      <c r="B7" s="76"/>
+      <c r="B7" s="66"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E8" s="80" t="s">
+      <c r="E8" s="68" t="s">
         <v>425</v>
       </c>
       <c r="F8" t="s">
@@ -10297,38 +10283,48 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
+      <c r="C11" s="71" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>429</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D17" s="75" t="s">
+      <c r="C17" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
         <v>432</v>
       </c>
-      <c r="E17" s="75"/>
-      <c r="F17" s="76">
-        <f>+F13+F14+F15+F16</f>
-        <v>0</v>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
@@ -10336,75 +10332,113 @@
         <v>433</v>
       </c>
     </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>434</v>
+      </c>
+    </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D24" s="70" t="s">
+        <v>428</v>
+      </c>
+      <c r="E24" s="70"/>
+      <c r="F24" s="66">
+        <f>+SUM(F13:F23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C26" s="69" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D28" s="77" t="s">
-        <v>437</v>
-      </c>
-      <c r="E28" s="77"/>
-      <c r="F28" s="76">
-        <f>+F23+F24+F25+F26+F27</f>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D41" s="69" t="s">
+        <v>430</v>
+      </c>
+      <c r="E41" s="69"/>
+      <c r="F41" s="66">
+        <f>+SUM(F28:F40)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D32" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>443</v>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C45" s="60" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D28:E28"/>
+  <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="439">
   <si>
     <t>TOTAL</t>
   </si>
@@ -1310,15 +1310,9 @@
     <t>VEJEZ</t>
   </si>
   <si>
-    <t>REPORTE DE LA NÓMINA</t>
-  </si>
-  <si>
     <t>Nomina:</t>
   </si>
   <si>
-    <t>Clasificacion:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Periodo de pago: </t>
   </si>
   <si>
@@ -1368,6 +1362,9 @@
   </si>
   <si>
     <t>TIEMPO EXTRA TRIPLE</t>
+  </si>
+  <si>
+    <t>Reporte de Nómina</t>
   </si>
 </sst>
 </file>
@@ -3272,7 +3269,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3394,7 +3391,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -3429,6 +3425,9 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1493">
     <cellStyle name="Comma_2 SALARIOS" xfId="1491"/>
@@ -7216,19 +7215,19 @@
       <c r="F2" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="75" t="str">
+      <c r="B3" s="74" t="str">
         <f>+CONCATENATE("FACTURA ",G2)</f>
         <v xml:space="preserve">FACTURA </v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="F3" s="77" t="s">
+      <c r="C3" s="75"/>
+      <c r="F3" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="77"/>
+      <c r="G3" s="76"/>
       <c r="H3" s="44">
         <v>0</v>
       </c>
@@ -7241,10 +7240,10 @@
         <f>+H8</f>
         <v>empresa</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="79"/>
+      <c r="G4" s="78"/>
       <c r="H4" s="44">
         <v>0</v>
       </c>
@@ -7257,10 +7256,10 @@
         <f>+H4+H5+H6+H7</f>
         <v>0</v>
       </c>
-      <c r="F5" s="78" t="s">
+      <c r="F5" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="79"/>
+      <c r="G5" s="78"/>
       <c r="H5" s="44">
         <v>0</v>
       </c>
@@ -7273,10 +7272,10 @@
         <f>+C5</f>
         <v>0</v>
       </c>
-      <c r="F6" s="80" t="s">
+      <c r="F6" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="G6" s="80"/>
+      <c r="G6" s="79"/>
       <c r="H6" s="44">
         <v>0</v>
       </c>
@@ -7309,10 +7308,10 @@
         <f>+C6+C7</f>
         <v>0</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="72"/>
+      <c r="G8" s="71"/>
       <c r="H8" s="56" t="s">
         <v>106</v>
       </c>
@@ -10227,219 +10226,212 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F45"/>
+  <dimension ref="A2:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="65"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="81" t="s">
         <v>420</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="65"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="67" t="s">
+      <c r="B4" s="82"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="81" t="s">
         <v>421</v>
       </c>
-      <c r="B4" s="66"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="67" t="s">
+      <c r="B5" s="82"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="81" t="s">
         <v>422</v>
       </c>
-      <c r="B5" s="66"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="67" t="s">
+      <c r="B6" s="82"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="67" t="s">
         <v>423</v>
       </c>
-      <c r="B6" s="66"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="67" t="s">
+      <c r="E7" t="s">
         <v>424</v>
       </c>
-      <c r="B7" s="66"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E8" s="68" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="70" t="s">
         <v>425</v>
       </c>
-      <c r="F8" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="70" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C11" s="71" t="s">
+      <c r="D23" s="69"/>
+      <c r="E23" s="66">
+        <f>+SUM(E12:E22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="83" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D24" s="70" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C40" s="83" t="s">
         <v>428</v>
       </c>
-      <c r="E24" s="70"/>
-      <c r="F24" s="66">
-        <f>+SUM(F13:F23)</f>
+      <c r="D40" s="68"/>
+      <c r="E40" s="66">
+        <f>+SUM(E27:E39)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C26" s="69" t="s">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="60" t="s">
         <v>429</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D41" s="69" t="s">
-        <v>430</v>
-      </c>
-      <c r="E41" s="69"/>
-      <c r="F41" s="66">
-        <f>+SUM(F28:F40)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C45" s="60" t="s">
-        <v>431</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="438">
   <si>
     <t>TOTAL</t>
   </si>
@@ -1320,9 +1320,6 @@
   </si>
   <si>
     <t>Froma de Pagos:</t>
-  </si>
-  <si>
-    <t>Todas</t>
   </si>
   <si>
     <t>PERCEPCIONES:</t>
@@ -1376,7 +1373,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1531,13 +1528,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="3" tint="0.39997558519241921"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="3" tint="0.39997558519241921"/>
       <name val="Arial"/>
@@ -1549,8 +1539,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1645,6 +1648,12 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor rgb="FF538DD5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3391,10 +3400,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3422,12 +3430,13 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1493">
     <cellStyle name="Comma_2 SALARIOS" xfId="1491"/>
@@ -7215,19 +7224,19 @@
       <c r="F2" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="74" t="str">
+      <c r="B3" s="73" t="str">
         <f>+CONCATENATE("FACTURA ",G2)</f>
         <v xml:space="preserve">FACTURA </v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="F3" s="76" t="s">
+      <c r="C3" s="74"/>
+      <c r="F3" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="76"/>
+      <c r="G3" s="75"/>
       <c r="H3" s="44">
         <v>0</v>
       </c>
@@ -7240,10 +7249,10 @@
         <f>+H8</f>
         <v>empresa</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="78"/>
+      <c r="G4" s="77"/>
       <c r="H4" s="44">
         <v>0</v>
       </c>
@@ -7256,10 +7265,10 @@
         <f>+H4+H5+H6+H7</f>
         <v>0</v>
       </c>
-      <c r="F5" s="77" t="s">
+      <c r="F5" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="78"/>
+      <c r="G5" s="77"/>
       <c r="H5" s="44">
         <v>0</v>
       </c>
@@ -7272,10 +7281,10 @@
         <f>+C5</f>
         <v>0</v>
       </c>
-      <c r="F6" s="79" t="s">
+      <c r="F6" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="G6" s="79"/>
+      <c r="G6" s="78"/>
       <c r="H6" s="44">
         <v>0</v>
       </c>
@@ -7308,10 +7317,10 @@
         <f>+C6+C7</f>
         <v>0</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="71"/>
+      <c r="G8" s="70"/>
       <c r="H8" s="56" t="s">
         <v>106</v>
       </c>
@@ -10228,8 +10237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10237,108 +10246,107 @@
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="80" t="s">
-        <v>438</v>
-      </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
+      <c r="B2" s="79" t="s">
+        <v>437</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="65"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="81" t="s">
         <v>420</v>
       </c>
-      <c r="B4" s="82"/>
+      <c r="B4" s="69"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="s">
         <v>421</v>
       </c>
-      <c r="B5" s="82"/>
+      <c r="B5" s="69"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="81" t="s">
         <v>422</v>
       </c>
-      <c r="B6" s="82"/>
+      <c r="B6" s="69"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="82" t="s">
         <v>423</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="68" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="70" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="80" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="80" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="80" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="80" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="80" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="80" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="80" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="80" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="80" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="80" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="80" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="68" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C23" s="70" t="s">
-        <v>426</v>
-      </c>
-      <c r="D23" s="69"/>
+      <c r="D23" s="67"/>
       <c r="E23" s="66">
         <f>+SUM(E12:E22)</f>
         <v>0</v>
@@ -10346,7 +10354,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="83" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
@@ -10416,9 +10424,9 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C40" s="83" t="s">
-        <v>428</v>
-      </c>
-      <c r="D40" s="68"/>
+        <v>427</v>
+      </c>
+      <c r="D40" s="83"/>
       <c r="E40" s="66">
         <f>+SUM(E27:E39)</f>
         <v>0</v>
@@ -10426,7 +10434,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="60" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="458">
   <si>
     <t>TOTAL</t>
   </si>
@@ -1319,9 +1319,6 @@
     <t>Periodicidad:</t>
   </si>
   <si>
-    <t>Froma de Pagos:</t>
-  </si>
-  <si>
     <t>PERCEPCIONES:</t>
   </si>
   <si>
@@ -1334,34 +1331,97 @@
     <t>Total Deducciones</t>
   </si>
   <si>
-    <t>TOTALES</t>
-  </si>
-  <si>
-    <t>BONOS</t>
-  </si>
-  <si>
-    <t>VACACIONES PROPORCIONALES</t>
-  </si>
-  <si>
-    <t>AGUINADO</t>
-  </si>
-  <si>
-    <t>PRIM VACACIONAL</t>
-  </si>
-  <si>
     <t>SUELDO</t>
   </si>
   <si>
-    <t>PRIMA DOMINICAL</t>
-  </si>
-  <si>
-    <t>TIEMPO EXTRA DOBLE</t>
-  </si>
-  <si>
-    <t>TIEMPO EXTRA TRIPLE</t>
-  </si>
-  <si>
     <t>Reporte de Nómina</t>
+  </si>
+  <si>
+    <t>PRIMA DOMINICAL GRAVADA</t>
+  </si>
+  <si>
+    <t>PRIMA DOMINICAL EXENTA</t>
+  </si>
+  <si>
+    <t>HORAS EXTRAS DOBLES GRAVADAS</t>
+  </si>
+  <si>
+    <t>HORAS EXTRAS DOBLES EXENTAS</t>
+  </si>
+  <si>
+    <t>HORAS EXTRAS TRIPLES</t>
+  </si>
+  <si>
+    <t>FESTIVO TRABAJADO</t>
+  </si>
+  <si>
+    <t>BONO ASISTENCIA</t>
+  </si>
+  <si>
+    <t>BONO PRODUCTIVIDAD</t>
+  </si>
+  <si>
+    <t>BONO POLIVALENCIA</t>
+  </si>
+  <si>
+    <t>BONO ESPECIALIDAD</t>
+  </si>
+  <si>
+    <t>BONO CALIDAD</t>
+  </si>
+  <si>
+    <t>COMPENSACION</t>
+  </si>
+  <si>
+    <t>SEMANA DE FONDO</t>
+  </si>
+  <si>
+    <t>INCREMENTO RETENIDO</t>
+  </si>
+  <si>
+    <t>VACACIONES</t>
+  </si>
+  <si>
+    <t>AGUINALDO GRAVADO</t>
+  </si>
+  <si>
+    <t>AGUINALDO EXENTO</t>
+  </si>
+  <si>
+    <t>PRIMA VACACIONAL GRAVADA</t>
+  </si>
+  <si>
+    <t>PRIMA VACACIONAL EXENTA</t>
+  </si>
+  <si>
+    <t>INFONAVIT BIMESTRE ANTERIOR</t>
+  </si>
+  <si>
+    <t>PENSIÓN ALIMENTICIA</t>
+  </si>
+  <si>
+    <t>TIEMPO NO LABORADO</t>
+  </si>
+  <si>
+    <t>SUBSIDIO</t>
+  </si>
+  <si>
+    <t>TOTAL NETO</t>
+  </si>
+  <si>
+    <t>NET PAGADO</t>
+  </si>
+  <si>
+    <t>TOTAL GRAVABLE</t>
+  </si>
+  <si>
+    <t>SUB. EMPLEO</t>
+  </si>
+  <si>
+    <t>TOTAL SINDICATO</t>
+  </si>
+  <si>
+    <t>TOTAL PPP</t>
   </si>
 </sst>
 </file>
@@ -1657,7 +1717,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1782,6 +1842,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1493">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3278,7 +3402,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3400,9 +3524,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3433,10 +3557,41 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1493">
     <cellStyle name="Comma_2 SALARIOS" xfId="1491"/>
@@ -7197,7 +7352,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja6"/>
-  <dimension ref="A2:H15"/>
+  <dimension ref="A2:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
@@ -7345,6 +7500,12 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15" s="57"/>
       <c r="D15" s="57"/>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D58" s="30">
+        <f>FACT!H6</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10235,16 +10396,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E44"/>
+  <dimension ref="A2:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
@@ -10253,193 +10414,371 @@
   <sheetData>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="79" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C2" s="79"/>
       <c r="D2" s="79"/>
       <c r="E2" s="65"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="69" t="s">
         <v>420</v>
       </c>
-      <c r="B4" s="69"/>
+      <c r="B4" s="67"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="69" t="s">
         <v>421</v>
       </c>
-      <c r="B5" s="69"/>
+      <c r="B5" s="67"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="69" t="s">
         <v>422</v>
       </c>
-      <c r="B6" s="69"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D7" s="82" t="s">
+      <c r="B6" s="67"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="81" t="s">
         <v>423</v>
       </c>
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="93"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="95"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="91" t="s">
+        <v>427</v>
+      </c>
+      <c r="C10" s="92"/>
+      <c r="D10" s="96"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="91" t="s">
+        <v>429</v>
+      </c>
+      <c r="C11" s="92"/>
+      <c r="D11" s="96"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="91" t="s">
+        <v>430</v>
+      </c>
+      <c r="C12" s="92"/>
+      <c r="D12" s="96"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="91" t="s">
+        <v>431</v>
+      </c>
+      <c r="C13" s="92"/>
+      <c r="D13" s="96"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="91" t="s">
+        <v>432</v>
+      </c>
+      <c r="C14" s="92"/>
+      <c r="D14" s="96"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="91" t="s">
+        <v>433</v>
+      </c>
+      <c r="C15" s="92"/>
+      <c r="D15" s="96"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="92"/>
+      <c r="D16" s="96"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="91" t="s">
+        <v>434</v>
+      </c>
+      <c r="C17" s="92"/>
+      <c r="D17" s="96"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="91" t="s">
+        <v>435</v>
+      </c>
+      <c r="C18" s="92"/>
+      <c r="D18" s="96"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="91" t="s">
+        <v>436</v>
+      </c>
+      <c r="C19" s="92"/>
+      <c r="D19" s="96"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="91" t="s">
+        <v>437</v>
+      </c>
+      <c r="C20" s="92"/>
+      <c r="D20" s="96"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="91" t="s">
+        <v>438</v>
+      </c>
+      <c r="C21" s="92"/>
+      <c r="D21" s="96"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="91" t="s">
+        <v>439</v>
+      </c>
+      <c r="C22" s="92"/>
+      <c r="D22" s="96"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="91" t="s">
+        <v>440</v>
+      </c>
+      <c r="C23" s="92"/>
+      <c r="D23" s="96"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="91" t="s">
+        <v>441</v>
+      </c>
+      <c r="C24" s="92"/>
+      <c r="D24" s="96"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="91" t="s">
+        <v>442</v>
+      </c>
+      <c r="C25" s="92"/>
+      <c r="D25" s="96"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="91" t="s">
+        <v>443</v>
+      </c>
+      <c r="C26" s="92"/>
+      <c r="D26" s="96"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="91" t="s">
+        <v>444</v>
+      </c>
+      <c r="C27" s="92"/>
+      <c r="D27" s="96"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="91" t="s">
+        <v>445</v>
+      </c>
+      <c r="C28" s="92"/>
+      <c r="D28" s="96"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="91" t="s">
+        <v>446</v>
+      </c>
+      <c r="C29" s="92"/>
+      <c r="D29" s="96"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="91" t="s">
+        <v>447</v>
+      </c>
+      <c r="C30" s="92"/>
+      <c r="D30" s="96"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="68"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="68"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="80" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="80" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="80" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="80" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="80" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="80" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="80" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="80" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="80" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="80" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="80" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="80" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C23" s="68" t="s">
+      <c r="C33" s="85"/>
+      <c r="D33" s="96">
+        <f>+SUM(D10:D30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="88" t="s">
         <v>425</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="66">
-        <f>+SUM(E12:E22)</f>
+      <c r="C35" s="89"/>
+      <c r="D35" s="90"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="93"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="95"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="86"/>
+      <c r="D38" s="66"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="87" t="s">
+        <v>399</v>
+      </c>
+      <c r="C39" s="86"/>
+      <c r="D39" s="66"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="87" t="s">
+        <v>448</v>
+      </c>
+      <c r="C40" s="86"/>
+      <c r="D40" s="66"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="86"/>
+      <c r="D41" s="66"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="87" t="s">
+        <v>449</v>
+      </c>
+      <c r="C42" s="86"/>
+      <c r="D42" s="66"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="86"/>
+      <c r="D43" s="66"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="86"/>
+      <c r="D44" s="66"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="87" t="s">
+        <v>450</v>
+      </c>
+      <c r="C45" s="86"/>
+      <c r="D45" s="66"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="86"/>
+      <c r="D46" s="66"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="87" t="s">
+        <v>451</v>
+      </c>
+      <c r="C47" s="86"/>
+      <c r="D47" s="66"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="84" t="s">
+        <v>426</v>
+      </c>
+      <c r="C50" s="84"/>
+      <c r="D50" s="96">
+        <f>+SUM(D37:D47)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="83" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C40" s="83" t="s">
-        <v>427</v>
-      </c>
-      <c r="D40" s="83"/>
-      <c r="E40" s="66">
-        <f>+SUM(E27:E39)</f>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="56" t="s">
+        <v>452</v>
+      </c>
+      <c r="C54" s="66"/>
+      <c r="D54" s="96">
+        <f>+D33-D50</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="60" t="s">
-        <v>428</v>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="56" t="s">
+        <v>453</v>
+      </c>
+      <c r="C55" s="66"/>
+      <c r="D55" s="96">
+        <f>+D54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="56" t="s">
+        <v>454</v>
+      </c>
+      <c r="C56" s="66"/>
+      <c r="D56" s="96">
+        <f>+D10+D11+D13+D15+D16+D17+D18+D19+D20+D21+D22+D23+D24+D25+D26+D27+D28+D29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="56" t="s">
+        <v>455</v>
+      </c>
+      <c r="C57" s="66"/>
+      <c r="D57" s="96">
+        <f>+D47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="56" t="s">
+        <v>456</v>
+      </c>
+      <c r="C58" s="66"/>
+      <c r="D58" s="96">
+        <f>FACT!H4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="56" t="s">
+        <v>457</v>
+      </c>
+      <c r="C59" s="66"/>
+      <c r="D59" s="96">
+        <f>+FACT!H5</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -3524,9 +3524,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3557,7 +3564,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3567,10 +3573,6 @@
     <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3580,8 +3582,6 @@
     <xf numFmtId="0" fontId="25" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3591,7 +3591,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1493">
     <cellStyle name="Comma_2 SALARIOS" xfId="1491"/>
@@ -7379,19 +7381,19 @@
       <c r="F2" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="72"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="79"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="73" t="str">
+      <c r="B3" s="80" t="str">
         <f>+CONCATENATE("FACTURA ",G2)</f>
         <v xml:space="preserve">FACTURA </v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="F3" s="75" t="s">
+      <c r="C3" s="81"/>
+      <c r="F3" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="75"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="44">
         <v>0</v>
       </c>
@@ -7404,10 +7406,10 @@
         <f>+H8</f>
         <v>empresa</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="77"/>
+      <c r="G4" s="84"/>
       <c r="H4" s="44">
         <v>0</v>
       </c>
@@ -7420,10 +7422,10 @@
         <f>+H4+H5+H6+H7</f>
         <v>0</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="77"/>
+      <c r="G5" s="84"/>
       <c r="H5" s="44">
         <v>0</v>
       </c>
@@ -7436,10 +7438,10 @@
         <f>+C5</f>
         <v>0</v>
       </c>
-      <c r="F6" s="78" t="s">
+      <c r="F6" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="G6" s="78"/>
+      <c r="G6" s="85"/>
       <c r="H6" s="44">
         <v>0</v>
       </c>
@@ -7472,10 +7474,10 @@
         <f>+C6+C7</f>
         <v>0</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="70"/>
+      <c r="G8" s="77"/>
       <c r="H8" s="56" t="s">
         <v>106</v>
       </c>
@@ -10398,8 +10400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10413,37 +10415,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="86" t="s">
         <v>428</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="65"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="68" t="s">
         <v>420</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="96"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="68" t="s">
         <v>421</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="96"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="68" t="s">
         <v>422</v>
       </c>
-      <c r="B6" s="67"/>
+      <c r="B6" s="96"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="87" t="s">
         <v>423</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="93"/>
@@ -10451,174 +10453,174 @@
       <c r="D9" s="95"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="74" t="s">
         <v>427</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="96"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="74" t="s">
         <v>429</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="96"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="74" t="s">
         <v>430</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="96"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="74" t="s">
         <v>431</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="96"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="74" t="s">
         <v>432</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="96"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="74" t="s">
         <v>433</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="96"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="96"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="74" t="s">
         <v>434</v>
       </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="96"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="74" t="s">
         <v>435</v>
       </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="96"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="74" t="s">
         <v>436</v>
       </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="96"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="74" t="s">
         <v>437</v>
       </c>
-      <c r="C20" s="92"/>
-      <c r="D20" s="96"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="74" t="s">
         <v>438</v>
       </c>
-      <c r="C21" s="92"/>
-      <c r="D21" s="96"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="74" t="s">
         <v>439</v>
       </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="96"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="74" t="s">
         <v>440</v>
       </c>
-      <c r="C23" s="92"/>
-      <c r="D23" s="96"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="74" t="s">
         <v>441</v>
       </c>
-      <c r="C24" s="92"/>
-      <c r="D24" s="96"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="74" t="s">
         <v>442</v>
       </c>
-      <c r="C25" s="92"/>
-      <c r="D25" s="96"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="74" t="s">
         <v>443</v>
       </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="96"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="76"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="74" t="s">
         <v>444</v>
       </c>
-      <c r="C27" s="92"/>
-      <c r="D27" s="96"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="76"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="74" t="s">
         <v>445</v>
       </c>
-      <c r="C28" s="92"/>
-      <c r="D28" s="96"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="76"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="74" t="s">
         <v>446</v>
       </c>
-      <c r="C29" s="92"/>
-      <c r="D29" s="96"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="91" t="s">
+      <c r="B30" s="74" t="s">
         <v>447</v>
       </c>
-      <c r="C30" s="92"/>
-      <c r="D30" s="96"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="76"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="68"/>
+      <c r="B31" s="67"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="68"/>
+      <c r="B32" s="67"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="69" t="s">
         <v>424</v>
       </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="96">
+      <c r="C33" s="71"/>
+      <c r="D33" s="76">
         <f>+SUM(D10:D30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="88" t="s">
+      <c r="B35" s="90" t="s">
         <v>425</v>
       </c>
-      <c r="C35" s="89"/>
-      <c r="D35" s="90"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="92"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="93"/>
@@ -10626,88 +10628,88 @@
       <c r="D36" s="95"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="91" t="s">
+      <c r="B37" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="87" t="s">
+      <c r="B38" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="86"/>
+      <c r="C38" s="72"/>
       <c r="D38" s="66"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="87" t="s">
+      <c r="B39" s="73" t="s">
         <v>399</v>
       </c>
-      <c r="C39" s="86"/>
+      <c r="C39" s="72"/>
       <c r="D39" s="66"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="87" t="s">
+      <c r="B40" s="73" t="s">
         <v>448</v>
       </c>
-      <c r="C40" s="86"/>
+      <c r="C40" s="72"/>
       <c r="D40" s="66"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="87" t="s">
+      <c r="B41" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="86"/>
+      <c r="C41" s="72"/>
       <c r="D41" s="66"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="87" t="s">
+      <c r="B42" s="73" t="s">
         <v>449</v>
       </c>
-      <c r="C42" s="86"/>
+      <c r="C42" s="72"/>
       <c r="D42" s="66"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="87" t="s">
+      <c r="B43" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="86"/>
+      <c r="C43" s="72"/>
       <c r="D43" s="66"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B44" s="87" t="s">
+      <c r="B44" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="86"/>
+      <c r="C44" s="72"/>
       <c r="D44" s="66"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="87" t="s">
+      <c r="B45" s="73" t="s">
         <v>450</v>
       </c>
-      <c r="C45" s="86"/>
+      <c r="C45" s="72"/>
       <c r="D45" s="66"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="87" t="s">
+      <c r="B46" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="86"/>
+      <c r="C46" s="72"/>
       <c r="D46" s="66"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B47" s="87" t="s">
+      <c r="B47" s="73" t="s">
         <v>451</v>
       </c>
-      <c r="C47" s="86"/>
+      <c r="C47" s="72"/>
       <c r="D47" s="66"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="84" t="s">
+      <c r="B50" s="70" t="s">
         <v>426</v>
       </c>
-      <c r="C50" s="84"/>
-      <c r="D50" s="96">
+      <c r="C50" s="70"/>
+      <c r="D50" s="76">
         <f>+SUM(D37:D47)</f>
         <v>0</v>
       </c>
@@ -10717,7 +10719,7 @@
         <v>452</v>
       </c>
       <c r="C54" s="66"/>
-      <c r="D54" s="96">
+      <c r="D54" s="76">
         <f>+D33-D50</f>
         <v>0</v>
       </c>
@@ -10727,7 +10729,7 @@
         <v>453</v>
       </c>
       <c r="C55" s="66"/>
-      <c r="D55" s="96">
+      <c r="D55" s="76">
         <f>+D54</f>
         <v>0</v>
       </c>
@@ -10737,7 +10739,7 @@
         <v>454</v>
       </c>
       <c r="C56" s="66"/>
-      <c r="D56" s="96">
+      <c r="D56" s="76">
         <f>+D10+D11+D13+D15+D16+D17+D18+D19+D20+D21+D22+D23+D24+D25+D26+D27+D28+D29</f>
         <v>0</v>
       </c>
@@ -10747,7 +10749,7 @@
         <v>455</v>
       </c>
       <c r="C57" s="66"/>
-      <c r="D57" s="96">
+      <c r="D57" s="76">
         <f>+D47</f>
         <v>0</v>
       </c>
@@ -10757,7 +10759,7 @@
         <v>456</v>
       </c>
       <c r="C58" s="66"/>
-      <c r="D58" s="96">
+      <c r="D58" s="76">
         <f>FACT!H4</f>
         <v>0</v>
       </c>
@@ -10767,7 +10769,7 @@
         <v>457</v>
       </c>
       <c r="C59" s="66"/>
-      <c r="D59" s="96">
+      <c r="D59" s="76">
         <f>+FACT!H5</f>
         <v>0</v>
       </c>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="647" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="648" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA" sheetId="38" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="465">
   <si>
     <t>TOTAL</t>
   </si>
@@ -1334,21 +1334,6 @@
     <t>SUELDO</t>
   </si>
   <si>
-    <t>Reporte de Nómina</t>
-  </si>
-  <si>
-    <t>PRIMA DOMINICAL GRAVADA</t>
-  </si>
-  <si>
-    <t>PRIMA DOMINICAL EXENTA</t>
-  </si>
-  <si>
-    <t>HORAS EXTRAS DOBLES GRAVADAS</t>
-  </si>
-  <si>
-    <t>HORAS EXTRAS DOBLES EXENTAS</t>
-  </si>
-  <si>
     <t>HORAS EXTRAS TRIPLES</t>
   </si>
   <si>
@@ -1385,15 +1370,6 @@
     <t>AGUINALDO GRAVADO</t>
   </si>
   <si>
-    <t>AGUINALDO EXENTO</t>
-  </si>
-  <si>
-    <t>PRIMA VACACIONAL GRAVADA</t>
-  </si>
-  <si>
-    <t>PRIMA VACACIONAL EXENTA</t>
-  </si>
-  <si>
     <t>INFONAVIT BIMESTRE ANTERIOR</t>
   </si>
   <si>
@@ -1422,6 +1398,51 @@
   </si>
   <si>
     <t>TOTAL PPP</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>IMPORTE</t>
+  </si>
+  <si>
+    <t>GRAVABLE</t>
+  </si>
+  <si>
+    <t>EXENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HORAS EXTRAS DOBLES </t>
+  </si>
+  <si>
+    <t>APLICADO</t>
+  </si>
+  <si>
+    <t>INFORMATIVO:</t>
+  </si>
+  <si>
+    <t>PROVISION AGUINALDO</t>
+  </si>
+  <si>
+    <t>PROVISION PRIMA VACACIONAL</t>
+  </si>
+  <si>
+    <t>PROVISION PRIMA ANTIGÜEDAD</t>
+  </si>
+  <si>
+    <t>PROVISION INDEMNIZACION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Caratula de Nómina</t>
+  </si>
+  <si>
+    <t>PRIMA DOMINICAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMA VACACIONAL </t>
   </si>
 </sst>
 </file>
@@ -1433,7 +1454,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1595,12 +1616,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1612,8 +1627,36 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial Nova"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1710,14 +1753,8 @@
         <bgColor rgb="FF538DD5"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1843,17 +1880,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1906,8 +1932,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1493">
+  <cellStyleXfs count="1494">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3401,8 +3476,9 @@
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3523,17 +3599,46 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="1493" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3561,42 +3666,16 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1493">
+  <cellStyles count="1494">
     <cellStyle name="Comma_2 SALARIOS" xfId="1491"/>
+    <cellStyle name="Encabezado 1" xfId="1493" builtinId="16"/>
     <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Millares 2" xfId="3"/>
@@ -5818,10 +5897,10 @@
   <dimension ref="A3:DV7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="AO5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="BQ5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5841,7 +5920,7 @@
     <col min="24" max="24" width="13.85546875" customWidth="1"/>
     <col min="25" max="25" width="16.140625" customWidth="1"/>
     <col min="26" max="26" width="13.42578125" customWidth="1"/>
-    <col min="71" max="71" width="16.5703125" customWidth="1"/>
+    <col min="71" max="71" width="20.7109375" customWidth="1"/>
     <col min="72" max="72" width="12.85546875" customWidth="1"/>
     <col min="81" max="81" width="14.85546875" customWidth="1"/>
     <col min="85" max="85" width="15.7109375" customWidth="1"/>
@@ -6595,7 +6674,7 @@
   <dimension ref="B3:P56"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7381,19 +7460,19 @@
       <c r="F2" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="79"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="98"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="80" t="str">
+      <c r="B3" s="99" t="str">
         <f>+CONCATENATE("FACTURA ",G2)</f>
         <v xml:space="preserve">FACTURA </v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="F3" s="82" t="s">
+      <c r="C3" s="100"/>
+      <c r="F3" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="82"/>
+      <c r="G3" s="101"/>
       <c r="H3" s="44">
         <v>0</v>
       </c>
@@ -7406,10 +7485,10 @@
         <f>+H8</f>
         <v>empresa</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="84"/>
+      <c r="G4" s="103"/>
       <c r="H4" s="44">
         <v>0</v>
       </c>
@@ -7422,10 +7501,10 @@
         <f>+H4+H5+H6+H7</f>
         <v>0</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="84"/>
+      <c r="G5" s="103"/>
       <c r="H5" s="44">
         <v>0</v>
       </c>
@@ -7438,10 +7517,10 @@
         <f>+C5</f>
         <v>0</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="G6" s="85"/>
+      <c r="G6" s="104"/>
       <c r="H6" s="44">
         <v>0</v>
       </c>
@@ -7474,10 +7553,10 @@
         <f>+C6+C7</f>
         <v>0</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="77"/>
+      <c r="G8" s="96"/>
       <c r="H8" s="56" t="s">
         <v>106</v>
       </c>
@@ -10398,389 +10477,556 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E59"/>
+  <dimension ref="B2:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B6"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="33.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="86" t="s">
+    <row r="2" spans="2:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="72"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="94" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="67" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="67" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="67" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="105" t="s">
+        <v>423</v>
+      </c>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="105" t="s">
+        <v>425</v>
+      </c>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105" t="s">
+        <v>456</v>
+      </c>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="79" t="s">
+        <v>450</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>451</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>452</v>
+      </c>
+      <c r="E9" s="76" t="s">
+        <v>453</v>
+      </c>
+      <c r="F9" s="77" t="s">
+        <v>455</v>
+      </c>
+      <c r="G9" s="79" t="s">
+        <v>450</v>
+      </c>
+      <c r="H9" s="76" t="s">
+        <v>451</v>
+      </c>
+      <c r="I9" s="77" t="s">
+        <v>455</v>
+      </c>
+      <c r="J9" s="92" t="s">
+        <v>450</v>
+      </c>
+      <c r="K9" s="76" t="s">
+        <v>451</v>
+      </c>
+      <c r="L9" s="76" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="80" t="s">
+        <v>427</v>
+      </c>
+      <c r="C10" s="82">
+        <f>+D10+E10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="81"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="86" t="s">
+        <v>457</v>
+      </c>
+      <c r="K10" s="81"/>
+      <c r="L10" s="83"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="86" t="s">
+        <v>463</v>
+      </c>
+      <c r="C11" s="74">
+        <f t="shared" ref="C11:C26" si="0">+D11+E11</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="73"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="86" t="s">
+        <v>458</v>
+      </c>
+      <c r="K11" s="73"/>
+      <c r="L11" s="85"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="86" t="s">
+        <v>454</v>
+      </c>
+      <c r="C12" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="84" t="s">
+        <v>399</v>
+      </c>
+      <c r="H12" s="73"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="86" t="s">
+        <v>459</v>
+      </c>
+      <c r="K12" s="73"/>
+      <c r="L12" s="85"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="84" t="s">
         <v>428</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="65"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="68" t="s">
-        <v>420</v>
-      </c>
-      <c r="B4" s="96"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
-        <v>421</v>
-      </c>
-      <c r="B5" s="96"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="68" t="s">
-        <v>422</v>
-      </c>
-      <c r="B6" s="96"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="87" t="s">
-        <v>423</v>
-      </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="89"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="93"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="95"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="74" t="s">
-        <v>427</v>
-      </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="74" t="s">
+      <c r="C13" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="84" t="s">
+        <v>440</v>
+      </c>
+      <c r="H13" s="73"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="86" t="s">
+        <v>460</v>
+      </c>
+      <c r="K13" s="73"/>
+      <c r="L13" s="85"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="73"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="86" t="s">
+        <v>404</v>
+      </c>
+      <c r="K14" s="73"/>
+      <c r="L14" s="85"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="84" t="s">
         <v>429</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="74" t="s">
+      <c r="C15" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="84" t="s">
+        <v>441</v>
+      </c>
+      <c r="H15" s="73"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="85"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="84" t="s">
         <v>430</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="74" t="s">
+      <c r="C16" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="73"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="85"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="84" t="s">
         <v>431</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="76"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="74" t="s">
+      <c r="C17" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="73"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="85"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="84" t="s">
         <v>432</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="74" t="s">
+      <c r="C18" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="84" t="s">
+        <v>442</v>
+      </c>
+      <c r="H18" s="73"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="85"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="84" t="s">
         <v>433</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="76"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="74" t="s">
+      <c r="C19" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="73"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="85"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="84" t="s">
         <v>434</v>
       </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="76"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="74" t="s">
+      <c r="C20" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="84" t="s">
+        <v>443</v>
+      </c>
+      <c r="H20" s="73"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="85"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="84" t="s">
         <v>435</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="74" t="s">
+      <c r="C21" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="85"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="84" t="s">
         <v>436</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="76"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="74" t="s">
+      <c r="C22" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="85"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="84" t="s">
         <v>437</v>
       </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="76"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="74" t="s">
+      <c r="C23" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="85"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="84" t="s">
         <v>438</v>
       </c>
-      <c r="C21" s="75"/>
-      <c r="D21" s="76"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="74" t="s">
+      <c r="C24" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="85"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="84" t="s">
         <v>439</v>
       </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="76"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="74" t="s">
-        <v>440</v>
-      </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="76"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="74" t="s">
-        <v>441</v>
-      </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="76"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="74" t="s">
-        <v>442</v>
-      </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="76"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="74" t="s">
-        <v>443</v>
-      </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="76"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="74" t="s">
+      <c r="C25" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="85"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="95" t="s">
+        <v>464</v>
+      </c>
+      <c r="C26" s="87">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="69"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="66"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="66"/>
+    </row>
+    <row r="29" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="93" t="s">
+        <v>424</v>
+      </c>
+      <c r="C29" s="70">
+        <f>+SUM(C10:C26)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="70">
+        <f t="shared" ref="D29:E29" si="1">+SUM(D10:D26)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="70"/>
+      <c r="G29" s="93" t="s">
+        <v>426</v>
+      </c>
+      <c r="H29" s="70">
+        <f>+SUM(H10:H20)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="70"/>
+      <c r="J29" s="93" t="s">
+        <v>461</v>
+      </c>
+      <c r="K29" s="70">
+        <f>+SUM(K10:K26)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="70"/>
+    </row>
+    <row r="36" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B36" s="93" t="s">
         <v>444</v>
       </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="76"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="74" t="s">
+      <c r="C36" s="70">
+        <f>+C29-H29</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+    </row>
+    <row r="37" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B37" s="93" t="s">
         <v>445</v>
       </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="76"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="74" t="s">
+      <c r="C37" s="70">
+        <f>+C36</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+    </row>
+    <row r="38" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B38" s="93" t="s">
         <v>446</v>
       </c>
-      <c r="C29" s="75"/>
-      <c r="D29" s="76"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="74" t="s">
+      <c r="C38" s="70">
+        <f>+D29</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+    </row>
+    <row r="39" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B39" s="93" t="s">
         <v>447</v>
       </c>
-      <c r="C30" s="75"/>
-      <c r="D30" s="76"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="67"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="67"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="69" t="s">
-        <v>424</v>
-      </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="76">
-        <f>+SUM(D10:D30)</f>
+      <c r="C39" s="70">
+        <f>+H20</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="90" t="s">
-        <v>425</v>
-      </c>
-      <c r="C35" s="91"/>
-      <c r="D35" s="92"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="93"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="95"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="72"/>
-      <c r="D38" s="66"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="73" t="s">
-        <v>399</v>
-      </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="66"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="73" t="s">
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+    </row>
+    <row r="40" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B40" s="93" t="s">
         <v>448</v>
       </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="66"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="72"/>
-      <c r="D41" s="66"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="73" t="s">
-        <v>449</v>
-      </c>
-      <c r="C42" s="72"/>
-      <c r="D42" s="66"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="72"/>
-      <c r="D43" s="66"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B44" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="66"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="73" t="s">
-        <v>450</v>
-      </c>
-      <c r="C45" s="72"/>
-      <c r="D45" s="66"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="72"/>
-      <c r="D46" s="66"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B47" s="73" t="s">
-        <v>451</v>
-      </c>
-      <c r="C47" s="72"/>
-      <c r="D47" s="66"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="70" t="s">
-        <v>426</v>
-      </c>
-      <c r="C50" s="70"/>
-      <c r="D50" s="76">
-        <f>+SUM(D37:D47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="56" t="s">
-        <v>452</v>
-      </c>
-      <c r="C54" s="66"/>
-      <c r="D54" s="76">
-        <f>+D33-D50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="56" t="s">
-        <v>453</v>
-      </c>
-      <c r="C55" s="66"/>
-      <c r="D55" s="76">
-        <f>+D54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="56" t="s">
-        <v>454</v>
-      </c>
-      <c r="C56" s="66"/>
-      <c r="D56" s="76">
-        <f>+D10+D11+D13+D15+D16+D17+D18+D19+D20+D21+D22+D23+D24+D25+D26+D27+D28+D29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="56" t="s">
-        <v>455</v>
-      </c>
-      <c r="C57" s="66"/>
-      <c r="D57" s="76">
-        <f>+D47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="56" t="s">
-        <v>456</v>
-      </c>
-      <c r="C58" s="66"/>
-      <c r="D58" s="76">
+      <c r="C40" s="70">
         <f>FACT!H4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="56" t="s">
-        <v>457</v>
-      </c>
-      <c r="C59" s="66"/>
-      <c r="D59" s="76">
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+    </row>
+    <row r="41" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B41" s="93" t="s">
+        <v>449</v>
+      </c>
+      <c r="C41" s="70">
         <f>+FACT!H5</f>
         <v>0</v>
       </c>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B36:D36"/>
+  <mergeCells count="3">
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="648" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="648"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA" sheetId="38" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="467">
   <si>
     <t>TOTAL</t>
   </si>
@@ -1443,6 +1443,12 @@
   </si>
   <si>
     <t xml:space="preserve">PRIMA VACACIONAL </t>
+  </si>
+  <si>
+    <t>TOTAL POLIZA</t>
+  </si>
+  <si>
+    <t>IMSS T</t>
   </si>
 </sst>
 </file>
@@ -1754,7 +1760,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1981,6 +1987,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1494">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3478,7 +3495,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3639,6 +3656,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5896,8 +5916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:DV7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="BQ5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="CK5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
@@ -7460,19 +7480,19 @@
       <c r="F2" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="97"/>
-      <c r="H2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="99"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="99" t="str">
+      <c r="B3" s="100" t="str">
         <f>+CONCATENATE("FACTURA ",G2)</f>
         <v xml:space="preserve">FACTURA </v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="F3" s="101" t="s">
+      <c r="C3" s="101"/>
+      <c r="F3" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="101"/>
+      <c r="G3" s="102"/>
       <c r="H3" s="44">
         <v>0</v>
       </c>
@@ -7485,10 +7505,10 @@
         <f>+H8</f>
         <v>empresa</v>
       </c>
-      <c r="F4" s="102" t="s">
+      <c r="F4" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="103"/>
+      <c r="G4" s="104"/>
       <c r="H4" s="44">
         <v>0</v>
       </c>
@@ -7501,10 +7521,10 @@
         <f>+H4+H5+H6+H7</f>
         <v>0</v>
       </c>
-      <c r="F5" s="102" t="s">
+      <c r="F5" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="103"/>
+      <c r="G5" s="104"/>
       <c r="H5" s="44">
         <v>0</v>
       </c>
@@ -7517,10 +7537,10 @@
         <f>+C5</f>
         <v>0</v>
       </c>
-      <c r="F6" s="104" t="s">
+      <c r="F6" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="G6" s="104"/>
+      <c r="G6" s="105"/>
       <c r="H6" s="44">
         <v>0</v>
       </c>
@@ -7553,10 +7573,10 @@
         <f>+C6+C7</f>
         <v>0</v>
       </c>
-      <c r="F8" s="96" t="s">
+      <c r="F8" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="96"/>
+      <c r="G8" s="97"/>
       <c r="H8" s="56" t="s">
         <v>106</v>
       </c>
@@ -10477,10 +10497,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L41"/>
+  <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView showWhiteSpace="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10525,23 +10545,23 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="106" t="s">
         <v>423</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="105" t="s">
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="106" t="s">
         <v>425</v>
       </c>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105" t="s">
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106" t="s">
         <v>456</v>
       </c>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="79" t="s">
@@ -10704,7 +10724,9 @@
       </c>
       <c r="H15" s="73"/>
       <c r="I15" s="78"/>
-      <c r="J15" s="84"/>
+      <c r="J15" s="84" t="s">
+        <v>85</v>
+      </c>
       <c r="K15" s="73"/>
       <c r="L15" s="85"/>
     </row>
@@ -10724,7 +10746,9 @@
       </c>
       <c r="H16" s="73"/>
       <c r="I16" s="78"/>
-      <c r="J16" s="84"/>
+      <c r="J16" s="84" t="s">
+        <v>86</v>
+      </c>
       <c r="K16" s="73"/>
       <c r="L16" s="85"/>
     </row>
@@ -10744,7 +10768,9 @@
       </c>
       <c r="H17" s="73"/>
       <c r="I17" s="78"/>
-      <c r="J17" s="84"/>
+      <c r="J17" s="84" t="s">
+        <v>87</v>
+      </c>
       <c r="K17" s="73"/>
       <c r="L17" s="85"/>
     </row>
@@ -10764,7 +10790,9 @@
       </c>
       <c r="H18" s="73"/>
       <c r="I18" s="78"/>
-      <c r="J18" s="84"/>
+      <c r="J18" s="84" t="s">
+        <v>88</v>
+      </c>
       <c r="K18" s="73"/>
       <c r="L18" s="85"/>
     </row>
@@ -10784,7 +10812,9 @@
       </c>
       <c r="H19" s="73"/>
       <c r="I19" s="78"/>
-      <c r="J19" s="84"/>
+      <c r="J19" s="84" t="s">
+        <v>466</v>
+      </c>
       <c r="K19" s="73"/>
       <c r="L19" s="85"/>
     </row>
@@ -10804,7 +10834,9 @@
       </c>
       <c r="H20" s="73"/>
       <c r="I20" s="78"/>
-      <c r="J20" s="84"/>
+      <c r="J20" s="84" t="s">
+        <v>90</v>
+      </c>
       <c r="K20" s="73"/>
       <c r="L20" s="85"/>
     </row>
@@ -11021,6 +11053,15 @@
       </c>
       <c r="D41" s="74"/>
       <c r="E41" s="74"/>
+    </row>
+    <row r="42" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B42" s="96" t="s">
+        <v>465</v>
+      </c>
+      <c r="C42" s="70">
+        <f>+C29+K29+C41</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="466">
   <si>
     <t>TOTAL</t>
   </si>
@@ -234,9 +234,6 @@
   </si>
   <si>
     <t>B CALIDAD</t>
-  </si>
-  <si>
-    <t>CONPENSACION</t>
   </si>
   <si>
     <t>SEMANA FONDO</t>
@@ -5917,10 +5914,10 @@
   <dimension ref="A3:DV7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="CK5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="AO5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomRight" activeCell="AR5" sqref="AR5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5940,6 +5937,7 @@
     <col min="24" max="24" width="13.85546875" customWidth="1"/>
     <col min="25" max="25" width="16.140625" customWidth="1"/>
     <col min="26" max="26" width="13.42578125" customWidth="1"/>
+    <col min="44" max="44" width="14.85546875" customWidth="1"/>
     <col min="71" max="71" width="20.7109375" customWidth="1"/>
     <col min="72" max="72" width="12.85546875" customWidth="1"/>
     <col min="81" max="81" width="14.85546875" customWidth="1"/>
@@ -6199,46 +6197,46 @@
         <v>61</v>
       </c>
       <c r="AR4" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="AS4" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="AS4" s="31" t="s">
+      <c r="AT4" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="AT4" s="31" t="s">
+      <c r="AU4" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="AU4" s="31" t="s">
+      <c r="AV4" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="AV4" s="31" t="s">
+      <c r="AW4" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="AW4" s="31" t="s">
+      <c r="AX4" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="AX4" s="31" t="s">
+      <c r="AY4" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AY4" s="31" t="s">
+      <c r="AZ4" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="AZ4" s="31" t="s">
+      <c r="BA4" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="BA4" s="31" t="s">
+      <c r="BB4" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="BB4" s="31" t="s">
+      <c r="BC4" s="31" t="s">
         <v>72</v>
-      </c>
-      <c r="BC4" s="31" t="s">
-        <v>73</v>
       </c>
       <c r="BD4" s="31" t="s">
         <v>20</v>
       </c>
       <c r="BE4" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BF4" s="31" t="s">
         <v>21</v>
@@ -6250,16 +6248,16 @@
         <v>13</v>
       </c>
       <c r="BI4" s="31" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BJ4" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BK4" s="31" t="s">
         <v>26</v>
       </c>
       <c r="BL4" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BM4" s="31" t="s">
         <v>23</v>
@@ -6268,106 +6266,106 @@
         <v>27</v>
       </c>
       <c r="BO4" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP4" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="BP4" s="31" t="s">
+      <c r="BQ4" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="BQ4" s="31" t="s">
+      <c r="BR4" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="BR4" s="31" t="s">
+      <c r="BS4" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="BS4" s="39" t="s">
+      <c r="BT4" s="63" t="s">
+        <v>408</v>
+      </c>
+      <c r="BU4" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="BT4" s="63" t="s">
+      <c r="BV4" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="BW4" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="BX4" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="BY4" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="BZ4" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="CA4" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="CB4" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="CC4" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="CD4" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="CE4" s="31" t="s">
         <v>409</v>
       </c>
-      <c r="BU4" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="BV4" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW4" s="31" t="s">
-        <v>413</v>
-      </c>
-      <c r="BX4" s="31" t="s">
-        <v>414</v>
-      </c>
-      <c r="BY4" s="40" t="s">
+      <c r="CF4" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="CG4" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="CH4" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="CI4" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="BZ4" s="31" t="s">
-        <v>415</v>
-      </c>
-      <c r="CA4" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="CB4" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="CC4" s="31" t="s">
-        <v>416</v>
-      </c>
-      <c r="CD4" s="31" t="s">
+      <c r="CJ4" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="CK4" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="CL4" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM4" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="CN4" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="CO4" s="40" t="s">
         <v>417</v>
       </c>
-      <c r="CE4" s="31" t="s">
-        <v>410</v>
-      </c>
-      <c r="CF4" s="31" t="s">
-        <v>411</v>
-      </c>
-      <c r="CG4" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="CH4" s="31" t="s">
-        <v>408</v>
-      </c>
-      <c r="CI4" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ4" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK4" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL4" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM4" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN4" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO4" s="40" t="s">
+      <c r="CP4" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="CQ4" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="CR4" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="CS4" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="CT4" s="40" t="s">
+        <v>404</v>
+      </c>
+      <c r="CU4" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="CV4" s="40" t="s">
         <v>418</v>
-      </c>
-      <c r="CP4" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="CQ4" s="40" t="s">
-        <v>403</v>
-      </c>
-      <c r="CR4" s="40" t="s">
-        <v>406</v>
-      </c>
-      <c r="CS4" s="40" t="s">
-        <v>407</v>
-      </c>
-      <c r="CT4" s="40" t="s">
-        <v>405</v>
-      </c>
-      <c r="CU4" s="40" t="s">
-        <v>404</v>
-      </c>
-      <c r="CV4" s="40" t="s">
-        <v>419</v>
       </c>
       <c r="CW4"/>
     </row>
@@ -6674,12 +6672,12 @@
     <row r="6" spans="1:126" x14ac:dyDescent="0.2">
       <c r="B6" s="60"/>
       <c r="BY6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:126" x14ac:dyDescent="0.2">
       <c r="B7" s="60" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -6728,7 +6726,7 @@
     </row>
     <row r="5" spans="2:15" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>8</v>
@@ -6737,7 +6735,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>11</v>
@@ -6746,7 +6744,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>6</v>
@@ -6755,13 +6753,13 @@
         <v>4</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N5" s="18"/>
     </row>
@@ -7478,7 +7476,7 @@
       </c>
       <c r="C2"/>
       <c r="F2" s="43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" s="98"/>
       <c r="H2" s="99"/>
@@ -7490,7 +7488,7 @@
       </c>
       <c r="C3" s="101"/>
       <c r="F3" s="102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G3" s="102"/>
       <c r="H3" s="44">
@@ -7506,7 +7504,7 @@
         <v>empresa</v>
       </c>
       <c r="F4" s="103" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G4" s="104"/>
       <c r="H4" s="44">
@@ -7515,14 +7513,14 @@
     </row>
     <row r="5" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="48">
         <f>+H4+H5+H6+H7</f>
         <v>0</v>
       </c>
       <c r="F5" s="103" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G5" s="104"/>
       <c r="H5" s="44">
@@ -7531,14 +7529,14 @@
     </row>
     <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="50">
         <f>+C5</f>
         <v>0</v>
       </c>
       <c r="F6" s="105" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G6" s="105"/>
       <c r="H6" s="44">
@@ -7555,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G7" s="53">
         <v>0.06</v>
@@ -7574,11 +7572,11 @@
         <v>0</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G8" s="97"/>
       <c r="H8" s="56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -7642,7 +7640,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="G2" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H2" s="42"/>
       <c r="I2" s="42"/>
@@ -7660,22 +7658,22 @@
     </row>
     <row r="4" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" t="s">
         <v>199</v>
       </c>
-      <c r="C4" t="s">
-        <v>200</v>
-      </c>
       <c r="D4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" t="s">
         <v>231</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>232</v>
       </c>
-      <c r="F4" t="s">
-        <v>233</v>
-      </c>
       <c r="G4" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H4" s="42"/>
       <c r="I4" s="42"/>
@@ -7684,16 +7682,16 @@
     </row>
     <row r="5" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H5" s="42"/>
       <c r="I5" s="42"/>
@@ -7702,19 +7700,19 @@
     </row>
     <row r="6" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G6" s="42" t="s">
         <v>2</v>
@@ -7726,16 +7724,16 @@
     </row>
     <row r="7" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H7" s="42"/>
       <c r="I7" s="42"/>
@@ -7744,16 +7742,16 @@
     </row>
     <row r="8" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H8" s="42"/>
       <c r="I8" s="42"/>
@@ -7762,19 +7760,19 @@
     </row>
     <row r="9" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G9" s="42" t="s">
         <v>16</v>
@@ -7786,22 +7784,22 @@
     </row>
     <row r="10" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
@@ -7810,22 +7808,22 @@
     </row>
     <row r="11" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
@@ -7834,16 +7832,16 @@
     </row>
     <row r="12" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
@@ -7852,19 +7850,19 @@
     </row>
     <row r="13" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G13" s="42" t="s">
         <v>11</v>
@@ -7876,19 +7874,19 @@
     </row>
     <row r="14" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>13</v>
@@ -7900,19 +7898,19 @@
     </row>
     <row r="15" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G15" s="42" t="s">
         <v>12</v>
@@ -7924,22 +7922,22 @@
     </row>
     <row r="16" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
@@ -7948,2490 +7946,2490 @@
     </row>
     <row r="17" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E17" s="59"/>
       <c r="G17" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
       <c r="K17" s="42"/>
       <c r="M17" s="60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
       <c r="M18" t="s">
+        <v>109</v>
+      </c>
+      <c r="N18" t="s">
         <v>110</v>
       </c>
-      <c r="N18" t="s">
-        <v>111</v>
-      </c>
       <c r="O18" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P18" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q18" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P18" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q18" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E19" s="59" t="str">
         <f>+P18</f>
         <v xml:space="preserve">fTExtra2V  </v>
       </c>
       <c r="F19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O19" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P19" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q19" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P19" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q19" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E20" s="59" t="str">
         <f t="shared" ref="E20:E60" si="0">+P19</f>
         <v xml:space="preserve">fTExtra3V  </v>
       </c>
       <c r="F20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O20" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P20" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q20" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P20" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q20" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E21" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescansoLV  </v>
       </c>
       <c r="F21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O21" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P21" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q21" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P21" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q21" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E22" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDiaFestivoLV  </v>
       </c>
       <c r="F22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O22" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P22" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q22" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P22" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q22" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E23" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fHoras_extras_dobles_V  </v>
       </c>
       <c r="F23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O23" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P23" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q23" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P23" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q23" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E24" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fHoras_extras_triples_V  </v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O24" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P24" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q24" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P24" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q24" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E25" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescanso_Laborado_V  </v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O25" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P25" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q25" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P25" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q25" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E26" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDia_Festivo_laborado_V  </v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O26" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P26" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q26" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P26" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q26" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E27" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrima_Dominical_V  </v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O27" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P27" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q27" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P27" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q27" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E28" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fFalta_Injustificada_V </v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O28" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P28" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q28" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P28" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q28" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E29" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPermiso_Sin_GS_V  </v>
       </c>
       <c r="F29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O29" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P29" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q29" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P29" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q29" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E30" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fT_No_laborado_V  </v>
       </c>
       <c r="F30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O30" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P30" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q30" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P30" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q30" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E31" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioBase  </v>
       </c>
       <c r="F31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O31" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P31" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q31" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P31" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q31" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E32" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioDiario </v>
       </c>
       <c r="F32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O32" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P32" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q32" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P32" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q32" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E33" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioBC  </v>
       </c>
       <c r="F33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O33" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P33" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q33" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P33" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q33" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C34" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E34" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">iDiasTrabajados  </v>
       </c>
       <c r="F34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O34" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P34" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q34" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P34" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q34" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C35" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E35" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSueldoBruto </v>
       </c>
       <c r="F35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P35" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q35" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P35" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q35" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E36" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSeptimoDia </v>
       </c>
       <c r="F36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P36" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q36" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P36" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q36" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E37" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaDomGravada </v>
       </c>
       <c r="F37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O37" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P37" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q37" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P37" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q37" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E38" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaDomExenta </v>
       </c>
       <c r="F38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O38" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P38" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q38" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P38" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q38" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C39" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E39" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra2Gravado </v>
       </c>
       <c r="F39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O39" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P39" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q39" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P39" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q39" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C40" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E40" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra2Exento </v>
       </c>
       <c r="F40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O40" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P40" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q40" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P40" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q40" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C41" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E41" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra3 </v>
       </c>
       <c r="F41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O41" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P41" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q41" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P41" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q41" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E42" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescansoL </v>
       </c>
       <c r="F42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O42" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P42" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q42" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P42" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q42" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E43" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDiaFestivoL </v>
       </c>
       <c r="F43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O43" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P43" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q43" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P43" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q43" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C44" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E44" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoAsistencia </v>
       </c>
       <c r="F44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O44" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P44" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q44" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P44" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q44" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E45" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoProductividad </v>
       </c>
       <c r="F45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O45" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P45" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q45" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P45" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q45" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C46" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E46" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoPolivalencia </v>
       </c>
       <c r="F46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O46" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P46" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q46" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P46" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q46" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C47" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E47" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoEspecialidad </v>
       </c>
       <c r="F47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O47" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P47" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q47" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P47" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q47" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E48" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoCalidad </v>
       </c>
       <c r="F48" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O48" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P48" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q48" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P48" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q48" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D49" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E49" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fCompensacion </v>
       </c>
       <c r="F49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O49" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P49" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q49" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P49" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q49" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C50" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D50" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E50" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSemanaFondo </v>
       </c>
       <c r="F50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O50" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P50" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q50" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P50" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q50" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C51" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E51" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fFaltaInjustificada </v>
       </c>
       <c r="F51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O51" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P51" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q51" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P51" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q51" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C52" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E52" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPermisoSinGS </v>
       </c>
       <c r="F52" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O52" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P52" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q52" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P52" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q52" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C53" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E53" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fIncrementoRetenido </v>
       </c>
       <c r="F53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O53" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P53" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q53" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P53" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q53" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E54" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fVacacionesProporcionales </v>
       </c>
       <c r="F54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O54" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P54" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q54" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P54" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q54" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C55" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E55" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fAguinaldoGravado </v>
       </c>
       <c r="F55" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O55" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P55" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q55" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P55" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q55" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C56" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D56" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E56" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fAguinaldoExento </v>
       </c>
       <c r="F56" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O56" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P56" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q56" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P56" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q56" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C57" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E57" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaVacacionalGravado </v>
       </c>
       <c r="F57" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O57" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P57" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q57" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P57" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q57" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C58" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E58" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaVacacionalExento </v>
       </c>
       <c r="F58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O58" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P58" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q58" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P58" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q58" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C59" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D59" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E59" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTotalPercepciones </v>
       </c>
       <c r="F59" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O59" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P59" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q59" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P59" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q59" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C60" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D60" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E60" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTotalPercepcionesISR </v>
       </c>
       <c r="F60" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O60" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P60" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q60" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P60" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q60" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C61" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D61" s="60" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E61" s="59"/>
       <c r="M61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O61" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P61" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q61" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P61" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q61" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C62" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E62" s="59" t="str">
         <f t="shared" ref="E62:E74" si="1">+P60</f>
         <v xml:space="preserve">fIncapacidad </v>
       </c>
       <c r="F62" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O62" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P62" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q62" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P62" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q62" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C63" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E63" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fIsr </v>
       </c>
       <c r="F63" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O63" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P63" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q63" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P63" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q63" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C64" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D64" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E64" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fImss </v>
       </c>
       <c r="F64" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M64" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O64" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P64" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q64" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P64" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q64" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C65" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E65" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fInfonavit </v>
       </c>
       <c r="F65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O65" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P65" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q65" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P65" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q65" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C66" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E66" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fInfonavitBanterior </v>
       </c>
       <c r="F66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O66" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P66" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q66" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P66" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q66" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C67" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E67" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fAjusteInfonavit </v>
       </c>
       <c r="F67" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O67" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P67" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q67" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P67" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q67" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C68" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D68" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E68" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fPensionAlimenticia </v>
       </c>
       <c r="F68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N68" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O68" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P68" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q68" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P68" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q68" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C69" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E69" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fPrestamo </v>
       </c>
       <c r="F69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O69" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P69" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q69" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P69" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q69" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C70" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E70" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fFonacot </v>
       </c>
       <c r="F70" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M70" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N70" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O70" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P70" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q70" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P70" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q70" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C71" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E71" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fT_No_laborado </v>
       </c>
       <c r="F71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O71" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P71" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q71" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P71" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q71" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C72" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E72" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fCuotaSindical </v>
       </c>
       <c r="F72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O72" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P72" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q72" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P72" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q72" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C73" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D73" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E73" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fSubsidioGenerado </v>
       </c>
       <c r="F73" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M73" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O73" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P73" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q73" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P73" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q73" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C74" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D74" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E74" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fSubsidioAplicado </v>
       </c>
       <c r="F74" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M74" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N74" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O74" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P74" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q74" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P74" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q74" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C75" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D75" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E75" s="59"/>
       <c r="M75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N75" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O75" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P75" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q75" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P75" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q75" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B76" s="60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C76" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D76" s="60" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E76" s="59"/>
       <c r="M76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O76" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P76" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q76" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P76" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q76" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C77" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D77" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E77" s="59" t="str">
         <f t="shared" ref="E77:E85" si="2">+P74</f>
         <v xml:space="preserve">fPrestamoPerA </v>
       </c>
       <c r="F77" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N77" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O77" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P77" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q77" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P77" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q77" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C78" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E78" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fAdeudoInfonavitA </v>
       </c>
       <c r="F78" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M78" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O78" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P78" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q78" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P78" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q78" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C79" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D79" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E79" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fDiferenciaInfonavitA </v>
       </c>
       <c r="F79" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M79" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N79" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O79" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P79" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q79" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P79" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q79" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C80" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D80" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E80" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fAsimilados </v>
       </c>
       <c r="F80" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O80" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P80" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q80" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P80" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q80" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="81" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D81" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E81" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fRetencionOperadora </v>
       </c>
       <c r="F81" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O81" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P81" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q81" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P81" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q81" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="82" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C82" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D82" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E82" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fPorComision </v>
       </c>
       <c r="F82" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M82" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N82" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O82" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P82" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q82" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P82" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q82" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="83" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C83" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D83" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E83" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fComisionOperadora </v>
       </c>
       <c r="F83" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M83" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N83" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O83" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P83" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q83" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P83" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q83" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="84" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C84" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D84" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E84" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fComisionAsimilados </v>
       </c>
       <c r="F84" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M84" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N84" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O84" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P84" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q84" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P84" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q84" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="85" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C85" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D85" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E85" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fImssCS </v>
       </c>
       <c r="F85" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M85" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N85" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O85" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P85" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q85" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P85" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q85" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="86" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C86" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E86" s="59" t="str">
         <f t="shared" ref="E86:E88" si="3">+P83</f>
         <v xml:space="preserve">fRcvCS </v>
       </c>
       <c r="F86" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M86" t="s">
+        <v>178</v>
+      </c>
+      <c r="N86" t="s">
+        <v>110</v>
+      </c>
+      <c r="O86" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P86" t="s">
         <v>179</v>
       </c>
-      <c r="N86" t="s">
-        <v>111</v>
-      </c>
-      <c r="O86" s="60" t="s">
+      <c r="Q86" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="P86" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q86" s="60" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="87" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C87" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D87" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E87" s="59" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">fInfonavitCS </v>
       </c>
       <c r="F87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M87" t="s">
+        <v>180</v>
+      </c>
+      <c r="N87" t="s">
         <v>181</v>
       </c>
-      <c r="N87" t="s">
+      <c r="O87" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P87" t="s">
         <v>182</v>
-      </c>
-      <c r="O87" s="60" t="s">
-        <v>378</v>
-      </c>
-      <c r="P87" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="88" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C88" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D88" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E88" s="59" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">fInsCS </v>
       </c>
       <c r="F88" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M88" t="s">
+        <v>186</v>
+      </c>
+      <c r="N88" t="s">
         <v>187</v>
       </c>
-      <c r="N88" t="s">
+      <c r="O88" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P88" t="s">
         <v>188</v>
       </c>
-      <c r="O88" s="60" t="s">
-        <v>378</v>
-      </c>
-      <c r="P88" t="s">
-        <v>189</v>
-      </c>
       <c r="R88" t="s">
+        <v>183</v>
+      </c>
+      <c r="S88" t="s">
         <v>184</v>
       </c>
-      <c r="S88" t="s">
+      <c r="T88" t="s">
         <v>185</v>
-      </c>
-      <c r="T88" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="89" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C89" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F89" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M89" t="s">
+        <v>195</v>
+      </c>
+      <c r="N89" t="s">
         <v>196</v>
       </c>
-      <c r="N89" t="s">
-        <v>197</v>
-      </c>
       <c r="O89" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P89" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="R89" t="s">
+        <v>189</v>
+      </c>
+      <c r="S89" t="s">
         <v>190</v>
       </c>
-      <c r="S89" t="s">
+      <c r="T89" t="s">
         <v>191</v>
       </c>
-      <c r="T89" t="s">
+      <c r="U89" t="s">
         <v>192</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>193</v>
       </c>
-      <c r="V89" t="s">
+      <c r="W89" t="s">
+        <v>192</v>
+      </c>
+      <c r="X89" t="s">
         <v>194</v>
-      </c>
-      <c r="W89" t="s">
-        <v>193</v>
-      </c>
-      <c r="X89" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="90" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C90" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D90" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E90" s="59" t="str">
         <f>+P86</f>
         <v xml:space="preserve">fTotalCostoSocial </v>
       </c>
       <c r="F90" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O90" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="R90" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C91" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="92" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C92" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="93" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C93" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="94" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C94" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="95" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C95" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="96" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C96" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C97" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C98" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -10461,7 +10459,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>28</v>
@@ -10525,82 +10523,82 @@
       <c r="E2" s="71"/>
       <c r="F2" s="65"/>
       <c r="G2" s="94" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="67" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="67" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B8" s="106" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C8" s="106"/>
       <c r="D8" s="106"/>
       <c r="E8" s="106"/>
       <c r="F8" s="107"/>
       <c r="G8" s="106" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H8" s="106"/>
       <c r="I8" s="106"/>
       <c r="J8" s="106" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K8" s="106"/>
       <c r="L8" s="106"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="79" t="s">
+        <v>449</v>
+      </c>
+      <c r="C9" s="76" t="s">
         <v>450</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="D9" s="76" t="s">
         <v>451</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="E9" s="76" t="s">
         <v>452</v>
       </c>
-      <c r="E9" s="76" t="s">
-        <v>453</v>
-      </c>
       <c r="F9" s="77" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G9" s="79" t="s">
+        <v>449</v>
+      </c>
+      <c r="H9" s="76" t="s">
         <v>450</v>
       </c>
-      <c r="H9" s="76" t="s">
-        <v>451</v>
-      </c>
       <c r="I9" s="77" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J9" s="92" t="s">
+        <v>449</v>
+      </c>
+      <c r="K9" s="76" t="s">
         <v>450</v>
       </c>
-      <c r="K9" s="76" t="s">
-        <v>451</v>
-      </c>
       <c r="L9" s="76" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="80" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C10" s="82">
         <f>+D10+E10</f>
@@ -10615,14 +10613,14 @@
       <c r="H10" s="81"/>
       <c r="I10" s="91"/>
       <c r="J10" s="86" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K10" s="81"/>
       <c r="L10" s="83"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="86" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C11" s="74">
         <f t="shared" ref="C11:C26" si="0">+D11+E11</f>
@@ -10637,14 +10635,14 @@
       <c r="H11" s="73"/>
       <c r="I11" s="78"/>
       <c r="J11" s="86" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K11" s="73"/>
       <c r="L11" s="85"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="86" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C12" s="74">
         <f t="shared" si="0"/>
@@ -10654,19 +10652,19 @@
       <c r="E12" s="74"/>
       <c r="F12" s="89"/>
       <c r="G12" s="84" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H12" s="73"/>
       <c r="I12" s="78"/>
       <c r="J12" s="86" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K12" s="73"/>
       <c r="L12" s="85"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="84" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C13" s="74">
         <f t="shared" si="0"/>
@@ -10676,12 +10674,12 @@
       <c r="E13" s="74"/>
       <c r="F13" s="89"/>
       <c r="G13" s="84" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H13" s="73"/>
       <c r="I13" s="78"/>
       <c r="J13" s="86" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K13" s="73"/>
       <c r="L13" s="85"/>
@@ -10703,14 +10701,14 @@
       <c r="H14" s="73"/>
       <c r="I14" s="78"/>
       <c r="J14" s="86" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K14" s="73"/>
       <c r="L14" s="85"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="84" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C15" s="74">
         <f t="shared" si="0"/>
@@ -10720,19 +10718,19 @@
       <c r="E15" s="74"/>
       <c r="F15" s="89"/>
       <c r="G15" s="84" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H15" s="73"/>
       <c r="I15" s="78"/>
       <c r="J15" s="84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K15" s="73"/>
       <c r="L15" s="85"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="84" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C16" s="74">
         <f t="shared" si="0"/>
@@ -10747,14 +10745,14 @@
       <c r="H16" s="73"/>
       <c r="I16" s="78"/>
       <c r="J16" s="84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K16" s="73"/>
       <c r="L16" s="85"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="84" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C17" s="74">
         <f t="shared" si="0"/>
@@ -10769,14 +10767,14 @@
       <c r="H17" s="73"/>
       <c r="I17" s="78"/>
       <c r="J17" s="84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K17" s="73"/>
       <c r="L17" s="85"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="84" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C18" s="74">
         <f t="shared" si="0"/>
@@ -10786,19 +10784,19 @@
       <c r="E18" s="74"/>
       <c r="F18" s="89"/>
       <c r="G18" s="84" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H18" s="73"/>
       <c r="I18" s="78"/>
       <c r="J18" s="84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K18" s="73"/>
       <c r="L18" s="85"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="84" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C19" s="74">
         <f t="shared" si="0"/>
@@ -10808,19 +10806,19 @@
       <c r="E19" s="74"/>
       <c r="F19" s="89"/>
       <c r="G19" s="84" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H19" s="73"/>
       <c r="I19" s="78"/>
       <c r="J19" s="84" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K19" s="73"/>
       <c r="L19" s="85"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="84" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C20" s="74">
         <f t="shared" si="0"/>
@@ -10830,19 +10828,19 @@
       <c r="E20" s="74"/>
       <c r="F20" s="89"/>
       <c r="G20" s="84" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H20" s="73"/>
       <c r="I20" s="78"/>
       <c r="J20" s="84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K20" s="73"/>
       <c r="L20" s="85"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="84" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C21" s="74">
         <f t="shared" si="0"/>
@@ -10860,7 +10858,7 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="84" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C22" s="74">
         <f t="shared" si="0"/>
@@ -10878,7 +10876,7 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="84" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C23" s="74">
         <f t="shared" si="0"/>
@@ -10896,7 +10894,7 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="84" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C24" s="74">
         <f t="shared" si="0"/>
@@ -10914,7 +10912,7 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="84" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C25" s="74">
         <f t="shared" si="0"/>
@@ -10932,7 +10930,7 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="95" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C26" s="87">
         <f t="shared" si="0"/>
@@ -10956,7 +10954,7 @@
     </row>
     <row r="29" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="93" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C29" s="70">
         <f>+SUM(C10:C26)</f>
@@ -10972,7 +10970,7 @@
       </c>
       <c r="F29" s="70"/>
       <c r="G29" s="93" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H29" s="70">
         <f>+SUM(H10:H20)</f>
@@ -10980,7 +10978,7 @@
       </c>
       <c r="I29" s="70"/>
       <c r="J29" s="93" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K29" s="70">
         <f>+SUM(K10:K26)</f>
@@ -10990,7 +10988,7 @@
     </row>
     <row r="36" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B36" s="93" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C36" s="70">
         <f>+C29-H29</f>
@@ -11001,7 +10999,7 @@
     </row>
     <row r="37" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B37" s="93" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C37" s="70">
         <f>+C36</f>
@@ -11012,7 +11010,7 @@
     </row>
     <row r="38" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B38" s="93" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C38" s="70">
         <f>+D29</f>
@@ -11023,7 +11021,7 @@
     </row>
     <row r="39" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B39" s="93" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C39" s="70">
         <f>+H20</f>
@@ -11034,7 +11032,7 @@
     </row>
     <row r="40" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B40" s="93" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C40" s="70">
         <f>FACT!H4</f>
@@ -11045,7 +11043,7 @@
     </row>
     <row r="41" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B41" s="93" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C41" s="70">
         <f>+FACT!H5</f>
@@ -11056,7 +11054,7 @@
     </row>
     <row r="42" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B42" s="96" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C42" s="70">
         <f>+C29+K29+C41</f>
@@ -11089,968 +11087,968 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E3" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E14" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E18" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E21" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E22" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E23" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E24" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C25" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E25" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E26" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C27" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E27" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E28" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C29" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E29" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C30" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E30" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C31" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E31" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C32" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E32" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C33" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E33" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C34" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E34" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C35" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E35" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C36" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E36" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C37" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E37" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C38" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E38" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C39" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D39" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E39" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C40" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C41" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E41" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C42" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E42" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C43" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E43" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C44" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E44" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C45" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E45" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C46" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E46" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C47" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D47" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E47" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C48" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E48" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C49" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E49" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C50" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E50" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C51" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D51" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E51" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C52" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D52" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E52" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C53" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D53" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E53" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C54" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E54" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C55" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D55" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E55" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C56" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D56" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E56" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C57" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D57" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E57" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C58" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D58" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E58" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C59" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D59" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E59" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C60" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D60" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E60" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C61" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D61" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E61" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C62" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D62" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E62" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C63" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D63" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E63" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C64" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D64" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E64" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C65" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D65" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E65" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C66" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D66" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E66" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C67" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D67" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E67" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C68" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D68" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E68" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C69" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D69" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E69" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C70" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D70" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E70" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="648" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA" sheetId="38" r:id="rId1"/>
@@ -5913,7 +5913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:DV7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="AO5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -10497,8 +10497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11057,7 +11057,7 @@
         <v>464</v>
       </c>
       <c r="C42" s="70">
-        <f>+C29+K29+C41</f>
+        <f>+C29-H18+K29+C41</f>
         <v>0</v>
       </c>
     </row>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="648" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA" sheetId="38" r:id="rId1"/>
@@ -28,6 +28,7 @@
   <definedNames>
     <definedName name="__TC1">[1]FOR!$B$9</definedName>
     <definedName name="__TC2">[1]FOR!$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DETALLE!$B$5:$M$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'PENSION ALIMENTICIA'!$A$1:$H$1</definedName>
     <definedName name="_TC1">[2]FOR!$B$9</definedName>
     <definedName name="_TC2">[2]FOR!$B$10</definedName>
@@ -6691,8 +6692,8 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="B3:P56"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="M5" sqref="B5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6706,7 +6707,7 @@
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="6.140625" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" customWidth="1"/>
     <col min="13" max="14" width="11.42578125" style="2"/>
@@ -7443,6 +7444,7 @@
       <c r="L56" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="B5:M5"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -10497,7 +10499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showWhiteSpace="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -360,9 +360,6 @@
     <t>CLIENTE</t>
   </si>
   <si>
-    <t>EXEDENTE</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
@@ -1447,6 +1444,9 @@
   </si>
   <si>
     <t>IMSS T</t>
+  </si>
+  <si>
+    <t>EXCEDENTE</t>
   </si>
 </sst>
 </file>
@@ -6198,7 +6198,7 @@
         <v>61</v>
       </c>
       <c r="AR4" s="31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AS4" s="31" t="s">
         <v>62</v>
@@ -6249,7 +6249,7 @@
         <v>13</v>
       </c>
       <c r="BI4" s="31" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="BJ4" s="31" t="s">
         <v>74</v>
@@ -6282,7 +6282,7 @@
         <v>80</v>
       </c>
       <c r="BT4" s="63" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="BU4" s="31" t="s">
         <v>81</v>
@@ -6291,16 +6291,16 @@
         <v>82</v>
       </c>
       <c r="BW4" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="BX4" s="31" t="s">
         <v>412</v>
-      </c>
-      <c r="BX4" s="31" t="s">
-        <v>413</v>
       </c>
       <c r="BY4" s="40" t="s">
         <v>83</v>
       </c>
       <c r="BZ4" s="31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="CA4" s="31" t="s">
         <v>91</v>
@@ -6309,22 +6309,22 @@
         <v>92</v>
       </c>
       <c r="CC4" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="CD4" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="CD4" s="31" t="s">
-        <v>416</v>
-      </c>
       <c r="CE4" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="CF4" s="31" t="s">
         <v>409</v>
-      </c>
-      <c r="CF4" s="31" t="s">
-        <v>410</v>
       </c>
       <c r="CG4" s="41" t="s">
         <v>93</v>
       </c>
       <c r="CH4" s="31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="CI4" s="31" t="s">
         <v>84</v>
@@ -6345,28 +6345,28 @@
         <v>89</v>
       </c>
       <c r="CO4" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="CP4" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ4" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="CR4" s="40" t="s">
+        <v>404</v>
+      </c>
+      <c r="CS4" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="CT4" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="CU4" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="CV4" s="40" t="s">
         <v>417</v>
-      </c>
-      <c r="CP4" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="CQ4" s="40" t="s">
-        <v>402</v>
-      </c>
-      <c r="CR4" s="40" t="s">
-        <v>405</v>
-      </c>
-      <c r="CS4" s="40" t="s">
-        <v>406</v>
-      </c>
-      <c r="CT4" s="40" t="s">
-        <v>404</v>
-      </c>
-      <c r="CU4" s="40" t="s">
-        <v>403</v>
-      </c>
-      <c r="CV4" s="40" t="s">
-        <v>418</v>
       </c>
       <c r="CW4"/>
     </row>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="7" spans="1:126" x14ac:dyDescent="0.2">
       <c r="B7" s="60" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -6693,7 +6693,7 @@
   <dimension ref="B3:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="M5" sqref="B5:M5"/>
+      <selection activeCell="K11" sqref="K11:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6727,7 +6727,7 @@
     </row>
     <row r="5" spans="2:15" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>8</v>
@@ -6745,7 +6745,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>6</v>
@@ -6754,10 +6754,10 @@
         <v>4</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>103</v>
+        <v>465</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>89</v>
@@ -7522,7 +7522,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="103" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" s="104"/>
       <c r="H5" s="44">
@@ -7578,7 +7578,7 @@
       </c>
       <c r="G8" s="97"/>
       <c r="H8" s="56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -7642,7 +7642,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="G2" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H2" s="42"/>
       <c r="I2" s="42"/>
@@ -7660,22 +7660,22 @@
     </row>
     <row r="4" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" t="s">
         <v>198</v>
       </c>
-      <c r="C4" t="s">
-        <v>199</v>
-      </c>
       <c r="D4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" t="s">
         <v>230</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>231</v>
       </c>
-      <c r="F4" t="s">
-        <v>232</v>
-      </c>
       <c r="G4" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H4" s="42"/>
       <c r="I4" s="42"/>
@@ -7684,16 +7684,16 @@
     </row>
     <row r="5" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H5" s="42"/>
       <c r="I5" s="42"/>
@@ -7702,19 +7702,19 @@
     </row>
     <row r="6" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G6" s="42" t="s">
         <v>2</v>
@@ -7726,16 +7726,16 @@
     </row>
     <row r="7" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H7" s="42"/>
       <c r="I7" s="42"/>
@@ -7744,16 +7744,16 @@
     </row>
     <row r="8" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H8" s="42"/>
       <c r="I8" s="42"/>
@@ -7762,19 +7762,19 @@
     </row>
     <row r="9" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G9" s="42" t="s">
         <v>16</v>
@@ -7786,22 +7786,22 @@
     </row>
     <row r="10" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
@@ -7810,22 +7810,22 @@
     </row>
     <row r="11" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
@@ -7834,16 +7834,16 @@
     </row>
     <row r="12" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
@@ -7852,19 +7852,19 @@
     </row>
     <row r="13" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G13" s="42" t="s">
         <v>11</v>
@@ -7876,19 +7876,19 @@
     </row>
     <row r="14" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>13</v>
@@ -7900,19 +7900,19 @@
     </row>
     <row r="15" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G15" s="42" t="s">
         <v>12</v>
@@ -7924,22 +7924,22 @@
     </row>
     <row r="16" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
@@ -7948,2490 +7948,2490 @@
     </row>
     <row r="17" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E17" s="59"/>
       <c r="G17" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
       <c r="K17" s="42"/>
       <c r="M17" s="60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
       <c r="M18" t="s">
+        <v>108</v>
+      </c>
+      <c r="N18" t="s">
         <v>109</v>
       </c>
-      <c r="N18" t="s">
-        <v>110</v>
-      </c>
       <c r="O18" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P18" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q18" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P18" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q18" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E19" s="59" t="str">
         <f>+P18</f>
         <v xml:space="preserve">fTExtra2V  </v>
       </c>
       <c r="F19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O19" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P19" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q19" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P19" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q19" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E20" s="59" t="str">
         <f t="shared" ref="E20:E60" si="0">+P19</f>
         <v xml:space="preserve">fTExtra3V  </v>
       </c>
       <c r="F20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O20" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P20" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q20" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P20" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q20" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E21" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescansoLV  </v>
       </c>
       <c r="F21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O21" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P21" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q21" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P21" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q21" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E22" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDiaFestivoLV  </v>
       </c>
       <c r="F22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O22" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P22" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q22" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P22" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q22" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E23" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fHoras_extras_dobles_V  </v>
       </c>
       <c r="F23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O23" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P23" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q23" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P23" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q23" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E24" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fHoras_extras_triples_V  </v>
       </c>
       <c r="F24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O24" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P24" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q24" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P24" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q24" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E25" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescanso_Laborado_V  </v>
       </c>
       <c r="F25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O25" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P25" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q25" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P25" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q25" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E26" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDia_Festivo_laborado_V  </v>
       </c>
       <c r="F26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O26" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P26" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q26" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P26" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q26" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E27" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrima_Dominical_V  </v>
       </c>
       <c r="F27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O27" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P27" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q27" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P27" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q27" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E28" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fFalta_Injustificada_V </v>
       </c>
       <c r="F28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O28" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P28" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q28" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P28" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q28" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E29" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPermiso_Sin_GS_V  </v>
       </c>
       <c r="F29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O29" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P29" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q29" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P29" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q29" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E30" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fT_No_laborado_V  </v>
       </c>
       <c r="F30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O30" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P30" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q30" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P30" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q30" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E31" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioBase  </v>
       </c>
       <c r="F31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O31" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P31" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q31" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P31" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q31" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E32" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioDiario </v>
       </c>
       <c r="F32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O32" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P32" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q32" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P32" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q32" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E33" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioBC  </v>
       </c>
       <c r="F33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O33" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P33" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q33" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P33" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q33" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E34" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">iDiasTrabajados  </v>
       </c>
       <c r="F34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P34" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q34" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P34" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q34" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C35" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E35" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSueldoBruto </v>
       </c>
       <c r="F35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P35" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q35" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P35" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q35" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E36" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSeptimoDia </v>
       </c>
       <c r="F36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P36" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q36" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P36" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q36" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E37" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaDomGravada </v>
       </c>
       <c r="F37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O37" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P37" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q37" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P37" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q37" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C38" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E38" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaDomExenta </v>
       </c>
       <c r="F38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O38" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P38" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q38" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P38" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q38" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C39" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E39" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra2Gravado </v>
       </c>
       <c r="F39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O39" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P39" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q39" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P39" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q39" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C40" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E40" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra2Exento </v>
       </c>
       <c r="F40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O40" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P40" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q40" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P40" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q40" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C41" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E41" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra3 </v>
       </c>
       <c r="F41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O41" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P41" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q41" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P41" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q41" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C42" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E42" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescansoL </v>
       </c>
       <c r="F42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O42" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P42" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q42" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P42" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q42" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E43" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDiaFestivoL </v>
       </c>
       <c r="F43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O43" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P43" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q43" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P43" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q43" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C44" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E44" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoAsistencia </v>
       </c>
       <c r="F44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O44" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P44" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q44" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P44" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q44" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E45" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoProductividad </v>
       </c>
       <c r="F45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O45" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P45" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q45" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P45" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q45" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C46" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E46" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoPolivalencia </v>
       </c>
       <c r="F46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O46" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P46" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q46" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P46" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q46" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C47" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E47" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoEspecialidad </v>
       </c>
       <c r="F47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O47" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P47" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q47" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P47" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q47" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C48" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E48" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoCalidad </v>
       </c>
       <c r="F48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O48" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P48" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q48" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P48" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q48" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C49" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E49" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fCompensacion </v>
       </c>
       <c r="F49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O49" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P49" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q49" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P49" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q49" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C50" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E50" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSemanaFondo </v>
       </c>
       <c r="F50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O50" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P50" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q50" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P50" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q50" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C51" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E51" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fFaltaInjustificada </v>
       </c>
       <c r="F51" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O51" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P51" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q51" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P51" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q51" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C52" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E52" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPermisoSinGS </v>
       </c>
       <c r="F52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O52" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P52" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q52" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P52" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q52" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C53" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E53" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fIncrementoRetenido </v>
       </c>
       <c r="F53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O53" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P53" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q53" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P53" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q53" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E54" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fVacacionesProporcionales </v>
       </c>
       <c r="F54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O54" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P54" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q54" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P54" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q54" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C55" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D55" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E55" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fAguinaldoGravado </v>
       </c>
       <c r="F55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O55" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P55" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q55" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P55" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q55" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C56" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E56" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fAguinaldoExento </v>
       </c>
       <c r="F56" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O56" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P56" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q56" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P56" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q56" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C57" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D57" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E57" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaVacacionalGravado </v>
       </c>
       <c r="F57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O57" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P57" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q57" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P57" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q57" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C58" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E58" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaVacacionalExento </v>
       </c>
       <c r="F58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O58" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P58" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q58" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P58" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q58" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C59" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D59" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E59" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTotalPercepciones </v>
       </c>
       <c r="F59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O59" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P59" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q59" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P59" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q59" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C60" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E60" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTotalPercepcionesISR </v>
       </c>
       <c r="F60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O60" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P60" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q60" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P60" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q60" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C61" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D61" s="60" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E61" s="59"/>
       <c r="M61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O61" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P61" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q61" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P61" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q61" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C62" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E62" s="59" t="str">
         <f t="shared" ref="E62:E74" si="1">+P60</f>
         <v xml:space="preserve">fIncapacidad </v>
       </c>
       <c r="F62" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O62" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P62" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q62" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P62" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q62" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C63" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E63" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fIsr </v>
       </c>
       <c r="F63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O63" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P63" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q63" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P63" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q63" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C64" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D64" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E64" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fImss </v>
       </c>
       <c r="F64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M64" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O64" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P64" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q64" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P64" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q64" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C65" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E65" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fInfonavit </v>
       </c>
       <c r="F65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O65" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P65" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q65" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P65" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q65" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C66" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E66" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fInfonavitBanterior </v>
       </c>
       <c r="F66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O66" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P66" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q66" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P66" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q66" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C67" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E67" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fAjusteInfonavit </v>
       </c>
       <c r="F67" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O67" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P67" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q67" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P67" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q67" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C68" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E68" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fPensionAlimenticia </v>
       </c>
       <c r="F68" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O68" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P68" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q68" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P68" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q68" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C69" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E69" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fPrestamo </v>
       </c>
       <c r="F69" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O69" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P69" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q69" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P69" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q69" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C70" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E70" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fFonacot </v>
       </c>
       <c r="F70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O70" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P70" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q70" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P70" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q70" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C71" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E71" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fT_No_laborado </v>
       </c>
       <c r="F71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O71" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P71" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q71" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P71" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q71" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C72" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D72" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E72" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fCuotaSindical </v>
       </c>
       <c r="F72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O72" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P72" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q72" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P72" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q72" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C73" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E73" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fSubsidioGenerado </v>
       </c>
       <c r="F73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O73" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P73" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q73" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P73" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q73" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C74" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D74" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E74" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fSubsidioAplicado </v>
       </c>
       <c r="F74" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O74" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P74" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q74" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P74" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q74" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C75" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D75" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E75" s="59"/>
       <c r="M75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N75" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O75" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P75" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q75" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P75" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q75" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B76" s="60" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C76" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D76" s="60" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E76" s="59"/>
       <c r="M76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O76" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P76" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q76" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P76" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q76" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C77" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D77" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E77" s="59" t="str">
         <f t="shared" ref="E77:E85" si="2">+P74</f>
         <v xml:space="preserve">fPrestamoPerA </v>
       </c>
       <c r="F77" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O77" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P77" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q77" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P77" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q77" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C78" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E78" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fAdeudoInfonavitA </v>
       </c>
       <c r="F78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N78" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O78" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P78" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q78" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P78" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q78" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C79" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D79" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E79" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fDiferenciaInfonavitA </v>
       </c>
       <c r="F79" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O79" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P79" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q79" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P79" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q79" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C80" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D80" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E80" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fAsimilados </v>
       </c>
       <c r="F80" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O80" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P80" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q80" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P80" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q80" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="81" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C81" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E81" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fRetencionOperadora </v>
       </c>
       <c r="F81" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O81" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P81" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q81" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P81" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q81" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="82" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C82" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D82" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E82" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fPorComision </v>
       </c>
       <c r="F82" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N82" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O82" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P82" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q82" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P82" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q82" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="83" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C83" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D83" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E83" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fComisionOperadora </v>
       </c>
       <c r="F83" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N83" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O83" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P83" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q83" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P83" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q83" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="84" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C84" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E84" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fComisionAsimilados </v>
       </c>
       <c r="F84" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N84" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O84" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P84" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q84" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P84" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q84" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="85" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C85" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E85" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fImssCS </v>
       </c>
       <c r="F85" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N85" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O85" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P85" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q85" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P85" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q85" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="86" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C86" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D86" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E86" s="59" t="str">
         <f t="shared" ref="E86:E88" si="3">+P83</f>
         <v xml:space="preserve">fRcvCS </v>
       </c>
       <c r="F86" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M86" t="s">
+        <v>177</v>
+      </c>
+      <c r="N86" t="s">
+        <v>109</v>
+      </c>
+      <c r="O86" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P86" t="s">
         <v>178</v>
       </c>
-      <c r="N86" t="s">
-        <v>110</v>
-      </c>
-      <c r="O86" s="60" t="s">
+      <c r="Q86" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="P86" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q86" s="60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="87" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C87" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D87" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E87" s="59" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">fInfonavitCS </v>
       </c>
       <c r="F87" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M87" t="s">
+        <v>179</v>
+      </c>
+      <c r="N87" t="s">
         <v>180</v>
       </c>
-      <c r="N87" t="s">
+      <c r="O87" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P87" t="s">
         <v>181</v>
-      </c>
-      <c r="O87" s="60" t="s">
-        <v>377</v>
-      </c>
-      <c r="P87" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="88" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C88" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D88" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E88" s="59" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">fInsCS </v>
       </c>
       <c r="F88" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M88" t="s">
+        <v>185</v>
+      </c>
+      <c r="N88" t="s">
         <v>186</v>
       </c>
-      <c r="N88" t="s">
+      <c r="O88" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="P88" t="s">
         <v>187</v>
       </c>
-      <c r="O88" s="60" t="s">
-        <v>377</v>
-      </c>
-      <c r="P88" t="s">
-        <v>188</v>
-      </c>
       <c r="R88" t="s">
+        <v>182</v>
+      </c>
+      <c r="S88" t="s">
         <v>183</v>
       </c>
-      <c r="S88" t="s">
+      <c r="T88" t="s">
         <v>184</v>
-      </c>
-      <c r="T88" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="89" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C89" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F89" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M89" t="s">
+        <v>194</v>
+      </c>
+      <c r="N89" t="s">
         <v>195</v>
       </c>
-      <c r="N89" t="s">
-        <v>196</v>
-      </c>
       <c r="O89" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P89" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="R89" t="s">
+        <v>188</v>
+      </c>
+      <c r="S89" t="s">
         <v>189</v>
       </c>
-      <c r="S89" t="s">
+      <c r="T89" t="s">
         <v>190</v>
       </c>
-      <c r="T89" t="s">
+      <c r="U89" t="s">
         <v>191</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>192</v>
       </c>
-      <c r="V89" t="s">
+      <c r="W89" t="s">
+        <v>191</v>
+      </c>
+      <c r="X89" t="s">
         <v>193</v>
-      </c>
-      <c r="W89" t="s">
-        <v>192</v>
-      </c>
-      <c r="X89" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="90" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C90" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D90" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E90" s="59" t="str">
         <f>+P86</f>
         <v xml:space="preserve">fTotalCostoSocial </v>
       </c>
       <c r="F90" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O90" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="R90" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C91" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="92" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C92" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="93" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C93" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="94" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="95" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C95" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="96" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C96" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C97" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C98" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -10461,7 +10461,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>28</v>
@@ -10525,82 +10525,82 @@
       <c r="E2" s="71"/>
       <c r="F2" s="65"/>
       <c r="G2" s="94" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="67" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B8" s="106" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C8" s="106"/>
       <c r="D8" s="106"/>
       <c r="E8" s="106"/>
       <c r="F8" s="107"/>
       <c r="G8" s="106" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H8" s="106"/>
       <c r="I8" s="106"/>
       <c r="J8" s="106" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K8" s="106"/>
       <c r="L8" s="106"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="79" t="s">
+        <v>448</v>
+      </c>
+      <c r="C9" s="76" t="s">
         <v>449</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="D9" s="76" t="s">
         <v>450</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="E9" s="76" t="s">
         <v>451</v>
       </c>
-      <c r="E9" s="76" t="s">
-        <v>452</v>
-      </c>
       <c r="F9" s="77" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G9" s="79" t="s">
+        <v>448</v>
+      </c>
+      <c r="H9" s="76" t="s">
         <v>449</v>
       </c>
-      <c r="H9" s="76" t="s">
-        <v>450</v>
-      </c>
       <c r="I9" s="77" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J9" s="92" t="s">
+        <v>448</v>
+      </c>
+      <c r="K9" s="76" t="s">
         <v>449</v>
       </c>
-      <c r="K9" s="76" t="s">
-        <v>450</v>
-      </c>
       <c r="L9" s="76" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="80" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C10" s="82">
         <f>+D10+E10</f>
@@ -10615,14 +10615,14 @@
       <c r="H10" s="81"/>
       <c r="I10" s="91"/>
       <c r="J10" s="86" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K10" s="81"/>
       <c r="L10" s="83"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="86" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C11" s="74">
         <f t="shared" ref="C11:C26" si="0">+D11+E11</f>
@@ -10637,14 +10637,14 @@
       <c r="H11" s="73"/>
       <c r="I11" s="78"/>
       <c r="J11" s="86" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K11" s="73"/>
       <c r="L11" s="85"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="86" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C12" s="74">
         <f t="shared" si="0"/>
@@ -10654,19 +10654,19 @@
       <c r="E12" s="74"/>
       <c r="F12" s="89"/>
       <c r="G12" s="84" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H12" s="73"/>
       <c r="I12" s="78"/>
       <c r="J12" s="86" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K12" s="73"/>
       <c r="L12" s="85"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="84" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C13" s="74">
         <f t="shared" si="0"/>
@@ -10676,12 +10676,12 @@
       <c r="E13" s="74"/>
       <c r="F13" s="89"/>
       <c r="G13" s="84" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H13" s="73"/>
       <c r="I13" s="78"/>
       <c r="J13" s="86" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K13" s="73"/>
       <c r="L13" s="85"/>
@@ -10703,14 +10703,14 @@
       <c r="H14" s="73"/>
       <c r="I14" s="78"/>
       <c r="J14" s="86" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K14" s="73"/>
       <c r="L14" s="85"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="84" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C15" s="74">
         <f t="shared" si="0"/>
@@ -10720,7 +10720,7 @@
       <c r="E15" s="74"/>
       <c r="F15" s="89"/>
       <c r="G15" s="84" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H15" s="73"/>
       <c r="I15" s="78"/>
@@ -10732,7 +10732,7 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="84" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C16" s="74">
         <f t="shared" si="0"/>
@@ -10754,7 +10754,7 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="84" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C17" s="74">
         <f t="shared" si="0"/>
@@ -10776,7 +10776,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="84" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C18" s="74">
         <f t="shared" si="0"/>
@@ -10786,7 +10786,7 @@
       <c r="E18" s="74"/>
       <c r="F18" s="89"/>
       <c r="G18" s="84" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H18" s="73"/>
       <c r="I18" s="78"/>
@@ -10798,7 +10798,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="84" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C19" s="74">
         <f t="shared" si="0"/>
@@ -10813,14 +10813,14 @@
       <c r="H19" s="73"/>
       <c r="I19" s="78"/>
       <c r="J19" s="84" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K19" s="73"/>
       <c r="L19" s="85"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="84" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C20" s="74">
         <f t="shared" si="0"/>
@@ -10830,7 +10830,7 @@
       <c r="E20" s="74"/>
       <c r="F20" s="89"/>
       <c r="G20" s="84" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H20" s="73"/>
       <c r="I20" s="78"/>
@@ -10842,7 +10842,7 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="84" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C21" s="74">
         <f t="shared" si="0"/>
@@ -10860,7 +10860,7 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="84" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C22" s="74">
         <f t="shared" si="0"/>
@@ -10878,7 +10878,7 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="84" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C23" s="74">
         <f t="shared" si="0"/>
@@ -10896,7 +10896,7 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="84" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C24" s="74">
         <f t="shared" si="0"/>
@@ -10914,7 +10914,7 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="84" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C25" s="74">
         <f t="shared" si="0"/>
@@ -10932,7 +10932,7 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="95" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C26" s="87">
         <f t="shared" si="0"/>
@@ -10956,7 +10956,7 @@
     </row>
     <row r="29" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="93" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C29" s="70">
         <f>+SUM(C10:C26)</f>
@@ -10972,7 +10972,7 @@
       </c>
       <c r="F29" s="70"/>
       <c r="G29" s="93" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H29" s="70">
         <f>+SUM(H10:H20)</f>
@@ -10980,7 +10980,7 @@
       </c>
       <c r="I29" s="70"/>
       <c r="J29" s="93" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K29" s="70">
         <f>+SUM(K10:K26)</f>
@@ -10990,7 +10990,7 @@
     </row>
     <row r="36" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B36" s="93" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C36" s="70">
         <f>+C29-H29</f>
@@ -11001,7 +11001,7 @@
     </row>
     <row r="37" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B37" s="93" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C37" s="70">
         <f>+C36</f>
@@ -11012,7 +11012,7 @@
     </row>
     <row r="38" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B38" s="93" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C38" s="70">
         <f>+D29</f>
@@ -11023,7 +11023,7 @@
     </row>
     <row r="39" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B39" s="93" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C39" s="70">
         <f>+H20</f>
@@ -11034,7 +11034,7 @@
     </row>
     <row r="40" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B40" s="93" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C40" s="70">
         <f>FACT!H4</f>
@@ -11045,7 +11045,7 @@
     </row>
     <row r="41" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B41" s="93" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C41" s="70">
         <f>+FACT!H5</f>
@@ -11056,7 +11056,7 @@
     </row>
     <row r="42" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B42" s="96" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C42" s="70">
         <f>+C29-H18+K29+C41</f>
@@ -11089,968 +11089,968 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E3" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E14" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E18" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E21" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E22" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E23" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E24" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C25" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E25" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E26" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C27" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E27" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E28" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C29" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E29" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C30" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E30" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C31" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E31" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C32" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E32" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C33" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E33" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C34" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E34" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C35" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E35" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C36" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E36" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C37" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E37" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C38" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E38" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C39" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E39" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C40" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D40" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C41" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E41" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C42" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E42" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C43" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E43" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C44" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E44" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C45" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E45" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C46" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E46" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C47" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E47" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C48" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E48" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C49" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D49" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E49" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C50" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E50" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C51" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E51" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C52" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D52" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E52" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C53" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D53" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E53" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C54" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D54" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E54" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C55" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E55" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C56" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D56" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E56" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C57" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E57" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C58" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D58" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E58" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C59" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D59" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E59" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C60" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D60" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E60" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C61" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E61" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C62" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D62" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E62" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C63" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D63" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E63" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C64" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E64" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C65" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D65" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E65" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C66" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D66" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E66" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C67" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D67" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E67" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C68" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D68" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E68" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C69" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D69" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E69" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C70" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D70" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E70" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desarrollo\TMMSQ\OperadoraNominas\OperadoraNominas\bin\Debug\Archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programacion\Desarrollo\TMMSQ\OperadoraNominas\OperadoraNominas\bin\Debug\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735D6ED2-76B6-4E6E-B8EF-2E173770F966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="648" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA" sheetId="38" r:id="rId1"/>
@@ -44,7 +45,20 @@
     <definedName name="TCF">[2]FOR!$B$8</definedName>
     <definedName name="VSDF">[2]FOR!$B$7</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -342,9 +356,6 @@
     <t>NOMINA SA:</t>
   </si>
   <si>
-    <t>AGENCIA GROESSINGER SAPI DE CV</t>
-  </si>
-  <si>
     <t>BENEFICIO SINDICAL:</t>
   </si>
   <si>
@@ -1447,12 +1458,15 @@
   </si>
   <si>
     <t>EXCEDENTE</t>
+  </si>
+  <si>
+    <t>ASESORÍA Y CONSULTORÍA MACHT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -3692,1500 +3706,1500 @@
     </xf>
   </cellXfs>
   <cellStyles count="1494">
-    <cellStyle name="Comma_2 SALARIOS" xfId="1491"/>
+    <cellStyle name="Comma_2 SALARIOS" xfId="1491" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Encabezado 1" xfId="1493" builtinId="16"/>
-    <cellStyle name="Euro" xfId="1"/>
+    <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
-    <cellStyle name="Millares 2" xfId="3"/>
-    <cellStyle name="Millares 2 2" xfId="4"/>
-    <cellStyle name="Millares 2 2 10" xfId="5"/>
-    <cellStyle name="Millares 2 2 10 2" xfId="6"/>
-    <cellStyle name="Millares 2 2 11" xfId="7"/>
-    <cellStyle name="Millares 2 2 11 2" xfId="8"/>
-    <cellStyle name="Millares 2 2 12" xfId="9"/>
-    <cellStyle name="Millares 2 2 12 2" xfId="10"/>
-    <cellStyle name="Millares 2 2 13" xfId="11"/>
-    <cellStyle name="Millares 2 2 13 2" xfId="12"/>
-    <cellStyle name="Millares 2 2 14" xfId="13"/>
-    <cellStyle name="Millares 2 2 14 2" xfId="14"/>
-    <cellStyle name="Millares 2 2 15" xfId="15"/>
-    <cellStyle name="Millares 2 2 15 2" xfId="16"/>
-    <cellStyle name="Millares 2 2 16" xfId="17"/>
-    <cellStyle name="Millares 2 2 16 2" xfId="18"/>
-    <cellStyle name="Millares 2 2 17" xfId="19"/>
-    <cellStyle name="Millares 2 2 17 2" xfId="20"/>
-    <cellStyle name="Millares 2 2 18" xfId="21"/>
-    <cellStyle name="Millares 2 2 18 2" xfId="22"/>
-    <cellStyle name="Millares 2 2 19" xfId="23"/>
-    <cellStyle name="Millares 2 2 19 2" xfId="24"/>
-    <cellStyle name="Millares 2 2 2" xfId="25"/>
-    <cellStyle name="Millares 2 2 2 2" xfId="26"/>
-    <cellStyle name="Millares 2 2 20" xfId="27"/>
-    <cellStyle name="Millares 2 2 20 2" xfId="28"/>
-    <cellStyle name="Millares 2 2 21" xfId="29"/>
-    <cellStyle name="Millares 2 2 21 2" xfId="30"/>
-    <cellStyle name="Millares 2 2 22" xfId="31"/>
-    <cellStyle name="Millares 2 2 22 2" xfId="32"/>
-    <cellStyle name="Millares 2 2 23" xfId="33"/>
-    <cellStyle name="Millares 2 2 3" xfId="34"/>
-    <cellStyle name="Millares 2 2 3 2" xfId="35"/>
-    <cellStyle name="Millares 2 2 4" xfId="36"/>
-    <cellStyle name="Millares 2 2 4 2" xfId="37"/>
-    <cellStyle name="Millares 2 2 5" xfId="38"/>
-    <cellStyle name="Millares 2 2 5 2" xfId="39"/>
-    <cellStyle name="Millares 2 2 6" xfId="40"/>
-    <cellStyle name="Millares 2 2 6 2" xfId="41"/>
-    <cellStyle name="Millares 2 2 7" xfId="42"/>
-    <cellStyle name="Millares 2 2 7 2" xfId="43"/>
-    <cellStyle name="Millares 2 2 8" xfId="44"/>
-    <cellStyle name="Millares 2 2 8 2" xfId="45"/>
-    <cellStyle name="Millares 2 2 9" xfId="46"/>
-    <cellStyle name="Millares 2 2 9 2" xfId="47"/>
-    <cellStyle name="Millares 2 3" xfId="48"/>
-    <cellStyle name="Millares 2 3 2" xfId="49"/>
-    <cellStyle name="Millares 2 4" xfId="50"/>
-    <cellStyle name="Millares 2 4 2" xfId="51"/>
-    <cellStyle name="Millares 2 5" xfId="52"/>
-    <cellStyle name="Millares 2 5 2" xfId="53"/>
-    <cellStyle name="Millares 2 6" xfId="1489"/>
-    <cellStyle name="Millares 20" xfId="1492"/>
-    <cellStyle name="Millares 3" xfId="54"/>
-    <cellStyle name="Millares 3 10" xfId="55"/>
-    <cellStyle name="Millares 3 10 2" xfId="56"/>
-    <cellStyle name="Millares 3 11" xfId="57"/>
-    <cellStyle name="Millares 3 11 2" xfId="58"/>
-    <cellStyle name="Millares 3 12" xfId="59"/>
-    <cellStyle name="Millares 3 12 2" xfId="60"/>
-    <cellStyle name="Millares 3 13" xfId="61"/>
-    <cellStyle name="Millares 3 13 2" xfId="62"/>
-    <cellStyle name="Millares 3 14" xfId="63"/>
-    <cellStyle name="Millares 3 14 2" xfId="64"/>
-    <cellStyle name="Millares 3 15" xfId="65"/>
-    <cellStyle name="Millares 3 15 2" xfId="66"/>
-    <cellStyle name="Millares 3 16" xfId="67"/>
-    <cellStyle name="Millares 3 16 2" xfId="68"/>
-    <cellStyle name="Millares 3 17" xfId="69"/>
-    <cellStyle name="Millares 3 17 2" xfId="70"/>
-    <cellStyle name="Millares 3 18" xfId="71"/>
-    <cellStyle name="Millares 3 18 2" xfId="72"/>
-    <cellStyle name="Millares 3 19" xfId="73"/>
-    <cellStyle name="Millares 3 19 2" xfId="74"/>
-    <cellStyle name="Millares 3 2" xfId="75"/>
-    <cellStyle name="Millares 3 2 10" xfId="76"/>
-    <cellStyle name="Millares 3 2 10 2" xfId="77"/>
-    <cellStyle name="Millares 3 2 11" xfId="78"/>
-    <cellStyle name="Millares 3 2 11 2" xfId="79"/>
-    <cellStyle name="Millares 3 2 12" xfId="80"/>
-    <cellStyle name="Millares 3 2 12 2" xfId="81"/>
-    <cellStyle name="Millares 3 2 13" xfId="82"/>
-    <cellStyle name="Millares 3 2 13 2" xfId="83"/>
-    <cellStyle name="Millares 3 2 14" xfId="84"/>
-    <cellStyle name="Millares 3 2 14 2" xfId="85"/>
-    <cellStyle name="Millares 3 2 15" xfId="86"/>
-    <cellStyle name="Millares 3 2 15 2" xfId="87"/>
-    <cellStyle name="Millares 3 2 16" xfId="88"/>
-    <cellStyle name="Millares 3 2 16 2" xfId="89"/>
-    <cellStyle name="Millares 3 2 17" xfId="90"/>
-    <cellStyle name="Millares 3 2 17 2" xfId="91"/>
-    <cellStyle name="Millares 3 2 18" xfId="92"/>
-    <cellStyle name="Millares 3 2 18 2" xfId="93"/>
-    <cellStyle name="Millares 3 2 19" xfId="94"/>
-    <cellStyle name="Millares 3 2 19 2" xfId="95"/>
-    <cellStyle name="Millares 3 2 2" xfId="96"/>
-    <cellStyle name="Millares 3 2 2 2" xfId="97"/>
-    <cellStyle name="Millares 3 2 20" xfId="98"/>
-    <cellStyle name="Millares 3 2 20 2" xfId="99"/>
-    <cellStyle name="Millares 3 2 21" xfId="100"/>
-    <cellStyle name="Millares 3 2 21 2" xfId="101"/>
-    <cellStyle name="Millares 3 2 22" xfId="102"/>
-    <cellStyle name="Millares 3 2 22 2" xfId="103"/>
-    <cellStyle name="Millares 3 2 23" xfId="104"/>
-    <cellStyle name="Millares 3 2 3" xfId="105"/>
-    <cellStyle name="Millares 3 2 3 2" xfId="106"/>
-    <cellStyle name="Millares 3 2 4" xfId="107"/>
-    <cellStyle name="Millares 3 2 4 2" xfId="108"/>
-    <cellStyle name="Millares 3 2 5" xfId="109"/>
-    <cellStyle name="Millares 3 2 5 2" xfId="110"/>
-    <cellStyle name="Millares 3 2 6" xfId="111"/>
-    <cellStyle name="Millares 3 2 6 2" xfId="112"/>
-    <cellStyle name="Millares 3 2 7" xfId="113"/>
-    <cellStyle name="Millares 3 2 7 2" xfId="114"/>
-    <cellStyle name="Millares 3 2 8" xfId="115"/>
-    <cellStyle name="Millares 3 2 8 2" xfId="116"/>
-    <cellStyle name="Millares 3 2 9" xfId="117"/>
-    <cellStyle name="Millares 3 2 9 2" xfId="118"/>
-    <cellStyle name="Millares 3 20" xfId="119"/>
-    <cellStyle name="Millares 3 20 2" xfId="120"/>
-    <cellStyle name="Millares 3 21" xfId="121"/>
-    <cellStyle name="Millares 3 21 2" xfId="122"/>
-    <cellStyle name="Millares 3 22" xfId="123"/>
-    <cellStyle name="Millares 3 22 2" xfId="124"/>
-    <cellStyle name="Millares 3 23" xfId="125"/>
-    <cellStyle name="Millares 3 23 2" xfId="126"/>
-    <cellStyle name="Millares 3 24" xfId="127"/>
-    <cellStyle name="Millares 3 3" xfId="128"/>
-    <cellStyle name="Millares 3 3 2" xfId="129"/>
-    <cellStyle name="Millares 3 4" xfId="130"/>
-    <cellStyle name="Millares 3 4 2" xfId="131"/>
-    <cellStyle name="Millares 3 5" xfId="132"/>
-    <cellStyle name="Millares 3 5 2" xfId="133"/>
-    <cellStyle name="Millares 3 6" xfId="134"/>
-    <cellStyle name="Millares 3 6 2" xfId="135"/>
-    <cellStyle name="Millares 3 7" xfId="136"/>
-    <cellStyle name="Millares 3 7 2" xfId="137"/>
-    <cellStyle name="Millares 3 8" xfId="138"/>
-    <cellStyle name="Millares 3 8 2" xfId="139"/>
-    <cellStyle name="Millares 3 9" xfId="140"/>
-    <cellStyle name="Millares 3 9 2" xfId="141"/>
-    <cellStyle name="Millares 4" xfId="142"/>
-    <cellStyle name="Millares 5" xfId="1490"/>
-    <cellStyle name="Moneda 2" xfId="143"/>
-    <cellStyle name="Moneda 3" xfId="144"/>
-    <cellStyle name="Moneda 3 10" xfId="145"/>
-    <cellStyle name="Moneda 3 10 2" xfId="146"/>
-    <cellStyle name="Moneda 3 11" xfId="147"/>
-    <cellStyle name="Moneda 3 11 2" xfId="148"/>
-    <cellStyle name="Moneda 3 12" xfId="149"/>
-    <cellStyle name="Moneda 3 12 2" xfId="150"/>
-    <cellStyle name="Moneda 3 13" xfId="151"/>
-    <cellStyle name="Moneda 3 13 2" xfId="152"/>
-    <cellStyle name="Moneda 3 14" xfId="153"/>
-    <cellStyle name="Moneda 3 14 2" xfId="154"/>
-    <cellStyle name="Moneda 3 15" xfId="155"/>
-    <cellStyle name="Moneda 3 15 2" xfId="156"/>
-    <cellStyle name="Moneda 3 16" xfId="157"/>
-    <cellStyle name="Moneda 3 16 2" xfId="158"/>
-    <cellStyle name="Moneda 3 17" xfId="159"/>
-    <cellStyle name="Moneda 3 17 2" xfId="160"/>
-    <cellStyle name="Moneda 3 18" xfId="161"/>
-    <cellStyle name="Moneda 3 18 2" xfId="162"/>
-    <cellStyle name="Moneda 3 19" xfId="163"/>
-    <cellStyle name="Moneda 3 19 2" xfId="164"/>
-    <cellStyle name="Moneda 3 2" xfId="165"/>
-    <cellStyle name="Moneda 3 2 2" xfId="166"/>
-    <cellStyle name="Moneda 3 20" xfId="167"/>
-    <cellStyle name="Moneda 3 20 2" xfId="168"/>
-    <cellStyle name="Moneda 3 21" xfId="169"/>
-    <cellStyle name="Moneda 3 21 2" xfId="170"/>
-    <cellStyle name="Moneda 3 22" xfId="171"/>
-    <cellStyle name="Moneda 3 22 2" xfId="172"/>
-    <cellStyle name="Moneda 3 23" xfId="173"/>
-    <cellStyle name="Moneda 3 3" xfId="174"/>
-    <cellStyle name="Moneda 3 3 2" xfId="175"/>
-    <cellStyle name="Moneda 3 4" xfId="176"/>
-    <cellStyle name="Moneda 3 4 2" xfId="177"/>
-    <cellStyle name="Moneda 3 5" xfId="178"/>
-    <cellStyle name="Moneda 3 5 2" xfId="179"/>
-    <cellStyle name="Moneda 3 6" xfId="180"/>
-    <cellStyle name="Moneda 3 6 2" xfId="181"/>
-    <cellStyle name="Moneda 3 7" xfId="182"/>
-    <cellStyle name="Moneda 3 7 2" xfId="183"/>
-    <cellStyle name="Moneda 3 8" xfId="184"/>
-    <cellStyle name="Moneda 3 8 2" xfId="185"/>
-    <cellStyle name="Moneda 3 9" xfId="186"/>
-    <cellStyle name="Moneda 3 9 2" xfId="187"/>
-    <cellStyle name="Moneda 4" xfId="188"/>
+    <cellStyle name="Millares 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Millares 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Millares 2 2 10" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Millares 2 2 10 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Millares 2 2 11" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Millares 2 2 11 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Millares 2 2 12" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Millares 2 2 12 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Millares 2 2 13" xfId="11" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Millares 2 2 13 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Millares 2 2 14" xfId="13" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Millares 2 2 14 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Millares 2 2 15" xfId="15" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Millares 2 2 15 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Millares 2 2 16" xfId="17" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Millares 2 2 16 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Millares 2 2 17" xfId="19" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Millares 2 2 17 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Millares 2 2 18" xfId="21" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Millares 2 2 18 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Millares 2 2 19" xfId="23" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Millares 2 2 19 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Millares 2 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Millares 2 2 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Millares 2 2 20" xfId="27" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Millares 2 2 20 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Millares 2 2 21" xfId="29" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Millares 2 2 21 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Millares 2 2 22" xfId="31" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Millares 2 2 22 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Millares 2 2 23" xfId="33" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Millares 2 2 3" xfId="34" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Millares 2 2 3 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Millares 2 2 4" xfId="36" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Millares 2 2 4 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Millares 2 2 5" xfId="38" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Millares 2 2 5 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Millares 2 2 6" xfId="40" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Millares 2 2 6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Millares 2 2 7" xfId="42" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Millares 2 2 7 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Millares 2 2 8" xfId="44" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Millares 2 2 8 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Millares 2 2 9" xfId="46" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Millares 2 2 9 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Millares 2 3" xfId="48" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Millares 2 3 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Millares 2 4" xfId="50" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Millares 2 4 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Millares 2 5" xfId="52" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Millares 2 5 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Millares 2 6" xfId="1489" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Millares 20" xfId="1492" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Millares 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Millares 3 10" xfId="55" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Millares 3 10 2" xfId="56" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Millares 3 11" xfId="57" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Millares 3 11 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Millares 3 12" xfId="59" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Millares 3 12 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Millares 3 13" xfId="61" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Millares 3 13 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Millares 3 14" xfId="63" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Millares 3 14 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Millares 3 15" xfId="65" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Millares 3 15 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Millares 3 16" xfId="67" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Millares 3 16 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Millares 3 17" xfId="69" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Millares 3 17 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Millares 3 18" xfId="71" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Millares 3 18 2" xfId="72" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Millares 3 19" xfId="73" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Millares 3 19 2" xfId="74" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Millares 3 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Millares 3 2 10" xfId="76" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Millares 3 2 10 2" xfId="77" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Millares 3 2 11" xfId="78" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Millares 3 2 11 2" xfId="79" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Millares 3 2 12" xfId="80" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Millares 3 2 12 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Millares 3 2 13" xfId="82" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Millares 3 2 13 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Millares 3 2 14" xfId="84" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Millares 3 2 14 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Millares 3 2 15" xfId="86" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Millares 3 2 15 2" xfId="87" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Millares 3 2 16" xfId="88" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Millares 3 2 16 2" xfId="89" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Millares 3 2 17" xfId="90" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Millares 3 2 17 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Millares 3 2 18" xfId="92" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Millares 3 2 18 2" xfId="93" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Millares 3 2 19" xfId="94" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Millares 3 2 19 2" xfId="95" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Millares 3 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Millares 3 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Millares 3 2 20" xfId="98" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Millares 3 2 20 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Millares 3 2 21" xfId="100" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Millares 3 2 21 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Millares 3 2 22" xfId="102" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Millares 3 2 22 2" xfId="103" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Millares 3 2 23" xfId="104" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Millares 3 2 3" xfId="105" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Millares 3 2 3 2" xfId="106" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Millares 3 2 4" xfId="107" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Millares 3 2 4 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Millares 3 2 5" xfId="109" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Millares 3 2 5 2" xfId="110" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Millares 3 2 6" xfId="111" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Millares 3 2 6 2" xfId="112" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Millares 3 2 7" xfId="113" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Millares 3 2 7 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Millares 3 2 8" xfId="115" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Millares 3 2 8 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Millares 3 2 9" xfId="117" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Millares 3 2 9 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Millares 3 20" xfId="119" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Millares 3 20 2" xfId="120" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Millares 3 21" xfId="121" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Millares 3 21 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Millares 3 22" xfId="123" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Millares 3 22 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Millares 3 23" xfId="125" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Millares 3 23 2" xfId="126" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Millares 3 24" xfId="127" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Millares 3 3" xfId="128" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Millares 3 3 2" xfId="129" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Millares 3 4" xfId="130" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Millares 3 4 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Millares 3 5" xfId="132" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Millares 3 5 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Millares 3 6" xfId="134" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Millares 3 6 2" xfId="135" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Millares 3 7" xfId="136" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Millares 3 7 2" xfId="137" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Millares 3 8" xfId="138" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Millares 3 8 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Millares 3 9" xfId="140" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Millares 3 9 2" xfId="141" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Millares 4" xfId="142" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Millares 5" xfId="1490" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Moneda 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Moneda 3" xfId="144" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Moneda 3 10" xfId="145" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Moneda 3 10 2" xfId="146" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Moneda 3 11" xfId="147" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Moneda 3 11 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Moneda 3 12" xfId="149" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Moneda 3 12 2" xfId="150" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Moneda 3 13" xfId="151" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Moneda 3 13 2" xfId="152" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="Moneda 3 14" xfId="153" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Moneda 3 14 2" xfId="154" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Moneda 3 15" xfId="155" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Moneda 3 15 2" xfId="156" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Moneda 3 16" xfId="157" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Moneda 3 16 2" xfId="158" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Moneda 3 17" xfId="159" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Moneda 3 17 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Moneda 3 18" xfId="161" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Moneda 3 18 2" xfId="162" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="Moneda 3 19" xfId="163" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="Moneda 3 19 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="Moneda 3 2" xfId="165" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="Moneda 3 2 2" xfId="166" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="Moneda 3 20" xfId="167" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="Moneda 3 20 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="Moneda 3 21" xfId="169" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="Moneda 3 21 2" xfId="170" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="Moneda 3 22" xfId="171" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="Moneda 3 22 2" xfId="172" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="Moneda 3 23" xfId="173" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="Moneda 3 3" xfId="174" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="Moneda 3 3 2" xfId="175" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="Moneda 3 4" xfId="176" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="Moneda 3 4 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="Moneda 3 5" xfId="178" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="Moneda 3 5 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="Moneda 3 6" xfId="180" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="Moneda 3 6 2" xfId="181" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="Moneda 3 7" xfId="182" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="Moneda 3 7 2" xfId="183" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="Moneda 3 8" xfId="184" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="Moneda 3 8 2" xfId="185" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="Moneda 3 9" xfId="186" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="Moneda 3 9 2" xfId="187" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="Moneda 4" xfId="188" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="189"/>
-    <cellStyle name="Normal 10 4" xfId="1487"/>
-    <cellStyle name="Normal 100" xfId="190"/>
-    <cellStyle name="Normal 100 2" xfId="191"/>
-    <cellStyle name="Normal 101" xfId="192"/>
-    <cellStyle name="Normal 101 2" xfId="193"/>
-    <cellStyle name="Normal 102" xfId="194"/>
-    <cellStyle name="Normal 103" xfId="195"/>
-    <cellStyle name="Normal 104" xfId="196"/>
-    <cellStyle name="Normal 105" xfId="197"/>
-    <cellStyle name="Normal 106" xfId="198"/>
-    <cellStyle name="Normal 107" xfId="199"/>
-    <cellStyle name="Normal 108" xfId="200"/>
-    <cellStyle name="Normal 108 2" xfId="201"/>
-    <cellStyle name="Normal 109" xfId="202"/>
-    <cellStyle name="Normal 11" xfId="203"/>
-    <cellStyle name="Normal 11 10" xfId="204"/>
-    <cellStyle name="Normal 11 10 2" xfId="205"/>
-    <cellStyle name="Normal 11 11" xfId="206"/>
-    <cellStyle name="Normal 11 11 2" xfId="207"/>
-    <cellStyle name="Normal 11 12" xfId="208"/>
-    <cellStyle name="Normal 11 12 2" xfId="209"/>
-    <cellStyle name="Normal 11 13" xfId="210"/>
-    <cellStyle name="Normal 11 13 2" xfId="211"/>
-    <cellStyle name="Normal 11 14" xfId="212"/>
-    <cellStyle name="Normal 11 14 2" xfId="213"/>
-    <cellStyle name="Normal 11 15" xfId="214"/>
-    <cellStyle name="Normal 11 15 2" xfId="215"/>
-    <cellStyle name="Normal 11 16" xfId="216"/>
-    <cellStyle name="Normal 11 16 2" xfId="217"/>
-    <cellStyle name="Normal 11 17" xfId="218"/>
-    <cellStyle name="Normal 11 17 2" xfId="219"/>
-    <cellStyle name="Normal 11 18" xfId="220"/>
-    <cellStyle name="Normal 11 18 2" xfId="221"/>
-    <cellStyle name="Normal 11 19" xfId="222"/>
-    <cellStyle name="Normal 11 19 2" xfId="223"/>
-    <cellStyle name="Normal 11 2" xfId="224"/>
-    <cellStyle name="Normal 11 2 2" xfId="225"/>
-    <cellStyle name="Normal 11 20" xfId="226"/>
-    <cellStyle name="Normal 11 20 2" xfId="227"/>
-    <cellStyle name="Normal 11 21" xfId="228"/>
-    <cellStyle name="Normal 11 21 2" xfId="229"/>
-    <cellStyle name="Normal 11 22" xfId="230"/>
-    <cellStyle name="Normal 11 22 2" xfId="231"/>
-    <cellStyle name="Normal 11 23" xfId="232"/>
-    <cellStyle name="Normal 11 24" xfId="233"/>
-    <cellStyle name="Normal 11 3" xfId="234"/>
-    <cellStyle name="Normal 11 3 2" xfId="235"/>
-    <cellStyle name="Normal 11 4" xfId="236"/>
-    <cellStyle name="Normal 11 4 2" xfId="237"/>
-    <cellStyle name="Normal 11 5" xfId="238"/>
-    <cellStyle name="Normal 11 5 2" xfId="239"/>
-    <cellStyle name="Normal 11 6" xfId="240"/>
-    <cellStyle name="Normal 11 6 2" xfId="241"/>
-    <cellStyle name="Normal 11 7" xfId="242"/>
-    <cellStyle name="Normal 11 7 2" xfId="243"/>
-    <cellStyle name="Normal 11 8" xfId="244"/>
-    <cellStyle name="Normal 11 8 2" xfId="245"/>
-    <cellStyle name="Normal 11 9" xfId="246"/>
-    <cellStyle name="Normal 11 9 2" xfId="247"/>
-    <cellStyle name="Normal 110" xfId="248"/>
-    <cellStyle name="Normal 111" xfId="249"/>
-    <cellStyle name="Normal 112" xfId="250"/>
-    <cellStyle name="Normal 113" xfId="251"/>
-    <cellStyle name="Normal 114" xfId="252"/>
-    <cellStyle name="Normal 115" xfId="253"/>
-    <cellStyle name="Normal 116" xfId="254"/>
-    <cellStyle name="Normal 117" xfId="255"/>
-    <cellStyle name="Normal 118" xfId="256"/>
-    <cellStyle name="Normal 119" xfId="257"/>
-    <cellStyle name="Normal 12" xfId="258"/>
-    <cellStyle name="Normal 12 10" xfId="259"/>
-    <cellStyle name="Normal 12 10 2" xfId="260"/>
-    <cellStyle name="Normal 12 11" xfId="261"/>
-    <cellStyle name="Normal 12 11 2" xfId="262"/>
-    <cellStyle name="Normal 12 12" xfId="263"/>
-    <cellStyle name="Normal 12 12 2" xfId="264"/>
-    <cellStyle name="Normal 12 13" xfId="265"/>
-    <cellStyle name="Normal 12 13 2" xfId="266"/>
-    <cellStyle name="Normal 12 14" xfId="267"/>
-    <cellStyle name="Normal 12 14 2" xfId="268"/>
-    <cellStyle name="Normal 12 15" xfId="269"/>
-    <cellStyle name="Normal 12 15 2" xfId="270"/>
-    <cellStyle name="Normal 12 16" xfId="271"/>
-    <cellStyle name="Normal 12 16 2" xfId="272"/>
-    <cellStyle name="Normal 12 17" xfId="273"/>
-    <cellStyle name="Normal 12 17 2" xfId="274"/>
-    <cellStyle name="Normal 12 18" xfId="275"/>
-    <cellStyle name="Normal 12 18 2" xfId="276"/>
-    <cellStyle name="Normal 12 19" xfId="277"/>
-    <cellStyle name="Normal 12 19 2" xfId="278"/>
-    <cellStyle name="Normal 12 2" xfId="279"/>
-    <cellStyle name="Normal 12 2 2" xfId="280"/>
-    <cellStyle name="Normal 12 20" xfId="281"/>
-    <cellStyle name="Normal 12 20 2" xfId="282"/>
-    <cellStyle name="Normal 12 21" xfId="283"/>
-    <cellStyle name="Normal 12 21 2" xfId="284"/>
-    <cellStyle name="Normal 12 22" xfId="285"/>
-    <cellStyle name="Normal 12 22 2" xfId="286"/>
-    <cellStyle name="Normal 12 23" xfId="287"/>
-    <cellStyle name="Normal 12 3" xfId="288"/>
-    <cellStyle name="Normal 12 3 2" xfId="289"/>
-    <cellStyle name="Normal 12 4" xfId="290"/>
-    <cellStyle name="Normal 12 4 2" xfId="291"/>
-    <cellStyle name="Normal 12 5" xfId="292"/>
-    <cellStyle name="Normal 12 5 2" xfId="293"/>
-    <cellStyle name="Normal 12 6" xfId="294"/>
-    <cellStyle name="Normal 12 6 2" xfId="295"/>
-    <cellStyle name="Normal 12 7" xfId="296"/>
-    <cellStyle name="Normal 12 7 2" xfId="297"/>
-    <cellStyle name="Normal 12 8" xfId="298"/>
-    <cellStyle name="Normal 12 8 2" xfId="299"/>
-    <cellStyle name="Normal 12 9" xfId="300"/>
-    <cellStyle name="Normal 12 9 2" xfId="301"/>
-    <cellStyle name="Normal 120" xfId="302"/>
-    <cellStyle name="Normal 121" xfId="303"/>
-    <cellStyle name="Normal 122" xfId="304"/>
-    <cellStyle name="Normal 123" xfId="305"/>
-    <cellStyle name="Normal 124" xfId="306"/>
-    <cellStyle name="Normal 125" xfId="307"/>
-    <cellStyle name="Normal 126" xfId="308"/>
-    <cellStyle name="Normal 127" xfId="309"/>
-    <cellStyle name="Normal 128" xfId="310"/>
-    <cellStyle name="Normal 129" xfId="311"/>
-    <cellStyle name="Normal 13" xfId="312"/>
-    <cellStyle name="Normal 13 10" xfId="313"/>
-    <cellStyle name="Normal 13 10 2" xfId="314"/>
-    <cellStyle name="Normal 13 11" xfId="315"/>
-    <cellStyle name="Normal 13 11 2" xfId="316"/>
-    <cellStyle name="Normal 13 12" xfId="317"/>
-    <cellStyle name="Normal 13 12 2" xfId="318"/>
-    <cellStyle name="Normal 13 13" xfId="319"/>
-    <cellStyle name="Normal 13 13 2" xfId="320"/>
-    <cellStyle name="Normal 13 14" xfId="321"/>
-    <cellStyle name="Normal 13 14 2" xfId="322"/>
-    <cellStyle name="Normal 13 15" xfId="323"/>
-    <cellStyle name="Normal 13 15 2" xfId="324"/>
-    <cellStyle name="Normal 13 16" xfId="325"/>
-    <cellStyle name="Normal 13 16 2" xfId="326"/>
-    <cellStyle name="Normal 13 17" xfId="327"/>
-    <cellStyle name="Normal 13 17 2" xfId="328"/>
-    <cellStyle name="Normal 13 18" xfId="329"/>
-    <cellStyle name="Normal 13 18 2" xfId="330"/>
-    <cellStyle name="Normal 13 19" xfId="331"/>
-    <cellStyle name="Normal 13 19 2" xfId="332"/>
-    <cellStyle name="Normal 13 2" xfId="333"/>
-    <cellStyle name="Normal 13 2 2" xfId="334"/>
-    <cellStyle name="Normal 13 20" xfId="335"/>
-    <cellStyle name="Normal 13 20 2" xfId="336"/>
-    <cellStyle name="Normal 13 21" xfId="337"/>
-    <cellStyle name="Normal 13 21 2" xfId="338"/>
-    <cellStyle name="Normal 13 22" xfId="339"/>
-    <cellStyle name="Normal 13 22 2" xfId="340"/>
-    <cellStyle name="Normal 13 23" xfId="341"/>
-    <cellStyle name="Normal 13 3" xfId="342"/>
-    <cellStyle name="Normal 13 3 2" xfId="343"/>
-    <cellStyle name="Normal 13 4" xfId="344"/>
-    <cellStyle name="Normal 13 4 2" xfId="345"/>
-    <cellStyle name="Normal 13 5" xfId="346"/>
-    <cellStyle name="Normal 13 5 2" xfId="347"/>
-    <cellStyle name="Normal 13 6" xfId="348"/>
-    <cellStyle name="Normal 13 6 2" xfId="349"/>
-    <cellStyle name="Normal 13 7" xfId="350"/>
-    <cellStyle name="Normal 13 7 2" xfId="351"/>
-    <cellStyle name="Normal 13 8" xfId="352"/>
-    <cellStyle name="Normal 13 8 2" xfId="353"/>
-    <cellStyle name="Normal 13 9" xfId="354"/>
-    <cellStyle name="Normal 13 9 2" xfId="355"/>
-    <cellStyle name="Normal 130" xfId="356"/>
-    <cellStyle name="Normal 131" xfId="357"/>
-    <cellStyle name="Normal 132" xfId="358"/>
-    <cellStyle name="Normal 133" xfId="359"/>
-    <cellStyle name="Normal 134" xfId="360"/>
-    <cellStyle name="Normal 135" xfId="361"/>
-    <cellStyle name="Normal 136" xfId="362"/>
-    <cellStyle name="Normal 137" xfId="363"/>
-    <cellStyle name="Normal 138" xfId="364"/>
-    <cellStyle name="Normal 139" xfId="365"/>
-    <cellStyle name="Normal 14" xfId="366"/>
-    <cellStyle name="Normal 14 10" xfId="367"/>
-    <cellStyle name="Normal 14 10 2" xfId="368"/>
-    <cellStyle name="Normal 14 11" xfId="369"/>
-    <cellStyle name="Normal 14 11 2" xfId="370"/>
-    <cellStyle name="Normal 14 12" xfId="371"/>
-    <cellStyle name="Normal 14 12 2" xfId="372"/>
-    <cellStyle name="Normal 14 13" xfId="373"/>
-    <cellStyle name="Normal 14 13 2" xfId="374"/>
-    <cellStyle name="Normal 14 14" xfId="375"/>
-    <cellStyle name="Normal 14 14 2" xfId="376"/>
-    <cellStyle name="Normal 14 15" xfId="377"/>
-    <cellStyle name="Normal 14 15 2" xfId="378"/>
-    <cellStyle name="Normal 14 16" xfId="379"/>
-    <cellStyle name="Normal 14 16 2" xfId="380"/>
-    <cellStyle name="Normal 14 17" xfId="381"/>
-    <cellStyle name="Normal 14 17 2" xfId="382"/>
-    <cellStyle name="Normal 14 18" xfId="383"/>
-    <cellStyle name="Normal 14 18 2" xfId="384"/>
-    <cellStyle name="Normal 14 19" xfId="385"/>
-    <cellStyle name="Normal 14 19 2" xfId="386"/>
-    <cellStyle name="Normal 14 2" xfId="387"/>
-    <cellStyle name="Normal 14 2 2" xfId="388"/>
-    <cellStyle name="Normal 14 20" xfId="389"/>
-    <cellStyle name="Normal 14 20 2" xfId="390"/>
-    <cellStyle name="Normal 14 21" xfId="391"/>
-    <cellStyle name="Normal 14 21 2" xfId="392"/>
-    <cellStyle name="Normal 14 22" xfId="393"/>
-    <cellStyle name="Normal 14 22 2" xfId="394"/>
-    <cellStyle name="Normal 14 23" xfId="395"/>
-    <cellStyle name="Normal 14 3" xfId="396"/>
-    <cellStyle name="Normal 14 3 2" xfId="397"/>
-    <cellStyle name="Normal 14 4" xfId="398"/>
-    <cellStyle name="Normal 14 4 2" xfId="399"/>
-    <cellStyle name="Normal 14 5" xfId="400"/>
-    <cellStyle name="Normal 14 5 2" xfId="401"/>
-    <cellStyle name="Normal 14 6" xfId="402"/>
-    <cellStyle name="Normal 14 6 2" xfId="403"/>
-    <cellStyle name="Normal 14 7" xfId="404"/>
-    <cellStyle name="Normal 14 7 2" xfId="405"/>
-    <cellStyle name="Normal 14 8" xfId="406"/>
-    <cellStyle name="Normal 14 8 2" xfId="407"/>
-    <cellStyle name="Normal 14 9" xfId="408"/>
-    <cellStyle name="Normal 14 9 2" xfId="409"/>
-    <cellStyle name="Normal 140" xfId="410"/>
-    <cellStyle name="Normal 141" xfId="411"/>
-    <cellStyle name="Normal 142" xfId="412"/>
-    <cellStyle name="Normal 143" xfId="413"/>
-    <cellStyle name="Normal 144" xfId="414"/>
-    <cellStyle name="Normal 145" xfId="415"/>
-    <cellStyle name="Normal 146" xfId="416"/>
-    <cellStyle name="Normal 147" xfId="417"/>
-    <cellStyle name="Normal 148" xfId="418"/>
-    <cellStyle name="Normal 149" xfId="419"/>
-    <cellStyle name="Normal 15" xfId="420"/>
-    <cellStyle name="Normal 15 10" xfId="421"/>
-    <cellStyle name="Normal 15 10 2" xfId="422"/>
-    <cellStyle name="Normal 15 11" xfId="423"/>
-    <cellStyle name="Normal 15 11 2" xfId="424"/>
-    <cellStyle name="Normal 15 12" xfId="425"/>
-    <cellStyle name="Normal 15 12 2" xfId="426"/>
-    <cellStyle name="Normal 15 13" xfId="427"/>
-    <cellStyle name="Normal 15 13 2" xfId="428"/>
-    <cellStyle name="Normal 15 14" xfId="429"/>
-    <cellStyle name="Normal 15 14 2" xfId="430"/>
-    <cellStyle name="Normal 15 15" xfId="431"/>
-    <cellStyle name="Normal 15 15 2" xfId="432"/>
-    <cellStyle name="Normal 15 16" xfId="433"/>
-    <cellStyle name="Normal 15 16 2" xfId="434"/>
-    <cellStyle name="Normal 15 17" xfId="435"/>
-    <cellStyle name="Normal 15 17 2" xfId="436"/>
-    <cellStyle name="Normal 15 18" xfId="437"/>
-    <cellStyle name="Normal 15 18 2" xfId="438"/>
-    <cellStyle name="Normal 15 19" xfId="439"/>
-    <cellStyle name="Normal 15 19 2" xfId="440"/>
-    <cellStyle name="Normal 15 2" xfId="441"/>
-    <cellStyle name="Normal 15 2 2" xfId="442"/>
-    <cellStyle name="Normal 15 20" xfId="443"/>
-    <cellStyle name="Normal 15 20 2" xfId="444"/>
-    <cellStyle name="Normal 15 21" xfId="445"/>
-    <cellStyle name="Normal 15 21 2" xfId="446"/>
-    <cellStyle name="Normal 15 22" xfId="447"/>
-    <cellStyle name="Normal 15 22 2" xfId="448"/>
-    <cellStyle name="Normal 15 23" xfId="449"/>
-    <cellStyle name="Normal 15 3" xfId="450"/>
-    <cellStyle name="Normal 15 3 2" xfId="451"/>
-    <cellStyle name="Normal 15 4" xfId="452"/>
-    <cellStyle name="Normal 15 4 2" xfId="453"/>
-    <cellStyle name="Normal 15 5" xfId="454"/>
-    <cellStyle name="Normal 15 5 2" xfId="455"/>
-    <cellStyle name="Normal 15 6" xfId="456"/>
-    <cellStyle name="Normal 15 6 2" xfId="457"/>
-    <cellStyle name="Normal 15 7" xfId="458"/>
-    <cellStyle name="Normal 15 7 2" xfId="459"/>
-    <cellStyle name="Normal 15 8" xfId="460"/>
-    <cellStyle name="Normal 15 8 2" xfId="461"/>
-    <cellStyle name="Normal 15 9" xfId="462"/>
-    <cellStyle name="Normal 15 9 2" xfId="463"/>
-    <cellStyle name="Normal 150" xfId="464"/>
-    <cellStyle name="Normal 151" xfId="465"/>
-    <cellStyle name="Normal 152" xfId="466"/>
-    <cellStyle name="Normal 153" xfId="467"/>
-    <cellStyle name="Normal 154" xfId="468"/>
-    <cellStyle name="Normal 155" xfId="469"/>
-    <cellStyle name="Normal 156" xfId="470"/>
-    <cellStyle name="Normal 157" xfId="471"/>
-    <cellStyle name="Normal 158" xfId="472"/>
-    <cellStyle name="Normal 159" xfId="473"/>
-    <cellStyle name="Normal 16" xfId="474"/>
-    <cellStyle name="Normal 16 10" xfId="475"/>
-    <cellStyle name="Normal 16 10 2" xfId="476"/>
-    <cellStyle name="Normal 16 11" xfId="477"/>
-    <cellStyle name="Normal 16 11 2" xfId="478"/>
-    <cellStyle name="Normal 16 12" xfId="479"/>
-    <cellStyle name="Normal 16 12 2" xfId="480"/>
-    <cellStyle name="Normal 16 13" xfId="481"/>
-    <cellStyle name="Normal 16 13 2" xfId="482"/>
-    <cellStyle name="Normal 16 14" xfId="483"/>
-    <cellStyle name="Normal 16 14 2" xfId="484"/>
-    <cellStyle name="Normal 16 15" xfId="485"/>
-    <cellStyle name="Normal 16 15 2" xfId="486"/>
-    <cellStyle name="Normal 16 16" xfId="487"/>
-    <cellStyle name="Normal 16 16 2" xfId="488"/>
-    <cellStyle name="Normal 16 17" xfId="489"/>
-    <cellStyle name="Normal 16 17 2" xfId="490"/>
-    <cellStyle name="Normal 16 18" xfId="491"/>
-    <cellStyle name="Normal 16 18 2" xfId="492"/>
-    <cellStyle name="Normal 16 19" xfId="493"/>
-    <cellStyle name="Normal 16 19 2" xfId="494"/>
-    <cellStyle name="Normal 16 2" xfId="495"/>
-    <cellStyle name="Normal 16 2 2" xfId="496"/>
-    <cellStyle name="Normal 16 20" xfId="497"/>
-    <cellStyle name="Normal 16 20 2" xfId="498"/>
-    <cellStyle name="Normal 16 21" xfId="499"/>
-    <cellStyle name="Normal 16 21 2" xfId="500"/>
-    <cellStyle name="Normal 16 22" xfId="501"/>
-    <cellStyle name="Normal 16 22 2" xfId="502"/>
-    <cellStyle name="Normal 16 23" xfId="503"/>
-    <cellStyle name="Normal 16 3" xfId="504"/>
-    <cellStyle name="Normal 16 3 2" xfId="505"/>
-    <cellStyle name="Normal 16 4" xfId="506"/>
-    <cellStyle name="Normal 16 4 2" xfId="507"/>
-    <cellStyle name="Normal 16 5" xfId="508"/>
-    <cellStyle name="Normal 16 5 2" xfId="509"/>
-    <cellStyle name="Normal 16 6" xfId="510"/>
-    <cellStyle name="Normal 16 6 2" xfId="511"/>
-    <cellStyle name="Normal 16 7" xfId="512"/>
-    <cellStyle name="Normal 16 7 2" xfId="513"/>
-    <cellStyle name="Normal 16 8" xfId="514"/>
-    <cellStyle name="Normal 16 8 2" xfId="515"/>
-    <cellStyle name="Normal 16 9" xfId="516"/>
-    <cellStyle name="Normal 16 9 2" xfId="517"/>
-    <cellStyle name="Normal 160" xfId="518"/>
-    <cellStyle name="Normal 161" xfId="519"/>
-    <cellStyle name="Normal 162" xfId="520"/>
-    <cellStyle name="Normal 163" xfId="521"/>
-    <cellStyle name="Normal 164" xfId="522"/>
-    <cellStyle name="Normal 165" xfId="523"/>
-    <cellStyle name="Normal 166" xfId="524"/>
-    <cellStyle name="Normal 167" xfId="525"/>
-    <cellStyle name="Normal 168" xfId="526"/>
-    <cellStyle name="Normal 169" xfId="527"/>
-    <cellStyle name="Normal 17" xfId="528"/>
-    <cellStyle name="Normal 17 10" xfId="529"/>
-    <cellStyle name="Normal 17 10 2" xfId="530"/>
-    <cellStyle name="Normal 17 11" xfId="531"/>
-    <cellStyle name="Normal 17 11 2" xfId="532"/>
-    <cellStyle name="Normal 17 12" xfId="533"/>
-    <cellStyle name="Normal 17 12 2" xfId="534"/>
-    <cellStyle name="Normal 17 13" xfId="535"/>
-    <cellStyle name="Normal 17 13 2" xfId="536"/>
-    <cellStyle name="Normal 17 14" xfId="537"/>
-    <cellStyle name="Normal 17 14 2" xfId="538"/>
-    <cellStyle name="Normal 17 15" xfId="539"/>
-    <cellStyle name="Normal 17 15 2" xfId="540"/>
-    <cellStyle name="Normal 17 16" xfId="541"/>
-    <cellStyle name="Normal 17 16 2" xfId="542"/>
-    <cellStyle name="Normal 17 17" xfId="543"/>
-    <cellStyle name="Normal 17 17 2" xfId="544"/>
-    <cellStyle name="Normal 17 18" xfId="545"/>
-    <cellStyle name="Normal 17 18 2" xfId="546"/>
-    <cellStyle name="Normal 17 19" xfId="547"/>
-    <cellStyle name="Normal 17 19 2" xfId="548"/>
-    <cellStyle name="Normal 17 2" xfId="549"/>
-    <cellStyle name="Normal 17 2 2" xfId="550"/>
-    <cellStyle name="Normal 17 20" xfId="551"/>
-    <cellStyle name="Normal 17 20 2" xfId="552"/>
-    <cellStyle name="Normal 17 21" xfId="553"/>
-    <cellStyle name="Normal 17 21 2" xfId="554"/>
-    <cellStyle name="Normal 17 22" xfId="555"/>
-    <cellStyle name="Normal 17 22 2" xfId="556"/>
-    <cellStyle name="Normal 17 23" xfId="557"/>
-    <cellStyle name="Normal 17 3" xfId="558"/>
-    <cellStyle name="Normal 17 3 2" xfId="559"/>
-    <cellStyle name="Normal 17 4" xfId="560"/>
-    <cellStyle name="Normal 17 4 2" xfId="561"/>
-    <cellStyle name="Normal 17 5" xfId="562"/>
-    <cellStyle name="Normal 17 5 2" xfId="563"/>
-    <cellStyle name="Normal 17 6" xfId="564"/>
-    <cellStyle name="Normal 17 6 2" xfId="565"/>
-    <cellStyle name="Normal 17 7" xfId="566"/>
-    <cellStyle name="Normal 17 7 2" xfId="567"/>
-    <cellStyle name="Normal 17 8" xfId="568"/>
-    <cellStyle name="Normal 17 8 2" xfId="569"/>
-    <cellStyle name="Normal 17 9" xfId="570"/>
-    <cellStyle name="Normal 17 9 2" xfId="571"/>
-    <cellStyle name="Normal 170" xfId="572"/>
-    <cellStyle name="Normal 171" xfId="573"/>
-    <cellStyle name="Normal 172" xfId="574"/>
-    <cellStyle name="Normal 173" xfId="575"/>
-    <cellStyle name="Normal 174" xfId="576"/>
-    <cellStyle name="Normal 175" xfId="577"/>
-    <cellStyle name="Normal 176" xfId="578"/>
-    <cellStyle name="Normal 177" xfId="579"/>
-    <cellStyle name="Normal 178" xfId="580"/>
-    <cellStyle name="Normal 179" xfId="581"/>
-    <cellStyle name="Normal 18" xfId="582"/>
-    <cellStyle name="Normal 18 10" xfId="583"/>
-    <cellStyle name="Normal 18 10 2" xfId="584"/>
-    <cellStyle name="Normal 18 11" xfId="585"/>
-    <cellStyle name="Normal 18 11 2" xfId="586"/>
-    <cellStyle name="Normal 18 12" xfId="587"/>
-    <cellStyle name="Normal 18 12 2" xfId="588"/>
-    <cellStyle name="Normal 18 13" xfId="589"/>
-    <cellStyle name="Normal 18 13 2" xfId="590"/>
-    <cellStyle name="Normal 18 14" xfId="591"/>
-    <cellStyle name="Normal 18 14 2" xfId="592"/>
-    <cellStyle name="Normal 18 15" xfId="593"/>
-    <cellStyle name="Normal 18 15 2" xfId="594"/>
-    <cellStyle name="Normal 18 16" xfId="595"/>
-    <cellStyle name="Normal 18 16 2" xfId="596"/>
-    <cellStyle name="Normal 18 17" xfId="597"/>
-    <cellStyle name="Normal 18 17 2" xfId="598"/>
-    <cellStyle name="Normal 18 18" xfId="599"/>
-    <cellStyle name="Normal 18 18 2" xfId="600"/>
-    <cellStyle name="Normal 18 19" xfId="601"/>
-    <cellStyle name="Normal 18 19 2" xfId="602"/>
-    <cellStyle name="Normal 18 2" xfId="603"/>
-    <cellStyle name="Normal 18 2 2" xfId="604"/>
-    <cellStyle name="Normal 18 20" xfId="605"/>
-    <cellStyle name="Normal 18 20 2" xfId="606"/>
-    <cellStyle name="Normal 18 21" xfId="607"/>
-    <cellStyle name="Normal 18 21 2" xfId="608"/>
-    <cellStyle name="Normal 18 22" xfId="609"/>
-    <cellStyle name="Normal 18 22 2" xfId="610"/>
-    <cellStyle name="Normal 18 23" xfId="611"/>
-    <cellStyle name="Normal 18 3" xfId="612"/>
-    <cellStyle name="Normal 18 3 2" xfId="613"/>
-    <cellStyle name="Normal 18 4" xfId="614"/>
-    <cellStyle name="Normal 18 4 2" xfId="615"/>
-    <cellStyle name="Normal 18 5" xfId="616"/>
-    <cellStyle name="Normal 18 5 2" xfId="617"/>
-    <cellStyle name="Normal 18 6" xfId="618"/>
-    <cellStyle name="Normal 18 6 2" xfId="619"/>
-    <cellStyle name="Normal 18 7" xfId="620"/>
-    <cellStyle name="Normal 18 7 2" xfId="621"/>
-    <cellStyle name="Normal 18 8" xfId="622"/>
-    <cellStyle name="Normal 18 8 2" xfId="623"/>
-    <cellStyle name="Normal 18 9" xfId="624"/>
-    <cellStyle name="Normal 18 9 2" xfId="625"/>
-    <cellStyle name="Normal 180" xfId="626"/>
-    <cellStyle name="Normal 181" xfId="627"/>
-    <cellStyle name="Normal 182" xfId="628"/>
-    <cellStyle name="Normal 183" xfId="629"/>
-    <cellStyle name="Normal 184" xfId="630"/>
-    <cellStyle name="Normal 185" xfId="631"/>
-    <cellStyle name="Normal 186" xfId="632"/>
-    <cellStyle name="Normal 187" xfId="633"/>
-    <cellStyle name="Normal 188" xfId="634"/>
-    <cellStyle name="Normal 189" xfId="635"/>
-    <cellStyle name="Normal 19" xfId="636"/>
-    <cellStyle name="Normal 190" xfId="637"/>
-    <cellStyle name="Normal 191" xfId="638"/>
-    <cellStyle name="Normal 192" xfId="639"/>
-    <cellStyle name="Normal 193" xfId="640"/>
-    <cellStyle name="Normal 194" xfId="641"/>
-    <cellStyle name="Normal 195" xfId="642"/>
-    <cellStyle name="Normal 196" xfId="643"/>
-    <cellStyle name="Normal 197" xfId="644"/>
-    <cellStyle name="Normal 198" xfId="645"/>
-    <cellStyle name="Normal 199" xfId="646"/>
-    <cellStyle name="Normal 2" xfId="647"/>
-    <cellStyle name="Normal 2 2" xfId="648"/>
-    <cellStyle name="Normal 2 2 10" xfId="649"/>
-    <cellStyle name="Normal 2 2 10 2" xfId="650"/>
-    <cellStyle name="Normal 2 2 11" xfId="651"/>
-    <cellStyle name="Normal 2 2 11 2" xfId="652"/>
-    <cellStyle name="Normal 2 2 12" xfId="653"/>
-    <cellStyle name="Normal 2 2 12 2" xfId="654"/>
-    <cellStyle name="Normal 2 2 13" xfId="655"/>
-    <cellStyle name="Normal 2 2 13 2" xfId="656"/>
-    <cellStyle name="Normal 2 2 14" xfId="657"/>
-    <cellStyle name="Normal 2 2 14 2" xfId="658"/>
-    <cellStyle name="Normal 2 2 15" xfId="659"/>
-    <cellStyle name="Normal 2 2 15 2" xfId="660"/>
-    <cellStyle name="Normal 2 2 16" xfId="661"/>
-    <cellStyle name="Normal 2 2 16 2" xfId="662"/>
-    <cellStyle name="Normal 2 2 17" xfId="663"/>
-    <cellStyle name="Normal 2 2 17 2" xfId="664"/>
-    <cellStyle name="Normal 2 2 18" xfId="665"/>
-    <cellStyle name="Normal 2 2 18 2" xfId="666"/>
-    <cellStyle name="Normal 2 2 19" xfId="667"/>
-    <cellStyle name="Normal 2 2 19 2" xfId="668"/>
-    <cellStyle name="Normal 2 2 2" xfId="669"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="670"/>
-    <cellStyle name="Normal 2 2 20" xfId="671"/>
-    <cellStyle name="Normal 2 2 20 2" xfId="672"/>
-    <cellStyle name="Normal 2 2 21" xfId="673"/>
-    <cellStyle name="Normal 2 2 21 2" xfId="674"/>
-    <cellStyle name="Normal 2 2 22" xfId="675"/>
-    <cellStyle name="Normal 2 2 22 2" xfId="676"/>
-    <cellStyle name="Normal 2 2 23" xfId="677"/>
-    <cellStyle name="Normal 2 2 3" xfId="678"/>
-    <cellStyle name="Normal 2 2 3 2" xfId="679"/>
-    <cellStyle name="Normal 2 2 4" xfId="680"/>
-    <cellStyle name="Normal 2 2 4 2" xfId="681"/>
-    <cellStyle name="Normal 2 2 5" xfId="682"/>
-    <cellStyle name="Normal 2 2 5 2" xfId="683"/>
-    <cellStyle name="Normal 2 2 6" xfId="684"/>
-    <cellStyle name="Normal 2 2 6 2" xfId="685"/>
-    <cellStyle name="Normal 2 2 7" xfId="686"/>
-    <cellStyle name="Normal 2 2 7 2" xfId="687"/>
-    <cellStyle name="Normal 2 2 8" xfId="688"/>
-    <cellStyle name="Normal 2 2 8 2" xfId="689"/>
-    <cellStyle name="Normal 2 2 9" xfId="690"/>
-    <cellStyle name="Normal 2 2 9 2" xfId="691"/>
-    <cellStyle name="Normal 2 3" xfId="692"/>
-    <cellStyle name="Normal 2 4" xfId="693"/>
-    <cellStyle name="Normal 2 4 2" xfId="694"/>
-    <cellStyle name="Normal 2 5" xfId="695"/>
-    <cellStyle name="Normal 2 5 2" xfId="696"/>
-    <cellStyle name="Normal 2 6" xfId="697"/>
-    <cellStyle name="Normal 2 6 2" xfId="698"/>
-    <cellStyle name="Normal 20" xfId="699"/>
-    <cellStyle name="Normal 20 10" xfId="700"/>
-    <cellStyle name="Normal 20 10 2" xfId="701"/>
-    <cellStyle name="Normal 20 11" xfId="702"/>
-    <cellStyle name="Normal 20 11 2" xfId="703"/>
-    <cellStyle name="Normal 20 12" xfId="704"/>
-    <cellStyle name="Normal 20 12 2" xfId="705"/>
-    <cellStyle name="Normal 20 13" xfId="706"/>
-    <cellStyle name="Normal 20 13 2" xfId="707"/>
-    <cellStyle name="Normal 20 14" xfId="708"/>
-    <cellStyle name="Normal 20 14 2" xfId="709"/>
-    <cellStyle name="Normal 20 15" xfId="710"/>
-    <cellStyle name="Normal 20 15 2" xfId="711"/>
-    <cellStyle name="Normal 20 16" xfId="712"/>
-    <cellStyle name="Normal 20 16 2" xfId="713"/>
-    <cellStyle name="Normal 20 17" xfId="714"/>
-    <cellStyle name="Normal 20 17 2" xfId="715"/>
-    <cellStyle name="Normal 20 18" xfId="716"/>
-    <cellStyle name="Normal 20 18 2" xfId="717"/>
-    <cellStyle name="Normal 20 19" xfId="718"/>
-    <cellStyle name="Normal 20 19 2" xfId="719"/>
-    <cellStyle name="Normal 20 2" xfId="720"/>
-    <cellStyle name="Normal 20 2 2" xfId="721"/>
-    <cellStyle name="Normal 20 20" xfId="722"/>
-    <cellStyle name="Normal 20 20 2" xfId="723"/>
-    <cellStyle name="Normal 20 21" xfId="724"/>
-    <cellStyle name="Normal 20 21 2" xfId="725"/>
-    <cellStyle name="Normal 20 22" xfId="726"/>
-    <cellStyle name="Normal 20 22 2" xfId="727"/>
-    <cellStyle name="Normal 20 23" xfId="728"/>
-    <cellStyle name="Normal 20 3" xfId="729"/>
-    <cellStyle name="Normal 20 3 2" xfId="730"/>
-    <cellStyle name="Normal 20 4" xfId="731"/>
-    <cellStyle name="Normal 20 4 2" xfId="732"/>
-    <cellStyle name="Normal 20 5" xfId="733"/>
-    <cellStyle name="Normal 20 5 2" xfId="734"/>
-    <cellStyle name="Normal 20 6" xfId="735"/>
-    <cellStyle name="Normal 20 6 2" xfId="736"/>
-    <cellStyle name="Normal 20 7" xfId="737"/>
-    <cellStyle name="Normal 20 7 2" xfId="738"/>
-    <cellStyle name="Normal 20 8" xfId="739"/>
-    <cellStyle name="Normal 20 8 2" xfId="740"/>
-    <cellStyle name="Normal 20 9" xfId="741"/>
-    <cellStyle name="Normal 20 9 2" xfId="742"/>
-    <cellStyle name="Normal 200" xfId="743"/>
-    <cellStyle name="Normal 201" xfId="744"/>
-    <cellStyle name="Normal 202" xfId="745"/>
-    <cellStyle name="Normal 203" xfId="746"/>
-    <cellStyle name="Normal 204" xfId="747"/>
-    <cellStyle name="Normal 205" xfId="748"/>
-    <cellStyle name="Normal 206" xfId="749"/>
-    <cellStyle name="Normal 207" xfId="750"/>
-    <cellStyle name="Normal 208" xfId="751"/>
-    <cellStyle name="Normal 209" xfId="752"/>
-    <cellStyle name="Normal 21" xfId="753"/>
-    <cellStyle name="Normal 21 10" xfId="754"/>
-    <cellStyle name="Normal 21 10 2" xfId="755"/>
-    <cellStyle name="Normal 21 11" xfId="756"/>
-    <cellStyle name="Normal 21 11 2" xfId="757"/>
-    <cellStyle name="Normal 21 12" xfId="758"/>
-    <cellStyle name="Normal 21 12 2" xfId="759"/>
-    <cellStyle name="Normal 21 13" xfId="760"/>
-    <cellStyle name="Normal 21 13 2" xfId="761"/>
-    <cellStyle name="Normal 21 14" xfId="762"/>
-    <cellStyle name="Normal 21 14 2" xfId="763"/>
-    <cellStyle name="Normal 21 15" xfId="764"/>
-    <cellStyle name="Normal 21 15 2" xfId="765"/>
-    <cellStyle name="Normal 21 16" xfId="766"/>
-    <cellStyle name="Normal 21 16 2" xfId="767"/>
-    <cellStyle name="Normal 21 17" xfId="768"/>
-    <cellStyle name="Normal 21 17 2" xfId="769"/>
-    <cellStyle name="Normal 21 18" xfId="770"/>
-    <cellStyle name="Normal 21 18 2" xfId="771"/>
-    <cellStyle name="Normal 21 19" xfId="772"/>
-    <cellStyle name="Normal 21 19 2" xfId="773"/>
-    <cellStyle name="Normal 21 2" xfId="774"/>
-    <cellStyle name="Normal 21 2 2" xfId="775"/>
-    <cellStyle name="Normal 21 20" xfId="776"/>
-    <cellStyle name="Normal 21 20 2" xfId="777"/>
-    <cellStyle name="Normal 21 21" xfId="778"/>
-    <cellStyle name="Normal 21 21 2" xfId="779"/>
-    <cellStyle name="Normal 21 22" xfId="780"/>
-    <cellStyle name="Normal 21 22 2" xfId="781"/>
-    <cellStyle name="Normal 21 23" xfId="782"/>
-    <cellStyle name="Normal 21 3" xfId="783"/>
-    <cellStyle name="Normal 21 3 2" xfId="784"/>
-    <cellStyle name="Normal 21 4" xfId="785"/>
-    <cellStyle name="Normal 21 4 2" xfId="786"/>
-    <cellStyle name="Normal 21 5" xfId="787"/>
-    <cellStyle name="Normal 21 5 2" xfId="788"/>
-    <cellStyle name="Normal 21 6" xfId="789"/>
-    <cellStyle name="Normal 21 6 2" xfId="790"/>
-    <cellStyle name="Normal 21 7" xfId="791"/>
-    <cellStyle name="Normal 21 7 2" xfId="792"/>
-    <cellStyle name="Normal 21 8" xfId="793"/>
-    <cellStyle name="Normal 21 8 2" xfId="794"/>
-    <cellStyle name="Normal 21 9" xfId="795"/>
-    <cellStyle name="Normal 21 9 2" xfId="796"/>
-    <cellStyle name="Normal 210" xfId="797"/>
-    <cellStyle name="Normal 211" xfId="798"/>
-    <cellStyle name="Normal 212" xfId="799"/>
-    <cellStyle name="Normal 213" xfId="800"/>
-    <cellStyle name="Normal 214" xfId="801"/>
-    <cellStyle name="Normal 215" xfId="802"/>
-    <cellStyle name="Normal 216" xfId="803"/>
-    <cellStyle name="Normal 217" xfId="804"/>
-    <cellStyle name="Normal 218" xfId="805"/>
-    <cellStyle name="Normal 219" xfId="806"/>
-    <cellStyle name="Normal 22" xfId="807"/>
-    <cellStyle name="Normal 22 10" xfId="808"/>
-    <cellStyle name="Normal 22 10 2" xfId="809"/>
-    <cellStyle name="Normal 22 11" xfId="810"/>
-    <cellStyle name="Normal 22 11 2" xfId="811"/>
-    <cellStyle name="Normal 22 12" xfId="812"/>
-    <cellStyle name="Normal 22 12 2" xfId="813"/>
-    <cellStyle name="Normal 22 13" xfId="814"/>
-    <cellStyle name="Normal 22 13 2" xfId="815"/>
-    <cellStyle name="Normal 22 14" xfId="816"/>
-    <cellStyle name="Normal 22 14 2" xfId="817"/>
-    <cellStyle name="Normal 22 15" xfId="818"/>
-    <cellStyle name="Normal 22 15 2" xfId="819"/>
-    <cellStyle name="Normal 22 16" xfId="820"/>
-    <cellStyle name="Normal 22 16 2" xfId="821"/>
-    <cellStyle name="Normal 22 17" xfId="822"/>
-    <cellStyle name="Normal 22 17 2" xfId="823"/>
-    <cellStyle name="Normal 22 18" xfId="824"/>
-    <cellStyle name="Normal 22 18 2" xfId="825"/>
-    <cellStyle name="Normal 22 19" xfId="826"/>
-    <cellStyle name="Normal 22 19 2" xfId="827"/>
-    <cellStyle name="Normal 22 2" xfId="828"/>
-    <cellStyle name="Normal 22 2 2" xfId="829"/>
-    <cellStyle name="Normal 22 20" xfId="830"/>
-    <cellStyle name="Normal 22 20 2" xfId="831"/>
-    <cellStyle name="Normal 22 21" xfId="832"/>
-    <cellStyle name="Normal 22 21 2" xfId="833"/>
-    <cellStyle name="Normal 22 22" xfId="834"/>
-    <cellStyle name="Normal 22 22 2" xfId="835"/>
-    <cellStyle name="Normal 22 23" xfId="836"/>
-    <cellStyle name="Normal 22 3" xfId="837"/>
-    <cellStyle name="Normal 22 3 2" xfId="838"/>
-    <cellStyle name="Normal 22 4" xfId="839"/>
-    <cellStyle name="Normal 22 4 2" xfId="840"/>
-    <cellStyle name="Normal 22 5" xfId="841"/>
-    <cellStyle name="Normal 22 5 2" xfId="842"/>
-    <cellStyle name="Normal 22 6" xfId="843"/>
-    <cellStyle name="Normal 22 6 2" xfId="844"/>
-    <cellStyle name="Normal 22 7" xfId="845"/>
-    <cellStyle name="Normal 22 7 2" xfId="846"/>
-    <cellStyle name="Normal 22 8" xfId="847"/>
-    <cellStyle name="Normal 22 8 2" xfId="848"/>
-    <cellStyle name="Normal 22 9" xfId="849"/>
-    <cellStyle name="Normal 22 9 2" xfId="850"/>
-    <cellStyle name="Normal 220" xfId="851"/>
-    <cellStyle name="Normal 221" xfId="852"/>
-    <cellStyle name="Normal 222" xfId="853"/>
-    <cellStyle name="Normal 223" xfId="854"/>
-    <cellStyle name="Normal 224" xfId="855"/>
-    <cellStyle name="Normal 225" xfId="856"/>
-    <cellStyle name="Normal 226" xfId="857"/>
-    <cellStyle name="Normal 227" xfId="858"/>
-    <cellStyle name="Normal 228" xfId="859"/>
-    <cellStyle name="Normal 229" xfId="860"/>
-    <cellStyle name="Normal 23" xfId="861"/>
-    <cellStyle name="Normal 23 10" xfId="862"/>
-    <cellStyle name="Normal 23 10 2" xfId="863"/>
-    <cellStyle name="Normal 23 11" xfId="864"/>
-    <cellStyle name="Normal 23 11 2" xfId="865"/>
-    <cellStyle name="Normal 23 12" xfId="866"/>
-    <cellStyle name="Normal 23 12 2" xfId="867"/>
-    <cellStyle name="Normal 23 13" xfId="868"/>
-    <cellStyle name="Normal 23 13 2" xfId="869"/>
-    <cellStyle name="Normal 23 14" xfId="870"/>
-    <cellStyle name="Normal 23 14 2" xfId="871"/>
-    <cellStyle name="Normal 23 15" xfId="872"/>
-    <cellStyle name="Normal 23 15 2" xfId="873"/>
-    <cellStyle name="Normal 23 16" xfId="874"/>
-    <cellStyle name="Normal 23 16 2" xfId="875"/>
-    <cellStyle name="Normal 23 17" xfId="876"/>
-    <cellStyle name="Normal 23 17 2" xfId="877"/>
-    <cellStyle name="Normal 23 18" xfId="878"/>
-    <cellStyle name="Normal 23 18 2" xfId="879"/>
-    <cellStyle name="Normal 23 19" xfId="880"/>
-    <cellStyle name="Normal 23 19 2" xfId="881"/>
-    <cellStyle name="Normal 23 2" xfId="882"/>
-    <cellStyle name="Normal 23 2 2" xfId="883"/>
-    <cellStyle name="Normal 23 20" xfId="884"/>
-    <cellStyle name="Normal 23 20 2" xfId="885"/>
-    <cellStyle name="Normal 23 21" xfId="886"/>
-    <cellStyle name="Normal 23 21 2" xfId="887"/>
-    <cellStyle name="Normal 23 22" xfId="888"/>
-    <cellStyle name="Normal 23 22 2" xfId="889"/>
-    <cellStyle name="Normal 23 23" xfId="890"/>
-    <cellStyle name="Normal 23 3" xfId="891"/>
-    <cellStyle name="Normal 23 3 2" xfId="892"/>
-    <cellStyle name="Normal 23 4" xfId="893"/>
-    <cellStyle name="Normal 23 4 2" xfId="894"/>
-    <cellStyle name="Normal 23 5" xfId="895"/>
-    <cellStyle name="Normal 23 5 2" xfId="896"/>
-    <cellStyle name="Normal 23 6" xfId="897"/>
-    <cellStyle name="Normal 23 6 2" xfId="898"/>
-    <cellStyle name="Normal 23 7" xfId="899"/>
-    <cellStyle name="Normal 23 7 2" xfId="900"/>
-    <cellStyle name="Normal 23 8" xfId="901"/>
-    <cellStyle name="Normal 23 8 2" xfId="902"/>
-    <cellStyle name="Normal 23 9" xfId="903"/>
-    <cellStyle name="Normal 23 9 2" xfId="904"/>
-    <cellStyle name="Normal 230" xfId="905"/>
-    <cellStyle name="Normal 231" xfId="906"/>
-    <cellStyle name="Normal 232" xfId="907"/>
-    <cellStyle name="Normal 233" xfId="908"/>
-    <cellStyle name="Normal 234" xfId="909"/>
-    <cellStyle name="Normal 235" xfId="910"/>
-    <cellStyle name="Normal 236" xfId="911"/>
-    <cellStyle name="Normal 237" xfId="912"/>
-    <cellStyle name="Normal 238" xfId="913"/>
-    <cellStyle name="Normal 239" xfId="914"/>
-    <cellStyle name="Normal 24" xfId="915"/>
-    <cellStyle name="Normal 240" xfId="916"/>
-    <cellStyle name="Normal 241" xfId="917"/>
-    <cellStyle name="Normal 242" xfId="918"/>
-    <cellStyle name="Normal 243" xfId="919"/>
-    <cellStyle name="Normal 244" xfId="920"/>
-    <cellStyle name="Normal 245" xfId="921"/>
-    <cellStyle name="Normal 246" xfId="922"/>
-    <cellStyle name="Normal 247" xfId="923"/>
-    <cellStyle name="Normal 248" xfId="924"/>
-    <cellStyle name="Normal 249" xfId="925"/>
-    <cellStyle name="Normal 25" xfId="926"/>
-    <cellStyle name="Normal 250" xfId="927"/>
-    <cellStyle name="Normal 251" xfId="928"/>
-    <cellStyle name="Normal 252" xfId="929"/>
-    <cellStyle name="Normal 253" xfId="930"/>
-    <cellStyle name="Normal 254" xfId="931"/>
-    <cellStyle name="Normal 255" xfId="932"/>
-    <cellStyle name="Normal 256" xfId="933"/>
-    <cellStyle name="Normal 257" xfId="934"/>
-    <cellStyle name="Normal 258" xfId="935"/>
-    <cellStyle name="Normal 259" xfId="936"/>
-    <cellStyle name="Normal 26" xfId="937"/>
-    <cellStyle name="Normal 260" xfId="938"/>
-    <cellStyle name="Normal 261" xfId="939"/>
-    <cellStyle name="Normal 262" xfId="940"/>
-    <cellStyle name="Normal 263" xfId="941"/>
-    <cellStyle name="Normal 264" xfId="942"/>
-    <cellStyle name="Normal 265" xfId="943"/>
-    <cellStyle name="Normal 266" xfId="944"/>
-    <cellStyle name="Normal 267" xfId="945"/>
-    <cellStyle name="Normal 268" xfId="946"/>
-    <cellStyle name="Normal 269" xfId="947"/>
-    <cellStyle name="Normal 27" xfId="948"/>
-    <cellStyle name="Normal 270" xfId="949"/>
-    <cellStyle name="Normal 271" xfId="950"/>
-    <cellStyle name="Normal 272" xfId="951"/>
-    <cellStyle name="Normal 273" xfId="952"/>
-    <cellStyle name="Normal 274" xfId="953"/>
-    <cellStyle name="Normal 275" xfId="954"/>
-    <cellStyle name="Normal 276" xfId="955"/>
-    <cellStyle name="Normal 277" xfId="956"/>
-    <cellStyle name="Normal 278" xfId="957"/>
-    <cellStyle name="Normal 279" xfId="958"/>
-    <cellStyle name="Normal 28" xfId="959"/>
-    <cellStyle name="Normal 280" xfId="960"/>
-    <cellStyle name="Normal 281" xfId="961"/>
-    <cellStyle name="Normal 282" xfId="962"/>
-    <cellStyle name="Normal 283" xfId="963"/>
-    <cellStyle name="Normal 284" xfId="964"/>
-    <cellStyle name="Normal 285" xfId="965"/>
-    <cellStyle name="Normal 286" xfId="966"/>
-    <cellStyle name="Normal 287" xfId="967"/>
-    <cellStyle name="Normal 288" xfId="968"/>
-    <cellStyle name="Normal 289" xfId="969"/>
-    <cellStyle name="Normal 29" xfId="970"/>
-    <cellStyle name="Normal 290" xfId="971"/>
-    <cellStyle name="Normal 291" xfId="972"/>
-    <cellStyle name="Normal 292" xfId="973"/>
-    <cellStyle name="Normal 293" xfId="974"/>
-    <cellStyle name="Normal 294" xfId="975"/>
-    <cellStyle name="Normal 295" xfId="976"/>
-    <cellStyle name="Normal 296" xfId="977"/>
-    <cellStyle name="Normal 297" xfId="978"/>
-    <cellStyle name="Normal 298" xfId="979"/>
-    <cellStyle name="Normal 299" xfId="980"/>
-    <cellStyle name="Normal 3" xfId="981"/>
-    <cellStyle name="Normal 30" xfId="982"/>
-    <cellStyle name="Normal 300" xfId="983"/>
-    <cellStyle name="Normal 301" xfId="984"/>
-    <cellStyle name="Normal 302" xfId="985"/>
-    <cellStyle name="Normal 303" xfId="986"/>
-    <cellStyle name="Normal 304" xfId="987"/>
-    <cellStyle name="Normal 305" xfId="988"/>
-    <cellStyle name="Normal 306" xfId="989"/>
-    <cellStyle name="Normal 307" xfId="990"/>
-    <cellStyle name="Normal 308" xfId="991"/>
-    <cellStyle name="Normal 309" xfId="992"/>
-    <cellStyle name="Normal 31" xfId="993"/>
-    <cellStyle name="Normal 310" xfId="994"/>
-    <cellStyle name="Normal 311" xfId="995"/>
-    <cellStyle name="Normal 312" xfId="996"/>
-    <cellStyle name="Normal 313" xfId="997"/>
-    <cellStyle name="Normal 314" xfId="998"/>
-    <cellStyle name="Normal 315" xfId="999"/>
-    <cellStyle name="Normal 316" xfId="1000"/>
-    <cellStyle name="Normal 317" xfId="1001"/>
-    <cellStyle name="Normal 318" xfId="1002"/>
-    <cellStyle name="Normal 319" xfId="1003"/>
-    <cellStyle name="Normal 32" xfId="1004"/>
-    <cellStyle name="Normal 320" xfId="1005"/>
-    <cellStyle name="Normal 321" xfId="1006"/>
-    <cellStyle name="Normal 322" xfId="1007"/>
-    <cellStyle name="Normal 323" xfId="1008"/>
-    <cellStyle name="Normal 324" xfId="1009"/>
-    <cellStyle name="Normal 325" xfId="1010"/>
-    <cellStyle name="Normal 326" xfId="1011"/>
-    <cellStyle name="Normal 327" xfId="1012"/>
-    <cellStyle name="Normal 328" xfId="1013"/>
-    <cellStyle name="Normal 329" xfId="1014"/>
-    <cellStyle name="Normal 33" xfId="1015"/>
-    <cellStyle name="Normal 330" xfId="1016"/>
-    <cellStyle name="Normal 331" xfId="1017"/>
-    <cellStyle name="Normal 332" xfId="1018"/>
-    <cellStyle name="Normal 333" xfId="1019"/>
-    <cellStyle name="Normal 334" xfId="1020"/>
-    <cellStyle name="Normal 335" xfId="1021"/>
-    <cellStyle name="Normal 336" xfId="1022"/>
-    <cellStyle name="Normal 337" xfId="1023"/>
-    <cellStyle name="Normal 338" xfId="1024"/>
-    <cellStyle name="Normal 339" xfId="1025"/>
-    <cellStyle name="Normal 34" xfId="1026"/>
-    <cellStyle name="Normal 340" xfId="1027"/>
-    <cellStyle name="Normal 341" xfId="1028"/>
-    <cellStyle name="Normal 342" xfId="1029"/>
-    <cellStyle name="Normal 343" xfId="1030"/>
-    <cellStyle name="Normal 344" xfId="1031"/>
-    <cellStyle name="Normal 345" xfId="1032"/>
-    <cellStyle name="Normal 346" xfId="1033"/>
-    <cellStyle name="Normal 347" xfId="1034"/>
-    <cellStyle name="Normal 348" xfId="1035"/>
-    <cellStyle name="Normal 349" xfId="1036"/>
-    <cellStyle name="Normal 35" xfId="1037"/>
-    <cellStyle name="Normal 350" xfId="1038"/>
-    <cellStyle name="Normal 351" xfId="1039"/>
-    <cellStyle name="Normal 352" xfId="1040"/>
-    <cellStyle name="Normal 353" xfId="1041"/>
-    <cellStyle name="Normal 354" xfId="1042"/>
-    <cellStyle name="Normal 355" xfId="1043"/>
-    <cellStyle name="Normal 356" xfId="1044"/>
-    <cellStyle name="Normal 357" xfId="1045"/>
-    <cellStyle name="Normal 358" xfId="1046"/>
-    <cellStyle name="Normal 359" xfId="1047"/>
-    <cellStyle name="Normal 36" xfId="1048"/>
-    <cellStyle name="Normal 360" xfId="1049"/>
-    <cellStyle name="Normal 361" xfId="1050"/>
-    <cellStyle name="Normal 362" xfId="1051"/>
-    <cellStyle name="Normal 363" xfId="1052"/>
-    <cellStyle name="Normal 364" xfId="1053"/>
-    <cellStyle name="Normal 365" xfId="1054"/>
-    <cellStyle name="Normal 366" xfId="1055"/>
-    <cellStyle name="Normal 367" xfId="1056"/>
-    <cellStyle name="Normal 368" xfId="1057"/>
-    <cellStyle name="Normal 369" xfId="1058"/>
-    <cellStyle name="Normal 37" xfId="1059"/>
-    <cellStyle name="Normal 370" xfId="1060"/>
-    <cellStyle name="Normal 371" xfId="1061"/>
-    <cellStyle name="Normal 372" xfId="1062"/>
-    <cellStyle name="Normal 373" xfId="1063"/>
-    <cellStyle name="Normal 374" xfId="1064"/>
-    <cellStyle name="Normal 375" xfId="1065"/>
-    <cellStyle name="Normal 376" xfId="1066"/>
-    <cellStyle name="Normal 377" xfId="1067"/>
-    <cellStyle name="Normal 378" xfId="1068"/>
-    <cellStyle name="Normal 379" xfId="1069"/>
-    <cellStyle name="Normal 38" xfId="1070"/>
-    <cellStyle name="Normal 380" xfId="1071"/>
-    <cellStyle name="Normal 381" xfId="1072"/>
-    <cellStyle name="Normal 382" xfId="1073"/>
-    <cellStyle name="Normal 383" xfId="1074"/>
-    <cellStyle name="Normal 384" xfId="1075"/>
-    <cellStyle name="Normal 385" xfId="1076"/>
-    <cellStyle name="Normal 386" xfId="1077"/>
-    <cellStyle name="Normal 387" xfId="1078"/>
-    <cellStyle name="Normal 388" xfId="1079"/>
-    <cellStyle name="Normal 389" xfId="1080"/>
-    <cellStyle name="Normal 39" xfId="1081"/>
-    <cellStyle name="Normal 390" xfId="1082"/>
-    <cellStyle name="Normal 391" xfId="1083"/>
-    <cellStyle name="Normal 392" xfId="1084"/>
-    <cellStyle name="Normal 393" xfId="1085"/>
-    <cellStyle name="Normal 394" xfId="1086"/>
-    <cellStyle name="Normal 395" xfId="1087"/>
-    <cellStyle name="Normal 396" xfId="1088"/>
-    <cellStyle name="Normal 397" xfId="1089"/>
-    <cellStyle name="Normal 398" xfId="1090"/>
-    <cellStyle name="Normal 399" xfId="1091"/>
-    <cellStyle name="Normal 4" xfId="1092"/>
-    <cellStyle name="Normal 40" xfId="1093"/>
-    <cellStyle name="Normal 400" xfId="1094"/>
-    <cellStyle name="Normal 401" xfId="1095"/>
-    <cellStyle name="Normal 401 2" xfId="1096"/>
-    <cellStyle name="Normal 402" xfId="1097"/>
-    <cellStyle name="Normal 403" xfId="1098"/>
-    <cellStyle name="Normal 404" xfId="1099"/>
-    <cellStyle name="Normal 405" xfId="1100"/>
-    <cellStyle name="Normal 406" xfId="1101"/>
-    <cellStyle name="Normal 407" xfId="1102"/>
-    <cellStyle name="Normal 408" xfId="1103"/>
-    <cellStyle name="Normal 409" xfId="1104"/>
-    <cellStyle name="Normal 41" xfId="1105"/>
-    <cellStyle name="Normal 410" xfId="1106"/>
-    <cellStyle name="Normal 411" xfId="1107"/>
-    <cellStyle name="Normal 411 2" xfId="1108"/>
-    <cellStyle name="Normal 412" xfId="1109"/>
-    <cellStyle name="Normal 413" xfId="1110"/>
-    <cellStyle name="Normal 414" xfId="1111"/>
-    <cellStyle name="Normal 415" xfId="1112"/>
-    <cellStyle name="Normal 416" xfId="1113"/>
-    <cellStyle name="Normal 416 2" xfId="1114"/>
-    <cellStyle name="Normal 417" xfId="1488"/>
-    <cellStyle name="Normal 42" xfId="1115"/>
-    <cellStyle name="Normal 43" xfId="1116"/>
-    <cellStyle name="Normal 44" xfId="1117"/>
-    <cellStyle name="Normal 45" xfId="1118"/>
-    <cellStyle name="Normal 46" xfId="1119"/>
-    <cellStyle name="Normal 47" xfId="1120"/>
-    <cellStyle name="Normal 48" xfId="1121"/>
-    <cellStyle name="Normal 49" xfId="1122"/>
-    <cellStyle name="Normal 5" xfId="1123"/>
-    <cellStyle name="Normal 5 10" xfId="1124"/>
-    <cellStyle name="Normal 5 10 2" xfId="1125"/>
-    <cellStyle name="Normal 5 11" xfId="1126"/>
-    <cellStyle name="Normal 5 11 2" xfId="1127"/>
-    <cellStyle name="Normal 5 12" xfId="1128"/>
-    <cellStyle name="Normal 5 12 2" xfId="1129"/>
-    <cellStyle name="Normal 5 13" xfId="1130"/>
-    <cellStyle name="Normal 5 13 2" xfId="1131"/>
-    <cellStyle name="Normal 5 14" xfId="1132"/>
-    <cellStyle name="Normal 5 14 2" xfId="1133"/>
-    <cellStyle name="Normal 5 15" xfId="1134"/>
-    <cellStyle name="Normal 5 15 2" xfId="1135"/>
-    <cellStyle name="Normal 5 16" xfId="1136"/>
-    <cellStyle name="Normal 5 16 2" xfId="1137"/>
-    <cellStyle name="Normal 5 17" xfId="1138"/>
-    <cellStyle name="Normal 5 17 2" xfId="1139"/>
-    <cellStyle name="Normal 5 18" xfId="1140"/>
-    <cellStyle name="Normal 5 18 2" xfId="1141"/>
-    <cellStyle name="Normal 5 19" xfId="1142"/>
-    <cellStyle name="Normal 5 19 2" xfId="1143"/>
-    <cellStyle name="Normal 5 2" xfId="1144"/>
-    <cellStyle name="Normal 5 2 10" xfId="1145"/>
-    <cellStyle name="Normal 5 2 10 2" xfId="1146"/>
-    <cellStyle name="Normal 5 2 11" xfId="1147"/>
-    <cellStyle name="Normal 5 2 11 2" xfId="1148"/>
-    <cellStyle name="Normal 5 2 12" xfId="1149"/>
-    <cellStyle name="Normal 5 2 12 2" xfId="1150"/>
-    <cellStyle name="Normal 5 2 13" xfId="1151"/>
-    <cellStyle name="Normal 5 2 13 2" xfId="1152"/>
-    <cellStyle name="Normal 5 2 14" xfId="1153"/>
-    <cellStyle name="Normal 5 2 14 2" xfId="1154"/>
-    <cellStyle name="Normal 5 2 15" xfId="1155"/>
-    <cellStyle name="Normal 5 2 15 2" xfId="1156"/>
-    <cellStyle name="Normal 5 2 16" xfId="1157"/>
-    <cellStyle name="Normal 5 2 16 2" xfId="1158"/>
-    <cellStyle name="Normal 5 2 17" xfId="1159"/>
-    <cellStyle name="Normal 5 2 17 2" xfId="1160"/>
-    <cellStyle name="Normal 5 2 18" xfId="1161"/>
-    <cellStyle name="Normal 5 2 18 2" xfId="1162"/>
-    <cellStyle name="Normal 5 2 19" xfId="1163"/>
-    <cellStyle name="Normal 5 2 19 2" xfId="1164"/>
-    <cellStyle name="Normal 5 2 2" xfId="1165"/>
-    <cellStyle name="Normal 5 2 2 2" xfId="1166"/>
-    <cellStyle name="Normal 5 2 20" xfId="1167"/>
-    <cellStyle name="Normal 5 2 20 2" xfId="1168"/>
-    <cellStyle name="Normal 5 2 21" xfId="1169"/>
-    <cellStyle name="Normal 5 2 21 2" xfId="1170"/>
-    <cellStyle name="Normal 5 2 22" xfId="1171"/>
-    <cellStyle name="Normal 5 2 22 2" xfId="1172"/>
-    <cellStyle name="Normal 5 2 23" xfId="1173"/>
-    <cellStyle name="Normal 5 2 3" xfId="1174"/>
-    <cellStyle name="Normal 5 2 3 2" xfId="1175"/>
-    <cellStyle name="Normal 5 2 4" xfId="1176"/>
-    <cellStyle name="Normal 5 2 4 2" xfId="1177"/>
-    <cellStyle name="Normal 5 2 5" xfId="1178"/>
-    <cellStyle name="Normal 5 2 5 2" xfId="1179"/>
-    <cellStyle name="Normal 5 2 6" xfId="1180"/>
-    <cellStyle name="Normal 5 2 6 2" xfId="1181"/>
-    <cellStyle name="Normal 5 2 7" xfId="1182"/>
-    <cellStyle name="Normal 5 2 7 2" xfId="1183"/>
-    <cellStyle name="Normal 5 2 8" xfId="1184"/>
-    <cellStyle name="Normal 5 2 8 2" xfId="1185"/>
-    <cellStyle name="Normal 5 2 9" xfId="1186"/>
-    <cellStyle name="Normal 5 2 9 2" xfId="1187"/>
-    <cellStyle name="Normal 5 20" xfId="1188"/>
-    <cellStyle name="Normal 5 20 2" xfId="1189"/>
-    <cellStyle name="Normal 5 21" xfId="1190"/>
-    <cellStyle name="Normal 5 21 2" xfId="1191"/>
-    <cellStyle name="Normal 5 22" xfId="1192"/>
-    <cellStyle name="Normal 5 22 2" xfId="1193"/>
-    <cellStyle name="Normal 5 23" xfId="1194"/>
-    <cellStyle name="Normal 5 23 2" xfId="1195"/>
-    <cellStyle name="Normal 5 24" xfId="1196"/>
-    <cellStyle name="Normal 5 3" xfId="1197"/>
-    <cellStyle name="Normal 5 3 2" xfId="1198"/>
-    <cellStyle name="Normal 5 4" xfId="1199"/>
-    <cellStyle name="Normal 5 4 2" xfId="1200"/>
-    <cellStyle name="Normal 5 5" xfId="1201"/>
-    <cellStyle name="Normal 5 5 2" xfId="1202"/>
-    <cellStyle name="Normal 5 6" xfId="1203"/>
-    <cellStyle name="Normal 5 6 2" xfId="1204"/>
-    <cellStyle name="Normal 5 7" xfId="1205"/>
-    <cellStyle name="Normal 5 7 2" xfId="1206"/>
-    <cellStyle name="Normal 5 8" xfId="1207"/>
-    <cellStyle name="Normal 5 8 2" xfId="1208"/>
-    <cellStyle name="Normal 5 9" xfId="1209"/>
-    <cellStyle name="Normal 5 9 2" xfId="1210"/>
-    <cellStyle name="Normal 50" xfId="1211"/>
-    <cellStyle name="Normal 51" xfId="1212"/>
-    <cellStyle name="Normal 52" xfId="1213"/>
-    <cellStyle name="Normal 53" xfId="1214"/>
-    <cellStyle name="Normal 54" xfId="1215"/>
-    <cellStyle name="Normal 55" xfId="1216"/>
-    <cellStyle name="Normal 56" xfId="1217"/>
-    <cellStyle name="Normal 57" xfId="1218"/>
-    <cellStyle name="Normal 58" xfId="1219"/>
-    <cellStyle name="Normal 59" xfId="1220"/>
-    <cellStyle name="Normal 6" xfId="1221"/>
-    <cellStyle name="Normal 60" xfId="1222"/>
-    <cellStyle name="Normal 61" xfId="1223"/>
-    <cellStyle name="Normal 62" xfId="1224"/>
-    <cellStyle name="Normal 63" xfId="1225"/>
-    <cellStyle name="Normal 64" xfId="1226"/>
-    <cellStyle name="Normal 65" xfId="1227"/>
-    <cellStyle name="Normal 66" xfId="1228"/>
-    <cellStyle name="Normal 67" xfId="1229"/>
-    <cellStyle name="Normal 67 10" xfId="1230"/>
-    <cellStyle name="Normal 67 10 2" xfId="1231"/>
-    <cellStyle name="Normal 67 11" xfId="1232"/>
-    <cellStyle name="Normal 67 11 2" xfId="1233"/>
-    <cellStyle name="Normal 67 12" xfId="1234"/>
-    <cellStyle name="Normal 67 12 2" xfId="1235"/>
-    <cellStyle name="Normal 67 13" xfId="1236"/>
-    <cellStyle name="Normal 67 13 2" xfId="1237"/>
-    <cellStyle name="Normal 67 14" xfId="1238"/>
-    <cellStyle name="Normal 67 14 2" xfId="1239"/>
-    <cellStyle name="Normal 67 15" xfId="1240"/>
-    <cellStyle name="Normal 67 15 2" xfId="1241"/>
-    <cellStyle name="Normal 67 16" xfId="1242"/>
-    <cellStyle name="Normal 67 16 2" xfId="1243"/>
-    <cellStyle name="Normal 67 17" xfId="1244"/>
-    <cellStyle name="Normal 67 17 2" xfId="1245"/>
-    <cellStyle name="Normal 67 18" xfId="1246"/>
-    <cellStyle name="Normal 67 18 2" xfId="1247"/>
-    <cellStyle name="Normal 67 19" xfId="1248"/>
-    <cellStyle name="Normal 67 19 2" xfId="1249"/>
-    <cellStyle name="Normal 67 2" xfId="1250"/>
-    <cellStyle name="Normal 67 2 2" xfId="1251"/>
-    <cellStyle name="Normal 67 20" xfId="1252"/>
-    <cellStyle name="Normal 67 20 2" xfId="1253"/>
-    <cellStyle name="Normal 67 21" xfId="1254"/>
-    <cellStyle name="Normal 67 21 2" xfId="1255"/>
-    <cellStyle name="Normal 67 22" xfId="1256"/>
-    <cellStyle name="Normal 67 22 2" xfId="1257"/>
-    <cellStyle name="Normal 67 23" xfId="1258"/>
-    <cellStyle name="Normal 67 3" xfId="1259"/>
-    <cellStyle name="Normal 67 3 2" xfId="1260"/>
-    <cellStyle name="Normal 67 4" xfId="1261"/>
-    <cellStyle name="Normal 67 4 2" xfId="1262"/>
-    <cellStyle name="Normal 67 5" xfId="1263"/>
-    <cellStyle name="Normal 67 5 2" xfId="1264"/>
-    <cellStyle name="Normal 67 6" xfId="1265"/>
-    <cellStyle name="Normal 67 6 2" xfId="1266"/>
-    <cellStyle name="Normal 67 7" xfId="1267"/>
-    <cellStyle name="Normal 67 7 2" xfId="1268"/>
-    <cellStyle name="Normal 67 8" xfId="1269"/>
-    <cellStyle name="Normal 67 8 2" xfId="1270"/>
-    <cellStyle name="Normal 67 9" xfId="1271"/>
-    <cellStyle name="Normal 67 9 2" xfId="1272"/>
-    <cellStyle name="Normal 68" xfId="1273"/>
-    <cellStyle name="Normal 69" xfId="1274"/>
-    <cellStyle name="Normal 69 10" xfId="1275"/>
-    <cellStyle name="Normal 69 10 2" xfId="1276"/>
-    <cellStyle name="Normal 69 11" xfId="1277"/>
-    <cellStyle name="Normal 69 11 2" xfId="1278"/>
-    <cellStyle name="Normal 69 12" xfId="1279"/>
-    <cellStyle name="Normal 69 12 2" xfId="1280"/>
-    <cellStyle name="Normal 69 13" xfId="1281"/>
-    <cellStyle name="Normal 69 13 2" xfId="1282"/>
-    <cellStyle name="Normal 69 14" xfId="1283"/>
-    <cellStyle name="Normal 69 14 2" xfId="1284"/>
-    <cellStyle name="Normal 69 15" xfId="1285"/>
-    <cellStyle name="Normal 69 15 2" xfId="1286"/>
-    <cellStyle name="Normal 69 16" xfId="1287"/>
-    <cellStyle name="Normal 69 16 2" xfId="1288"/>
-    <cellStyle name="Normal 69 17" xfId="1289"/>
-    <cellStyle name="Normal 69 17 2" xfId="1290"/>
-    <cellStyle name="Normal 69 18" xfId="1291"/>
-    <cellStyle name="Normal 69 18 2" xfId="1292"/>
-    <cellStyle name="Normal 69 19" xfId="1293"/>
-    <cellStyle name="Normal 69 19 2" xfId="1294"/>
-    <cellStyle name="Normal 69 2" xfId="1295"/>
-    <cellStyle name="Normal 69 2 2" xfId="1296"/>
-    <cellStyle name="Normal 69 20" xfId="1297"/>
-    <cellStyle name="Normal 69 20 2" xfId="1298"/>
-    <cellStyle name="Normal 69 21" xfId="1299"/>
-    <cellStyle name="Normal 69 21 2" xfId="1300"/>
-    <cellStyle name="Normal 69 22" xfId="1301"/>
-    <cellStyle name="Normal 69 22 2" xfId="1302"/>
-    <cellStyle name="Normal 69 23" xfId="1303"/>
-    <cellStyle name="Normal 69 3" xfId="1304"/>
-    <cellStyle name="Normal 69 3 2" xfId="1305"/>
-    <cellStyle name="Normal 69 4" xfId="1306"/>
-    <cellStyle name="Normal 69 4 2" xfId="1307"/>
-    <cellStyle name="Normal 69 5" xfId="1308"/>
-    <cellStyle name="Normal 69 5 2" xfId="1309"/>
-    <cellStyle name="Normal 69 6" xfId="1310"/>
-    <cellStyle name="Normal 69 6 2" xfId="1311"/>
-    <cellStyle name="Normal 69 7" xfId="1312"/>
-    <cellStyle name="Normal 69 7 2" xfId="1313"/>
-    <cellStyle name="Normal 69 8" xfId="1314"/>
-    <cellStyle name="Normal 69 8 2" xfId="1315"/>
-    <cellStyle name="Normal 69 9" xfId="1316"/>
-    <cellStyle name="Normal 69 9 2" xfId="1317"/>
-    <cellStyle name="Normal 7" xfId="1318"/>
-    <cellStyle name="Normal 70" xfId="1319"/>
-    <cellStyle name="Normal 70 10" xfId="1320"/>
-    <cellStyle name="Normal 70 10 2" xfId="1321"/>
-    <cellStyle name="Normal 70 11" xfId="1322"/>
-    <cellStyle name="Normal 70 11 2" xfId="1323"/>
-    <cellStyle name="Normal 70 12" xfId="1324"/>
-    <cellStyle name="Normal 70 12 2" xfId="1325"/>
-    <cellStyle name="Normal 70 13" xfId="1326"/>
-    <cellStyle name="Normal 70 13 2" xfId="1327"/>
-    <cellStyle name="Normal 70 14" xfId="1328"/>
-    <cellStyle name="Normal 70 14 2" xfId="1329"/>
-    <cellStyle name="Normal 70 15" xfId="1330"/>
-    <cellStyle name="Normal 70 15 2" xfId="1331"/>
-    <cellStyle name="Normal 70 16" xfId="1332"/>
-    <cellStyle name="Normal 70 16 2" xfId="1333"/>
-    <cellStyle name="Normal 70 17" xfId="1334"/>
-    <cellStyle name="Normal 70 17 2" xfId="1335"/>
-    <cellStyle name="Normal 70 18" xfId="1336"/>
-    <cellStyle name="Normal 70 18 2" xfId="1337"/>
-    <cellStyle name="Normal 70 19" xfId="1338"/>
-    <cellStyle name="Normal 70 19 2" xfId="1339"/>
-    <cellStyle name="Normal 70 2" xfId="1340"/>
-    <cellStyle name="Normal 70 2 2" xfId="1341"/>
-    <cellStyle name="Normal 70 20" xfId="1342"/>
-    <cellStyle name="Normal 70 20 2" xfId="1343"/>
-    <cellStyle name="Normal 70 21" xfId="1344"/>
-    <cellStyle name="Normal 70 21 2" xfId="1345"/>
-    <cellStyle name="Normal 70 22" xfId="1346"/>
-    <cellStyle name="Normal 70 22 2" xfId="1347"/>
-    <cellStyle name="Normal 70 23" xfId="1348"/>
-    <cellStyle name="Normal 70 3" xfId="1349"/>
-    <cellStyle name="Normal 70 3 2" xfId="1350"/>
-    <cellStyle name="Normal 70 4" xfId="1351"/>
-    <cellStyle name="Normal 70 4 2" xfId="1352"/>
-    <cellStyle name="Normal 70 5" xfId="1353"/>
-    <cellStyle name="Normal 70 5 2" xfId="1354"/>
-    <cellStyle name="Normal 70 6" xfId="1355"/>
-    <cellStyle name="Normal 70 6 2" xfId="1356"/>
-    <cellStyle name="Normal 70 7" xfId="1357"/>
-    <cellStyle name="Normal 70 7 2" xfId="1358"/>
-    <cellStyle name="Normal 70 8" xfId="1359"/>
-    <cellStyle name="Normal 70 8 2" xfId="1360"/>
-    <cellStyle name="Normal 70 9" xfId="1361"/>
-    <cellStyle name="Normal 70 9 2" xfId="1362"/>
-    <cellStyle name="Normal 71" xfId="1363"/>
-    <cellStyle name="Normal 71 2" xfId="1364"/>
-    <cellStyle name="Normal 72" xfId="1365"/>
-    <cellStyle name="Normal 72 2" xfId="1366"/>
-    <cellStyle name="Normal 73" xfId="1367"/>
-    <cellStyle name="Normal 73 10" xfId="1368"/>
-    <cellStyle name="Normal 73 11" xfId="1369"/>
-    <cellStyle name="Normal 73 12" xfId="1370"/>
-    <cellStyle name="Normal 73 13" xfId="1371"/>
-    <cellStyle name="Normal 73 14" xfId="1372"/>
-    <cellStyle name="Normal 73 15" xfId="1373"/>
-    <cellStyle name="Normal 73 16" xfId="1374"/>
-    <cellStyle name="Normal 73 17" xfId="1375"/>
-    <cellStyle name="Normal 73 18" xfId="1376"/>
-    <cellStyle name="Normal 73 19" xfId="1377"/>
-    <cellStyle name="Normal 73 2" xfId="1378"/>
-    <cellStyle name="Normal 73 20" xfId="1379"/>
-    <cellStyle name="Normal 73 21" xfId="1380"/>
-    <cellStyle name="Normal 73 22" xfId="1381"/>
-    <cellStyle name="Normal 73 23" xfId="1382"/>
-    <cellStyle name="Normal 73 3" xfId="1383"/>
-    <cellStyle name="Normal 73 4" xfId="1384"/>
-    <cellStyle name="Normal 73 5" xfId="1385"/>
-    <cellStyle name="Normal 73 6" xfId="1386"/>
-    <cellStyle name="Normal 73 7" xfId="1387"/>
-    <cellStyle name="Normal 73 8" xfId="1388"/>
-    <cellStyle name="Normal 73 9" xfId="1389"/>
-    <cellStyle name="Normal 74" xfId="1390"/>
-    <cellStyle name="Normal 74 2" xfId="1391"/>
-    <cellStyle name="Normal 75" xfId="1392"/>
-    <cellStyle name="Normal 75 2" xfId="1393"/>
-    <cellStyle name="Normal 76" xfId="1394"/>
-    <cellStyle name="Normal 76 2" xfId="1395"/>
-    <cellStyle name="Normal 77" xfId="1396"/>
-    <cellStyle name="Normal 77 2" xfId="1397"/>
-    <cellStyle name="Normal 78" xfId="1398"/>
-    <cellStyle name="Normal 78 2" xfId="1399"/>
-    <cellStyle name="Normal 79" xfId="1400"/>
-    <cellStyle name="Normal 79 2" xfId="1401"/>
-    <cellStyle name="Normal 8" xfId="1402"/>
-    <cellStyle name="Normal 80" xfId="1403"/>
-    <cellStyle name="Normal 80 2" xfId="1404"/>
-    <cellStyle name="Normal 81" xfId="1405"/>
-    <cellStyle name="Normal 81 2" xfId="1406"/>
-    <cellStyle name="Normal 82" xfId="1407"/>
-    <cellStyle name="Normal 82 2" xfId="1408"/>
-    <cellStyle name="Normal 83" xfId="1409"/>
-    <cellStyle name="Normal 83 2" xfId="1410"/>
-    <cellStyle name="Normal 84" xfId="1411"/>
-    <cellStyle name="Normal 84 2" xfId="1412"/>
-    <cellStyle name="Normal 85" xfId="1413"/>
-    <cellStyle name="Normal 85 2" xfId="1414"/>
-    <cellStyle name="Normal 86" xfId="1415"/>
-    <cellStyle name="Normal 86 2" xfId="1416"/>
-    <cellStyle name="Normal 87" xfId="1417"/>
-    <cellStyle name="Normal 87 2" xfId="1418"/>
-    <cellStyle name="Normal 88" xfId="1419"/>
-    <cellStyle name="Normal 88 2" xfId="1420"/>
-    <cellStyle name="Normal 89" xfId="1421"/>
-    <cellStyle name="Normal 89 2" xfId="1422"/>
-    <cellStyle name="Normal 9" xfId="1423"/>
-    <cellStyle name="Normal 90" xfId="1424"/>
-    <cellStyle name="Normal 90 2" xfId="1425"/>
-    <cellStyle name="Normal 91" xfId="1426"/>
-    <cellStyle name="Normal 91 2" xfId="1427"/>
-    <cellStyle name="Normal 92" xfId="1428"/>
-    <cellStyle name="Normal 92 2" xfId="1429"/>
-    <cellStyle name="Normal 93" xfId="1430"/>
-    <cellStyle name="Normal 93 2" xfId="1431"/>
-    <cellStyle name="Normal 94" xfId="1432"/>
-    <cellStyle name="Normal 94 2" xfId="1433"/>
-    <cellStyle name="Normal 95" xfId="1434"/>
-    <cellStyle name="Normal 96" xfId="1435"/>
-    <cellStyle name="Normal 97" xfId="1436"/>
-    <cellStyle name="Normal 97 2" xfId="1437"/>
-    <cellStyle name="Normal 98" xfId="1438"/>
-    <cellStyle name="Normal 98 2" xfId="1439"/>
-    <cellStyle name="Normal 99" xfId="1440"/>
-    <cellStyle name="Porcentaje 2" xfId="1441"/>
-    <cellStyle name="Porcentaje 2 10" xfId="1442"/>
-    <cellStyle name="Porcentaje 2 10 2" xfId="1443"/>
-    <cellStyle name="Porcentaje 2 11" xfId="1444"/>
-    <cellStyle name="Porcentaje 2 11 2" xfId="1445"/>
-    <cellStyle name="Porcentaje 2 12" xfId="1446"/>
-    <cellStyle name="Porcentaje 2 12 2" xfId="1447"/>
-    <cellStyle name="Porcentaje 2 13" xfId="1448"/>
-    <cellStyle name="Porcentaje 2 13 2" xfId="1449"/>
-    <cellStyle name="Porcentaje 2 14" xfId="1450"/>
-    <cellStyle name="Porcentaje 2 14 2" xfId="1451"/>
-    <cellStyle name="Porcentaje 2 15" xfId="1452"/>
-    <cellStyle name="Porcentaje 2 15 2" xfId="1453"/>
-    <cellStyle name="Porcentaje 2 16" xfId="1454"/>
-    <cellStyle name="Porcentaje 2 16 2" xfId="1455"/>
-    <cellStyle name="Porcentaje 2 17" xfId="1456"/>
-    <cellStyle name="Porcentaje 2 17 2" xfId="1457"/>
-    <cellStyle name="Porcentaje 2 18" xfId="1458"/>
-    <cellStyle name="Porcentaje 2 18 2" xfId="1459"/>
-    <cellStyle name="Porcentaje 2 19" xfId="1460"/>
-    <cellStyle name="Porcentaje 2 19 2" xfId="1461"/>
-    <cellStyle name="Porcentaje 2 2" xfId="1462"/>
-    <cellStyle name="Porcentaje 2 2 2" xfId="1463"/>
-    <cellStyle name="Porcentaje 2 20" xfId="1464"/>
-    <cellStyle name="Porcentaje 2 20 2" xfId="1465"/>
-    <cellStyle name="Porcentaje 2 21" xfId="1466"/>
-    <cellStyle name="Porcentaje 2 21 2" xfId="1467"/>
-    <cellStyle name="Porcentaje 2 22" xfId="1468"/>
-    <cellStyle name="Porcentaje 2 22 2" xfId="1469"/>
-    <cellStyle name="Porcentaje 2 23" xfId="1470"/>
-    <cellStyle name="Porcentaje 2 3" xfId="1471"/>
-    <cellStyle name="Porcentaje 2 3 2" xfId="1472"/>
-    <cellStyle name="Porcentaje 2 4" xfId="1473"/>
-    <cellStyle name="Porcentaje 2 4 2" xfId="1474"/>
-    <cellStyle name="Porcentaje 2 5" xfId="1475"/>
-    <cellStyle name="Porcentaje 2 5 2" xfId="1476"/>
-    <cellStyle name="Porcentaje 2 6" xfId="1477"/>
-    <cellStyle name="Porcentaje 2 6 2" xfId="1478"/>
-    <cellStyle name="Porcentaje 2 7" xfId="1479"/>
-    <cellStyle name="Porcentaje 2 7 2" xfId="1480"/>
-    <cellStyle name="Porcentaje 2 8" xfId="1481"/>
-    <cellStyle name="Porcentaje 2 8 2" xfId="1482"/>
-    <cellStyle name="Porcentaje 2 9" xfId="1483"/>
-    <cellStyle name="Porcentaje 2 9 2" xfId="1484"/>
-    <cellStyle name="Porcentual 2" xfId="1485"/>
-    <cellStyle name="Porcentual 3" xfId="1486"/>
+    <cellStyle name="Normal 10" xfId="189" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="Normal 10 4" xfId="1487" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="Normal 100" xfId="190" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="Normal 100 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="Normal 101" xfId="192" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="Normal 101 2" xfId="193" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="Normal 102" xfId="194" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="Normal 103" xfId="195" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="Normal 104" xfId="196" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="Normal 105" xfId="197" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="Normal 106" xfId="198" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="Normal 107" xfId="199" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="Normal 108" xfId="200" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="Normal 108 2" xfId="201" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="Normal 109" xfId="202" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="Normal 11" xfId="203" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="Normal 11 10" xfId="204" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="Normal 11 10 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="Normal 11 11" xfId="206" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="Normal 11 11 2" xfId="207" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="Normal 11 12" xfId="208" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="Normal 11 12 2" xfId="209" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="Normal 11 13" xfId="210" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="Normal 11 13 2" xfId="211" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="Normal 11 14" xfId="212" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="Normal 11 14 2" xfId="213" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="Normal 11 15" xfId="214" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="Normal 11 15 2" xfId="215" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="Normal 11 16" xfId="216" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="Normal 11 16 2" xfId="217" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="Normal 11 17" xfId="218" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="Normal 11 17 2" xfId="219" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="Normal 11 18" xfId="220" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="Normal 11 18 2" xfId="221" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="Normal 11 19" xfId="222" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="Normal 11 19 2" xfId="223" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="Normal 11 2" xfId="224" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="Normal 11 2 2" xfId="225" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="Normal 11 20" xfId="226" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="Normal 11 20 2" xfId="227" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="Normal 11 21" xfId="228" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="Normal 11 21 2" xfId="229" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="Normal 11 22" xfId="230" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="Normal 11 22 2" xfId="231" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="Normal 11 23" xfId="232" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="Normal 11 24" xfId="233" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="Normal 11 3" xfId="234" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="Normal 11 3 2" xfId="235" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="Normal 11 4" xfId="236" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="Normal 11 4 2" xfId="237" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="Normal 11 5" xfId="238" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="Normal 11 5 2" xfId="239" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="Normal 11 6" xfId="240" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="Normal 11 6 2" xfId="241" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="Normal 11 7" xfId="242" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="Normal 11 7 2" xfId="243" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="Normal 11 8" xfId="244" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="Normal 11 8 2" xfId="245" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="Normal 11 9" xfId="246" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="Normal 11 9 2" xfId="247" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="Normal 110" xfId="248" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="Normal 111" xfId="249" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="Normal 112" xfId="250" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="Normal 113" xfId="251" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="Normal 114" xfId="252" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="Normal 115" xfId="253" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="Normal 116" xfId="254" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="Normal 117" xfId="255" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="Normal 118" xfId="256" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="Normal 119" xfId="257" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="Normal 12" xfId="258" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="Normal 12 10" xfId="259" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="Normal 12 10 2" xfId="260" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="Normal 12 11" xfId="261" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="Normal 12 11 2" xfId="262" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="Normal 12 12" xfId="263" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="Normal 12 12 2" xfId="264" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="Normal 12 13" xfId="265" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="Normal 12 13 2" xfId="266" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="Normal 12 14" xfId="267" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="Normal 12 14 2" xfId="268" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="Normal 12 15" xfId="269" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="Normal 12 15 2" xfId="270" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="Normal 12 16" xfId="271" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="Normal 12 16 2" xfId="272" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="Normal 12 17" xfId="273" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="Normal 12 17 2" xfId="274" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="Normal 12 18" xfId="275" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="Normal 12 18 2" xfId="276" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="Normal 12 19" xfId="277" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="Normal 12 19 2" xfId="278" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="Normal 12 2" xfId="279" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="Normal 12 2 2" xfId="280" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="Normal 12 20" xfId="281" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="Normal 12 20 2" xfId="282" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="Normal 12 21" xfId="283" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="Normal 12 21 2" xfId="284" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="Normal 12 22" xfId="285" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="Normal 12 22 2" xfId="286" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="Normal 12 23" xfId="287" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="Normal 12 3" xfId="288" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="Normal 12 3 2" xfId="289" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="Normal 12 4" xfId="290" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="Normal 12 4 2" xfId="291" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="Normal 12 5" xfId="292" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="Normal 12 5 2" xfId="293" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="Normal 12 6" xfId="294" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="Normal 12 6 2" xfId="295" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="Normal 12 7" xfId="296" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="Normal 12 7 2" xfId="297" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="Normal 12 8" xfId="298" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="Normal 12 8 2" xfId="299" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="Normal 12 9" xfId="300" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="Normal 12 9 2" xfId="301" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="Normal 120" xfId="302" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="Normal 121" xfId="303" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="Normal 122" xfId="304" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="Normal 123" xfId="305" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="Normal 124" xfId="306" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="Normal 125" xfId="307" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="Normal 126" xfId="308" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="Normal 127" xfId="309" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="Normal 128" xfId="310" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="Normal 129" xfId="311" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="Normal 13" xfId="312" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="Normal 13 10" xfId="313" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="Normal 13 10 2" xfId="314" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="Normal 13 11" xfId="315" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="Normal 13 11 2" xfId="316" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="Normal 13 12" xfId="317" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="Normal 13 12 2" xfId="318" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="Normal 13 13" xfId="319" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="Normal 13 13 2" xfId="320" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="Normal 13 14" xfId="321" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="Normal 13 14 2" xfId="322" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="Normal 13 15" xfId="323" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="Normal 13 15 2" xfId="324" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="Normal 13 16" xfId="325" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="Normal 13 16 2" xfId="326" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="Normal 13 17" xfId="327" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="Normal 13 17 2" xfId="328" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="Normal 13 18" xfId="329" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="Normal 13 18 2" xfId="330" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="Normal 13 19" xfId="331" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="Normal 13 19 2" xfId="332" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="Normal 13 2" xfId="333" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="Normal 13 2 2" xfId="334" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="Normal 13 20" xfId="335" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="Normal 13 20 2" xfId="336" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="Normal 13 21" xfId="337" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="Normal 13 21 2" xfId="338" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="Normal 13 22" xfId="339" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="Normal 13 22 2" xfId="340" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="Normal 13 23" xfId="341" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="Normal 13 3" xfId="342" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="Normal 13 3 2" xfId="343" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="Normal 13 4" xfId="344" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="Normal 13 4 2" xfId="345" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="Normal 13 5" xfId="346" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="Normal 13 5 2" xfId="347" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="Normal 13 6" xfId="348" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="Normal 13 6 2" xfId="349" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="Normal 13 7" xfId="350" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="Normal 13 7 2" xfId="351" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="Normal 13 8" xfId="352" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="Normal 13 8 2" xfId="353" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="Normal 13 9" xfId="354" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="Normal 13 9 2" xfId="355" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="Normal 130" xfId="356" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
+    <cellStyle name="Normal 131" xfId="357" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
+    <cellStyle name="Normal 132" xfId="358" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
+    <cellStyle name="Normal 133" xfId="359" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
+    <cellStyle name="Normal 134" xfId="360" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
+    <cellStyle name="Normal 135" xfId="361" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
+    <cellStyle name="Normal 136" xfId="362" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
+    <cellStyle name="Normal 137" xfId="363" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
+    <cellStyle name="Normal 138" xfId="364" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
+    <cellStyle name="Normal 139" xfId="365" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
+    <cellStyle name="Normal 14" xfId="366" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
+    <cellStyle name="Normal 14 10" xfId="367" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
+    <cellStyle name="Normal 14 10 2" xfId="368" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
+    <cellStyle name="Normal 14 11" xfId="369" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
+    <cellStyle name="Normal 14 11 2" xfId="370" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
+    <cellStyle name="Normal 14 12" xfId="371" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
+    <cellStyle name="Normal 14 12 2" xfId="372" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
+    <cellStyle name="Normal 14 13" xfId="373" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
+    <cellStyle name="Normal 14 13 2" xfId="374" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
+    <cellStyle name="Normal 14 14" xfId="375" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
+    <cellStyle name="Normal 14 14 2" xfId="376" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
+    <cellStyle name="Normal 14 15" xfId="377" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
+    <cellStyle name="Normal 14 15 2" xfId="378" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
+    <cellStyle name="Normal 14 16" xfId="379" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
+    <cellStyle name="Normal 14 16 2" xfId="380" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
+    <cellStyle name="Normal 14 17" xfId="381" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
+    <cellStyle name="Normal 14 17 2" xfId="382" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
+    <cellStyle name="Normal 14 18" xfId="383" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
+    <cellStyle name="Normal 14 18 2" xfId="384" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
+    <cellStyle name="Normal 14 19" xfId="385" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
+    <cellStyle name="Normal 14 19 2" xfId="386" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
+    <cellStyle name="Normal 14 2" xfId="387" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
+    <cellStyle name="Normal 14 2 2" xfId="388" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
+    <cellStyle name="Normal 14 20" xfId="389" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
+    <cellStyle name="Normal 14 20 2" xfId="390" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
+    <cellStyle name="Normal 14 21" xfId="391" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
+    <cellStyle name="Normal 14 21 2" xfId="392" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
+    <cellStyle name="Normal 14 22" xfId="393" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
+    <cellStyle name="Normal 14 22 2" xfId="394" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
+    <cellStyle name="Normal 14 23" xfId="395" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
+    <cellStyle name="Normal 14 3" xfId="396" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
+    <cellStyle name="Normal 14 3 2" xfId="397" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
+    <cellStyle name="Normal 14 4" xfId="398" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
+    <cellStyle name="Normal 14 4 2" xfId="399" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
+    <cellStyle name="Normal 14 5" xfId="400" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
+    <cellStyle name="Normal 14 5 2" xfId="401" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
+    <cellStyle name="Normal 14 6" xfId="402" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
+    <cellStyle name="Normal 14 6 2" xfId="403" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
+    <cellStyle name="Normal 14 7" xfId="404" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
+    <cellStyle name="Normal 14 7 2" xfId="405" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
+    <cellStyle name="Normal 14 8" xfId="406" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
+    <cellStyle name="Normal 14 8 2" xfId="407" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
+    <cellStyle name="Normal 14 9" xfId="408" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
+    <cellStyle name="Normal 14 9 2" xfId="409" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
+    <cellStyle name="Normal 140" xfId="410" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
+    <cellStyle name="Normal 141" xfId="411" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
+    <cellStyle name="Normal 142" xfId="412" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
+    <cellStyle name="Normal 143" xfId="413" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
+    <cellStyle name="Normal 144" xfId="414" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
+    <cellStyle name="Normal 145" xfId="415" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
+    <cellStyle name="Normal 146" xfId="416" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
+    <cellStyle name="Normal 147" xfId="417" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
+    <cellStyle name="Normal 148" xfId="418" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
+    <cellStyle name="Normal 149" xfId="419" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
+    <cellStyle name="Normal 15" xfId="420" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
+    <cellStyle name="Normal 15 10" xfId="421" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
+    <cellStyle name="Normal 15 10 2" xfId="422" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
+    <cellStyle name="Normal 15 11" xfId="423" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
+    <cellStyle name="Normal 15 11 2" xfId="424" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
+    <cellStyle name="Normal 15 12" xfId="425" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
+    <cellStyle name="Normal 15 12 2" xfId="426" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
+    <cellStyle name="Normal 15 13" xfId="427" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
+    <cellStyle name="Normal 15 13 2" xfId="428" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
+    <cellStyle name="Normal 15 14" xfId="429" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
+    <cellStyle name="Normal 15 14 2" xfId="430" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
+    <cellStyle name="Normal 15 15" xfId="431" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
+    <cellStyle name="Normal 15 15 2" xfId="432" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
+    <cellStyle name="Normal 15 16" xfId="433" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
+    <cellStyle name="Normal 15 16 2" xfId="434" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
+    <cellStyle name="Normal 15 17" xfId="435" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
+    <cellStyle name="Normal 15 17 2" xfId="436" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
+    <cellStyle name="Normal 15 18" xfId="437" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
+    <cellStyle name="Normal 15 18 2" xfId="438" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
+    <cellStyle name="Normal 15 19" xfId="439" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
+    <cellStyle name="Normal 15 19 2" xfId="440" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
+    <cellStyle name="Normal 15 2" xfId="441" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
+    <cellStyle name="Normal 15 2 2" xfId="442" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
+    <cellStyle name="Normal 15 20" xfId="443" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
+    <cellStyle name="Normal 15 20 2" xfId="444" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
+    <cellStyle name="Normal 15 21" xfId="445" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
+    <cellStyle name="Normal 15 21 2" xfId="446" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
+    <cellStyle name="Normal 15 22" xfId="447" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
+    <cellStyle name="Normal 15 22 2" xfId="448" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
+    <cellStyle name="Normal 15 23" xfId="449" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
+    <cellStyle name="Normal 15 3" xfId="450" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
+    <cellStyle name="Normal 15 3 2" xfId="451" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
+    <cellStyle name="Normal 15 4" xfId="452" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
+    <cellStyle name="Normal 15 4 2" xfId="453" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
+    <cellStyle name="Normal 15 5" xfId="454" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
+    <cellStyle name="Normal 15 5 2" xfId="455" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
+    <cellStyle name="Normal 15 6" xfId="456" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
+    <cellStyle name="Normal 15 6 2" xfId="457" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
+    <cellStyle name="Normal 15 7" xfId="458" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
+    <cellStyle name="Normal 15 7 2" xfId="459" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
+    <cellStyle name="Normal 15 8" xfId="460" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
+    <cellStyle name="Normal 15 8 2" xfId="461" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
+    <cellStyle name="Normal 15 9" xfId="462" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
+    <cellStyle name="Normal 15 9 2" xfId="463" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
+    <cellStyle name="Normal 150" xfId="464" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
+    <cellStyle name="Normal 151" xfId="465" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
+    <cellStyle name="Normal 152" xfId="466" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
+    <cellStyle name="Normal 153" xfId="467" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
+    <cellStyle name="Normal 154" xfId="468" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
+    <cellStyle name="Normal 155" xfId="469" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
+    <cellStyle name="Normal 156" xfId="470" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
+    <cellStyle name="Normal 157" xfId="471" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
+    <cellStyle name="Normal 158" xfId="472" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
+    <cellStyle name="Normal 159" xfId="473" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
+    <cellStyle name="Normal 16" xfId="474" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
+    <cellStyle name="Normal 16 10" xfId="475" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
+    <cellStyle name="Normal 16 10 2" xfId="476" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
+    <cellStyle name="Normal 16 11" xfId="477" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
+    <cellStyle name="Normal 16 11 2" xfId="478" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
+    <cellStyle name="Normal 16 12" xfId="479" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
+    <cellStyle name="Normal 16 12 2" xfId="480" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
+    <cellStyle name="Normal 16 13" xfId="481" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
+    <cellStyle name="Normal 16 13 2" xfId="482" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
+    <cellStyle name="Normal 16 14" xfId="483" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
+    <cellStyle name="Normal 16 14 2" xfId="484" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
+    <cellStyle name="Normal 16 15" xfId="485" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
+    <cellStyle name="Normal 16 15 2" xfId="486" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
+    <cellStyle name="Normal 16 16" xfId="487" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
+    <cellStyle name="Normal 16 16 2" xfId="488" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
+    <cellStyle name="Normal 16 17" xfId="489" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
+    <cellStyle name="Normal 16 17 2" xfId="490" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
+    <cellStyle name="Normal 16 18" xfId="491" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
+    <cellStyle name="Normal 16 18 2" xfId="492" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
+    <cellStyle name="Normal 16 19" xfId="493" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
+    <cellStyle name="Normal 16 19 2" xfId="494" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
+    <cellStyle name="Normal 16 2" xfId="495" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
+    <cellStyle name="Normal 16 2 2" xfId="496" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
+    <cellStyle name="Normal 16 20" xfId="497" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
+    <cellStyle name="Normal 16 20 2" xfId="498" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
+    <cellStyle name="Normal 16 21" xfId="499" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
+    <cellStyle name="Normal 16 21 2" xfId="500" xr:uid="{00000000-0005-0000-0000-0000FA010000}"/>
+    <cellStyle name="Normal 16 22" xfId="501" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
+    <cellStyle name="Normal 16 22 2" xfId="502" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
+    <cellStyle name="Normal 16 23" xfId="503" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
+    <cellStyle name="Normal 16 3" xfId="504" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
+    <cellStyle name="Normal 16 3 2" xfId="505" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
+    <cellStyle name="Normal 16 4" xfId="506" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
+    <cellStyle name="Normal 16 4 2" xfId="507" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
+    <cellStyle name="Normal 16 5" xfId="508" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
+    <cellStyle name="Normal 16 5 2" xfId="509" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
+    <cellStyle name="Normal 16 6" xfId="510" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
+    <cellStyle name="Normal 16 6 2" xfId="511" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
+    <cellStyle name="Normal 16 7" xfId="512" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
+    <cellStyle name="Normal 16 7 2" xfId="513" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
+    <cellStyle name="Normal 16 8" xfId="514" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
+    <cellStyle name="Normal 16 8 2" xfId="515" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
+    <cellStyle name="Normal 16 9" xfId="516" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
+    <cellStyle name="Normal 16 9 2" xfId="517" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
+    <cellStyle name="Normal 160" xfId="518" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
+    <cellStyle name="Normal 161" xfId="519" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
+    <cellStyle name="Normal 162" xfId="520" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
+    <cellStyle name="Normal 163" xfId="521" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
+    <cellStyle name="Normal 164" xfId="522" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
+    <cellStyle name="Normal 165" xfId="523" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
+    <cellStyle name="Normal 166" xfId="524" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
+    <cellStyle name="Normal 167" xfId="525" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
+    <cellStyle name="Normal 168" xfId="526" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
+    <cellStyle name="Normal 169" xfId="527" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
+    <cellStyle name="Normal 17" xfId="528" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
+    <cellStyle name="Normal 17 10" xfId="529" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
+    <cellStyle name="Normal 17 10 2" xfId="530" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
+    <cellStyle name="Normal 17 11" xfId="531" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
+    <cellStyle name="Normal 17 11 2" xfId="532" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
+    <cellStyle name="Normal 17 12" xfId="533" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
+    <cellStyle name="Normal 17 12 2" xfId="534" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
+    <cellStyle name="Normal 17 13" xfId="535" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
+    <cellStyle name="Normal 17 13 2" xfId="536" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
+    <cellStyle name="Normal 17 14" xfId="537" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
+    <cellStyle name="Normal 17 14 2" xfId="538" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
+    <cellStyle name="Normal 17 15" xfId="539" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
+    <cellStyle name="Normal 17 15 2" xfId="540" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
+    <cellStyle name="Normal 17 16" xfId="541" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
+    <cellStyle name="Normal 17 16 2" xfId="542" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
+    <cellStyle name="Normal 17 17" xfId="543" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
+    <cellStyle name="Normal 17 17 2" xfId="544" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
+    <cellStyle name="Normal 17 18" xfId="545" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
+    <cellStyle name="Normal 17 18 2" xfId="546" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
+    <cellStyle name="Normal 17 19" xfId="547" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
+    <cellStyle name="Normal 17 19 2" xfId="548" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
+    <cellStyle name="Normal 17 2" xfId="549" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
+    <cellStyle name="Normal 17 2 2" xfId="550" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
+    <cellStyle name="Normal 17 20" xfId="551" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
+    <cellStyle name="Normal 17 20 2" xfId="552" xr:uid="{00000000-0005-0000-0000-00002E020000}"/>
+    <cellStyle name="Normal 17 21" xfId="553" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
+    <cellStyle name="Normal 17 21 2" xfId="554" xr:uid="{00000000-0005-0000-0000-000030020000}"/>
+    <cellStyle name="Normal 17 22" xfId="555" xr:uid="{00000000-0005-0000-0000-000031020000}"/>
+    <cellStyle name="Normal 17 22 2" xfId="556" xr:uid="{00000000-0005-0000-0000-000032020000}"/>
+    <cellStyle name="Normal 17 23" xfId="557" xr:uid="{00000000-0005-0000-0000-000033020000}"/>
+    <cellStyle name="Normal 17 3" xfId="558" xr:uid="{00000000-0005-0000-0000-000034020000}"/>
+    <cellStyle name="Normal 17 3 2" xfId="559" xr:uid="{00000000-0005-0000-0000-000035020000}"/>
+    <cellStyle name="Normal 17 4" xfId="560" xr:uid="{00000000-0005-0000-0000-000036020000}"/>
+    <cellStyle name="Normal 17 4 2" xfId="561" xr:uid="{00000000-0005-0000-0000-000037020000}"/>
+    <cellStyle name="Normal 17 5" xfId="562" xr:uid="{00000000-0005-0000-0000-000038020000}"/>
+    <cellStyle name="Normal 17 5 2" xfId="563" xr:uid="{00000000-0005-0000-0000-000039020000}"/>
+    <cellStyle name="Normal 17 6" xfId="564" xr:uid="{00000000-0005-0000-0000-00003A020000}"/>
+    <cellStyle name="Normal 17 6 2" xfId="565" xr:uid="{00000000-0005-0000-0000-00003B020000}"/>
+    <cellStyle name="Normal 17 7" xfId="566" xr:uid="{00000000-0005-0000-0000-00003C020000}"/>
+    <cellStyle name="Normal 17 7 2" xfId="567" xr:uid="{00000000-0005-0000-0000-00003D020000}"/>
+    <cellStyle name="Normal 17 8" xfId="568" xr:uid="{00000000-0005-0000-0000-00003E020000}"/>
+    <cellStyle name="Normal 17 8 2" xfId="569" xr:uid="{00000000-0005-0000-0000-00003F020000}"/>
+    <cellStyle name="Normal 17 9" xfId="570" xr:uid="{00000000-0005-0000-0000-000040020000}"/>
+    <cellStyle name="Normal 17 9 2" xfId="571" xr:uid="{00000000-0005-0000-0000-000041020000}"/>
+    <cellStyle name="Normal 170" xfId="572" xr:uid="{00000000-0005-0000-0000-000042020000}"/>
+    <cellStyle name="Normal 171" xfId="573" xr:uid="{00000000-0005-0000-0000-000043020000}"/>
+    <cellStyle name="Normal 172" xfId="574" xr:uid="{00000000-0005-0000-0000-000044020000}"/>
+    <cellStyle name="Normal 173" xfId="575" xr:uid="{00000000-0005-0000-0000-000045020000}"/>
+    <cellStyle name="Normal 174" xfId="576" xr:uid="{00000000-0005-0000-0000-000046020000}"/>
+    <cellStyle name="Normal 175" xfId="577" xr:uid="{00000000-0005-0000-0000-000047020000}"/>
+    <cellStyle name="Normal 176" xfId="578" xr:uid="{00000000-0005-0000-0000-000048020000}"/>
+    <cellStyle name="Normal 177" xfId="579" xr:uid="{00000000-0005-0000-0000-000049020000}"/>
+    <cellStyle name="Normal 178" xfId="580" xr:uid="{00000000-0005-0000-0000-00004A020000}"/>
+    <cellStyle name="Normal 179" xfId="581" xr:uid="{00000000-0005-0000-0000-00004B020000}"/>
+    <cellStyle name="Normal 18" xfId="582" xr:uid="{00000000-0005-0000-0000-00004C020000}"/>
+    <cellStyle name="Normal 18 10" xfId="583" xr:uid="{00000000-0005-0000-0000-00004D020000}"/>
+    <cellStyle name="Normal 18 10 2" xfId="584" xr:uid="{00000000-0005-0000-0000-00004E020000}"/>
+    <cellStyle name="Normal 18 11" xfId="585" xr:uid="{00000000-0005-0000-0000-00004F020000}"/>
+    <cellStyle name="Normal 18 11 2" xfId="586" xr:uid="{00000000-0005-0000-0000-000050020000}"/>
+    <cellStyle name="Normal 18 12" xfId="587" xr:uid="{00000000-0005-0000-0000-000051020000}"/>
+    <cellStyle name="Normal 18 12 2" xfId="588" xr:uid="{00000000-0005-0000-0000-000052020000}"/>
+    <cellStyle name="Normal 18 13" xfId="589" xr:uid="{00000000-0005-0000-0000-000053020000}"/>
+    <cellStyle name="Normal 18 13 2" xfId="590" xr:uid="{00000000-0005-0000-0000-000054020000}"/>
+    <cellStyle name="Normal 18 14" xfId="591" xr:uid="{00000000-0005-0000-0000-000055020000}"/>
+    <cellStyle name="Normal 18 14 2" xfId="592" xr:uid="{00000000-0005-0000-0000-000056020000}"/>
+    <cellStyle name="Normal 18 15" xfId="593" xr:uid="{00000000-0005-0000-0000-000057020000}"/>
+    <cellStyle name="Normal 18 15 2" xfId="594" xr:uid="{00000000-0005-0000-0000-000058020000}"/>
+    <cellStyle name="Normal 18 16" xfId="595" xr:uid="{00000000-0005-0000-0000-000059020000}"/>
+    <cellStyle name="Normal 18 16 2" xfId="596" xr:uid="{00000000-0005-0000-0000-00005A020000}"/>
+    <cellStyle name="Normal 18 17" xfId="597" xr:uid="{00000000-0005-0000-0000-00005B020000}"/>
+    <cellStyle name="Normal 18 17 2" xfId="598" xr:uid="{00000000-0005-0000-0000-00005C020000}"/>
+    <cellStyle name="Normal 18 18" xfId="599" xr:uid="{00000000-0005-0000-0000-00005D020000}"/>
+    <cellStyle name="Normal 18 18 2" xfId="600" xr:uid="{00000000-0005-0000-0000-00005E020000}"/>
+    <cellStyle name="Normal 18 19" xfId="601" xr:uid="{00000000-0005-0000-0000-00005F020000}"/>
+    <cellStyle name="Normal 18 19 2" xfId="602" xr:uid="{00000000-0005-0000-0000-000060020000}"/>
+    <cellStyle name="Normal 18 2" xfId="603" xr:uid="{00000000-0005-0000-0000-000061020000}"/>
+    <cellStyle name="Normal 18 2 2" xfId="604" xr:uid="{00000000-0005-0000-0000-000062020000}"/>
+    <cellStyle name="Normal 18 20" xfId="605" xr:uid="{00000000-0005-0000-0000-000063020000}"/>
+    <cellStyle name="Normal 18 20 2" xfId="606" xr:uid="{00000000-0005-0000-0000-000064020000}"/>
+    <cellStyle name="Normal 18 21" xfId="607" xr:uid="{00000000-0005-0000-0000-000065020000}"/>
+    <cellStyle name="Normal 18 21 2" xfId="608" xr:uid="{00000000-0005-0000-0000-000066020000}"/>
+    <cellStyle name="Normal 18 22" xfId="609" xr:uid="{00000000-0005-0000-0000-000067020000}"/>
+    <cellStyle name="Normal 18 22 2" xfId="610" xr:uid="{00000000-0005-0000-0000-000068020000}"/>
+    <cellStyle name="Normal 18 23" xfId="611" xr:uid="{00000000-0005-0000-0000-000069020000}"/>
+    <cellStyle name="Normal 18 3" xfId="612" xr:uid="{00000000-0005-0000-0000-00006A020000}"/>
+    <cellStyle name="Normal 18 3 2" xfId="613" xr:uid="{00000000-0005-0000-0000-00006B020000}"/>
+    <cellStyle name="Normal 18 4" xfId="614" xr:uid="{00000000-0005-0000-0000-00006C020000}"/>
+    <cellStyle name="Normal 18 4 2" xfId="615" xr:uid="{00000000-0005-0000-0000-00006D020000}"/>
+    <cellStyle name="Normal 18 5" xfId="616" xr:uid="{00000000-0005-0000-0000-00006E020000}"/>
+    <cellStyle name="Normal 18 5 2" xfId="617" xr:uid="{00000000-0005-0000-0000-00006F020000}"/>
+    <cellStyle name="Normal 18 6" xfId="618" xr:uid="{00000000-0005-0000-0000-000070020000}"/>
+    <cellStyle name="Normal 18 6 2" xfId="619" xr:uid="{00000000-0005-0000-0000-000071020000}"/>
+    <cellStyle name="Normal 18 7" xfId="620" xr:uid="{00000000-0005-0000-0000-000072020000}"/>
+    <cellStyle name="Normal 18 7 2" xfId="621" xr:uid="{00000000-0005-0000-0000-000073020000}"/>
+    <cellStyle name="Normal 18 8" xfId="622" xr:uid="{00000000-0005-0000-0000-000074020000}"/>
+    <cellStyle name="Normal 18 8 2" xfId="623" xr:uid="{00000000-0005-0000-0000-000075020000}"/>
+    <cellStyle name="Normal 18 9" xfId="624" xr:uid="{00000000-0005-0000-0000-000076020000}"/>
+    <cellStyle name="Normal 18 9 2" xfId="625" xr:uid="{00000000-0005-0000-0000-000077020000}"/>
+    <cellStyle name="Normal 180" xfId="626" xr:uid="{00000000-0005-0000-0000-000078020000}"/>
+    <cellStyle name="Normal 181" xfId="627" xr:uid="{00000000-0005-0000-0000-000079020000}"/>
+    <cellStyle name="Normal 182" xfId="628" xr:uid="{00000000-0005-0000-0000-00007A020000}"/>
+    <cellStyle name="Normal 183" xfId="629" xr:uid="{00000000-0005-0000-0000-00007B020000}"/>
+    <cellStyle name="Normal 184" xfId="630" xr:uid="{00000000-0005-0000-0000-00007C020000}"/>
+    <cellStyle name="Normal 185" xfId="631" xr:uid="{00000000-0005-0000-0000-00007D020000}"/>
+    <cellStyle name="Normal 186" xfId="632" xr:uid="{00000000-0005-0000-0000-00007E020000}"/>
+    <cellStyle name="Normal 187" xfId="633" xr:uid="{00000000-0005-0000-0000-00007F020000}"/>
+    <cellStyle name="Normal 188" xfId="634" xr:uid="{00000000-0005-0000-0000-000080020000}"/>
+    <cellStyle name="Normal 189" xfId="635" xr:uid="{00000000-0005-0000-0000-000081020000}"/>
+    <cellStyle name="Normal 19" xfId="636" xr:uid="{00000000-0005-0000-0000-000082020000}"/>
+    <cellStyle name="Normal 190" xfId="637" xr:uid="{00000000-0005-0000-0000-000083020000}"/>
+    <cellStyle name="Normal 191" xfId="638" xr:uid="{00000000-0005-0000-0000-000084020000}"/>
+    <cellStyle name="Normal 192" xfId="639" xr:uid="{00000000-0005-0000-0000-000085020000}"/>
+    <cellStyle name="Normal 193" xfId="640" xr:uid="{00000000-0005-0000-0000-000086020000}"/>
+    <cellStyle name="Normal 194" xfId="641" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
+    <cellStyle name="Normal 195" xfId="642" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
+    <cellStyle name="Normal 196" xfId="643" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
+    <cellStyle name="Normal 197" xfId="644" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
+    <cellStyle name="Normal 198" xfId="645" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
+    <cellStyle name="Normal 199" xfId="646" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
+    <cellStyle name="Normal 2" xfId="647" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
+    <cellStyle name="Normal 2 2" xfId="648" xr:uid="{00000000-0005-0000-0000-00008E020000}"/>
+    <cellStyle name="Normal 2 2 10" xfId="649" xr:uid="{00000000-0005-0000-0000-00008F020000}"/>
+    <cellStyle name="Normal 2 2 10 2" xfId="650" xr:uid="{00000000-0005-0000-0000-000090020000}"/>
+    <cellStyle name="Normal 2 2 11" xfId="651" xr:uid="{00000000-0005-0000-0000-000091020000}"/>
+    <cellStyle name="Normal 2 2 11 2" xfId="652" xr:uid="{00000000-0005-0000-0000-000092020000}"/>
+    <cellStyle name="Normal 2 2 12" xfId="653" xr:uid="{00000000-0005-0000-0000-000093020000}"/>
+    <cellStyle name="Normal 2 2 12 2" xfId="654" xr:uid="{00000000-0005-0000-0000-000094020000}"/>
+    <cellStyle name="Normal 2 2 13" xfId="655" xr:uid="{00000000-0005-0000-0000-000095020000}"/>
+    <cellStyle name="Normal 2 2 13 2" xfId="656" xr:uid="{00000000-0005-0000-0000-000096020000}"/>
+    <cellStyle name="Normal 2 2 14" xfId="657" xr:uid="{00000000-0005-0000-0000-000097020000}"/>
+    <cellStyle name="Normal 2 2 14 2" xfId="658" xr:uid="{00000000-0005-0000-0000-000098020000}"/>
+    <cellStyle name="Normal 2 2 15" xfId="659" xr:uid="{00000000-0005-0000-0000-000099020000}"/>
+    <cellStyle name="Normal 2 2 15 2" xfId="660" xr:uid="{00000000-0005-0000-0000-00009A020000}"/>
+    <cellStyle name="Normal 2 2 16" xfId="661" xr:uid="{00000000-0005-0000-0000-00009B020000}"/>
+    <cellStyle name="Normal 2 2 16 2" xfId="662" xr:uid="{00000000-0005-0000-0000-00009C020000}"/>
+    <cellStyle name="Normal 2 2 17" xfId="663" xr:uid="{00000000-0005-0000-0000-00009D020000}"/>
+    <cellStyle name="Normal 2 2 17 2" xfId="664" xr:uid="{00000000-0005-0000-0000-00009E020000}"/>
+    <cellStyle name="Normal 2 2 18" xfId="665" xr:uid="{00000000-0005-0000-0000-00009F020000}"/>
+    <cellStyle name="Normal 2 2 18 2" xfId="666" xr:uid="{00000000-0005-0000-0000-0000A0020000}"/>
+    <cellStyle name="Normal 2 2 19" xfId="667" xr:uid="{00000000-0005-0000-0000-0000A1020000}"/>
+    <cellStyle name="Normal 2 2 19 2" xfId="668" xr:uid="{00000000-0005-0000-0000-0000A2020000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="669" xr:uid="{00000000-0005-0000-0000-0000A3020000}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="670" xr:uid="{00000000-0005-0000-0000-0000A4020000}"/>
+    <cellStyle name="Normal 2 2 20" xfId="671" xr:uid="{00000000-0005-0000-0000-0000A5020000}"/>
+    <cellStyle name="Normal 2 2 20 2" xfId="672" xr:uid="{00000000-0005-0000-0000-0000A6020000}"/>
+    <cellStyle name="Normal 2 2 21" xfId="673" xr:uid="{00000000-0005-0000-0000-0000A7020000}"/>
+    <cellStyle name="Normal 2 2 21 2" xfId="674" xr:uid="{00000000-0005-0000-0000-0000A8020000}"/>
+    <cellStyle name="Normal 2 2 22" xfId="675" xr:uid="{00000000-0005-0000-0000-0000A9020000}"/>
+    <cellStyle name="Normal 2 2 22 2" xfId="676" xr:uid="{00000000-0005-0000-0000-0000AA020000}"/>
+    <cellStyle name="Normal 2 2 23" xfId="677" xr:uid="{00000000-0005-0000-0000-0000AB020000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="678" xr:uid="{00000000-0005-0000-0000-0000AC020000}"/>
+    <cellStyle name="Normal 2 2 3 2" xfId="679" xr:uid="{00000000-0005-0000-0000-0000AD020000}"/>
+    <cellStyle name="Normal 2 2 4" xfId="680" xr:uid="{00000000-0005-0000-0000-0000AE020000}"/>
+    <cellStyle name="Normal 2 2 4 2" xfId="681" xr:uid="{00000000-0005-0000-0000-0000AF020000}"/>
+    <cellStyle name="Normal 2 2 5" xfId="682" xr:uid="{00000000-0005-0000-0000-0000B0020000}"/>
+    <cellStyle name="Normal 2 2 5 2" xfId="683" xr:uid="{00000000-0005-0000-0000-0000B1020000}"/>
+    <cellStyle name="Normal 2 2 6" xfId="684" xr:uid="{00000000-0005-0000-0000-0000B2020000}"/>
+    <cellStyle name="Normal 2 2 6 2" xfId="685" xr:uid="{00000000-0005-0000-0000-0000B3020000}"/>
+    <cellStyle name="Normal 2 2 7" xfId="686" xr:uid="{00000000-0005-0000-0000-0000B4020000}"/>
+    <cellStyle name="Normal 2 2 7 2" xfId="687" xr:uid="{00000000-0005-0000-0000-0000B5020000}"/>
+    <cellStyle name="Normal 2 2 8" xfId="688" xr:uid="{00000000-0005-0000-0000-0000B6020000}"/>
+    <cellStyle name="Normal 2 2 8 2" xfId="689" xr:uid="{00000000-0005-0000-0000-0000B7020000}"/>
+    <cellStyle name="Normal 2 2 9" xfId="690" xr:uid="{00000000-0005-0000-0000-0000B8020000}"/>
+    <cellStyle name="Normal 2 2 9 2" xfId="691" xr:uid="{00000000-0005-0000-0000-0000B9020000}"/>
+    <cellStyle name="Normal 2 3" xfId="692" xr:uid="{00000000-0005-0000-0000-0000BA020000}"/>
+    <cellStyle name="Normal 2 4" xfId="693" xr:uid="{00000000-0005-0000-0000-0000BB020000}"/>
+    <cellStyle name="Normal 2 4 2" xfId="694" xr:uid="{00000000-0005-0000-0000-0000BC020000}"/>
+    <cellStyle name="Normal 2 5" xfId="695" xr:uid="{00000000-0005-0000-0000-0000BD020000}"/>
+    <cellStyle name="Normal 2 5 2" xfId="696" xr:uid="{00000000-0005-0000-0000-0000BE020000}"/>
+    <cellStyle name="Normal 2 6" xfId="697" xr:uid="{00000000-0005-0000-0000-0000BF020000}"/>
+    <cellStyle name="Normal 2 6 2" xfId="698" xr:uid="{00000000-0005-0000-0000-0000C0020000}"/>
+    <cellStyle name="Normal 20" xfId="699" xr:uid="{00000000-0005-0000-0000-0000C1020000}"/>
+    <cellStyle name="Normal 20 10" xfId="700" xr:uid="{00000000-0005-0000-0000-0000C2020000}"/>
+    <cellStyle name="Normal 20 10 2" xfId="701" xr:uid="{00000000-0005-0000-0000-0000C3020000}"/>
+    <cellStyle name="Normal 20 11" xfId="702" xr:uid="{00000000-0005-0000-0000-0000C4020000}"/>
+    <cellStyle name="Normal 20 11 2" xfId="703" xr:uid="{00000000-0005-0000-0000-0000C5020000}"/>
+    <cellStyle name="Normal 20 12" xfId="704" xr:uid="{00000000-0005-0000-0000-0000C6020000}"/>
+    <cellStyle name="Normal 20 12 2" xfId="705" xr:uid="{00000000-0005-0000-0000-0000C7020000}"/>
+    <cellStyle name="Normal 20 13" xfId="706" xr:uid="{00000000-0005-0000-0000-0000C8020000}"/>
+    <cellStyle name="Normal 20 13 2" xfId="707" xr:uid="{00000000-0005-0000-0000-0000C9020000}"/>
+    <cellStyle name="Normal 20 14" xfId="708" xr:uid="{00000000-0005-0000-0000-0000CA020000}"/>
+    <cellStyle name="Normal 20 14 2" xfId="709" xr:uid="{00000000-0005-0000-0000-0000CB020000}"/>
+    <cellStyle name="Normal 20 15" xfId="710" xr:uid="{00000000-0005-0000-0000-0000CC020000}"/>
+    <cellStyle name="Normal 20 15 2" xfId="711" xr:uid="{00000000-0005-0000-0000-0000CD020000}"/>
+    <cellStyle name="Normal 20 16" xfId="712" xr:uid="{00000000-0005-0000-0000-0000CE020000}"/>
+    <cellStyle name="Normal 20 16 2" xfId="713" xr:uid="{00000000-0005-0000-0000-0000CF020000}"/>
+    <cellStyle name="Normal 20 17" xfId="714" xr:uid="{00000000-0005-0000-0000-0000D0020000}"/>
+    <cellStyle name="Normal 20 17 2" xfId="715" xr:uid="{00000000-0005-0000-0000-0000D1020000}"/>
+    <cellStyle name="Normal 20 18" xfId="716" xr:uid="{00000000-0005-0000-0000-0000D2020000}"/>
+    <cellStyle name="Normal 20 18 2" xfId="717" xr:uid="{00000000-0005-0000-0000-0000D3020000}"/>
+    <cellStyle name="Normal 20 19" xfId="718" xr:uid="{00000000-0005-0000-0000-0000D4020000}"/>
+    <cellStyle name="Normal 20 19 2" xfId="719" xr:uid="{00000000-0005-0000-0000-0000D5020000}"/>
+    <cellStyle name="Normal 20 2" xfId="720" xr:uid="{00000000-0005-0000-0000-0000D6020000}"/>
+    <cellStyle name="Normal 20 2 2" xfId="721" xr:uid="{00000000-0005-0000-0000-0000D7020000}"/>
+    <cellStyle name="Normal 20 20" xfId="722" xr:uid="{00000000-0005-0000-0000-0000D8020000}"/>
+    <cellStyle name="Normal 20 20 2" xfId="723" xr:uid="{00000000-0005-0000-0000-0000D9020000}"/>
+    <cellStyle name="Normal 20 21" xfId="724" xr:uid="{00000000-0005-0000-0000-0000DA020000}"/>
+    <cellStyle name="Normal 20 21 2" xfId="725" xr:uid="{00000000-0005-0000-0000-0000DB020000}"/>
+    <cellStyle name="Normal 20 22" xfId="726" xr:uid="{00000000-0005-0000-0000-0000DC020000}"/>
+    <cellStyle name="Normal 20 22 2" xfId="727" xr:uid="{00000000-0005-0000-0000-0000DD020000}"/>
+    <cellStyle name="Normal 20 23" xfId="728" xr:uid="{00000000-0005-0000-0000-0000DE020000}"/>
+    <cellStyle name="Normal 20 3" xfId="729" xr:uid="{00000000-0005-0000-0000-0000DF020000}"/>
+    <cellStyle name="Normal 20 3 2" xfId="730" xr:uid="{00000000-0005-0000-0000-0000E0020000}"/>
+    <cellStyle name="Normal 20 4" xfId="731" xr:uid="{00000000-0005-0000-0000-0000E1020000}"/>
+    <cellStyle name="Normal 20 4 2" xfId="732" xr:uid="{00000000-0005-0000-0000-0000E2020000}"/>
+    <cellStyle name="Normal 20 5" xfId="733" xr:uid="{00000000-0005-0000-0000-0000E3020000}"/>
+    <cellStyle name="Normal 20 5 2" xfId="734" xr:uid="{00000000-0005-0000-0000-0000E4020000}"/>
+    <cellStyle name="Normal 20 6" xfId="735" xr:uid="{00000000-0005-0000-0000-0000E5020000}"/>
+    <cellStyle name="Normal 20 6 2" xfId="736" xr:uid="{00000000-0005-0000-0000-0000E6020000}"/>
+    <cellStyle name="Normal 20 7" xfId="737" xr:uid="{00000000-0005-0000-0000-0000E7020000}"/>
+    <cellStyle name="Normal 20 7 2" xfId="738" xr:uid="{00000000-0005-0000-0000-0000E8020000}"/>
+    <cellStyle name="Normal 20 8" xfId="739" xr:uid="{00000000-0005-0000-0000-0000E9020000}"/>
+    <cellStyle name="Normal 20 8 2" xfId="740" xr:uid="{00000000-0005-0000-0000-0000EA020000}"/>
+    <cellStyle name="Normal 20 9" xfId="741" xr:uid="{00000000-0005-0000-0000-0000EB020000}"/>
+    <cellStyle name="Normal 20 9 2" xfId="742" xr:uid="{00000000-0005-0000-0000-0000EC020000}"/>
+    <cellStyle name="Normal 200" xfId="743" xr:uid="{00000000-0005-0000-0000-0000ED020000}"/>
+    <cellStyle name="Normal 201" xfId="744" xr:uid="{00000000-0005-0000-0000-0000EE020000}"/>
+    <cellStyle name="Normal 202" xfId="745" xr:uid="{00000000-0005-0000-0000-0000EF020000}"/>
+    <cellStyle name="Normal 203" xfId="746" xr:uid="{00000000-0005-0000-0000-0000F0020000}"/>
+    <cellStyle name="Normal 204" xfId="747" xr:uid="{00000000-0005-0000-0000-0000F1020000}"/>
+    <cellStyle name="Normal 205" xfId="748" xr:uid="{00000000-0005-0000-0000-0000F2020000}"/>
+    <cellStyle name="Normal 206" xfId="749" xr:uid="{00000000-0005-0000-0000-0000F3020000}"/>
+    <cellStyle name="Normal 207" xfId="750" xr:uid="{00000000-0005-0000-0000-0000F4020000}"/>
+    <cellStyle name="Normal 208" xfId="751" xr:uid="{00000000-0005-0000-0000-0000F5020000}"/>
+    <cellStyle name="Normal 209" xfId="752" xr:uid="{00000000-0005-0000-0000-0000F6020000}"/>
+    <cellStyle name="Normal 21" xfId="753" xr:uid="{00000000-0005-0000-0000-0000F7020000}"/>
+    <cellStyle name="Normal 21 10" xfId="754" xr:uid="{00000000-0005-0000-0000-0000F8020000}"/>
+    <cellStyle name="Normal 21 10 2" xfId="755" xr:uid="{00000000-0005-0000-0000-0000F9020000}"/>
+    <cellStyle name="Normal 21 11" xfId="756" xr:uid="{00000000-0005-0000-0000-0000FA020000}"/>
+    <cellStyle name="Normal 21 11 2" xfId="757" xr:uid="{00000000-0005-0000-0000-0000FB020000}"/>
+    <cellStyle name="Normal 21 12" xfId="758" xr:uid="{00000000-0005-0000-0000-0000FC020000}"/>
+    <cellStyle name="Normal 21 12 2" xfId="759" xr:uid="{00000000-0005-0000-0000-0000FD020000}"/>
+    <cellStyle name="Normal 21 13" xfId="760" xr:uid="{00000000-0005-0000-0000-0000FE020000}"/>
+    <cellStyle name="Normal 21 13 2" xfId="761" xr:uid="{00000000-0005-0000-0000-0000FF020000}"/>
+    <cellStyle name="Normal 21 14" xfId="762" xr:uid="{00000000-0005-0000-0000-000000030000}"/>
+    <cellStyle name="Normal 21 14 2" xfId="763" xr:uid="{00000000-0005-0000-0000-000001030000}"/>
+    <cellStyle name="Normal 21 15" xfId="764" xr:uid="{00000000-0005-0000-0000-000002030000}"/>
+    <cellStyle name="Normal 21 15 2" xfId="765" xr:uid="{00000000-0005-0000-0000-000003030000}"/>
+    <cellStyle name="Normal 21 16" xfId="766" xr:uid="{00000000-0005-0000-0000-000004030000}"/>
+    <cellStyle name="Normal 21 16 2" xfId="767" xr:uid="{00000000-0005-0000-0000-000005030000}"/>
+    <cellStyle name="Normal 21 17" xfId="768" xr:uid="{00000000-0005-0000-0000-000006030000}"/>
+    <cellStyle name="Normal 21 17 2" xfId="769" xr:uid="{00000000-0005-0000-0000-000007030000}"/>
+    <cellStyle name="Normal 21 18" xfId="770" xr:uid="{00000000-0005-0000-0000-000008030000}"/>
+    <cellStyle name="Normal 21 18 2" xfId="771" xr:uid="{00000000-0005-0000-0000-000009030000}"/>
+    <cellStyle name="Normal 21 19" xfId="772" xr:uid="{00000000-0005-0000-0000-00000A030000}"/>
+    <cellStyle name="Normal 21 19 2" xfId="773" xr:uid="{00000000-0005-0000-0000-00000B030000}"/>
+    <cellStyle name="Normal 21 2" xfId="774" xr:uid="{00000000-0005-0000-0000-00000C030000}"/>
+    <cellStyle name="Normal 21 2 2" xfId="775" xr:uid="{00000000-0005-0000-0000-00000D030000}"/>
+    <cellStyle name="Normal 21 20" xfId="776" xr:uid="{00000000-0005-0000-0000-00000E030000}"/>
+    <cellStyle name="Normal 21 20 2" xfId="777" xr:uid="{00000000-0005-0000-0000-00000F030000}"/>
+    <cellStyle name="Normal 21 21" xfId="778" xr:uid="{00000000-0005-0000-0000-000010030000}"/>
+    <cellStyle name="Normal 21 21 2" xfId="779" xr:uid="{00000000-0005-0000-0000-000011030000}"/>
+    <cellStyle name="Normal 21 22" xfId="780" xr:uid="{00000000-0005-0000-0000-000012030000}"/>
+    <cellStyle name="Normal 21 22 2" xfId="781" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
+    <cellStyle name="Normal 21 23" xfId="782" xr:uid="{00000000-0005-0000-0000-000014030000}"/>
+    <cellStyle name="Normal 21 3" xfId="783" xr:uid="{00000000-0005-0000-0000-000015030000}"/>
+    <cellStyle name="Normal 21 3 2" xfId="784" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
+    <cellStyle name="Normal 21 4" xfId="785" xr:uid="{00000000-0005-0000-0000-000017030000}"/>
+    <cellStyle name="Normal 21 4 2" xfId="786" xr:uid="{00000000-0005-0000-0000-000018030000}"/>
+    <cellStyle name="Normal 21 5" xfId="787" xr:uid="{00000000-0005-0000-0000-000019030000}"/>
+    <cellStyle name="Normal 21 5 2" xfId="788" xr:uid="{00000000-0005-0000-0000-00001A030000}"/>
+    <cellStyle name="Normal 21 6" xfId="789" xr:uid="{00000000-0005-0000-0000-00001B030000}"/>
+    <cellStyle name="Normal 21 6 2" xfId="790" xr:uid="{00000000-0005-0000-0000-00001C030000}"/>
+    <cellStyle name="Normal 21 7" xfId="791" xr:uid="{00000000-0005-0000-0000-00001D030000}"/>
+    <cellStyle name="Normal 21 7 2" xfId="792" xr:uid="{00000000-0005-0000-0000-00001E030000}"/>
+    <cellStyle name="Normal 21 8" xfId="793" xr:uid="{00000000-0005-0000-0000-00001F030000}"/>
+    <cellStyle name="Normal 21 8 2" xfId="794" xr:uid="{00000000-0005-0000-0000-000020030000}"/>
+    <cellStyle name="Normal 21 9" xfId="795" xr:uid="{00000000-0005-0000-0000-000021030000}"/>
+    <cellStyle name="Normal 21 9 2" xfId="796" xr:uid="{00000000-0005-0000-0000-000022030000}"/>
+    <cellStyle name="Normal 210" xfId="797" xr:uid="{00000000-0005-0000-0000-000023030000}"/>
+    <cellStyle name="Normal 211" xfId="798" xr:uid="{00000000-0005-0000-0000-000024030000}"/>
+    <cellStyle name="Normal 212" xfId="799" xr:uid="{00000000-0005-0000-0000-000025030000}"/>
+    <cellStyle name="Normal 213" xfId="800" xr:uid="{00000000-0005-0000-0000-000026030000}"/>
+    <cellStyle name="Normal 214" xfId="801" xr:uid="{00000000-0005-0000-0000-000027030000}"/>
+    <cellStyle name="Normal 215" xfId="802" xr:uid="{00000000-0005-0000-0000-000028030000}"/>
+    <cellStyle name="Normal 216" xfId="803" xr:uid="{00000000-0005-0000-0000-000029030000}"/>
+    <cellStyle name="Normal 217" xfId="804" xr:uid="{00000000-0005-0000-0000-00002A030000}"/>
+    <cellStyle name="Normal 218" xfId="805" xr:uid="{00000000-0005-0000-0000-00002B030000}"/>
+    <cellStyle name="Normal 219" xfId="806" xr:uid="{00000000-0005-0000-0000-00002C030000}"/>
+    <cellStyle name="Normal 22" xfId="807" xr:uid="{00000000-0005-0000-0000-00002D030000}"/>
+    <cellStyle name="Normal 22 10" xfId="808" xr:uid="{00000000-0005-0000-0000-00002E030000}"/>
+    <cellStyle name="Normal 22 10 2" xfId="809" xr:uid="{00000000-0005-0000-0000-00002F030000}"/>
+    <cellStyle name="Normal 22 11" xfId="810" xr:uid="{00000000-0005-0000-0000-000030030000}"/>
+    <cellStyle name="Normal 22 11 2" xfId="811" xr:uid="{00000000-0005-0000-0000-000031030000}"/>
+    <cellStyle name="Normal 22 12" xfId="812" xr:uid="{00000000-0005-0000-0000-000032030000}"/>
+    <cellStyle name="Normal 22 12 2" xfId="813" xr:uid="{00000000-0005-0000-0000-000033030000}"/>
+    <cellStyle name="Normal 22 13" xfId="814" xr:uid="{00000000-0005-0000-0000-000034030000}"/>
+    <cellStyle name="Normal 22 13 2" xfId="815" xr:uid="{00000000-0005-0000-0000-000035030000}"/>
+    <cellStyle name="Normal 22 14" xfId="816" xr:uid="{00000000-0005-0000-0000-000036030000}"/>
+    <cellStyle name="Normal 22 14 2" xfId="817" xr:uid="{00000000-0005-0000-0000-000037030000}"/>
+    <cellStyle name="Normal 22 15" xfId="818" xr:uid="{00000000-0005-0000-0000-000038030000}"/>
+    <cellStyle name="Normal 22 15 2" xfId="819" xr:uid="{00000000-0005-0000-0000-000039030000}"/>
+    <cellStyle name="Normal 22 16" xfId="820" xr:uid="{00000000-0005-0000-0000-00003A030000}"/>
+    <cellStyle name="Normal 22 16 2" xfId="821" xr:uid="{00000000-0005-0000-0000-00003B030000}"/>
+    <cellStyle name="Normal 22 17" xfId="822" xr:uid="{00000000-0005-0000-0000-00003C030000}"/>
+    <cellStyle name="Normal 22 17 2" xfId="823" xr:uid="{00000000-0005-0000-0000-00003D030000}"/>
+    <cellStyle name="Normal 22 18" xfId="824" xr:uid="{00000000-0005-0000-0000-00003E030000}"/>
+    <cellStyle name="Normal 22 18 2" xfId="825" xr:uid="{00000000-0005-0000-0000-00003F030000}"/>
+    <cellStyle name="Normal 22 19" xfId="826" xr:uid="{00000000-0005-0000-0000-000040030000}"/>
+    <cellStyle name="Normal 22 19 2" xfId="827" xr:uid="{00000000-0005-0000-0000-000041030000}"/>
+    <cellStyle name="Normal 22 2" xfId="828" xr:uid="{00000000-0005-0000-0000-000042030000}"/>
+    <cellStyle name="Normal 22 2 2" xfId="829" xr:uid="{00000000-0005-0000-0000-000043030000}"/>
+    <cellStyle name="Normal 22 20" xfId="830" xr:uid="{00000000-0005-0000-0000-000044030000}"/>
+    <cellStyle name="Normal 22 20 2" xfId="831" xr:uid="{00000000-0005-0000-0000-000045030000}"/>
+    <cellStyle name="Normal 22 21" xfId="832" xr:uid="{00000000-0005-0000-0000-000046030000}"/>
+    <cellStyle name="Normal 22 21 2" xfId="833" xr:uid="{00000000-0005-0000-0000-000047030000}"/>
+    <cellStyle name="Normal 22 22" xfId="834" xr:uid="{00000000-0005-0000-0000-000048030000}"/>
+    <cellStyle name="Normal 22 22 2" xfId="835" xr:uid="{00000000-0005-0000-0000-000049030000}"/>
+    <cellStyle name="Normal 22 23" xfId="836" xr:uid="{00000000-0005-0000-0000-00004A030000}"/>
+    <cellStyle name="Normal 22 3" xfId="837" xr:uid="{00000000-0005-0000-0000-00004B030000}"/>
+    <cellStyle name="Normal 22 3 2" xfId="838" xr:uid="{00000000-0005-0000-0000-00004C030000}"/>
+    <cellStyle name="Normal 22 4" xfId="839" xr:uid="{00000000-0005-0000-0000-00004D030000}"/>
+    <cellStyle name="Normal 22 4 2" xfId="840" xr:uid="{00000000-0005-0000-0000-00004E030000}"/>
+    <cellStyle name="Normal 22 5" xfId="841" xr:uid="{00000000-0005-0000-0000-00004F030000}"/>
+    <cellStyle name="Normal 22 5 2" xfId="842" xr:uid="{00000000-0005-0000-0000-000050030000}"/>
+    <cellStyle name="Normal 22 6" xfId="843" xr:uid="{00000000-0005-0000-0000-000051030000}"/>
+    <cellStyle name="Normal 22 6 2" xfId="844" xr:uid="{00000000-0005-0000-0000-000052030000}"/>
+    <cellStyle name="Normal 22 7" xfId="845" xr:uid="{00000000-0005-0000-0000-000053030000}"/>
+    <cellStyle name="Normal 22 7 2" xfId="846" xr:uid="{00000000-0005-0000-0000-000054030000}"/>
+    <cellStyle name="Normal 22 8" xfId="847" xr:uid="{00000000-0005-0000-0000-000055030000}"/>
+    <cellStyle name="Normal 22 8 2" xfId="848" xr:uid="{00000000-0005-0000-0000-000056030000}"/>
+    <cellStyle name="Normal 22 9" xfId="849" xr:uid="{00000000-0005-0000-0000-000057030000}"/>
+    <cellStyle name="Normal 22 9 2" xfId="850" xr:uid="{00000000-0005-0000-0000-000058030000}"/>
+    <cellStyle name="Normal 220" xfId="851" xr:uid="{00000000-0005-0000-0000-000059030000}"/>
+    <cellStyle name="Normal 221" xfId="852" xr:uid="{00000000-0005-0000-0000-00005A030000}"/>
+    <cellStyle name="Normal 222" xfId="853" xr:uid="{00000000-0005-0000-0000-00005B030000}"/>
+    <cellStyle name="Normal 223" xfId="854" xr:uid="{00000000-0005-0000-0000-00005C030000}"/>
+    <cellStyle name="Normal 224" xfId="855" xr:uid="{00000000-0005-0000-0000-00005D030000}"/>
+    <cellStyle name="Normal 225" xfId="856" xr:uid="{00000000-0005-0000-0000-00005E030000}"/>
+    <cellStyle name="Normal 226" xfId="857" xr:uid="{00000000-0005-0000-0000-00005F030000}"/>
+    <cellStyle name="Normal 227" xfId="858" xr:uid="{00000000-0005-0000-0000-000060030000}"/>
+    <cellStyle name="Normal 228" xfId="859" xr:uid="{00000000-0005-0000-0000-000061030000}"/>
+    <cellStyle name="Normal 229" xfId="860" xr:uid="{00000000-0005-0000-0000-000062030000}"/>
+    <cellStyle name="Normal 23" xfId="861" xr:uid="{00000000-0005-0000-0000-000063030000}"/>
+    <cellStyle name="Normal 23 10" xfId="862" xr:uid="{00000000-0005-0000-0000-000064030000}"/>
+    <cellStyle name="Normal 23 10 2" xfId="863" xr:uid="{00000000-0005-0000-0000-000065030000}"/>
+    <cellStyle name="Normal 23 11" xfId="864" xr:uid="{00000000-0005-0000-0000-000066030000}"/>
+    <cellStyle name="Normal 23 11 2" xfId="865" xr:uid="{00000000-0005-0000-0000-000067030000}"/>
+    <cellStyle name="Normal 23 12" xfId="866" xr:uid="{00000000-0005-0000-0000-000068030000}"/>
+    <cellStyle name="Normal 23 12 2" xfId="867" xr:uid="{00000000-0005-0000-0000-000069030000}"/>
+    <cellStyle name="Normal 23 13" xfId="868" xr:uid="{00000000-0005-0000-0000-00006A030000}"/>
+    <cellStyle name="Normal 23 13 2" xfId="869" xr:uid="{00000000-0005-0000-0000-00006B030000}"/>
+    <cellStyle name="Normal 23 14" xfId="870" xr:uid="{00000000-0005-0000-0000-00006C030000}"/>
+    <cellStyle name="Normal 23 14 2" xfId="871" xr:uid="{00000000-0005-0000-0000-00006D030000}"/>
+    <cellStyle name="Normal 23 15" xfId="872" xr:uid="{00000000-0005-0000-0000-00006E030000}"/>
+    <cellStyle name="Normal 23 15 2" xfId="873" xr:uid="{00000000-0005-0000-0000-00006F030000}"/>
+    <cellStyle name="Normal 23 16" xfId="874" xr:uid="{00000000-0005-0000-0000-000070030000}"/>
+    <cellStyle name="Normal 23 16 2" xfId="875" xr:uid="{00000000-0005-0000-0000-000071030000}"/>
+    <cellStyle name="Normal 23 17" xfId="876" xr:uid="{00000000-0005-0000-0000-000072030000}"/>
+    <cellStyle name="Normal 23 17 2" xfId="877" xr:uid="{00000000-0005-0000-0000-000073030000}"/>
+    <cellStyle name="Normal 23 18" xfId="878" xr:uid="{00000000-0005-0000-0000-000074030000}"/>
+    <cellStyle name="Normal 23 18 2" xfId="879" xr:uid="{00000000-0005-0000-0000-000075030000}"/>
+    <cellStyle name="Normal 23 19" xfId="880" xr:uid="{00000000-0005-0000-0000-000076030000}"/>
+    <cellStyle name="Normal 23 19 2" xfId="881" xr:uid="{00000000-0005-0000-0000-000077030000}"/>
+    <cellStyle name="Normal 23 2" xfId="882" xr:uid="{00000000-0005-0000-0000-000078030000}"/>
+    <cellStyle name="Normal 23 2 2" xfId="883" xr:uid="{00000000-0005-0000-0000-000079030000}"/>
+    <cellStyle name="Normal 23 20" xfId="884" xr:uid="{00000000-0005-0000-0000-00007A030000}"/>
+    <cellStyle name="Normal 23 20 2" xfId="885" xr:uid="{00000000-0005-0000-0000-00007B030000}"/>
+    <cellStyle name="Normal 23 21" xfId="886" xr:uid="{00000000-0005-0000-0000-00007C030000}"/>
+    <cellStyle name="Normal 23 21 2" xfId="887" xr:uid="{00000000-0005-0000-0000-00007D030000}"/>
+    <cellStyle name="Normal 23 22" xfId="888" xr:uid="{00000000-0005-0000-0000-00007E030000}"/>
+    <cellStyle name="Normal 23 22 2" xfId="889" xr:uid="{00000000-0005-0000-0000-00007F030000}"/>
+    <cellStyle name="Normal 23 23" xfId="890" xr:uid="{00000000-0005-0000-0000-000080030000}"/>
+    <cellStyle name="Normal 23 3" xfId="891" xr:uid="{00000000-0005-0000-0000-000081030000}"/>
+    <cellStyle name="Normal 23 3 2" xfId="892" xr:uid="{00000000-0005-0000-0000-000082030000}"/>
+    <cellStyle name="Normal 23 4" xfId="893" xr:uid="{00000000-0005-0000-0000-000083030000}"/>
+    <cellStyle name="Normal 23 4 2" xfId="894" xr:uid="{00000000-0005-0000-0000-000084030000}"/>
+    <cellStyle name="Normal 23 5" xfId="895" xr:uid="{00000000-0005-0000-0000-000085030000}"/>
+    <cellStyle name="Normal 23 5 2" xfId="896" xr:uid="{00000000-0005-0000-0000-000086030000}"/>
+    <cellStyle name="Normal 23 6" xfId="897" xr:uid="{00000000-0005-0000-0000-000087030000}"/>
+    <cellStyle name="Normal 23 6 2" xfId="898" xr:uid="{00000000-0005-0000-0000-000088030000}"/>
+    <cellStyle name="Normal 23 7" xfId="899" xr:uid="{00000000-0005-0000-0000-000089030000}"/>
+    <cellStyle name="Normal 23 7 2" xfId="900" xr:uid="{00000000-0005-0000-0000-00008A030000}"/>
+    <cellStyle name="Normal 23 8" xfId="901" xr:uid="{00000000-0005-0000-0000-00008B030000}"/>
+    <cellStyle name="Normal 23 8 2" xfId="902" xr:uid="{00000000-0005-0000-0000-00008C030000}"/>
+    <cellStyle name="Normal 23 9" xfId="903" xr:uid="{00000000-0005-0000-0000-00008D030000}"/>
+    <cellStyle name="Normal 23 9 2" xfId="904" xr:uid="{00000000-0005-0000-0000-00008E030000}"/>
+    <cellStyle name="Normal 230" xfId="905" xr:uid="{00000000-0005-0000-0000-00008F030000}"/>
+    <cellStyle name="Normal 231" xfId="906" xr:uid="{00000000-0005-0000-0000-000090030000}"/>
+    <cellStyle name="Normal 232" xfId="907" xr:uid="{00000000-0005-0000-0000-000091030000}"/>
+    <cellStyle name="Normal 233" xfId="908" xr:uid="{00000000-0005-0000-0000-000092030000}"/>
+    <cellStyle name="Normal 234" xfId="909" xr:uid="{00000000-0005-0000-0000-000093030000}"/>
+    <cellStyle name="Normal 235" xfId="910" xr:uid="{00000000-0005-0000-0000-000094030000}"/>
+    <cellStyle name="Normal 236" xfId="911" xr:uid="{00000000-0005-0000-0000-000095030000}"/>
+    <cellStyle name="Normal 237" xfId="912" xr:uid="{00000000-0005-0000-0000-000096030000}"/>
+    <cellStyle name="Normal 238" xfId="913" xr:uid="{00000000-0005-0000-0000-000097030000}"/>
+    <cellStyle name="Normal 239" xfId="914" xr:uid="{00000000-0005-0000-0000-000098030000}"/>
+    <cellStyle name="Normal 24" xfId="915" xr:uid="{00000000-0005-0000-0000-000099030000}"/>
+    <cellStyle name="Normal 240" xfId="916" xr:uid="{00000000-0005-0000-0000-00009A030000}"/>
+    <cellStyle name="Normal 241" xfId="917" xr:uid="{00000000-0005-0000-0000-00009B030000}"/>
+    <cellStyle name="Normal 242" xfId="918" xr:uid="{00000000-0005-0000-0000-00009C030000}"/>
+    <cellStyle name="Normal 243" xfId="919" xr:uid="{00000000-0005-0000-0000-00009D030000}"/>
+    <cellStyle name="Normal 244" xfId="920" xr:uid="{00000000-0005-0000-0000-00009E030000}"/>
+    <cellStyle name="Normal 245" xfId="921" xr:uid="{00000000-0005-0000-0000-00009F030000}"/>
+    <cellStyle name="Normal 246" xfId="922" xr:uid="{00000000-0005-0000-0000-0000A0030000}"/>
+    <cellStyle name="Normal 247" xfId="923" xr:uid="{00000000-0005-0000-0000-0000A1030000}"/>
+    <cellStyle name="Normal 248" xfId="924" xr:uid="{00000000-0005-0000-0000-0000A2030000}"/>
+    <cellStyle name="Normal 249" xfId="925" xr:uid="{00000000-0005-0000-0000-0000A3030000}"/>
+    <cellStyle name="Normal 25" xfId="926" xr:uid="{00000000-0005-0000-0000-0000A4030000}"/>
+    <cellStyle name="Normal 250" xfId="927" xr:uid="{00000000-0005-0000-0000-0000A5030000}"/>
+    <cellStyle name="Normal 251" xfId="928" xr:uid="{00000000-0005-0000-0000-0000A6030000}"/>
+    <cellStyle name="Normal 252" xfId="929" xr:uid="{00000000-0005-0000-0000-0000A7030000}"/>
+    <cellStyle name="Normal 253" xfId="930" xr:uid="{00000000-0005-0000-0000-0000A8030000}"/>
+    <cellStyle name="Normal 254" xfId="931" xr:uid="{00000000-0005-0000-0000-0000A9030000}"/>
+    <cellStyle name="Normal 255" xfId="932" xr:uid="{00000000-0005-0000-0000-0000AA030000}"/>
+    <cellStyle name="Normal 256" xfId="933" xr:uid="{00000000-0005-0000-0000-0000AB030000}"/>
+    <cellStyle name="Normal 257" xfId="934" xr:uid="{00000000-0005-0000-0000-0000AC030000}"/>
+    <cellStyle name="Normal 258" xfId="935" xr:uid="{00000000-0005-0000-0000-0000AD030000}"/>
+    <cellStyle name="Normal 259" xfId="936" xr:uid="{00000000-0005-0000-0000-0000AE030000}"/>
+    <cellStyle name="Normal 26" xfId="937" xr:uid="{00000000-0005-0000-0000-0000AF030000}"/>
+    <cellStyle name="Normal 260" xfId="938" xr:uid="{00000000-0005-0000-0000-0000B0030000}"/>
+    <cellStyle name="Normal 261" xfId="939" xr:uid="{00000000-0005-0000-0000-0000B1030000}"/>
+    <cellStyle name="Normal 262" xfId="940" xr:uid="{00000000-0005-0000-0000-0000B2030000}"/>
+    <cellStyle name="Normal 263" xfId="941" xr:uid="{00000000-0005-0000-0000-0000B3030000}"/>
+    <cellStyle name="Normal 264" xfId="942" xr:uid="{00000000-0005-0000-0000-0000B4030000}"/>
+    <cellStyle name="Normal 265" xfId="943" xr:uid="{00000000-0005-0000-0000-0000B5030000}"/>
+    <cellStyle name="Normal 266" xfId="944" xr:uid="{00000000-0005-0000-0000-0000B6030000}"/>
+    <cellStyle name="Normal 267" xfId="945" xr:uid="{00000000-0005-0000-0000-0000B7030000}"/>
+    <cellStyle name="Normal 268" xfId="946" xr:uid="{00000000-0005-0000-0000-0000B8030000}"/>
+    <cellStyle name="Normal 269" xfId="947" xr:uid="{00000000-0005-0000-0000-0000B9030000}"/>
+    <cellStyle name="Normal 27" xfId="948" xr:uid="{00000000-0005-0000-0000-0000BA030000}"/>
+    <cellStyle name="Normal 270" xfId="949" xr:uid="{00000000-0005-0000-0000-0000BB030000}"/>
+    <cellStyle name="Normal 271" xfId="950" xr:uid="{00000000-0005-0000-0000-0000BC030000}"/>
+    <cellStyle name="Normal 272" xfId="951" xr:uid="{00000000-0005-0000-0000-0000BD030000}"/>
+    <cellStyle name="Normal 273" xfId="952" xr:uid="{00000000-0005-0000-0000-0000BE030000}"/>
+    <cellStyle name="Normal 274" xfId="953" xr:uid="{00000000-0005-0000-0000-0000BF030000}"/>
+    <cellStyle name="Normal 275" xfId="954" xr:uid="{00000000-0005-0000-0000-0000C0030000}"/>
+    <cellStyle name="Normal 276" xfId="955" xr:uid="{00000000-0005-0000-0000-0000C1030000}"/>
+    <cellStyle name="Normal 277" xfId="956" xr:uid="{00000000-0005-0000-0000-0000C2030000}"/>
+    <cellStyle name="Normal 278" xfId="957" xr:uid="{00000000-0005-0000-0000-0000C3030000}"/>
+    <cellStyle name="Normal 279" xfId="958" xr:uid="{00000000-0005-0000-0000-0000C4030000}"/>
+    <cellStyle name="Normal 28" xfId="959" xr:uid="{00000000-0005-0000-0000-0000C5030000}"/>
+    <cellStyle name="Normal 280" xfId="960" xr:uid="{00000000-0005-0000-0000-0000C6030000}"/>
+    <cellStyle name="Normal 281" xfId="961" xr:uid="{00000000-0005-0000-0000-0000C7030000}"/>
+    <cellStyle name="Normal 282" xfId="962" xr:uid="{00000000-0005-0000-0000-0000C8030000}"/>
+    <cellStyle name="Normal 283" xfId="963" xr:uid="{00000000-0005-0000-0000-0000C9030000}"/>
+    <cellStyle name="Normal 284" xfId="964" xr:uid="{00000000-0005-0000-0000-0000CA030000}"/>
+    <cellStyle name="Normal 285" xfId="965" xr:uid="{00000000-0005-0000-0000-0000CB030000}"/>
+    <cellStyle name="Normal 286" xfId="966" xr:uid="{00000000-0005-0000-0000-0000CC030000}"/>
+    <cellStyle name="Normal 287" xfId="967" xr:uid="{00000000-0005-0000-0000-0000CD030000}"/>
+    <cellStyle name="Normal 288" xfId="968" xr:uid="{00000000-0005-0000-0000-0000CE030000}"/>
+    <cellStyle name="Normal 289" xfId="969" xr:uid="{00000000-0005-0000-0000-0000CF030000}"/>
+    <cellStyle name="Normal 29" xfId="970" xr:uid="{00000000-0005-0000-0000-0000D0030000}"/>
+    <cellStyle name="Normal 290" xfId="971" xr:uid="{00000000-0005-0000-0000-0000D1030000}"/>
+    <cellStyle name="Normal 291" xfId="972" xr:uid="{00000000-0005-0000-0000-0000D2030000}"/>
+    <cellStyle name="Normal 292" xfId="973" xr:uid="{00000000-0005-0000-0000-0000D3030000}"/>
+    <cellStyle name="Normal 293" xfId="974" xr:uid="{00000000-0005-0000-0000-0000D4030000}"/>
+    <cellStyle name="Normal 294" xfId="975" xr:uid="{00000000-0005-0000-0000-0000D5030000}"/>
+    <cellStyle name="Normal 295" xfId="976" xr:uid="{00000000-0005-0000-0000-0000D6030000}"/>
+    <cellStyle name="Normal 296" xfId="977" xr:uid="{00000000-0005-0000-0000-0000D7030000}"/>
+    <cellStyle name="Normal 297" xfId="978" xr:uid="{00000000-0005-0000-0000-0000D8030000}"/>
+    <cellStyle name="Normal 298" xfId="979" xr:uid="{00000000-0005-0000-0000-0000D9030000}"/>
+    <cellStyle name="Normal 299" xfId="980" xr:uid="{00000000-0005-0000-0000-0000DA030000}"/>
+    <cellStyle name="Normal 3" xfId="981" xr:uid="{00000000-0005-0000-0000-0000DB030000}"/>
+    <cellStyle name="Normal 30" xfId="982" xr:uid="{00000000-0005-0000-0000-0000DC030000}"/>
+    <cellStyle name="Normal 300" xfId="983" xr:uid="{00000000-0005-0000-0000-0000DD030000}"/>
+    <cellStyle name="Normal 301" xfId="984" xr:uid="{00000000-0005-0000-0000-0000DE030000}"/>
+    <cellStyle name="Normal 302" xfId="985" xr:uid="{00000000-0005-0000-0000-0000DF030000}"/>
+    <cellStyle name="Normal 303" xfId="986" xr:uid="{00000000-0005-0000-0000-0000E0030000}"/>
+    <cellStyle name="Normal 304" xfId="987" xr:uid="{00000000-0005-0000-0000-0000E1030000}"/>
+    <cellStyle name="Normal 305" xfId="988" xr:uid="{00000000-0005-0000-0000-0000E2030000}"/>
+    <cellStyle name="Normal 306" xfId="989" xr:uid="{00000000-0005-0000-0000-0000E3030000}"/>
+    <cellStyle name="Normal 307" xfId="990" xr:uid="{00000000-0005-0000-0000-0000E4030000}"/>
+    <cellStyle name="Normal 308" xfId="991" xr:uid="{00000000-0005-0000-0000-0000E5030000}"/>
+    <cellStyle name="Normal 309" xfId="992" xr:uid="{00000000-0005-0000-0000-0000E6030000}"/>
+    <cellStyle name="Normal 31" xfId="993" xr:uid="{00000000-0005-0000-0000-0000E7030000}"/>
+    <cellStyle name="Normal 310" xfId="994" xr:uid="{00000000-0005-0000-0000-0000E8030000}"/>
+    <cellStyle name="Normal 311" xfId="995" xr:uid="{00000000-0005-0000-0000-0000E9030000}"/>
+    <cellStyle name="Normal 312" xfId="996" xr:uid="{00000000-0005-0000-0000-0000EA030000}"/>
+    <cellStyle name="Normal 313" xfId="997" xr:uid="{00000000-0005-0000-0000-0000EB030000}"/>
+    <cellStyle name="Normal 314" xfId="998" xr:uid="{00000000-0005-0000-0000-0000EC030000}"/>
+    <cellStyle name="Normal 315" xfId="999" xr:uid="{00000000-0005-0000-0000-0000ED030000}"/>
+    <cellStyle name="Normal 316" xfId="1000" xr:uid="{00000000-0005-0000-0000-0000EE030000}"/>
+    <cellStyle name="Normal 317" xfId="1001" xr:uid="{00000000-0005-0000-0000-0000EF030000}"/>
+    <cellStyle name="Normal 318" xfId="1002" xr:uid="{00000000-0005-0000-0000-0000F0030000}"/>
+    <cellStyle name="Normal 319" xfId="1003" xr:uid="{00000000-0005-0000-0000-0000F1030000}"/>
+    <cellStyle name="Normal 32" xfId="1004" xr:uid="{00000000-0005-0000-0000-0000F2030000}"/>
+    <cellStyle name="Normal 320" xfId="1005" xr:uid="{00000000-0005-0000-0000-0000F3030000}"/>
+    <cellStyle name="Normal 321" xfId="1006" xr:uid="{00000000-0005-0000-0000-0000F4030000}"/>
+    <cellStyle name="Normal 322" xfId="1007" xr:uid="{00000000-0005-0000-0000-0000F5030000}"/>
+    <cellStyle name="Normal 323" xfId="1008" xr:uid="{00000000-0005-0000-0000-0000F6030000}"/>
+    <cellStyle name="Normal 324" xfId="1009" xr:uid="{00000000-0005-0000-0000-0000F7030000}"/>
+    <cellStyle name="Normal 325" xfId="1010" xr:uid="{00000000-0005-0000-0000-0000F8030000}"/>
+    <cellStyle name="Normal 326" xfId="1011" xr:uid="{00000000-0005-0000-0000-0000F9030000}"/>
+    <cellStyle name="Normal 327" xfId="1012" xr:uid="{00000000-0005-0000-0000-0000FA030000}"/>
+    <cellStyle name="Normal 328" xfId="1013" xr:uid="{00000000-0005-0000-0000-0000FB030000}"/>
+    <cellStyle name="Normal 329" xfId="1014" xr:uid="{00000000-0005-0000-0000-0000FC030000}"/>
+    <cellStyle name="Normal 33" xfId="1015" xr:uid="{00000000-0005-0000-0000-0000FD030000}"/>
+    <cellStyle name="Normal 330" xfId="1016" xr:uid="{00000000-0005-0000-0000-0000FE030000}"/>
+    <cellStyle name="Normal 331" xfId="1017" xr:uid="{00000000-0005-0000-0000-0000FF030000}"/>
+    <cellStyle name="Normal 332" xfId="1018" xr:uid="{00000000-0005-0000-0000-000000040000}"/>
+    <cellStyle name="Normal 333" xfId="1019" xr:uid="{00000000-0005-0000-0000-000001040000}"/>
+    <cellStyle name="Normal 334" xfId="1020" xr:uid="{00000000-0005-0000-0000-000002040000}"/>
+    <cellStyle name="Normal 335" xfId="1021" xr:uid="{00000000-0005-0000-0000-000003040000}"/>
+    <cellStyle name="Normal 336" xfId="1022" xr:uid="{00000000-0005-0000-0000-000004040000}"/>
+    <cellStyle name="Normal 337" xfId="1023" xr:uid="{00000000-0005-0000-0000-000005040000}"/>
+    <cellStyle name="Normal 338" xfId="1024" xr:uid="{00000000-0005-0000-0000-000006040000}"/>
+    <cellStyle name="Normal 339" xfId="1025" xr:uid="{00000000-0005-0000-0000-000007040000}"/>
+    <cellStyle name="Normal 34" xfId="1026" xr:uid="{00000000-0005-0000-0000-000008040000}"/>
+    <cellStyle name="Normal 340" xfId="1027" xr:uid="{00000000-0005-0000-0000-000009040000}"/>
+    <cellStyle name="Normal 341" xfId="1028" xr:uid="{00000000-0005-0000-0000-00000A040000}"/>
+    <cellStyle name="Normal 342" xfId="1029" xr:uid="{00000000-0005-0000-0000-00000B040000}"/>
+    <cellStyle name="Normal 343" xfId="1030" xr:uid="{00000000-0005-0000-0000-00000C040000}"/>
+    <cellStyle name="Normal 344" xfId="1031" xr:uid="{00000000-0005-0000-0000-00000D040000}"/>
+    <cellStyle name="Normal 345" xfId="1032" xr:uid="{00000000-0005-0000-0000-00000E040000}"/>
+    <cellStyle name="Normal 346" xfId="1033" xr:uid="{00000000-0005-0000-0000-00000F040000}"/>
+    <cellStyle name="Normal 347" xfId="1034" xr:uid="{00000000-0005-0000-0000-000010040000}"/>
+    <cellStyle name="Normal 348" xfId="1035" xr:uid="{00000000-0005-0000-0000-000011040000}"/>
+    <cellStyle name="Normal 349" xfId="1036" xr:uid="{00000000-0005-0000-0000-000012040000}"/>
+    <cellStyle name="Normal 35" xfId="1037" xr:uid="{00000000-0005-0000-0000-000013040000}"/>
+    <cellStyle name="Normal 350" xfId="1038" xr:uid="{00000000-0005-0000-0000-000014040000}"/>
+    <cellStyle name="Normal 351" xfId="1039" xr:uid="{00000000-0005-0000-0000-000015040000}"/>
+    <cellStyle name="Normal 352" xfId="1040" xr:uid="{00000000-0005-0000-0000-000016040000}"/>
+    <cellStyle name="Normal 353" xfId="1041" xr:uid="{00000000-0005-0000-0000-000017040000}"/>
+    <cellStyle name="Normal 354" xfId="1042" xr:uid="{00000000-0005-0000-0000-000018040000}"/>
+    <cellStyle name="Normal 355" xfId="1043" xr:uid="{00000000-0005-0000-0000-000019040000}"/>
+    <cellStyle name="Normal 356" xfId="1044" xr:uid="{00000000-0005-0000-0000-00001A040000}"/>
+    <cellStyle name="Normal 357" xfId="1045" xr:uid="{00000000-0005-0000-0000-00001B040000}"/>
+    <cellStyle name="Normal 358" xfId="1046" xr:uid="{00000000-0005-0000-0000-00001C040000}"/>
+    <cellStyle name="Normal 359" xfId="1047" xr:uid="{00000000-0005-0000-0000-00001D040000}"/>
+    <cellStyle name="Normal 36" xfId="1048" xr:uid="{00000000-0005-0000-0000-00001E040000}"/>
+    <cellStyle name="Normal 360" xfId="1049" xr:uid="{00000000-0005-0000-0000-00001F040000}"/>
+    <cellStyle name="Normal 361" xfId="1050" xr:uid="{00000000-0005-0000-0000-000020040000}"/>
+    <cellStyle name="Normal 362" xfId="1051" xr:uid="{00000000-0005-0000-0000-000021040000}"/>
+    <cellStyle name="Normal 363" xfId="1052" xr:uid="{00000000-0005-0000-0000-000022040000}"/>
+    <cellStyle name="Normal 364" xfId="1053" xr:uid="{00000000-0005-0000-0000-000023040000}"/>
+    <cellStyle name="Normal 365" xfId="1054" xr:uid="{00000000-0005-0000-0000-000024040000}"/>
+    <cellStyle name="Normal 366" xfId="1055" xr:uid="{00000000-0005-0000-0000-000025040000}"/>
+    <cellStyle name="Normal 367" xfId="1056" xr:uid="{00000000-0005-0000-0000-000026040000}"/>
+    <cellStyle name="Normal 368" xfId="1057" xr:uid="{00000000-0005-0000-0000-000027040000}"/>
+    <cellStyle name="Normal 369" xfId="1058" xr:uid="{00000000-0005-0000-0000-000028040000}"/>
+    <cellStyle name="Normal 37" xfId="1059" xr:uid="{00000000-0005-0000-0000-000029040000}"/>
+    <cellStyle name="Normal 370" xfId="1060" xr:uid="{00000000-0005-0000-0000-00002A040000}"/>
+    <cellStyle name="Normal 371" xfId="1061" xr:uid="{00000000-0005-0000-0000-00002B040000}"/>
+    <cellStyle name="Normal 372" xfId="1062" xr:uid="{00000000-0005-0000-0000-00002C040000}"/>
+    <cellStyle name="Normal 373" xfId="1063" xr:uid="{00000000-0005-0000-0000-00002D040000}"/>
+    <cellStyle name="Normal 374" xfId="1064" xr:uid="{00000000-0005-0000-0000-00002E040000}"/>
+    <cellStyle name="Normal 375" xfId="1065" xr:uid="{00000000-0005-0000-0000-00002F040000}"/>
+    <cellStyle name="Normal 376" xfId="1066" xr:uid="{00000000-0005-0000-0000-000030040000}"/>
+    <cellStyle name="Normal 377" xfId="1067" xr:uid="{00000000-0005-0000-0000-000031040000}"/>
+    <cellStyle name="Normal 378" xfId="1068" xr:uid="{00000000-0005-0000-0000-000032040000}"/>
+    <cellStyle name="Normal 379" xfId="1069" xr:uid="{00000000-0005-0000-0000-000033040000}"/>
+    <cellStyle name="Normal 38" xfId="1070" xr:uid="{00000000-0005-0000-0000-000034040000}"/>
+    <cellStyle name="Normal 380" xfId="1071" xr:uid="{00000000-0005-0000-0000-000035040000}"/>
+    <cellStyle name="Normal 381" xfId="1072" xr:uid="{00000000-0005-0000-0000-000036040000}"/>
+    <cellStyle name="Normal 382" xfId="1073" xr:uid="{00000000-0005-0000-0000-000037040000}"/>
+    <cellStyle name="Normal 383" xfId="1074" xr:uid="{00000000-0005-0000-0000-000038040000}"/>
+    <cellStyle name="Normal 384" xfId="1075" xr:uid="{00000000-0005-0000-0000-000039040000}"/>
+    <cellStyle name="Normal 385" xfId="1076" xr:uid="{00000000-0005-0000-0000-00003A040000}"/>
+    <cellStyle name="Normal 386" xfId="1077" xr:uid="{00000000-0005-0000-0000-00003B040000}"/>
+    <cellStyle name="Normal 387" xfId="1078" xr:uid="{00000000-0005-0000-0000-00003C040000}"/>
+    <cellStyle name="Normal 388" xfId="1079" xr:uid="{00000000-0005-0000-0000-00003D040000}"/>
+    <cellStyle name="Normal 389" xfId="1080" xr:uid="{00000000-0005-0000-0000-00003E040000}"/>
+    <cellStyle name="Normal 39" xfId="1081" xr:uid="{00000000-0005-0000-0000-00003F040000}"/>
+    <cellStyle name="Normal 390" xfId="1082" xr:uid="{00000000-0005-0000-0000-000040040000}"/>
+    <cellStyle name="Normal 391" xfId="1083" xr:uid="{00000000-0005-0000-0000-000041040000}"/>
+    <cellStyle name="Normal 392" xfId="1084" xr:uid="{00000000-0005-0000-0000-000042040000}"/>
+    <cellStyle name="Normal 393" xfId="1085" xr:uid="{00000000-0005-0000-0000-000043040000}"/>
+    <cellStyle name="Normal 394" xfId="1086" xr:uid="{00000000-0005-0000-0000-000044040000}"/>
+    <cellStyle name="Normal 395" xfId="1087" xr:uid="{00000000-0005-0000-0000-000045040000}"/>
+    <cellStyle name="Normal 396" xfId="1088" xr:uid="{00000000-0005-0000-0000-000046040000}"/>
+    <cellStyle name="Normal 397" xfId="1089" xr:uid="{00000000-0005-0000-0000-000047040000}"/>
+    <cellStyle name="Normal 398" xfId="1090" xr:uid="{00000000-0005-0000-0000-000048040000}"/>
+    <cellStyle name="Normal 399" xfId="1091" xr:uid="{00000000-0005-0000-0000-000049040000}"/>
+    <cellStyle name="Normal 4" xfId="1092" xr:uid="{00000000-0005-0000-0000-00004A040000}"/>
+    <cellStyle name="Normal 40" xfId="1093" xr:uid="{00000000-0005-0000-0000-00004B040000}"/>
+    <cellStyle name="Normal 400" xfId="1094" xr:uid="{00000000-0005-0000-0000-00004C040000}"/>
+    <cellStyle name="Normal 401" xfId="1095" xr:uid="{00000000-0005-0000-0000-00004D040000}"/>
+    <cellStyle name="Normal 401 2" xfId="1096" xr:uid="{00000000-0005-0000-0000-00004E040000}"/>
+    <cellStyle name="Normal 402" xfId="1097" xr:uid="{00000000-0005-0000-0000-00004F040000}"/>
+    <cellStyle name="Normal 403" xfId="1098" xr:uid="{00000000-0005-0000-0000-000050040000}"/>
+    <cellStyle name="Normal 404" xfId="1099" xr:uid="{00000000-0005-0000-0000-000051040000}"/>
+    <cellStyle name="Normal 405" xfId="1100" xr:uid="{00000000-0005-0000-0000-000052040000}"/>
+    <cellStyle name="Normal 406" xfId="1101" xr:uid="{00000000-0005-0000-0000-000053040000}"/>
+    <cellStyle name="Normal 407" xfId="1102" xr:uid="{00000000-0005-0000-0000-000054040000}"/>
+    <cellStyle name="Normal 408" xfId="1103" xr:uid="{00000000-0005-0000-0000-000055040000}"/>
+    <cellStyle name="Normal 409" xfId="1104" xr:uid="{00000000-0005-0000-0000-000056040000}"/>
+    <cellStyle name="Normal 41" xfId="1105" xr:uid="{00000000-0005-0000-0000-000057040000}"/>
+    <cellStyle name="Normal 410" xfId="1106" xr:uid="{00000000-0005-0000-0000-000058040000}"/>
+    <cellStyle name="Normal 411" xfId="1107" xr:uid="{00000000-0005-0000-0000-000059040000}"/>
+    <cellStyle name="Normal 411 2" xfId="1108" xr:uid="{00000000-0005-0000-0000-00005A040000}"/>
+    <cellStyle name="Normal 412" xfId="1109" xr:uid="{00000000-0005-0000-0000-00005B040000}"/>
+    <cellStyle name="Normal 413" xfId="1110" xr:uid="{00000000-0005-0000-0000-00005C040000}"/>
+    <cellStyle name="Normal 414" xfId="1111" xr:uid="{00000000-0005-0000-0000-00005D040000}"/>
+    <cellStyle name="Normal 415" xfId="1112" xr:uid="{00000000-0005-0000-0000-00005E040000}"/>
+    <cellStyle name="Normal 416" xfId="1113" xr:uid="{00000000-0005-0000-0000-00005F040000}"/>
+    <cellStyle name="Normal 416 2" xfId="1114" xr:uid="{00000000-0005-0000-0000-000060040000}"/>
+    <cellStyle name="Normal 417" xfId="1488" xr:uid="{00000000-0005-0000-0000-000061040000}"/>
+    <cellStyle name="Normal 42" xfId="1115" xr:uid="{00000000-0005-0000-0000-000062040000}"/>
+    <cellStyle name="Normal 43" xfId="1116" xr:uid="{00000000-0005-0000-0000-000063040000}"/>
+    <cellStyle name="Normal 44" xfId="1117" xr:uid="{00000000-0005-0000-0000-000064040000}"/>
+    <cellStyle name="Normal 45" xfId="1118" xr:uid="{00000000-0005-0000-0000-000065040000}"/>
+    <cellStyle name="Normal 46" xfId="1119" xr:uid="{00000000-0005-0000-0000-000066040000}"/>
+    <cellStyle name="Normal 47" xfId="1120" xr:uid="{00000000-0005-0000-0000-000067040000}"/>
+    <cellStyle name="Normal 48" xfId="1121" xr:uid="{00000000-0005-0000-0000-000068040000}"/>
+    <cellStyle name="Normal 49" xfId="1122" xr:uid="{00000000-0005-0000-0000-000069040000}"/>
+    <cellStyle name="Normal 5" xfId="1123" xr:uid="{00000000-0005-0000-0000-00006A040000}"/>
+    <cellStyle name="Normal 5 10" xfId="1124" xr:uid="{00000000-0005-0000-0000-00006B040000}"/>
+    <cellStyle name="Normal 5 10 2" xfId="1125" xr:uid="{00000000-0005-0000-0000-00006C040000}"/>
+    <cellStyle name="Normal 5 11" xfId="1126" xr:uid="{00000000-0005-0000-0000-00006D040000}"/>
+    <cellStyle name="Normal 5 11 2" xfId="1127" xr:uid="{00000000-0005-0000-0000-00006E040000}"/>
+    <cellStyle name="Normal 5 12" xfId="1128" xr:uid="{00000000-0005-0000-0000-00006F040000}"/>
+    <cellStyle name="Normal 5 12 2" xfId="1129" xr:uid="{00000000-0005-0000-0000-000070040000}"/>
+    <cellStyle name="Normal 5 13" xfId="1130" xr:uid="{00000000-0005-0000-0000-000071040000}"/>
+    <cellStyle name="Normal 5 13 2" xfId="1131" xr:uid="{00000000-0005-0000-0000-000072040000}"/>
+    <cellStyle name="Normal 5 14" xfId="1132" xr:uid="{00000000-0005-0000-0000-000073040000}"/>
+    <cellStyle name="Normal 5 14 2" xfId="1133" xr:uid="{00000000-0005-0000-0000-000074040000}"/>
+    <cellStyle name="Normal 5 15" xfId="1134" xr:uid="{00000000-0005-0000-0000-000075040000}"/>
+    <cellStyle name="Normal 5 15 2" xfId="1135" xr:uid="{00000000-0005-0000-0000-000076040000}"/>
+    <cellStyle name="Normal 5 16" xfId="1136" xr:uid="{00000000-0005-0000-0000-000077040000}"/>
+    <cellStyle name="Normal 5 16 2" xfId="1137" xr:uid="{00000000-0005-0000-0000-000078040000}"/>
+    <cellStyle name="Normal 5 17" xfId="1138" xr:uid="{00000000-0005-0000-0000-000079040000}"/>
+    <cellStyle name="Normal 5 17 2" xfId="1139" xr:uid="{00000000-0005-0000-0000-00007A040000}"/>
+    <cellStyle name="Normal 5 18" xfId="1140" xr:uid="{00000000-0005-0000-0000-00007B040000}"/>
+    <cellStyle name="Normal 5 18 2" xfId="1141" xr:uid="{00000000-0005-0000-0000-00007C040000}"/>
+    <cellStyle name="Normal 5 19" xfId="1142" xr:uid="{00000000-0005-0000-0000-00007D040000}"/>
+    <cellStyle name="Normal 5 19 2" xfId="1143" xr:uid="{00000000-0005-0000-0000-00007E040000}"/>
+    <cellStyle name="Normal 5 2" xfId="1144" xr:uid="{00000000-0005-0000-0000-00007F040000}"/>
+    <cellStyle name="Normal 5 2 10" xfId="1145" xr:uid="{00000000-0005-0000-0000-000080040000}"/>
+    <cellStyle name="Normal 5 2 10 2" xfId="1146" xr:uid="{00000000-0005-0000-0000-000081040000}"/>
+    <cellStyle name="Normal 5 2 11" xfId="1147" xr:uid="{00000000-0005-0000-0000-000082040000}"/>
+    <cellStyle name="Normal 5 2 11 2" xfId="1148" xr:uid="{00000000-0005-0000-0000-000083040000}"/>
+    <cellStyle name="Normal 5 2 12" xfId="1149" xr:uid="{00000000-0005-0000-0000-000084040000}"/>
+    <cellStyle name="Normal 5 2 12 2" xfId="1150" xr:uid="{00000000-0005-0000-0000-000085040000}"/>
+    <cellStyle name="Normal 5 2 13" xfId="1151" xr:uid="{00000000-0005-0000-0000-000086040000}"/>
+    <cellStyle name="Normal 5 2 13 2" xfId="1152" xr:uid="{00000000-0005-0000-0000-000087040000}"/>
+    <cellStyle name="Normal 5 2 14" xfId="1153" xr:uid="{00000000-0005-0000-0000-000088040000}"/>
+    <cellStyle name="Normal 5 2 14 2" xfId="1154" xr:uid="{00000000-0005-0000-0000-000089040000}"/>
+    <cellStyle name="Normal 5 2 15" xfId="1155" xr:uid="{00000000-0005-0000-0000-00008A040000}"/>
+    <cellStyle name="Normal 5 2 15 2" xfId="1156" xr:uid="{00000000-0005-0000-0000-00008B040000}"/>
+    <cellStyle name="Normal 5 2 16" xfId="1157" xr:uid="{00000000-0005-0000-0000-00008C040000}"/>
+    <cellStyle name="Normal 5 2 16 2" xfId="1158" xr:uid="{00000000-0005-0000-0000-00008D040000}"/>
+    <cellStyle name="Normal 5 2 17" xfId="1159" xr:uid="{00000000-0005-0000-0000-00008E040000}"/>
+    <cellStyle name="Normal 5 2 17 2" xfId="1160" xr:uid="{00000000-0005-0000-0000-00008F040000}"/>
+    <cellStyle name="Normal 5 2 18" xfId="1161" xr:uid="{00000000-0005-0000-0000-000090040000}"/>
+    <cellStyle name="Normal 5 2 18 2" xfId="1162" xr:uid="{00000000-0005-0000-0000-000091040000}"/>
+    <cellStyle name="Normal 5 2 19" xfId="1163" xr:uid="{00000000-0005-0000-0000-000092040000}"/>
+    <cellStyle name="Normal 5 2 19 2" xfId="1164" xr:uid="{00000000-0005-0000-0000-000093040000}"/>
+    <cellStyle name="Normal 5 2 2" xfId="1165" xr:uid="{00000000-0005-0000-0000-000094040000}"/>
+    <cellStyle name="Normal 5 2 2 2" xfId="1166" xr:uid="{00000000-0005-0000-0000-000095040000}"/>
+    <cellStyle name="Normal 5 2 20" xfId="1167" xr:uid="{00000000-0005-0000-0000-000096040000}"/>
+    <cellStyle name="Normal 5 2 20 2" xfId="1168" xr:uid="{00000000-0005-0000-0000-000097040000}"/>
+    <cellStyle name="Normal 5 2 21" xfId="1169" xr:uid="{00000000-0005-0000-0000-000098040000}"/>
+    <cellStyle name="Normal 5 2 21 2" xfId="1170" xr:uid="{00000000-0005-0000-0000-000099040000}"/>
+    <cellStyle name="Normal 5 2 22" xfId="1171" xr:uid="{00000000-0005-0000-0000-00009A040000}"/>
+    <cellStyle name="Normal 5 2 22 2" xfId="1172" xr:uid="{00000000-0005-0000-0000-00009B040000}"/>
+    <cellStyle name="Normal 5 2 23" xfId="1173" xr:uid="{00000000-0005-0000-0000-00009C040000}"/>
+    <cellStyle name="Normal 5 2 3" xfId="1174" xr:uid="{00000000-0005-0000-0000-00009D040000}"/>
+    <cellStyle name="Normal 5 2 3 2" xfId="1175" xr:uid="{00000000-0005-0000-0000-00009E040000}"/>
+    <cellStyle name="Normal 5 2 4" xfId="1176" xr:uid="{00000000-0005-0000-0000-00009F040000}"/>
+    <cellStyle name="Normal 5 2 4 2" xfId="1177" xr:uid="{00000000-0005-0000-0000-0000A0040000}"/>
+    <cellStyle name="Normal 5 2 5" xfId="1178" xr:uid="{00000000-0005-0000-0000-0000A1040000}"/>
+    <cellStyle name="Normal 5 2 5 2" xfId="1179" xr:uid="{00000000-0005-0000-0000-0000A2040000}"/>
+    <cellStyle name="Normal 5 2 6" xfId="1180" xr:uid="{00000000-0005-0000-0000-0000A3040000}"/>
+    <cellStyle name="Normal 5 2 6 2" xfId="1181" xr:uid="{00000000-0005-0000-0000-0000A4040000}"/>
+    <cellStyle name="Normal 5 2 7" xfId="1182" xr:uid="{00000000-0005-0000-0000-0000A5040000}"/>
+    <cellStyle name="Normal 5 2 7 2" xfId="1183" xr:uid="{00000000-0005-0000-0000-0000A6040000}"/>
+    <cellStyle name="Normal 5 2 8" xfId="1184" xr:uid="{00000000-0005-0000-0000-0000A7040000}"/>
+    <cellStyle name="Normal 5 2 8 2" xfId="1185" xr:uid="{00000000-0005-0000-0000-0000A8040000}"/>
+    <cellStyle name="Normal 5 2 9" xfId="1186" xr:uid="{00000000-0005-0000-0000-0000A9040000}"/>
+    <cellStyle name="Normal 5 2 9 2" xfId="1187" xr:uid="{00000000-0005-0000-0000-0000AA040000}"/>
+    <cellStyle name="Normal 5 20" xfId="1188" xr:uid="{00000000-0005-0000-0000-0000AB040000}"/>
+    <cellStyle name="Normal 5 20 2" xfId="1189" xr:uid="{00000000-0005-0000-0000-0000AC040000}"/>
+    <cellStyle name="Normal 5 21" xfId="1190" xr:uid="{00000000-0005-0000-0000-0000AD040000}"/>
+    <cellStyle name="Normal 5 21 2" xfId="1191" xr:uid="{00000000-0005-0000-0000-0000AE040000}"/>
+    <cellStyle name="Normal 5 22" xfId="1192" xr:uid="{00000000-0005-0000-0000-0000AF040000}"/>
+    <cellStyle name="Normal 5 22 2" xfId="1193" xr:uid="{00000000-0005-0000-0000-0000B0040000}"/>
+    <cellStyle name="Normal 5 23" xfId="1194" xr:uid="{00000000-0005-0000-0000-0000B1040000}"/>
+    <cellStyle name="Normal 5 23 2" xfId="1195" xr:uid="{00000000-0005-0000-0000-0000B2040000}"/>
+    <cellStyle name="Normal 5 24" xfId="1196" xr:uid="{00000000-0005-0000-0000-0000B3040000}"/>
+    <cellStyle name="Normal 5 3" xfId="1197" xr:uid="{00000000-0005-0000-0000-0000B4040000}"/>
+    <cellStyle name="Normal 5 3 2" xfId="1198" xr:uid="{00000000-0005-0000-0000-0000B5040000}"/>
+    <cellStyle name="Normal 5 4" xfId="1199" xr:uid="{00000000-0005-0000-0000-0000B6040000}"/>
+    <cellStyle name="Normal 5 4 2" xfId="1200" xr:uid="{00000000-0005-0000-0000-0000B7040000}"/>
+    <cellStyle name="Normal 5 5" xfId="1201" xr:uid="{00000000-0005-0000-0000-0000B8040000}"/>
+    <cellStyle name="Normal 5 5 2" xfId="1202" xr:uid="{00000000-0005-0000-0000-0000B9040000}"/>
+    <cellStyle name="Normal 5 6" xfId="1203" xr:uid="{00000000-0005-0000-0000-0000BA040000}"/>
+    <cellStyle name="Normal 5 6 2" xfId="1204" xr:uid="{00000000-0005-0000-0000-0000BB040000}"/>
+    <cellStyle name="Normal 5 7" xfId="1205" xr:uid="{00000000-0005-0000-0000-0000BC040000}"/>
+    <cellStyle name="Normal 5 7 2" xfId="1206" xr:uid="{00000000-0005-0000-0000-0000BD040000}"/>
+    <cellStyle name="Normal 5 8" xfId="1207" xr:uid="{00000000-0005-0000-0000-0000BE040000}"/>
+    <cellStyle name="Normal 5 8 2" xfId="1208" xr:uid="{00000000-0005-0000-0000-0000BF040000}"/>
+    <cellStyle name="Normal 5 9" xfId="1209" xr:uid="{00000000-0005-0000-0000-0000C0040000}"/>
+    <cellStyle name="Normal 5 9 2" xfId="1210" xr:uid="{00000000-0005-0000-0000-0000C1040000}"/>
+    <cellStyle name="Normal 50" xfId="1211" xr:uid="{00000000-0005-0000-0000-0000C2040000}"/>
+    <cellStyle name="Normal 51" xfId="1212" xr:uid="{00000000-0005-0000-0000-0000C3040000}"/>
+    <cellStyle name="Normal 52" xfId="1213" xr:uid="{00000000-0005-0000-0000-0000C4040000}"/>
+    <cellStyle name="Normal 53" xfId="1214" xr:uid="{00000000-0005-0000-0000-0000C5040000}"/>
+    <cellStyle name="Normal 54" xfId="1215" xr:uid="{00000000-0005-0000-0000-0000C6040000}"/>
+    <cellStyle name="Normal 55" xfId="1216" xr:uid="{00000000-0005-0000-0000-0000C7040000}"/>
+    <cellStyle name="Normal 56" xfId="1217" xr:uid="{00000000-0005-0000-0000-0000C8040000}"/>
+    <cellStyle name="Normal 57" xfId="1218" xr:uid="{00000000-0005-0000-0000-0000C9040000}"/>
+    <cellStyle name="Normal 58" xfId="1219" xr:uid="{00000000-0005-0000-0000-0000CA040000}"/>
+    <cellStyle name="Normal 59" xfId="1220" xr:uid="{00000000-0005-0000-0000-0000CB040000}"/>
+    <cellStyle name="Normal 6" xfId="1221" xr:uid="{00000000-0005-0000-0000-0000CC040000}"/>
+    <cellStyle name="Normal 60" xfId="1222" xr:uid="{00000000-0005-0000-0000-0000CD040000}"/>
+    <cellStyle name="Normal 61" xfId="1223" xr:uid="{00000000-0005-0000-0000-0000CE040000}"/>
+    <cellStyle name="Normal 62" xfId="1224" xr:uid="{00000000-0005-0000-0000-0000CF040000}"/>
+    <cellStyle name="Normal 63" xfId="1225" xr:uid="{00000000-0005-0000-0000-0000D0040000}"/>
+    <cellStyle name="Normal 64" xfId="1226" xr:uid="{00000000-0005-0000-0000-0000D1040000}"/>
+    <cellStyle name="Normal 65" xfId="1227" xr:uid="{00000000-0005-0000-0000-0000D2040000}"/>
+    <cellStyle name="Normal 66" xfId="1228" xr:uid="{00000000-0005-0000-0000-0000D3040000}"/>
+    <cellStyle name="Normal 67" xfId="1229" xr:uid="{00000000-0005-0000-0000-0000D4040000}"/>
+    <cellStyle name="Normal 67 10" xfId="1230" xr:uid="{00000000-0005-0000-0000-0000D5040000}"/>
+    <cellStyle name="Normal 67 10 2" xfId="1231" xr:uid="{00000000-0005-0000-0000-0000D6040000}"/>
+    <cellStyle name="Normal 67 11" xfId="1232" xr:uid="{00000000-0005-0000-0000-0000D7040000}"/>
+    <cellStyle name="Normal 67 11 2" xfId="1233" xr:uid="{00000000-0005-0000-0000-0000D8040000}"/>
+    <cellStyle name="Normal 67 12" xfId="1234" xr:uid="{00000000-0005-0000-0000-0000D9040000}"/>
+    <cellStyle name="Normal 67 12 2" xfId="1235" xr:uid="{00000000-0005-0000-0000-0000DA040000}"/>
+    <cellStyle name="Normal 67 13" xfId="1236" xr:uid="{00000000-0005-0000-0000-0000DB040000}"/>
+    <cellStyle name="Normal 67 13 2" xfId="1237" xr:uid="{00000000-0005-0000-0000-0000DC040000}"/>
+    <cellStyle name="Normal 67 14" xfId="1238" xr:uid="{00000000-0005-0000-0000-0000DD040000}"/>
+    <cellStyle name="Normal 67 14 2" xfId="1239" xr:uid="{00000000-0005-0000-0000-0000DE040000}"/>
+    <cellStyle name="Normal 67 15" xfId="1240" xr:uid="{00000000-0005-0000-0000-0000DF040000}"/>
+    <cellStyle name="Normal 67 15 2" xfId="1241" xr:uid="{00000000-0005-0000-0000-0000E0040000}"/>
+    <cellStyle name="Normal 67 16" xfId="1242" xr:uid="{00000000-0005-0000-0000-0000E1040000}"/>
+    <cellStyle name="Normal 67 16 2" xfId="1243" xr:uid="{00000000-0005-0000-0000-0000E2040000}"/>
+    <cellStyle name="Normal 67 17" xfId="1244" xr:uid="{00000000-0005-0000-0000-0000E3040000}"/>
+    <cellStyle name="Normal 67 17 2" xfId="1245" xr:uid="{00000000-0005-0000-0000-0000E4040000}"/>
+    <cellStyle name="Normal 67 18" xfId="1246" xr:uid="{00000000-0005-0000-0000-0000E5040000}"/>
+    <cellStyle name="Normal 67 18 2" xfId="1247" xr:uid="{00000000-0005-0000-0000-0000E6040000}"/>
+    <cellStyle name="Normal 67 19" xfId="1248" xr:uid="{00000000-0005-0000-0000-0000E7040000}"/>
+    <cellStyle name="Normal 67 19 2" xfId="1249" xr:uid="{00000000-0005-0000-0000-0000E8040000}"/>
+    <cellStyle name="Normal 67 2" xfId="1250" xr:uid="{00000000-0005-0000-0000-0000E9040000}"/>
+    <cellStyle name="Normal 67 2 2" xfId="1251" xr:uid="{00000000-0005-0000-0000-0000EA040000}"/>
+    <cellStyle name="Normal 67 20" xfId="1252" xr:uid="{00000000-0005-0000-0000-0000EB040000}"/>
+    <cellStyle name="Normal 67 20 2" xfId="1253" xr:uid="{00000000-0005-0000-0000-0000EC040000}"/>
+    <cellStyle name="Normal 67 21" xfId="1254" xr:uid="{00000000-0005-0000-0000-0000ED040000}"/>
+    <cellStyle name="Normal 67 21 2" xfId="1255" xr:uid="{00000000-0005-0000-0000-0000EE040000}"/>
+    <cellStyle name="Normal 67 22" xfId="1256" xr:uid="{00000000-0005-0000-0000-0000EF040000}"/>
+    <cellStyle name="Normal 67 22 2" xfId="1257" xr:uid="{00000000-0005-0000-0000-0000F0040000}"/>
+    <cellStyle name="Normal 67 23" xfId="1258" xr:uid="{00000000-0005-0000-0000-0000F1040000}"/>
+    <cellStyle name="Normal 67 3" xfId="1259" xr:uid="{00000000-0005-0000-0000-0000F2040000}"/>
+    <cellStyle name="Normal 67 3 2" xfId="1260" xr:uid="{00000000-0005-0000-0000-0000F3040000}"/>
+    <cellStyle name="Normal 67 4" xfId="1261" xr:uid="{00000000-0005-0000-0000-0000F4040000}"/>
+    <cellStyle name="Normal 67 4 2" xfId="1262" xr:uid="{00000000-0005-0000-0000-0000F5040000}"/>
+    <cellStyle name="Normal 67 5" xfId="1263" xr:uid="{00000000-0005-0000-0000-0000F6040000}"/>
+    <cellStyle name="Normal 67 5 2" xfId="1264" xr:uid="{00000000-0005-0000-0000-0000F7040000}"/>
+    <cellStyle name="Normal 67 6" xfId="1265" xr:uid="{00000000-0005-0000-0000-0000F8040000}"/>
+    <cellStyle name="Normal 67 6 2" xfId="1266" xr:uid="{00000000-0005-0000-0000-0000F9040000}"/>
+    <cellStyle name="Normal 67 7" xfId="1267" xr:uid="{00000000-0005-0000-0000-0000FA040000}"/>
+    <cellStyle name="Normal 67 7 2" xfId="1268" xr:uid="{00000000-0005-0000-0000-0000FB040000}"/>
+    <cellStyle name="Normal 67 8" xfId="1269" xr:uid="{00000000-0005-0000-0000-0000FC040000}"/>
+    <cellStyle name="Normal 67 8 2" xfId="1270" xr:uid="{00000000-0005-0000-0000-0000FD040000}"/>
+    <cellStyle name="Normal 67 9" xfId="1271" xr:uid="{00000000-0005-0000-0000-0000FE040000}"/>
+    <cellStyle name="Normal 67 9 2" xfId="1272" xr:uid="{00000000-0005-0000-0000-0000FF040000}"/>
+    <cellStyle name="Normal 68" xfId="1273" xr:uid="{00000000-0005-0000-0000-000000050000}"/>
+    <cellStyle name="Normal 69" xfId="1274" xr:uid="{00000000-0005-0000-0000-000001050000}"/>
+    <cellStyle name="Normal 69 10" xfId="1275" xr:uid="{00000000-0005-0000-0000-000002050000}"/>
+    <cellStyle name="Normal 69 10 2" xfId="1276" xr:uid="{00000000-0005-0000-0000-000003050000}"/>
+    <cellStyle name="Normal 69 11" xfId="1277" xr:uid="{00000000-0005-0000-0000-000004050000}"/>
+    <cellStyle name="Normal 69 11 2" xfId="1278" xr:uid="{00000000-0005-0000-0000-000005050000}"/>
+    <cellStyle name="Normal 69 12" xfId="1279" xr:uid="{00000000-0005-0000-0000-000006050000}"/>
+    <cellStyle name="Normal 69 12 2" xfId="1280" xr:uid="{00000000-0005-0000-0000-000007050000}"/>
+    <cellStyle name="Normal 69 13" xfId="1281" xr:uid="{00000000-0005-0000-0000-000008050000}"/>
+    <cellStyle name="Normal 69 13 2" xfId="1282" xr:uid="{00000000-0005-0000-0000-000009050000}"/>
+    <cellStyle name="Normal 69 14" xfId="1283" xr:uid="{00000000-0005-0000-0000-00000A050000}"/>
+    <cellStyle name="Normal 69 14 2" xfId="1284" xr:uid="{00000000-0005-0000-0000-00000B050000}"/>
+    <cellStyle name="Normal 69 15" xfId="1285" xr:uid="{00000000-0005-0000-0000-00000C050000}"/>
+    <cellStyle name="Normal 69 15 2" xfId="1286" xr:uid="{00000000-0005-0000-0000-00000D050000}"/>
+    <cellStyle name="Normal 69 16" xfId="1287" xr:uid="{00000000-0005-0000-0000-00000E050000}"/>
+    <cellStyle name="Normal 69 16 2" xfId="1288" xr:uid="{00000000-0005-0000-0000-00000F050000}"/>
+    <cellStyle name="Normal 69 17" xfId="1289" xr:uid="{00000000-0005-0000-0000-000010050000}"/>
+    <cellStyle name="Normal 69 17 2" xfId="1290" xr:uid="{00000000-0005-0000-0000-000011050000}"/>
+    <cellStyle name="Normal 69 18" xfId="1291" xr:uid="{00000000-0005-0000-0000-000012050000}"/>
+    <cellStyle name="Normal 69 18 2" xfId="1292" xr:uid="{00000000-0005-0000-0000-000013050000}"/>
+    <cellStyle name="Normal 69 19" xfId="1293" xr:uid="{00000000-0005-0000-0000-000014050000}"/>
+    <cellStyle name="Normal 69 19 2" xfId="1294" xr:uid="{00000000-0005-0000-0000-000015050000}"/>
+    <cellStyle name="Normal 69 2" xfId="1295" xr:uid="{00000000-0005-0000-0000-000016050000}"/>
+    <cellStyle name="Normal 69 2 2" xfId="1296" xr:uid="{00000000-0005-0000-0000-000017050000}"/>
+    <cellStyle name="Normal 69 20" xfId="1297" xr:uid="{00000000-0005-0000-0000-000018050000}"/>
+    <cellStyle name="Normal 69 20 2" xfId="1298" xr:uid="{00000000-0005-0000-0000-000019050000}"/>
+    <cellStyle name="Normal 69 21" xfId="1299" xr:uid="{00000000-0005-0000-0000-00001A050000}"/>
+    <cellStyle name="Normal 69 21 2" xfId="1300" xr:uid="{00000000-0005-0000-0000-00001B050000}"/>
+    <cellStyle name="Normal 69 22" xfId="1301" xr:uid="{00000000-0005-0000-0000-00001C050000}"/>
+    <cellStyle name="Normal 69 22 2" xfId="1302" xr:uid="{00000000-0005-0000-0000-00001D050000}"/>
+    <cellStyle name="Normal 69 23" xfId="1303" xr:uid="{00000000-0005-0000-0000-00001E050000}"/>
+    <cellStyle name="Normal 69 3" xfId="1304" xr:uid="{00000000-0005-0000-0000-00001F050000}"/>
+    <cellStyle name="Normal 69 3 2" xfId="1305" xr:uid="{00000000-0005-0000-0000-000020050000}"/>
+    <cellStyle name="Normal 69 4" xfId="1306" xr:uid="{00000000-0005-0000-0000-000021050000}"/>
+    <cellStyle name="Normal 69 4 2" xfId="1307" xr:uid="{00000000-0005-0000-0000-000022050000}"/>
+    <cellStyle name="Normal 69 5" xfId="1308" xr:uid="{00000000-0005-0000-0000-000023050000}"/>
+    <cellStyle name="Normal 69 5 2" xfId="1309" xr:uid="{00000000-0005-0000-0000-000024050000}"/>
+    <cellStyle name="Normal 69 6" xfId="1310" xr:uid="{00000000-0005-0000-0000-000025050000}"/>
+    <cellStyle name="Normal 69 6 2" xfId="1311" xr:uid="{00000000-0005-0000-0000-000026050000}"/>
+    <cellStyle name="Normal 69 7" xfId="1312" xr:uid="{00000000-0005-0000-0000-000027050000}"/>
+    <cellStyle name="Normal 69 7 2" xfId="1313" xr:uid="{00000000-0005-0000-0000-000028050000}"/>
+    <cellStyle name="Normal 69 8" xfId="1314" xr:uid="{00000000-0005-0000-0000-000029050000}"/>
+    <cellStyle name="Normal 69 8 2" xfId="1315" xr:uid="{00000000-0005-0000-0000-00002A050000}"/>
+    <cellStyle name="Normal 69 9" xfId="1316" xr:uid="{00000000-0005-0000-0000-00002B050000}"/>
+    <cellStyle name="Normal 69 9 2" xfId="1317" xr:uid="{00000000-0005-0000-0000-00002C050000}"/>
+    <cellStyle name="Normal 7" xfId="1318" xr:uid="{00000000-0005-0000-0000-00002D050000}"/>
+    <cellStyle name="Normal 70" xfId="1319" xr:uid="{00000000-0005-0000-0000-00002E050000}"/>
+    <cellStyle name="Normal 70 10" xfId="1320" xr:uid="{00000000-0005-0000-0000-00002F050000}"/>
+    <cellStyle name="Normal 70 10 2" xfId="1321" xr:uid="{00000000-0005-0000-0000-000030050000}"/>
+    <cellStyle name="Normal 70 11" xfId="1322" xr:uid="{00000000-0005-0000-0000-000031050000}"/>
+    <cellStyle name="Normal 70 11 2" xfId="1323" xr:uid="{00000000-0005-0000-0000-000032050000}"/>
+    <cellStyle name="Normal 70 12" xfId="1324" xr:uid="{00000000-0005-0000-0000-000033050000}"/>
+    <cellStyle name="Normal 70 12 2" xfId="1325" xr:uid="{00000000-0005-0000-0000-000034050000}"/>
+    <cellStyle name="Normal 70 13" xfId="1326" xr:uid="{00000000-0005-0000-0000-000035050000}"/>
+    <cellStyle name="Normal 70 13 2" xfId="1327" xr:uid="{00000000-0005-0000-0000-000036050000}"/>
+    <cellStyle name="Normal 70 14" xfId="1328" xr:uid="{00000000-0005-0000-0000-000037050000}"/>
+    <cellStyle name="Normal 70 14 2" xfId="1329" xr:uid="{00000000-0005-0000-0000-000038050000}"/>
+    <cellStyle name="Normal 70 15" xfId="1330" xr:uid="{00000000-0005-0000-0000-000039050000}"/>
+    <cellStyle name="Normal 70 15 2" xfId="1331" xr:uid="{00000000-0005-0000-0000-00003A050000}"/>
+    <cellStyle name="Normal 70 16" xfId="1332" xr:uid="{00000000-0005-0000-0000-00003B050000}"/>
+    <cellStyle name="Normal 70 16 2" xfId="1333" xr:uid="{00000000-0005-0000-0000-00003C050000}"/>
+    <cellStyle name="Normal 70 17" xfId="1334" xr:uid="{00000000-0005-0000-0000-00003D050000}"/>
+    <cellStyle name="Normal 70 17 2" xfId="1335" xr:uid="{00000000-0005-0000-0000-00003E050000}"/>
+    <cellStyle name="Normal 70 18" xfId="1336" xr:uid="{00000000-0005-0000-0000-00003F050000}"/>
+    <cellStyle name="Normal 70 18 2" xfId="1337" xr:uid="{00000000-0005-0000-0000-000040050000}"/>
+    <cellStyle name="Normal 70 19" xfId="1338" xr:uid="{00000000-0005-0000-0000-000041050000}"/>
+    <cellStyle name="Normal 70 19 2" xfId="1339" xr:uid="{00000000-0005-0000-0000-000042050000}"/>
+    <cellStyle name="Normal 70 2" xfId="1340" xr:uid="{00000000-0005-0000-0000-000043050000}"/>
+    <cellStyle name="Normal 70 2 2" xfId="1341" xr:uid="{00000000-0005-0000-0000-000044050000}"/>
+    <cellStyle name="Normal 70 20" xfId="1342" xr:uid="{00000000-0005-0000-0000-000045050000}"/>
+    <cellStyle name="Normal 70 20 2" xfId="1343" xr:uid="{00000000-0005-0000-0000-000046050000}"/>
+    <cellStyle name="Normal 70 21" xfId="1344" xr:uid="{00000000-0005-0000-0000-000047050000}"/>
+    <cellStyle name="Normal 70 21 2" xfId="1345" xr:uid="{00000000-0005-0000-0000-000048050000}"/>
+    <cellStyle name="Normal 70 22" xfId="1346" xr:uid="{00000000-0005-0000-0000-000049050000}"/>
+    <cellStyle name="Normal 70 22 2" xfId="1347" xr:uid="{00000000-0005-0000-0000-00004A050000}"/>
+    <cellStyle name="Normal 70 23" xfId="1348" xr:uid="{00000000-0005-0000-0000-00004B050000}"/>
+    <cellStyle name="Normal 70 3" xfId="1349" xr:uid="{00000000-0005-0000-0000-00004C050000}"/>
+    <cellStyle name="Normal 70 3 2" xfId="1350" xr:uid="{00000000-0005-0000-0000-00004D050000}"/>
+    <cellStyle name="Normal 70 4" xfId="1351" xr:uid="{00000000-0005-0000-0000-00004E050000}"/>
+    <cellStyle name="Normal 70 4 2" xfId="1352" xr:uid="{00000000-0005-0000-0000-00004F050000}"/>
+    <cellStyle name="Normal 70 5" xfId="1353" xr:uid="{00000000-0005-0000-0000-000050050000}"/>
+    <cellStyle name="Normal 70 5 2" xfId="1354" xr:uid="{00000000-0005-0000-0000-000051050000}"/>
+    <cellStyle name="Normal 70 6" xfId="1355" xr:uid="{00000000-0005-0000-0000-000052050000}"/>
+    <cellStyle name="Normal 70 6 2" xfId="1356" xr:uid="{00000000-0005-0000-0000-000053050000}"/>
+    <cellStyle name="Normal 70 7" xfId="1357" xr:uid="{00000000-0005-0000-0000-000054050000}"/>
+    <cellStyle name="Normal 70 7 2" xfId="1358" xr:uid="{00000000-0005-0000-0000-000055050000}"/>
+    <cellStyle name="Normal 70 8" xfId="1359" xr:uid="{00000000-0005-0000-0000-000056050000}"/>
+    <cellStyle name="Normal 70 8 2" xfId="1360" xr:uid="{00000000-0005-0000-0000-000057050000}"/>
+    <cellStyle name="Normal 70 9" xfId="1361" xr:uid="{00000000-0005-0000-0000-000058050000}"/>
+    <cellStyle name="Normal 70 9 2" xfId="1362" xr:uid="{00000000-0005-0000-0000-000059050000}"/>
+    <cellStyle name="Normal 71" xfId="1363" xr:uid="{00000000-0005-0000-0000-00005A050000}"/>
+    <cellStyle name="Normal 71 2" xfId="1364" xr:uid="{00000000-0005-0000-0000-00005B050000}"/>
+    <cellStyle name="Normal 72" xfId="1365" xr:uid="{00000000-0005-0000-0000-00005C050000}"/>
+    <cellStyle name="Normal 72 2" xfId="1366" xr:uid="{00000000-0005-0000-0000-00005D050000}"/>
+    <cellStyle name="Normal 73" xfId="1367" xr:uid="{00000000-0005-0000-0000-00005E050000}"/>
+    <cellStyle name="Normal 73 10" xfId="1368" xr:uid="{00000000-0005-0000-0000-00005F050000}"/>
+    <cellStyle name="Normal 73 11" xfId="1369" xr:uid="{00000000-0005-0000-0000-000060050000}"/>
+    <cellStyle name="Normal 73 12" xfId="1370" xr:uid="{00000000-0005-0000-0000-000061050000}"/>
+    <cellStyle name="Normal 73 13" xfId="1371" xr:uid="{00000000-0005-0000-0000-000062050000}"/>
+    <cellStyle name="Normal 73 14" xfId="1372" xr:uid="{00000000-0005-0000-0000-000063050000}"/>
+    <cellStyle name="Normal 73 15" xfId="1373" xr:uid="{00000000-0005-0000-0000-000064050000}"/>
+    <cellStyle name="Normal 73 16" xfId="1374" xr:uid="{00000000-0005-0000-0000-000065050000}"/>
+    <cellStyle name="Normal 73 17" xfId="1375" xr:uid="{00000000-0005-0000-0000-000066050000}"/>
+    <cellStyle name="Normal 73 18" xfId="1376" xr:uid="{00000000-0005-0000-0000-000067050000}"/>
+    <cellStyle name="Normal 73 19" xfId="1377" xr:uid="{00000000-0005-0000-0000-000068050000}"/>
+    <cellStyle name="Normal 73 2" xfId="1378" xr:uid="{00000000-0005-0000-0000-000069050000}"/>
+    <cellStyle name="Normal 73 20" xfId="1379" xr:uid="{00000000-0005-0000-0000-00006A050000}"/>
+    <cellStyle name="Normal 73 21" xfId="1380" xr:uid="{00000000-0005-0000-0000-00006B050000}"/>
+    <cellStyle name="Normal 73 22" xfId="1381" xr:uid="{00000000-0005-0000-0000-00006C050000}"/>
+    <cellStyle name="Normal 73 23" xfId="1382" xr:uid="{00000000-0005-0000-0000-00006D050000}"/>
+    <cellStyle name="Normal 73 3" xfId="1383" xr:uid="{00000000-0005-0000-0000-00006E050000}"/>
+    <cellStyle name="Normal 73 4" xfId="1384" xr:uid="{00000000-0005-0000-0000-00006F050000}"/>
+    <cellStyle name="Normal 73 5" xfId="1385" xr:uid="{00000000-0005-0000-0000-000070050000}"/>
+    <cellStyle name="Normal 73 6" xfId="1386" xr:uid="{00000000-0005-0000-0000-000071050000}"/>
+    <cellStyle name="Normal 73 7" xfId="1387" xr:uid="{00000000-0005-0000-0000-000072050000}"/>
+    <cellStyle name="Normal 73 8" xfId="1388" xr:uid="{00000000-0005-0000-0000-000073050000}"/>
+    <cellStyle name="Normal 73 9" xfId="1389" xr:uid="{00000000-0005-0000-0000-000074050000}"/>
+    <cellStyle name="Normal 74" xfId="1390" xr:uid="{00000000-0005-0000-0000-000075050000}"/>
+    <cellStyle name="Normal 74 2" xfId="1391" xr:uid="{00000000-0005-0000-0000-000076050000}"/>
+    <cellStyle name="Normal 75" xfId="1392" xr:uid="{00000000-0005-0000-0000-000077050000}"/>
+    <cellStyle name="Normal 75 2" xfId="1393" xr:uid="{00000000-0005-0000-0000-000078050000}"/>
+    <cellStyle name="Normal 76" xfId="1394" xr:uid="{00000000-0005-0000-0000-000079050000}"/>
+    <cellStyle name="Normal 76 2" xfId="1395" xr:uid="{00000000-0005-0000-0000-00007A050000}"/>
+    <cellStyle name="Normal 77" xfId="1396" xr:uid="{00000000-0005-0000-0000-00007B050000}"/>
+    <cellStyle name="Normal 77 2" xfId="1397" xr:uid="{00000000-0005-0000-0000-00007C050000}"/>
+    <cellStyle name="Normal 78" xfId="1398" xr:uid="{00000000-0005-0000-0000-00007D050000}"/>
+    <cellStyle name="Normal 78 2" xfId="1399" xr:uid="{00000000-0005-0000-0000-00007E050000}"/>
+    <cellStyle name="Normal 79" xfId="1400" xr:uid="{00000000-0005-0000-0000-00007F050000}"/>
+    <cellStyle name="Normal 79 2" xfId="1401" xr:uid="{00000000-0005-0000-0000-000080050000}"/>
+    <cellStyle name="Normal 8" xfId="1402" xr:uid="{00000000-0005-0000-0000-000081050000}"/>
+    <cellStyle name="Normal 80" xfId="1403" xr:uid="{00000000-0005-0000-0000-000082050000}"/>
+    <cellStyle name="Normal 80 2" xfId="1404" xr:uid="{00000000-0005-0000-0000-000083050000}"/>
+    <cellStyle name="Normal 81" xfId="1405" xr:uid="{00000000-0005-0000-0000-000084050000}"/>
+    <cellStyle name="Normal 81 2" xfId="1406" xr:uid="{00000000-0005-0000-0000-000085050000}"/>
+    <cellStyle name="Normal 82" xfId="1407" xr:uid="{00000000-0005-0000-0000-000086050000}"/>
+    <cellStyle name="Normal 82 2" xfId="1408" xr:uid="{00000000-0005-0000-0000-000087050000}"/>
+    <cellStyle name="Normal 83" xfId="1409" xr:uid="{00000000-0005-0000-0000-000088050000}"/>
+    <cellStyle name="Normal 83 2" xfId="1410" xr:uid="{00000000-0005-0000-0000-000089050000}"/>
+    <cellStyle name="Normal 84" xfId="1411" xr:uid="{00000000-0005-0000-0000-00008A050000}"/>
+    <cellStyle name="Normal 84 2" xfId="1412" xr:uid="{00000000-0005-0000-0000-00008B050000}"/>
+    <cellStyle name="Normal 85" xfId="1413" xr:uid="{00000000-0005-0000-0000-00008C050000}"/>
+    <cellStyle name="Normal 85 2" xfId="1414" xr:uid="{00000000-0005-0000-0000-00008D050000}"/>
+    <cellStyle name="Normal 86" xfId="1415" xr:uid="{00000000-0005-0000-0000-00008E050000}"/>
+    <cellStyle name="Normal 86 2" xfId="1416" xr:uid="{00000000-0005-0000-0000-00008F050000}"/>
+    <cellStyle name="Normal 87" xfId="1417" xr:uid="{00000000-0005-0000-0000-000090050000}"/>
+    <cellStyle name="Normal 87 2" xfId="1418" xr:uid="{00000000-0005-0000-0000-000091050000}"/>
+    <cellStyle name="Normal 88" xfId="1419" xr:uid="{00000000-0005-0000-0000-000092050000}"/>
+    <cellStyle name="Normal 88 2" xfId="1420" xr:uid="{00000000-0005-0000-0000-000093050000}"/>
+    <cellStyle name="Normal 89" xfId="1421" xr:uid="{00000000-0005-0000-0000-000094050000}"/>
+    <cellStyle name="Normal 89 2" xfId="1422" xr:uid="{00000000-0005-0000-0000-000095050000}"/>
+    <cellStyle name="Normal 9" xfId="1423" xr:uid="{00000000-0005-0000-0000-000096050000}"/>
+    <cellStyle name="Normal 90" xfId="1424" xr:uid="{00000000-0005-0000-0000-000097050000}"/>
+    <cellStyle name="Normal 90 2" xfId="1425" xr:uid="{00000000-0005-0000-0000-000098050000}"/>
+    <cellStyle name="Normal 91" xfId="1426" xr:uid="{00000000-0005-0000-0000-000099050000}"/>
+    <cellStyle name="Normal 91 2" xfId="1427" xr:uid="{00000000-0005-0000-0000-00009A050000}"/>
+    <cellStyle name="Normal 92" xfId="1428" xr:uid="{00000000-0005-0000-0000-00009B050000}"/>
+    <cellStyle name="Normal 92 2" xfId="1429" xr:uid="{00000000-0005-0000-0000-00009C050000}"/>
+    <cellStyle name="Normal 93" xfId="1430" xr:uid="{00000000-0005-0000-0000-00009D050000}"/>
+    <cellStyle name="Normal 93 2" xfId="1431" xr:uid="{00000000-0005-0000-0000-00009E050000}"/>
+    <cellStyle name="Normal 94" xfId="1432" xr:uid="{00000000-0005-0000-0000-00009F050000}"/>
+    <cellStyle name="Normal 94 2" xfId="1433" xr:uid="{00000000-0005-0000-0000-0000A0050000}"/>
+    <cellStyle name="Normal 95" xfId="1434" xr:uid="{00000000-0005-0000-0000-0000A1050000}"/>
+    <cellStyle name="Normal 96" xfId="1435" xr:uid="{00000000-0005-0000-0000-0000A2050000}"/>
+    <cellStyle name="Normal 97" xfId="1436" xr:uid="{00000000-0005-0000-0000-0000A3050000}"/>
+    <cellStyle name="Normal 97 2" xfId="1437" xr:uid="{00000000-0005-0000-0000-0000A4050000}"/>
+    <cellStyle name="Normal 98" xfId="1438" xr:uid="{00000000-0005-0000-0000-0000A5050000}"/>
+    <cellStyle name="Normal 98 2" xfId="1439" xr:uid="{00000000-0005-0000-0000-0000A6050000}"/>
+    <cellStyle name="Normal 99" xfId="1440" xr:uid="{00000000-0005-0000-0000-0000A7050000}"/>
+    <cellStyle name="Porcentaje 2" xfId="1441" xr:uid="{00000000-0005-0000-0000-0000A8050000}"/>
+    <cellStyle name="Porcentaje 2 10" xfId="1442" xr:uid="{00000000-0005-0000-0000-0000A9050000}"/>
+    <cellStyle name="Porcentaje 2 10 2" xfId="1443" xr:uid="{00000000-0005-0000-0000-0000AA050000}"/>
+    <cellStyle name="Porcentaje 2 11" xfId="1444" xr:uid="{00000000-0005-0000-0000-0000AB050000}"/>
+    <cellStyle name="Porcentaje 2 11 2" xfId="1445" xr:uid="{00000000-0005-0000-0000-0000AC050000}"/>
+    <cellStyle name="Porcentaje 2 12" xfId="1446" xr:uid="{00000000-0005-0000-0000-0000AD050000}"/>
+    <cellStyle name="Porcentaje 2 12 2" xfId="1447" xr:uid="{00000000-0005-0000-0000-0000AE050000}"/>
+    <cellStyle name="Porcentaje 2 13" xfId="1448" xr:uid="{00000000-0005-0000-0000-0000AF050000}"/>
+    <cellStyle name="Porcentaje 2 13 2" xfId="1449" xr:uid="{00000000-0005-0000-0000-0000B0050000}"/>
+    <cellStyle name="Porcentaje 2 14" xfId="1450" xr:uid="{00000000-0005-0000-0000-0000B1050000}"/>
+    <cellStyle name="Porcentaje 2 14 2" xfId="1451" xr:uid="{00000000-0005-0000-0000-0000B2050000}"/>
+    <cellStyle name="Porcentaje 2 15" xfId="1452" xr:uid="{00000000-0005-0000-0000-0000B3050000}"/>
+    <cellStyle name="Porcentaje 2 15 2" xfId="1453" xr:uid="{00000000-0005-0000-0000-0000B4050000}"/>
+    <cellStyle name="Porcentaje 2 16" xfId="1454" xr:uid="{00000000-0005-0000-0000-0000B5050000}"/>
+    <cellStyle name="Porcentaje 2 16 2" xfId="1455" xr:uid="{00000000-0005-0000-0000-0000B6050000}"/>
+    <cellStyle name="Porcentaje 2 17" xfId="1456" xr:uid="{00000000-0005-0000-0000-0000B7050000}"/>
+    <cellStyle name="Porcentaje 2 17 2" xfId="1457" xr:uid="{00000000-0005-0000-0000-0000B8050000}"/>
+    <cellStyle name="Porcentaje 2 18" xfId="1458" xr:uid="{00000000-0005-0000-0000-0000B9050000}"/>
+    <cellStyle name="Porcentaje 2 18 2" xfId="1459" xr:uid="{00000000-0005-0000-0000-0000BA050000}"/>
+    <cellStyle name="Porcentaje 2 19" xfId="1460" xr:uid="{00000000-0005-0000-0000-0000BB050000}"/>
+    <cellStyle name="Porcentaje 2 19 2" xfId="1461" xr:uid="{00000000-0005-0000-0000-0000BC050000}"/>
+    <cellStyle name="Porcentaje 2 2" xfId="1462" xr:uid="{00000000-0005-0000-0000-0000BD050000}"/>
+    <cellStyle name="Porcentaje 2 2 2" xfId="1463" xr:uid="{00000000-0005-0000-0000-0000BE050000}"/>
+    <cellStyle name="Porcentaje 2 20" xfId="1464" xr:uid="{00000000-0005-0000-0000-0000BF050000}"/>
+    <cellStyle name="Porcentaje 2 20 2" xfId="1465" xr:uid="{00000000-0005-0000-0000-0000C0050000}"/>
+    <cellStyle name="Porcentaje 2 21" xfId="1466" xr:uid="{00000000-0005-0000-0000-0000C1050000}"/>
+    <cellStyle name="Porcentaje 2 21 2" xfId="1467" xr:uid="{00000000-0005-0000-0000-0000C2050000}"/>
+    <cellStyle name="Porcentaje 2 22" xfId="1468" xr:uid="{00000000-0005-0000-0000-0000C3050000}"/>
+    <cellStyle name="Porcentaje 2 22 2" xfId="1469" xr:uid="{00000000-0005-0000-0000-0000C4050000}"/>
+    <cellStyle name="Porcentaje 2 23" xfId="1470" xr:uid="{00000000-0005-0000-0000-0000C5050000}"/>
+    <cellStyle name="Porcentaje 2 3" xfId="1471" xr:uid="{00000000-0005-0000-0000-0000C6050000}"/>
+    <cellStyle name="Porcentaje 2 3 2" xfId="1472" xr:uid="{00000000-0005-0000-0000-0000C7050000}"/>
+    <cellStyle name="Porcentaje 2 4" xfId="1473" xr:uid="{00000000-0005-0000-0000-0000C8050000}"/>
+    <cellStyle name="Porcentaje 2 4 2" xfId="1474" xr:uid="{00000000-0005-0000-0000-0000C9050000}"/>
+    <cellStyle name="Porcentaje 2 5" xfId="1475" xr:uid="{00000000-0005-0000-0000-0000CA050000}"/>
+    <cellStyle name="Porcentaje 2 5 2" xfId="1476" xr:uid="{00000000-0005-0000-0000-0000CB050000}"/>
+    <cellStyle name="Porcentaje 2 6" xfId="1477" xr:uid="{00000000-0005-0000-0000-0000CC050000}"/>
+    <cellStyle name="Porcentaje 2 6 2" xfId="1478" xr:uid="{00000000-0005-0000-0000-0000CD050000}"/>
+    <cellStyle name="Porcentaje 2 7" xfId="1479" xr:uid="{00000000-0005-0000-0000-0000CE050000}"/>
+    <cellStyle name="Porcentaje 2 7 2" xfId="1480" xr:uid="{00000000-0005-0000-0000-0000CF050000}"/>
+    <cellStyle name="Porcentaje 2 8" xfId="1481" xr:uid="{00000000-0005-0000-0000-0000D0050000}"/>
+    <cellStyle name="Porcentaje 2 8 2" xfId="1482" xr:uid="{00000000-0005-0000-0000-0000D1050000}"/>
+    <cellStyle name="Porcentaje 2 9" xfId="1483" xr:uid="{00000000-0005-0000-0000-0000D2050000}"/>
+    <cellStyle name="Porcentaje 2 9 2" xfId="1484" xr:uid="{00000000-0005-0000-0000-0000D3050000}"/>
+    <cellStyle name="Porcentual 2" xfId="1485" xr:uid="{00000000-0005-0000-0000-0000D4050000}"/>
+    <cellStyle name="Porcentual 3" xfId="1486" xr:uid="{00000000-0005-0000-0000-0000D5050000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5201,7 +5215,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FOR"/>
@@ -5234,7 +5248,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FOR"/>
@@ -5275,7 +5289,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IETU"/>
@@ -5626,9 +5640,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5666,9 +5680,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5703,7 +5717,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5738,7 +5752,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5911,7 +5925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:DV7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6198,7 +6212,7 @@
         <v>61</v>
       </c>
       <c r="AR4" s="31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AS4" s="31" t="s">
         <v>62</v>
@@ -6249,7 +6263,7 @@
         <v>13</v>
       </c>
       <c r="BI4" s="31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BJ4" s="31" t="s">
         <v>74</v>
@@ -6282,7 +6296,7 @@
         <v>80</v>
       </c>
       <c r="BT4" s="63" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BU4" s="31" t="s">
         <v>81</v>
@@ -6291,16 +6305,16 @@
         <v>82</v>
       </c>
       <c r="BW4" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="BX4" s="31" t="s">
         <v>411</v>
-      </c>
-      <c r="BX4" s="31" t="s">
-        <v>412</v>
       </c>
       <c r="BY4" s="40" t="s">
         <v>83</v>
       </c>
       <c r="BZ4" s="31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="CA4" s="31" t="s">
         <v>91</v>
@@ -6309,22 +6323,22 @@
         <v>92</v>
       </c>
       <c r="CC4" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="CD4" s="31" t="s">
         <v>414</v>
       </c>
-      <c r="CD4" s="31" t="s">
-        <v>415</v>
-      </c>
       <c r="CE4" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="CF4" s="31" t="s">
         <v>408</v>
-      </c>
-      <c r="CF4" s="31" t="s">
-        <v>409</v>
       </c>
       <c r="CG4" s="41" t="s">
         <v>93</v>
       </c>
       <c r="CH4" s="31" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="CI4" s="31" t="s">
         <v>84</v>
@@ -6345,28 +6359,28 @@
         <v>89</v>
       </c>
       <c r="CO4" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="CP4" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="CQ4" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="CR4" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="CS4" s="40" t="s">
+        <v>404</v>
+      </c>
+      <c r="CT4" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="CU4" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="CV4" s="40" t="s">
         <v>416</v>
-      </c>
-      <c r="CP4" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="CQ4" s="40" t="s">
-        <v>401</v>
-      </c>
-      <c r="CR4" s="40" t="s">
-        <v>404</v>
-      </c>
-      <c r="CS4" s="40" t="s">
-        <v>405</v>
-      </c>
-      <c r="CT4" s="40" t="s">
-        <v>403</v>
-      </c>
-      <c r="CU4" s="40" t="s">
-        <v>402</v>
-      </c>
-      <c r="CV4" s="40" t="s">
-        <v>417</v>
       </c>
       <c r="CW4"/>
     </row>
@@ -6678,7 +6692,7 @@
     </row>
     <row r="7" spans="1:126" x14ac:dyDescent="0.2">
       <c r="B7" s="60" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -6688,11 +6702,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja4"/>
   <dimension ref="B3:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <selection activeCell="K11" sqref="K11:K12"/>
     </sheetView>
   </sheetViews>
@@ -6727,7 +6741,7 @@
     </row>
     <row r="5" spans="2:15" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>8</v>
@@ -6745,7 +6759,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>6</v>
@@ -6754,10 +6768,10 @@
         <v>4</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>89</v>
@@ -7444,19 +7458,19 @@
       <c r="L56" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:M5"/>
+  <autoFilter ref="B5:M5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A2:H58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7506,7 +7520,7 @@
         <v>empresa</v>
       </c>
       <c r="F4" s="103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G4" s="104"/>
       <c r="H4" s="44">
@@ -7515,14 +7529,14 @@
     </row>
     <row r="5" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="47" t="s">
-        <v>97</v>
+        <v>465</v>
       </c>
       <c r="C5" s="48">
         <f>+H4+H5+H6+H7</f>
         <v>0</v>
       </c>
       <c r="F5" s="103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G5" s="104"/>
       <c r="H5" s="44">
@@ -7531,14 +7545,14 @@
     </row>
     <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="50">
         <f>+C5</f>
         <v>0</v>
       </c>
       <c r="F6" s="105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G6" s="105"/>
       <c r="H6" s="44">
@@ -7555,7 +7569,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G7" s="53">
         <v>0.06</v>
@@ -7574,11 +7588,11 @@
         <v>0</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G8" s="97"/>
       <c r="H8" s="56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -7623,7 +7637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:X98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7642,7 +7656,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="G2" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H2" s="42"/>
       <c r="I2" s="42"/>
@@ -7660,22 +7674,22 @@
     </row>
     <row r="4" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" t="s">
         <v>197</v>
       </c>
-      <c r="C4" t="s">
-        <v>198</v>
-      </c>
       <c r="D4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" t="s">
         <v>229</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>230</v>
       </c>
-      <c r="F4" t="s">
-        <v>231</v>
-      </c>
       <c r="G4" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H4" s="42"/>
       <c r="I4" s="42"/>
@@ -7684,16 +7698,16 @@
     </row>
     <row r="5" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H5" s="42"/>
       <c r="I5" s="42"/>
@@ -7702,19 +7716,19 @@
     </row>
     <row r="6" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G6" s="42" t="s">
         <v>2</v>
@@ -7726,16 +7740,16 @@
     </row>
     <row r="7" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H7" s="42"/>
       <c r="I7" s="42"/>
@@ -7744,16 +7758,16 @@
     </row>
     <row r="8" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H8" s="42"/>
       <c r="I8" s="42"/>
@@ -7762,19 +7776,19 @@
     </row>
     <row r="9" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G9" s="42" t="s">
         <v>16</v>
@@ -7786,22 +7800,22 @@
     </row>
     <row r="10" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
@@ -7810,22 +7824,22 @@
     </row>
     <row r="11" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
@@ -7834,16 +7848,16 @@
     </row>
     <row r="12" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
@@ -7852,19 +7866,19 @@
     </row>
     <row r="13" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G13" s="42" t="s">
         <v>11</v>
@@ -7876,19 +7890,19 @@
     </row>
     <row r="14" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>13</v>
@@ -7900,19 +7914,19 @@
     </row>
     <row r="15" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G15" s="42" t="s">
         <v>12</v>
@@ -7924,22 +7938,22 @@
     </row>
     <row r="16" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
@@ -7948,2490 +7962,2490 @@
     </row>
     <row r="17" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E17" s="59"/>
       <c r="G17" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
       <c r="K17" s="42"/>
       <c r="M17" s="60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
       <c r="M18" t="s">
+        <v>107</v>
+      </c>
+      <c r="N18" t="s">
         <v>108</v>
       </c>
-      <c r="N18" t="s">
-        <v>109</v>
-      </c>
       <c r="O18" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P18" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q18" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P18" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q18" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E19" s="59" t="str">
         <f>+P18</f>
         <v xml:space="preserve">fTExtra2V  </v>
       </c>
       <c r="F19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O19" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P19" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q19" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P19" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q19" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E20" s="59" t="str">
         <f t="shared" ref="E20:E60" si="0">+P19</f>
         <v xml:space="preserve">fTExtra3V  </v>
       </c>
       <c r="F20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O20" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P20" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q20" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P20" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q20" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E21" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescansoLV  </v>
       </c>
       <c r="F21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O21" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P21" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q21" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P21" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q21" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E22" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDiaFestivoLV  </v>
       </c>
       <c r="F22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O22" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P22" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q22" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P22" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q22" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E23" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fHoras_extras_dobles_V  </v>
       </c>
       <c r="F23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O23" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P23" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q23" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P23" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q23" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E24" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fHoras_extras_triples_V  </v>
       </c>
       <c r="F24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O24" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P24" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q24" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P24" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q24" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E25" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescanso_Laborado_V  </v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O25" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P25" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q25" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P25" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q25" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E26" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDia_Festivo_laborado_V  </v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O26" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P26" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q26" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P26" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q26" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E27" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrima_Dominical_V  </v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O27" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P27" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q27" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P27" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q27" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E28" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fFalta_Injustificada_V </v>
       </c>
       <c r="F28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O28" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P28" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q28" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P28" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q28" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E29" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPermiso_Sin_GS_V  </v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O29" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P29" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q29" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P29" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q29" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E30" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fT_No_laborado_V  </v>
       </c>
       <c r="F30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O30" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P30" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q30" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P30" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q30" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E31" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioBase  </v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O31" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P31" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q31" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P31" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q31" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E32" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioDiario </v>
       </c>
       <c r="F32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O32" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P32" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q32" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P32" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q32" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E33" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioBC  </v>
       </c>
       <c r="F33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O33" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P33" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q33" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P33" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q33" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E34" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">iDiasTrabajados  </v>
       </c>
       <c r="F34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P34" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q34" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P34" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q34" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C35" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E35" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSueldoBruto </v>
       </c>
       <c r="F35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P35" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q35" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P35" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q35" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E36" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSeptimoDia </v>
       </c>
       <c r="F36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P36" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q36" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P36" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q36" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E37" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaDomGravada </v>
       </c>
       <c r="F37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O37" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P37" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q37" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P37" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q37" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C38" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E38" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaDomExenta </v>
       </c>
       <c r="F38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O38" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P38" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q38" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P38" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q38" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C39" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E39" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra2Gravado </v>
       </c>
       <c r="F39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O39" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P39" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q39" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P39" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q39" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E40" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra2Exento </v>
       </c>
       <c r="F40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O40" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P40" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q40" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P40" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q40" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C41" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E41" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra3 </v>
       </c>
       <c r="F41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O41" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P41" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q41" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P41" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q41" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E42" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescansoL </v>
       </c>
       <c r="F42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O42" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P42" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q42" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P42" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q42" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E43" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDiaFestivoL </v>
       </c>
       <c r="F43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O43" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P43" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q43" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P43" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q43" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C44" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E44" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoAsistencia </v>
       </c>
       <c r="F44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O44" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P44" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q44" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P44" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q44" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E45" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoProductividad </v>
       </c>
       <c r="F45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O45" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P45" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q45" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P45" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q45" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C46" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E46" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoPolivalencia </v>
       </c>
       <c r="F46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O46" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P46" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q46" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P46" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q46" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C47" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E47" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoEspecialidad </v>
       </c>
       <c r="F47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O47" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P47" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q47" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P47" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q47" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C48" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E48" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoCalidad </v>
       </c>
       <c r="F48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O48" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P48" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q48" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P48" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q48" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C49" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D49" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E49" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fCompensacion </v>
       </c>
       <c r="F49" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O49" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P49" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q49" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P49" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q49" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C50" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D50" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E50" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSemanaFondo </v>
       </c>
       <c r="F50" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O50" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P50" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q50" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P50" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q50" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C51" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E51" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fFaltaInjustificada </v>
       </c>
       <c r="F51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O51" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P51" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q51" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P51" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q51" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E52" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPermisoSinGS </v>
       </c>
       <c r="F52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O52" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P52" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q52" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P52" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q52" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C53" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E53" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fIncrementoRetenido </v>
       </c>
       <c r="F53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O53" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P53" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q53" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P53" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q53" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D54" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E54" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fVacacionesProporcionales </v>
       </c>
       <c r="F54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O54" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P54" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q54" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P54" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q54" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C55" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E55" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fAguinaldoGravado </v>
       </c>
       <c r="F55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O55" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P55" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q55" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P55" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q55" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C56" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D56" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E56" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fAguinaldoExento </v>
       </c>
       <c r="F56" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O56" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P56" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q56" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P56" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q56" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C57" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E57" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaVacacionalGravado </v>
       </c>
       <c r="F57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O57" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P57" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q57" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P57" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q57" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C58" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D58" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E58" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaVacacionalExento </v>
       </c>
       <c r="F58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O58" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P58" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q58" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P58" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q58" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C59" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D59" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E59" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTotalPercepciones </v>
       </c>
       <c r="F59" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O59" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P59" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q59" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P59" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q59" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C60" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D60" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E60" s="59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTotalPercepcionesISR </v>
       </c>
       <c r="F60" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O60" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P60" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q60" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P60" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q60" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C61" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D61" s="60" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E61" s="59"/>
       <c r="M61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O61" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P61" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q61" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P61" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q61" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C62" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E62" s="59" t="str">
         <f t="shared" ref="E62:E74" si="1">+P60</f>
         <v xml:space="preserve">fIncapacidad </v>
       </c>
       <c r="F62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M62" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O62" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P62" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q62" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P62" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q62" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C63" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D63" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E63" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fIsr </v>
       </c>
       <c r="F63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O63" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P63" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q63" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P63" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q63" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D64" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E64" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fImss </v>
       </c>
       <c r="F64" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M64" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O64" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P64" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q64" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P64" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q64" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C65" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D65" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E65" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fInfonavit </v>
       </c>
       <c r="F65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M65" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O65" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P65" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q65" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P65" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q65" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C66" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D66" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E66" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fInfonavitBanterior </v>
       </c>
       <c r="F66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O66" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P66" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q66" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P66" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q66" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C67" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D67" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E67" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fAjusteInfonavit </v>
       </c>
       <c r="F67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O67" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P67" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q67" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P67" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q67" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C68" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D68" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E68" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fPensionAlimenticia </v>
       </c>
       <c r="F68" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N68" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O68" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P68" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q68" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P68" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q68" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C69" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E69" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fPrestamo </v>
       </c>
       <c r="F69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O69" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P69" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q69" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P69" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q69" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C70" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D70" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E70" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fFonacot </v>
       </c>
       <c r="F70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O70" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P70" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q70" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P70" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q70" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C71" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D71" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E71" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fT_No_laborado </v>
       </c>
       <c r="F71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O71" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P71" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q71" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P71" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q71" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C72" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D72" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E72" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fCuotaSindical </v>
       </c>
       <c r="F72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O72" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P72" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q72" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P72" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q72" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C73" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E73" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fSubsidioGenerado </v>
       </c>
       <c r="F73" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O73" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P73" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q73" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P73" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q73" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C74" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D74" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E74" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fSubsidioAplicado </v>
       </c>
       <c r="F74" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O74" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P74" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q74" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P74" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q74" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C75" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D75" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E75" s="59"/>
       <c r="M75" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N75" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O75" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P75" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q75" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P75" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q75" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B76" s="60" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C76" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D76" s="60" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E76" s="59"/>
       <c r="M76" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O76" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P76" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q76" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P76" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q76" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C77" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E77" s="59" t="str">
         <f t="shared" ref="E77:E85" si="2">+P74</f>
         <v xml:space="preserve">fPrestamoPerA </v>
       </c>
       <c r="F77" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O77" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P77" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q77" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P77" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q77" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C78" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D78" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E78" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fAdeudoInfonavitA </v>
       </c>
       <c r="F78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M78" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N78" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O78" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P78" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q78" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P78" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q78" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C79" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D79" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E79" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fDiferenciaInfonavitA </v>
       </c>
       <c r="F79" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O79" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P79" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q79" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P79" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q79" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C80" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D80" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E80" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fAsimilados </v>
       </c>
       <c r="F80" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M80" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O80" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P80" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q80" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P80" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q80" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="81" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C81" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E81" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fRetencionOperadora </v>
       </c>
       <c r="F81" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O81" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P81" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q81" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P81" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q81" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="82" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C82" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D82" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E82" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fPorComision </v>
       </c>
       <c r="F82" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N82" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O82" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P82" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q82" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P82" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q82" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="83" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C83" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D83" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E83" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fComisionOperadora </v>
       </c>
       <c r="F83" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N83" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O83" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P83" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q83" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P83" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q83" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="84" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C84" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E84" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fComisionAsimilados </v>
       </c>
       <c r="F84" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M84" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N84" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O84" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P84" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q84" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P84" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q84" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="85" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C85" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D85" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E85" s="59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fImssCS </v>
       </c>
       <c r="F85" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O85" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P85" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q85" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P85" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q85" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="86" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C86" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D86" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E86" s="59" t="str">
         <f t="shared" ref="E86:E88" si="3">+P83</f>
         <v xml:space="preserve">fRcvCS </v>
       </c>
       <c r="F86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M86" t="s">
+        <v>176</v>
+      </c>
+      <c r="N86" t="s">
+        <v>108</v>
+      </c>
+      <c r="O86" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P86" t="s">
         <v>177</v>
       </c>
-      <c r="N86" t="s">
-        <v>109</v>
-      </c>
-      <c r="O86" s="60" t="s">
+      <c r="Q86" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="P86" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q86" s="60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="87" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C87" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E87" s="59" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">fInfonavitCS </v>
       </c>
       <c r="F87" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M87" t="s">
+        <v>178</v>
+      </c>
+      <c r="N87" t="s">
         <v>179</v>
       </c>
-      <c r="N87" t="s">
+      <c r="O87" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P87" t="s">
         <v>180</v>
-      </c>
-      <c r="O87" s="60" t="s">
-        <v>376</v>
-      </c>
-      <c r="P87" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="88" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C88" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D88" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E88" s="59" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">fInsCS </v>
       </c>
       <c r="F88" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M88" t="s">
+        <v>184</v>
+      </c>
+      <c r="N88" t="s">
         <v>185</v>
       </c>
-      <c r="N88" t="s">
+      <c r="O88" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="P88" t="s">
         <v>186</v>
       </c>
-      <c r="O88" s="60" t="s">
-        <v>376</v>
-      </c>
-      <c r="P88" t="s">
-        <v>187</v>
-      </c>
       <c r="R88" t="s">
+        <v>181</v>
+      </c>
+      <c r="S88" t="s">
         <v>182</v>
       </c>
-      <c r="S88" t="s">
+      <c r="T88" t="s">
         <v>183</v>
-      </c>
-      <c r="T88" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="89" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C89" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F89" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M89" t="s">
+        <v>193</v>
+      </c>
+      <c r="N89" t="s">
         <v>194</v>
       </c>
-      <c r="N89" t="s">
-        <v>195</v>
-      </c>
       <c r="O89" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P89" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R89" t="s">
+        <v>187</v>
+      </c>
+      <c r="S89" t="s">
         <v>188</v>
       </c>
-      <c r="S89" t="s">
+      <c r="T89" t="s">
         <v>189</v>
       </c>
-      <c r="T89" t="s">
+      <c r="U89" t="s">
         <v>190</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>191</v>
       </c>
-      <c r="V89" t="s">
+      <c r="W89" t="s">
+        <v>190</v>
+      </c>
+      <c r="X89" t="s">
         <v>192</v>
-      </c>
-      <c r="W89" t="s">
-        <v>191</v>
-      </c>
-      <c r="X89" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="90" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C90" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D90" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E90" s="59" t="str">
         <f>+P86</f>
         <v xml:space="preserve">fTotalCostoSocial </v>
       </c>
       <c r="F90" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O90" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R90" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C91" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="92" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C92" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="93" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C93" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="94" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C94" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="95" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C95" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="96" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C96" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C97" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C98" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -10440,7 +10454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -10461,7 +10475,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>28</v>
@@ -10490,13 +10504,13 @@
       <c r="G2" s="51"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:L42"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
@@ -10525,82 +10539,82 @@
       <c r="E2" s="71"/>
       <c r="F2" s="65"/>
       <c r="G2" s="94" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="67" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="67" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B8" s="106" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C8" s="106"/>
       <c r="D8" s="106"/>
       <c r="E8" s="106"/>
       <c r="F8" s="107"/>
       <c r="G8" s="106" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H8" s="106"/>
       <c r="I8" s="106"/>
       <c r="J8" s="106" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K8" s="106"/>
       <c r="L8" s="106"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="79" t="s">
+        <v>447</v>
+      </c>
+      <c r="C9" s="76" t="s">
         <v>448</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="D9" s="76" t="s">
         <v>449</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="E9" s="76" t="s">
         <v>450</v>
       </c>
-      <c r="E9" s="76" t="s">
-        <v>451</v>
-      </c>
       <c r="F9" s="77" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G9" s="79" t="s">
+        <v>447</v>
+      </c>
+      <c r="H9" s="76" t="s">
         <v>448</v>
       </c>
-      <c r="H9" s="76" t="s">
-        <v>449</v>
-      </c>
       <c r="I9" s="77" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J9" s="92" t="s">
+        <v>447</v>
+      </c>
+      <c r="K9" s="76" t="s">
         <v>448</v>
       </c>
-      <c r="K9" s="76" t="s">
-        <v>449</v>
-      </c>
       <c r="L9" s="76" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="80" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C10" s="82">
         <f>+D10+E10</f>
@@ -10615,14 +10629,14 @@
       <c r="H10" s="81"/>
       <c r="I10" s="91"/>
       <c r="J10" s="86" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K10" s="81"/>
       <c r="L10" s="83"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="86" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C11" s="74">
         <f t="shared" ref="C11:C26" si="0">+D11+E11</f>
@@ -10637,14 +10651,14 @@
       <c r="H11" s="73"/>
       <c r="I11" s="78"/>
       <c r="J11" s="86" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K11" s="73"/>
       <c r="L11" s="85"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="86" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C12" s="74">
         <f t="shared" si="0"/>
@@ -10654,19 +10668,19 @@
       <c r="E12" s="74"/>
       <c r="F12" s="89"/>
       <c r="G12" s="84" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H12" s="73"/>
       <c r="I12" s="78"/>
       <c r="J12" s="86" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K12" s="73"/>
       <c r="L12" s="85"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="84" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C13" s="74">
         <f t="shared" si="0"/>
@@ -10676,12 +10690,12 @@
       <c r="E13" s="74"/>
       <c r="F13" s="89"/>
       <c r="G13" s="84" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H13" s="73"/>
       <c r="I13" s="78"/>
       <c r="J13" s="86" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K13" s="73"/>
       <c r="L13" s="85"/>
@@ -10703,14 +10717,14 @@
       <c r="H14" s="73"/>
       <c r="I14" s="78"/>
       <c r="J14" s="86" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K14" s="73"/>
       <c r="L14" s="85"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="84" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C15" s="74">
         <f t="shared" si="0"/>
@@ -10720,7 +10734,7 @@
       <c r="E15" s="74"/>
       <c r="F15" s="89"/>
       <c r="G15" s="84" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H15" s="73"/>
       <c r="I15" s="78"/>
@@ -10732,7 +10746,7 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="84" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C16" s="74">
         <f t="shared" si="0"/>
@@ -10754,7 +10768,7 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="84" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C17" s="74">
         <f t="shared" si="0"/>
@@ -10776,7 +10790,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="84" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C18" s="74">
         <f t="shared" si="0"/>
@@ -10786,7 +10800,7 @@
       <c r="E18" s="74"/>
       <c r="F18" s="89"/>
       <c r="G18" s="84" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H18" s="73"/>
       <c r="I18" s="78"/>
@@ -10798,7 +10812,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="84" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C19" s="74">
         <f t="shared" si="0"/>
@@ -10813,14 +10827,14 @@
       <c r="H19" s="73"/>
       <c r="I19" s="78"/>
       <c r="J19" s="84" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K19" s="73"/>
       <c r="L19" s="85"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="84" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C20" s="74">
         <f t="shared" si="0"/>
@@ -10830,7 +10844,7 @@
       <c r="E20" s="74"/>
       <c r="F20" s="89"/>
       <c r="G20" s="84" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H20" s="73"/>
       <c r="I20" s="78"/>
@@ -10842,7 +10856,7 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="84" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C21" s="74">
         <f t="shared" si="0"/>
@@ -10860,7 +10874,7 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="84" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C22" s="74">
         <f t="shared" si="0"/>
@@ -10878,7 +10892,7 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="84" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C23" s="74">
         <f t="shared" si="0"/>
@@ -10896,7 +10910,7 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="84" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C24" s="74">
         <f t="shared" si="0"/>
@@ -10914,7 +10928,7 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="84" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C25" s="74">
         <f t="shared" si="0"/>
@@ -10932,7 +10946,7 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="95" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C26" s="87">
         <f t="shared" si="0"/>
@@ -10956,7 +10970,7 @@
     </row>
     <row r="29" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="93" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C29" s="70">
         <f>+SUM(C10:C26)</f>
@@ -10972,7 +10986,7 @@
       </c>
       <c r="F29" s="70"/>
       <c r="G29" s="93" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H29" s="70">
         <f>+SUM(H10:H20)</f>
@@ -10980,7 +10994,7 @@
       </c>
       <c r="I29" s="70"/>
       <c r="J29" s="93" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K29" s="70">
         <f>+SUM(K10:K26)</f>
@@ -10990,7 +11004,7 @@
     </row>
     <row r="36" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B36" s="93" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C36" s="70">
         <f>+C29-H29</f>
@@ -11001,7 +11015,7 @@
     </row>
     <row r="37" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B37" s="93" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C37" s="70">
         <f>+C36</f>
@@ -11012,7 +11026,7 @@
     </row>
     <row r="38" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B38" s="93" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C38" s="70">
         <f>+D29</f>
@@ -11023,7 +11037,7 @@
     </row>
     <row r="39" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B39" s="93" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C39" s="70">
         <f>+H20</f>
@@ -11034,7 +11048,7 @@
     </row>
     <row r="40" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B40" s="93" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C40" s="70">
         <f>FACT!H4</f>
@@ -11045,7 +11059,7 @@
     </row>
     <row r="41" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B41" s="93" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C41" s="70">
         <f>+FACT!H5</f>
@@ -11056,7 +11070,7 @@
     </row>
     <row r="42" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B42" s="96" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C42" s="70">
         <f>+C29-H18+K29+C41</f>
@@ -11075,7 +11089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:E70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11089,968 +11103,968 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E3" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E14" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E18" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E21" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E22" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E23" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E24" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C25" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E25" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E26" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C27" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E27" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E28" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C29" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E29" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C30" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E30" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C31" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E31" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C32" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E32" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C33" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E33" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C34" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E34" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C35" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E35" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C36" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E36" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C37" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E37" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C38" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E38" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C39" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E39" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C40" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D40" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C41" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E41" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C42" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E42" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C43" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E43" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C44" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E44" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C45" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D45" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E45" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C46" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E46" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C47" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E47" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C48" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E48" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C49" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E49" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C50" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E50" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C51" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D51" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E51" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C52" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E52" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C53" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D53" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E53" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C54" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D54" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E54" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C55" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D55" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E55" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C56" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E56" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C57" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E57" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C58" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D58" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E58" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C59" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D59" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E59" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C60" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D60" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E60" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C61" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D61" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E61" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C62" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D62" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E62" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C63" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D63" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E63" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C64" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D64" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E64" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C65" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D65" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E65" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C66" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D66" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E66" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C67" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E67" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C68" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D68" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E68" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C69" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D69" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E69" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C70" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D70" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E70" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
